--- a/longitudinal/data_processing_elements_longitudinal-AGN.xlsx
+++ b/longitudinal/data_processing_elements_longitudinal-AGN.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/849507f40a0f895e/Documents/ProPASS/Studies/AGNES/longitudinal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFFB33E2-B13E-4314-A72E-64AA3E4BC2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19ECFDD-1C41-40AF-876F-87B46AE1752A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="465" windowWidth="29040" windowHeight="15720" xr2:uid="{DE4C7F53-17AD-41A0-BCA9-A2A8E85C7880}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{DE4C7F53-17AD-41A0-BCA9-A2A8E85C7880}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="479">
   <si>
     <t>index</t>
   </si>
@@ -126,9 +126,6 @@
   </si>
   <si>
     <t>response_to_cohort_step2</t>
-  </si>
-  <si>
-    <t>AGN</t>
   </si>
   <si>
     <t>adm_id</t>
@@ -1309,6 +1306,300 @@
   </si>
   <si>
     <t>items</t>
+  </si>
+  <si>
+    <t>adm_f1_date</t>
+  </si>
+  <si>
+    <t>date_interview2</t>
+  </si>
+  <si>
+    <t>Date of interview - wave 2</t>
+  </si>
+  <si>
+    <t>sdc_f1_sex</t>
+  </si>
+  <si>
+    <t>sdc_f1_age</t>
+  </si>
+  <si>
+    <t>Age2</t>
+  </si>
+  <si>
+    <t>Participant age - wave 2</t>
+  </si>
+  <si>
+    <t>sdc_f1_education</t>
+  </si>
+  <si>
+    <t>sdc_f1_employment_status</t>
+  </si>
+  <si>
+    <t>sdc_f1_employment_pattern</t>
+  </si>
+  <si>
+    <t>sdc_f1_work_hours</t>
+  </si>
+  <si>
+    <t>sdc_f1_employment_description</t>
+  </si>
+  <si>
+    <t>sdc_f1_retirement_status</t>
+  </si>
+  <si>
+    <t>sdc_f1_married</t>
+  </si>
+  <si>
+    <t>marital_status2</t>
+  </si>
+  <si>
+    <t>Participant marital status - wave 2</t>
+  </si>
+  <si>
+    <t>sdc_f1_relationship</t>
+  </si>
+  <si>
+    <t>sdc_f1_location</t>
+  </si>
+  <si>
+    <t>pm_f1_height</t>
+  </si>
+  <si>
+    <t>available at wave 1 and 4 but not wave 2</t>
+  </si>
+  <si>
+    <t>pm_f1_height_method</t>
+  </si>
+  <si>
+    <t>pm_f1_weight</t>
+  </si>
+  <si>
+    <t>pm_f1_weight_method</t>
+  </si>
+  <si>
+    <t>pm_f1_bmi</t>
+  </si>
+  <si>
+    <t>pm_f1_waist_circ</t>
+  </si>
+  <si>
+    <t>pm_f1_waist_circ_method</t>
+  </si>
+  <si>
+    <t>pm_f1_bodyfat_perc</t>
+  </si>
+  <si>
+    <t>pm_f1_bodyfat_perc_method</t>
+  </si>
+  <si>
+    <t>pm_f1_systo_bp</t>
+  </si>
+  <si>
+    <t>pm_f1_diasto_bp</t>
+  </si>
+  <si>
+    <t>pm_f1_resting_heart_rate</t>
+  </si>
+  <si>
+    <t>pm_f1_cardiorespiratoy_fitness</t>
+  </si>
+  <si>
+    <t>lab_f1_blood_fasting</t>
+  </si>
+  <si>
+    <t>lab_f1_red_blood_cell_count</t>
+  </si>
+  <si>
+    <t>lab_f1_HbA1c</t>
+  </si>
+  <si>
+    <t>lab_f1_chol_tot</t>
+  </si>
+  <si>
+    <t>lab_f1_chol_hdl</t>
+  </si>
+  <si>
+    <t>lab_f1_chol_ldl</t>
+  </si>
+  <si>
+    <t>lab_f1_chol_ldl_calculated</t>
+  </si>
+  <si>
+    <t>lab_f1_trigly</t>
+  </si>
+  <si>
+    <t>lab_f1_c_reac_pro</t>
+  </si>
+  <si>
+    <t>nut_f1_fruit_quantity</t>
+  </si>
+  <si>
+    <t>nut_f1_fruit_frequency</t>
+  </si>
+  <si>
+    <t>nut_f1_vegetable_quantity</t>
+  </si>
+  <si>
+    <t>nut_f1_vegetable_frequency</t>
+  </si>
+  <si>
+    <t>nut_f1_energy_tot</t>
+  </si>
+  <si>
+    <t>alc_f1_alcohol</t>
+  </si>
+  <si>
+    <t>alc_f1_alcohol_frequency</t>
+  </si>
+  <si>
+    <t>smk_f1_smoking_status</t>
+  </si>
+  <si>
+    <t>smk_f1_smoking_frequency</t>
+  </si>
+  <si>
+    <t>smk_f1_smoking_quantity</t>
+  </si>
+  <si>
+    <t>lsb_f1_rated_health</t>
+  </si>
+  <si>
+    <t>dis_f1_cvd</t>
+  </si>
+  <si>
+    <t>dis_f1_musculoskeletal</t>
+  </si>
+  <si>
+    <t>dis_f1_diabetes</t>
+  </si>
+  <si>
+    <t>dis_f1_diabetes_type</t>
+  </si>
+  <si>
+    <t>dis_f1_cancer</t>
+  </si>
+  <si>
+    <t>dis_f1_hypercholesteromia</t>
+  </si>
+  <si>
+    <t>med_f1_lipid_lowering</t>
+  </si>
+  <si>
+    <t>med_f1_blood_pressure</t>
+  </si>
+  <si>
+    <t>med_f1_diabetes</t>
+  </si>
+  <si>
+    <t>cog_f1_depression</t>
+  </si>
+  <si>
+    <t>cog_f1_dep_cesd20</t>
+  </si>
+  <si>
+    <t>cog_f1_dep_cesd10</t>
+  </si>
+  <si>
+    <t>cog_f1_dep_malaise</t>
+  </si>
+  <si>
+    <t>cog_f1_dep_kessler</t>
+  </si>
+  <si>
+    <t>cog_f1_dep_phq9</t>
+  </si>
+  <si>
+    <t>cog_f1_mci_mmse_score</t>
+  </si>
+  <si>
+    <t>cog_f1_mci_moca_score</t>
+  </si>
+  <si>
+    <t>cog_f1_alzheimers_dementia</t>
+  </si>
+  <si>
+    <t>0 = Has not been diagnosed with Alzheimers or other dementia ; 
+1 = Has been diagnosed with Alzheimers or other dementia</t>
+  </si>
+  <si>
+    <t>sleep_f1_duration</t>
+  </si>
+  <si>
+    <t>sleep_f1_duration_cat</t>
+  </si>
+  <si>
+    <t>sleep_f1_difficulties</t>
+  </si>
+  <si>
+    <t>sed_f1_beh_tv_week_all</t>
+  </si>
+  <si>
+    <t>sed_f1_beh_tv_week_days</t>
+  </si>
+  <si>
+    <t>sed_f1_beh_tv_weekend_days</t>
+  </si>
+  <si>
+    <t>sed_f1_beh_comp_use</t>
+  </si>
+  <si>
+    <t>sed_f1_beh_video_games</t>
+  </si>
+  <si>
+    <t>sed_f1_beh_reading</t>
+  </si>
+  <si>
+    <t>sed_f1_beh_total_sitting</t>
+  </si>
+  <si>
+    <t>sed_f1_beh_total_sitting_cat</t>
+  </si>
+  <si>
+    <t>YPAS_sitting2</t>
+  </si>
+  <si>
+    <t>Yale Physical Activity Survey conducted during home interview at wave 2. Self-reported. 
+Interview item: About how many hours did you spend sitting on an average day during the past month? Response options and scoring: 0= not at all, 1= Less than 1 hr per day, 2= 1 to less than 3 hrs per day, 3= 3 to less than 5 hrs per day, 4= 5 to less than 5 hrs per day, 5= 7+ hrs per day</t>
+  </si>
+  <si>
+    <t>phy_f1_walking</t>
+  </si>
+  <si>
+    <t>YPAS_walk_freq2</t>
+  </si>
+  <si>
+    <t>Freguence of walks during past month -wave 2</t>
+  </si>
+  <si>
+    <t>Yale Physical Activity Survey conducted during home interview at wave 2. Self-reported. 
+Interview item: Think about the walks you have taken during the past month.About how many times per month did you walk for at least 10 minutes or more without stopping which was not strenuous enough to cause large increases in breathing, heart rate or leg fatique or cause you to perspire? Response options and scoring: 0 = Not at all, 1 = 1-3 times per month, 2 = 1-2 times per week, 3 = 3-4 times per week, and 4= 5+ times per week</t>
+  </si>
+  <si>
+    <t>phy_f1_occupational_pa</t>
+  </si>
+  <si>
+    <t>phy_f1_sport_participation</t>
+  </si>
+  <si>
+    <t>PA based on one question not available for wave 2, we could base it on multiple question, but would not be consistent with other waves</t>
+  </si>
+  <si>
+    <t>phy_f1_active_commuting</t>
+  </si>
+  <si>
+    <t>phy_f1_leisure_time</t>
+  </si>
+  <si>
+    <t>phy_f1_mobility_limitation_SF36</t>
+  </si>
+  <si>
+    <t>phy_f1_SF36_nb_items</t>
+  </si>
+  <si>
+    <t>AGN_1</t>
+  </si>
+  <si>
+    <t>AGN_2</t>
   </si>
 </sst>
 </file>
@@ -1376,7 +1667,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1692,13 +1983,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A617E81B-AA39-4B57-8286-9F6F09A3BC0B}">
-  <dimension ref="A1:AD84"/>
+  <dimension ref="A1:AD167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -1797,46 +2088,46 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>34</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>35</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" t="s">
         <v>36</v>
       </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
         <v>38</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>39</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>40</v>
       </c>
-      <c r="V2" t="s">
-        <v>41</v>
-      </c>
       <c r="W2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
@@ -1844,31 +2135,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
         <v>42</v>
       </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V3" t="s">
         <v>45</v>
-      </c>
-      <c r="T3" t="s">
-        <v>39</v>
-      </c>
-      <c r="U3" t="s">
-        <v>40</v>
-      </c>
-      <c r="V3" t="s">
-        <v>46</v>
       </c>
       <c r="W3">
         <v>2</v>
@@ -1879,49 +2170,49 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C4" t="s">
+        <v>382</v>
+      </c>
+      <c r="D4" t="s">
         <v>47</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>48</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>49</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>50</v>
       </c>
-      <c r="H4" t="s">
-        <v>51</v>
-      </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>383</v>
       </c>
       <c r="K4" t="s">
+        <v>384</v>
+      </c>
+      <c r="M4" t="s">
         <v>53</v>
       </c>
-      <c r="M4" t="s">
+      <c r="P4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" t="s">
         <v>54</v>
       </c>
-      <c r="P4" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="T4" t="s">
+        <v>38</v>
+      </c>
+      <c r="U4" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" t="s">
         <v>55</v>
       </c>
-      <c r="T4" t="s">
-        <v>39</v>
-      </c>
-      <c r="U4" t="s">
-        <v>40</v>
-      </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>56</v>
-      </c>
-      <c r="W4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="45" x14ac:dyDescent="0.25">
@@ -1929,52 +2220,52 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C5" t="s">
+        <v>385</v>
+      </c>
+      <c r="D5" t="s">
         <v>58</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>59</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" t="s">
         <v>61</v>
       </c>
-      <c r="J5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>62</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O5" t="s">
         <v>63</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="P5" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q5" s="1" t="s">
+      <c r="T5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V5" t="s">
         <v>65</v>
       </c>
-      <c r="T5" t="s">
-        <v>39</v>
-      </c>
-      <c r="U5" t="s">
-        <v>40</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>66</v>
-      </c>
-      <c r="W5" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
@@ -1982,52 +2273,52 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D6" t="s">
         <v>68</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>69</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
         <v>70</v>
       </c>
-      <c r="F6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" t="s">
-        <v>71</v>
-      </c>
       <c r="J6" t="s">
-        <v>72</v>
+        <v>387</v>
       </c>
       <c r="K6" t="s">
+        <v>388</v>
+      </c>
+      <c r="M6" t="s">
         <v>73</v>
       </c>
-      <c r="M6" t="s">
+      <c r="O6" t="s">
         <v>74</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>75</v>
       </c>
-      <c r="P6" t="s">
+      <c r="R6" t="s">
+        <v>70</v>
+      </c>
+      <c r="T6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U6" t="s">
+        <v>39</v>
+      </c>
+      <c r="V6" t="s">
+        <v>55</v>
+      </c>
+      <c r="W6" t="s">
         <v>76</v>
-      </c>
-      <c r="R6" t="s">
-        <v>71</v>
-      </c>
-      <c r="T6" t="s">
-        <v>39</v>
-      </c>
-      <c r="U6" t="s">
-        <v>40</v>
-      </c>
-      <c r="V6" t="s">
-        <v>56</v>
-      </c>
-      <c r="W6" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="300" x14ac:dyDescent="0.25">
@@ -2035,37 +2326,37 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C7" t="s">
+        <v>389</v>
+      </c>
+      <c r="D7" t="s">
         <v>78</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>79</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
@@ -2073,34 +2364,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C8" t="s">
+        <v>390</v>
+      </c>
+      <c r="D8" t="s">
         <v>84</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>85</v>
       </c>
-      <c r="E8" t="s">
-        <v>86</v>
-      </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="210" x14ac:dyDescent="0.25">
@@ -2108,37 +2399,37 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C9" t="s">
+        <v>391</v>
+      </c>
+      <c r="D9" t="s">
         <v>87</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>88</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
@@ -2146,34 +2437,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C10" t="s">
+        <v>392</v>
+      </c>
+      <c r="D10" t="s">
         <v>91</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>92</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>93</v>
       </c>
-      <c r="F10" t="s">
-        <v>94</v>
-      </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
@@ -2181,34 +2472,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C11" t="s">
+        <v>393</v>
+      </c>
+      <c r="D11" t="s">
         <v>95</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>96</v>
       </c>
-      <c r="E11" t="s">
-        <v>97</v>
-      </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
@@ -2216,34 +2507,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C12" t="s">
+        <v>394</v>
+      </c>
+      <c r="D12" t="s">
         <v>98</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>99</v>
       </c>
-      <c r="E12" t="s">
-        <v>100</v>
-      </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="225" x14ac:dyDescent="0.25">
@@ -2251,52 +2542,52 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C13" t="s">
+        <v>395</v>
+      </c>
+      <c r="D13" t="s">
         <v>101</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>102</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F13" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="J13" t="s">
-        <v>105</v>
+        <v>396</v>
       </c>
       <c r="K13" t="s">
+        <v>397</v>
+      </c>
+      <c r="M13" t="s">
         <v>106</v>
       </c>
-      <c r="M13" t="s">
+      <c r="O13" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q13" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O13" t="s">
-        <v>75</v>
-      </c>
-      <c r="P13" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q13" s="1" t="s">
+      <c r="T13" t="s">
+        <v>38</v>
+      </c>
+      <c r="U13" t="s">
         <v>108</v>
       </c>
-      <c r="T13" t="s">
-        <v>39</v>
-      </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
+        <v>65</v>
+      </c>
+      <c r="W13" t="s">
         <v>109</v>
-      </c>
-      <c r="V13" t="s">
-        <v>66</v>
-      </c>
-      <c r="W13" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="225" x14ac:dyDescent="0.25">
@@ -2304,52 +2595,52 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C14" t="s">
+        <v>398</v>
+      </c>
+      <c r="D14" t="s">
         <v>111</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>112</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F14" t="s">
-        <v>44</v>
-      </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" t="s">
+        <v>396</v>
+      </c>
+      <c r="K14" t="s">
+        <v>397</v>
+      </c>
+      <c r="M14" t="s">
+        <v>106</v>
+      </c>
+      <c r="O14" t="s">
+        <v>74</v>
+      </c>
+      <c r="P14" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="T14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U14" t="s">
+        <v>108</v>
+      </c>
+      <c r="V14" t="s">
+        <v>65</v>
+      </c>
+      <c r="W14" t="s">
         <v>114</v>
-      </c>
-      <c r="J14" t="s">
-        <v>105</v>
-      </c>
-      <c r="K14" t="s">
-        <v>106</v>
-      </c>
-      <c r="M14" t="s">
-        <v>107</v>
-      </c>
-      <c r="O14" t="s">
-        <v>75</v>
-      </c>
-      <c r="P14" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="T14" t="s">
-        <v>39</v>
-      </c>
-      <c r="U14" t="s">
-        <v>109</v>
-      </c>
-      <c r="V14" t="s">
-        <v>66</v>
-      </c>
-      <c r="W14" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="60" x14ac:dyDescent="0.25">
@@ -2357,37 +2648,37 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C15" t="s">
+        <v>399</v>
+      </c>
+      <c r="D15" t="s">
         <v>116</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E15" t="s">
-        <v>117</v>
-      </c>
-      <c r="F15" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
@@ -2395,771 +2686,663 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C16" t="s">
+        <v>400</v>
+      </c>
+      <c r="D16" t="s">
         <v>119</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" t="s">
         <v>120</v>
       </c>
-      <c r="E16" t="s">
-        <v>120</v>
-      </c>
-      <c r="F16" t="s">
-        <v>94</v>
-      </c>
-      <c r="G16" t="s">
-        <v>121</v>
-      </c>
       <c r="J16" t="s">
-        <v>122</v>
-      </c>
-      <c r="K16" t="s">
-        <v>123</v>
-      </c>
-      <c r="M16" t="s">
-        <v>124</v>
-      </c>
-      <c r="O16" t="s">
-        <v>75</v>
-      </c>
-      <c r="P16" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>55</v>
-      </c>
-      <c r="R16" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="T16" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="U16" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="V16" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="W16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="120" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="X16" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="120" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C17" t="s">
+        <v>402</v>
+      </c>
+      <c r="D17" t="s">
         <v>126</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E17" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17" t="s">
-        <v>44</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="J17" t="s">
-        <v>122</v>
-      </c>
-      <c r="K17" t="s">
-        <v>123</v>
-      </c>
-      <c r="M17" t="s">
-        <v>124</v>
-      </c>
-      <c r="O17" t="s">
-        <v>75</v>
-      </c>
-      <c r="P17" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>55</v>
-      </c>
-      <c r="R17" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="T17" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="U17" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="V17" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="W17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="X17" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C18" t="s">
+        <v>403</v>
+      </c>
+      <c r="D18" t="s">
         <v>130</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" t="s">
         <v>131</v>
       </c>
-      <c r="E18" t="s">
-        <v>131</v>
-      </c>
-      <c r="F18" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" t="s">
-        <v>132</v>
-      </c>
       <c r="J18" t="s">
-        <v>133</v>
-      </c>
-      <c r="K18" t="s">
-        <v>134</v>
-      </c>
-      <c r="M18" t="s">
-        <v>135</v>
-      </c>
-      <c r="O18" t="s">
-        <v>75</v>
-      </c>
-      <c r="P18" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>55</v>
-      </c>
-      <c r="R18" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="T18" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="U18" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="V18" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="W18" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="120" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="X18" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="120" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C19" t="s">
+        <v>404</v>
+      </c>
+      <c r="D19" t="s">
         <v>136</v>
       </c>
-      <c r="D19" t="s">
-        <v>137</v>
-      </c>
       <c r="E19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J19" t="s">
-        <v>133</v>
-      </c>
-      <c r="K19" t="s">
-        <v>134</v>
-      </c>
-      <c r="M19" t="s">
-        <v>135</v>
-      </c>
-      <c r="O19" t="s">
-        <v>75</v>
-      </c>
-      <c r="P19" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>55</v>
-      </c>
-      <c r="R19" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="T19" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="U19" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="V19" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="W19" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="X19" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C20" t="s">
+        <v>405</v>
+      </c>
+      <c r="D20" t="s">
         <v>139</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" t="s">
         <v>140</v>
       </c>
-      <c r="E20" t="s">
-        <v>140</v>
-      </c>
-      <c r="F20" t="s">
-        <v>94</v>
-      </c>
-      <c r="G20" t="s">
-        <v>141</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="K20" t="s">
-        <v>143</v>
-      </c>
-      <c r="M20" t="s">
-        <v>144</v>
-      </c>
-      <c r="O20" t="s">
-        <v>145</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>147</v>
-      </c>
-      <c r="R20" t="s">
-        <v>148</v>
+      <c r="J20" t="s">
+        <v>44</v>
       </c>
       <c r="T20" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="U20" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="V20" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="W20" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="330" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="X20" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C21" t="s">
+        <v>406</v>
+      </c>
+      <c r="D21" t="s">
         <v>150</v>
       </c>
-      <c r="D21" t="s">
-        <v>151</v>
-      </c>
       <c r="E21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G21" t="s">
-        <v>121</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="M21" t="s">
-        <v>154</v>
-      </c>
-      <c r="O21" t="s">
-        <v>155</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>157</v>
-      </c>
-      <c r="R21" t="s">
-        <v>158</v>
-      </c>
-      <c r="S21" t="s">
-        <v>159</v>
+        <v>120</v>
+      </c>
+      <c r="J21" t="s">
+        <v>44</v>
       </c>
       <c r="T21" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="U21" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="V21" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="W21" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="330" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="X21" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="120" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C22" t="s">
+        <v>407</v>
+      </c>
+      <c r="D22" t="s">
         <v>161</v>
       </c>
-      <c r="D22" t="s">
-        <v>162</v>
-      </c>
       <c r="E22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="M22" t="s">
-        <v>154</v>
-      </c>
-      <c r="O22" t="s">
-        <v>155</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>157</v>
-      </c>
-      <c r="R22" t="s">
-        <v>158</v>
+        <v>127</v>
+      </c>
+      <c r="J22" t="s">
+        <v>44</v>
       </c>
       <c r="T22" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="U22" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="V22" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="W22" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="X22" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C23" t="s">
+        <v>408</v>
+      </c>
+      <c r="D23" t="s">
         <v>165</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>165</v>
+      </c>
+      <c r="F23" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" t="s">
         <v>166</v>
       </c>
-      <c r="E23" t="s">
-        <v>166</v>
-      </c>
-      <c r="F23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G23" t="s">
-        <v>167</v>
-      </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C24" t="s">
+        <v>409</v>
+      </c>
+      <c r="D24" t="s">
         <v>168</v>
       </c>
-      <c r="D24" t="s">
-        <v>169</v>
-      </c>
       <c r="E24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W24" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C25" t="s">
+        <v>410</v>
+      </c>
+      <c r="D25" t="s">
         <v>170</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>171</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" t="s">
         <v>172</v>
       </c>
-      <c r="F25" t="s">
-        <v>94</v>
-      </c>
-      <c r="G25" t="s">
-        <v>173</v>
-      </c>
       <c r="J25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W25" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C26" t="s">
+        <v>411</v>
+      </c>
+      <c r="D26" t="s">
         <v>174</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>175</v>
       </c>
-      <c r="E26" t="s">
-        <v>176</v>
-      </c>
       <c r="F26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C27" t="s">
+        <v>412</v>
+      </c>
+      <c r="D27" t="s">
         <v>177</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
+        <v>177</v>
+      </c>
+      <c r="F27" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" t="s">
         <v>178</v>
       </c>
-      <c r="E27" t="s">
-        <v>178</v>
-      </c>
-      <c r="F27" t="s">
-        <v>94</v>
-      </c>
-      <c r="G27" t="s">
-        <v>179</v>
-      </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W27" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C28" t="s">
+        <v>413</v>
+      </c>
+      <c r="D28" t="s">
         <v>180</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
+        <v>180</v>
+      </c>
+      <c r="F28" t="s">
+        <v>93</v>
+      </c>
+      <c r="G28" t="s">
         <v>181</v>
       </c>
-      <c r="E28" t="s">
-        <v>181</v>
-      </c>
-      <c r="F28" t="s">
-        <v>94</v>
-      </c>
-      <c r="G28" t="s">
-        <v>182</v>
-      </c>
       <c r="J28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" ht="120" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="120" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C29" t="s">
+        <v>414</v>
+      </c>
+      <c r="D29" t="s">
         <v>183</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
+        <v>183</v>
+      </c>
+      <c r="F29" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E29" t="s">
-        <v>184</v>
-      </c>
-      <c r="F29" t="s">
-        <v>44</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="J29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C30" t="s">
+        <v>415</v>
+      </c>
+      <c r="D30" t="s">
         <v>186</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
+        <v>186</v>
+      </c>
+      <c r="F30" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" t="s">
         <v>187</v>
       </c>
-      <c r="E30" t="s">
-        <v>187</v>
-      </c>
-      <c r="F30" t="s">
-        <v>94</v>
-      </c>
-      <c r="G30" t="s">
-        <v>188</v>
-      </c>
       <c r="J30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W30" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C31" t="s">
+        <v>416</v>
+      </c>
+      <c r="D31" t="s">
         <v>189</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
+        <v>189</v>
+      </c>
+      <c r="F31" t="s">
+        <v>93</v>
+      </c>
+      <c r="G31" t="s">
         <v>190</v>
       </c>
-      <c r="E31" t="s">
-        <v>190</v>
-      </c>
-      <c r="F31" t="s">
-        <v>94</v>
-      </c>
-      <c r="G31" t="s">
-        <v>191</v>
-      </c>
       <c r="J31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C32" t="s">
+        <v>417</v>
+      </c>
+      <c r="D32" t="s">
         <v>192</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
+        <v>192</v>
+      </c>
+      <c r="F32" t="s">
+        <v>93</v>
+      </c>
+      <c r="G32" t="s">
         <v>193</v>
       </c>
-      <c r="E32" t="s">
-        <v>193</v>
-      </c>
-      <c r="F32" t="s">
-        <v>94</v>
-      </c>
-      <c r="G32" t="s">
-        <v>194</v>
-      </c>
       <c r="J32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
@@ -3167,37 +3350,37 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C33" t="s">
+        <v>418</v>
+      </c>
+      <c r="D33" t="s">
         <v>195</v>
       </c>
-      <c r="D33" t="s">
-        <v>196</v>
-      </c>
       <c r="E33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
@@ -3205,37 +3388,37 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C34" t="s">
+        <v>419</v>
+      </c>
+      <c r="D34" t="s">
         <v>197</v>
       </c>
-      <c r="D34" t="s">
-        <v>198</v>
-      </c>
       <c r="E34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
@@ -3243,37 +3426,37 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C35" t="s">
+        <v>420</v>
+      </c>
+      <c r="D35" t="s">
         <v>199</v>
       </c>
-      <c r="D35" t="s">
-        <v>200</v>
-      </c>
       <c r="E35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
@@ -3281,37 +3464,37 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C36" t="s">
+        <v>421</v>
+      </c>
+      <c r="D36" t="s">
         <v>201</v>
       </c>
-      <c r="D36" t="s">
-        <v>202</v>
-      </c>
       <c r="E36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
@@ -3319,37 +3502,37 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C37" t="s">
+        <v>422</v>
+      </c>
+      <c r="D37" t="s">
         <v>203</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
+        <v>203</v>
+      </c>
+      <c r="F37" t="s">
+        <v>93</v>
+      </c>
+      <c r="G37" t="s">
         <v>204</v>
       </c>
-      <c r="E37" t="s">
-        <v>204</v>
-      </c>
-      <c r="F37" t="s">
-        <v>94</v>
-      </c>
-      <c r="G37" t="s">
-        <v>205</v>
-      </c>
       <c r="J37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
@@ -3357,37 +3540,37 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C38" t="s">
+        <v>423</v>
+      </c>
+      <c r="D38" t="s">
         <v>206</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>207</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G38" t="s">
         <v>208</v>
       </c>
-      <c r="F38" t="s">
-        <v>94</v>
-      </c>
-      <c r="G38" t="s">
-        <v>209</v>
-      </c>
       <c r="J38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="120" x14ac:dyDescent="0.25">
@@ -3395,37 +3578,37 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C39" t="s">
+        <v>424</v>
+      </c>
+      <c r="D39" t="s">
         <v>210</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>211</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
+        <v>43</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="F39" t="s">
-        <v>44</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="J39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
@@ -3433,37 +3616,37 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C40" t="s">
+        <v>425</v>
+      </c>
+      <c r="D40" t="s">
         <v>214</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>215</v>
       </c>
-      <c r="E40" t="s">
-        <v>216</v>
-      </c>
       <c r="F40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="120" x14ac:dyDescent="0.25">
@@ -3471,37 +3654,37 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C41" t="s">
+        <v>426</v>
+      </c>
+      <c r="D41" t="s">
         <v>217</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>218</v>
       </c>
-      <c r="E41" t="s">
-        <v>219</v>
-      </c>
       <c r="F41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
@@ -3509,37 +3692,37 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C42" t="s">
+        <v>427</v>
+      </c>
+      <c r="D42" t="s">
         <v>220</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
+        <v>220</v>
+      </c>
+      <c r="F42" t="s">
+        <v>93</v>
+      </c>
+      <c r="G42" t="s">
         <v>221</v>
       </c>
-      <c r="E42" t="s">
-        <v>221</v>
-      </c>
-      <c r="F42" t="s">
-        <v>94</v>
-      </c>
-      <c r="G42" t="s">
-        <v>222</v>
-      </c>
       <c r="J42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
@@ -3547,37 +3730,37 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C43" t="s">
+        <v>428</v>
+      </c>
+      <c r="D43" t="s">
         <v>223</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>224</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
+        <v>93</v>
+      </c>
+      <c r="G43" t="s">
         <v>225</v>
       </c>
-      <c r="F43" t="s">
-        <v>94</v>
-      </c>
-      <c r="G43" t="s">
-        <v>226</v>
-      </c>
       <c r="J43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="180" x14ac:dyDescent="0.25">
@@ -3585,37 +3768,37 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C44" t="s">
+        <v>429</v>
+      </c>
+      <c r="D44" t="s">
         <v>227</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
+        <v>227</v>
+      </c>
+      <c r="F44" t="s">
+        <v>43</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E44" t="s">
-        <v>228</v>
-      </c>
-      <c r="F44" t="s">
-        <v>44</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="J44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="135" x14ac:dyDescent="0.25">
@@ -3623,37 +3806,37 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C45" t="s">
+        <v>430</v>
+      </c>
+      <c r="D45" t="s">
         <v>230</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>231</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
+        <v>43</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F45" t="s">
-        <v>44</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="J45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="105" x14ac:dyDescent="0.25">
@@ -3661,37 +3844,37 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C46" t="s">
+        <v>431</v>
+      </c>
+      <c r="D46" t="s">
         <v>234</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
+        <v>234</v>
+      </c>
+      <c r="F46" t="s">
+        <v>43</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E46" t="s">
-        <v>235</v>
-      </c>
-      <c r="F46" t="s">
-        <v>44</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="J46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
@@ -3699,90 +3882,75 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C47" t="s">
+        <v>432</v>
+      </c>
+      <c r="D47" t="s">
         <v>237</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
+        <v>237</v>
+      </c>
+      <c r="F47" t="s">
+        <v>93</v>
+      </c>
+      <c r="G47" t="s">
         <v>238</v>
       </c>
-      <c r="E47" t="s">
-        <v>238</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
-      </c>
-      <c r="G47" t="s">
-        <v>239</v>
-      </c>
       <c r="J47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W47" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" ht="345" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="165" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C48" t="s">
+        <v>433</v>
+      </c>
+      <c r="D48" t="s">
         <v>240</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
+        <v>240</v>
+      </c>
+      <c r="F48" t="s">
+        <v>43</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E48" t="s">
-        <v>241</v>
-      </c>
-      <c r="F48" t="s">
-        <v>44</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="J48" t="s">
-        <v>243</v>
-      </c>
-      <c r="K48" t="s">
-        <v>244</v>
-      </c>
-      <c r="M48" t="s">
-        <v>245</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="P48" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q48" s="1" t="s">
-        <v>247</v>
+        <v>44</v>
       </c>
       <c r="T48" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="U48" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="V48" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="W48" t="s">
-        <v>248</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -3790,37 +3958,37 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C49" t="s">
+        <v>434</v>
+      </c>
+      <c r="D49" t="s">
         <v>249</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>250</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="F49" t="s">
-        <v>44</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="J49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -3828,37 +3996,37 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C50" t="s">
+        <v>435</v>
+      </c>
+      <c r="D50" t="s">
         <v>253</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>254</v>
       </c>
-      <c r="E50" t="s">
-        <v>255</v>
-      </c>
       <c r="F50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -3866,37 +4034,37 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C51" t="s">
+        <v>436</v>
+      </c>
+      <c r="D51" t="s">
         <v>256</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>257</v>
       </c>
-      <c r="E51" t="s">
-        <v>258</v>
-      </c>
       <c r="F51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="75" x14ac:dyDescent="0.25">
@@ -3904,37 +4072,37 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C52" t="s">
+        <v>437</v>
+      </c>
+      <c r="D52" t="s">
         <v>259</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>260</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
+        <v>43</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="F52" t="s">
-        <v>44</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="J52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -3942,37 +4110,37 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C53" t="s">
+        <v>438</v>
+      </c>
+      <c r="D53" t="s">
         <v>263</v>
       </c>
-      <c r="D53" t="s">
-        <v>264</v>
-      </c>
       <c r="E53" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U53" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -3980,37 +4148,37 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C54" t="s">
+        <v>439</v>
+      </c>
+      <c r="D54" t="s">
         <v>265</v>
       </c>
-      <c r="D54" t="s">
-        <v>266</v>
-      </c>
       <c r="E54" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -4018,37 +4186,37 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C55" t="s">
+        <v>440</v>
+      </c>
+      <c r="D55" t="s">
         <v>267</v>
       </c>
-      <c r="D55" t="s">
-        <v>268</v>
-      </c>
       <c r="E55" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -4056,37 +4224,37 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C56" t="s">
+        <v>441</v>
+      </c>
+      <c r="D56" t="s">
         <v>269</v>
       </c>
-      <c r="D56" t="s">
-        <v>270</v>
-      </c>
       <c r="E56" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -4094,131 +4262,110 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C57" t="s">
+        <v>442</v>
+      </c>
+      <c r="D57" t="s">
         <v>271</v>
       </c>
-      <c r="D57" t="s">
-        <v>272</v>
-      </c>
       <c r="E57" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W57" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C58" t="s">
+        <v>443</v>
+      </c>
+      <c r="D58" t="s">
         <v>273</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>274</v>
       </c>
-      <c r="E58" t="s">
-        <v>275</v>
-      </c>
       <c r="F58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J58" t="s">
-        <v>276</v>
-      </c>
-      <c r="K58" t="s">
-        <v>277</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>278</v>
+        <v>44</v>
       </c>
       <c r="T58" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="U58" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="V58" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="W58" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C59" t="s">
+        <v>444</v>
+      </c>
+      <c r="D59" t="s">
         <v>279</v>
       </c>
-      <c r="D59" t="s">
-        <v>280</v>
-      </c>
       <c r="E59" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J59" t="s">
-        <v>281</v>
-      </c>
-      <c r="K59" t="s">
-        <v>282</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="P59" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>285</v>
+        <v>44</v>
       </c>
       <c r="T59" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="U59" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="V59" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="W59" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
@@ -4226,34 +4373,34 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C60" t="s">
+        <v>445</v>
+      </c>
+      <c r="D60" t="s">
         <v>286</v>
       </c>
-      <c r="D60" t="s">
-        <v>287</v>
-      </c>
       <c r="E60" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
@@ -4261,34 +4408,34 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C61" t="s">
+        <v>446</v>
+      </c>
+      <c r="D61" t="s">
         <v>288</v>
       </c>
-      <c r="D61" t="s">
-        <v>289</v>
-      </c>
       <c r="E61" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
@@ -4296,34 +4443,34 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C62" t="s">
+        <v>447</v>
+      </c>
+      <c r="D62" t="s">
         <v>290</v>
       </c>
-      <c r="D62" t="s">
-        <v>291</v>
-      </c>
       <c r="E62" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T62" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V62" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W62" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
@@ -4331,892 +4478,4289 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C63" t="s">
+        <v>448</v>
+      </c>
+      <c r="D63" t="s">
         <v>292</v>
       </c>
-      <c r="D63" t="s">
-        <v>293</v>
-      </c>
       <c r="E63" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W63" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C64" t="s">
+        <v>449</v>
+      </c>
+      <c r="D64" t="s">
         <v>294</v>
       </c>
-      <c r="D64" t="s">
-        <v>295</v>
-      </c>
       <c r="E64" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J64" t="s">
-        <v>296</v>
-      </c>
-      <c r="K64" t="s">
-        <v>297</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="O64" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="P64" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="T64" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="U64" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="V64" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="W64" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C65" t="s">
+        <v>450</v>
+      </c>
+      <c r="D65" t="s">
         <v>300</v>
       </c>
-      <c r="D65" t="s">
-        <v>301</v>
-      </c>
       <c r="E65" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U65" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W65" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" ht="270" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C66" t="s">
+        <v>451</v>
+      </c>
+      <c r="D66" t="s">
         <v>302</v>
       </c>
-      <c r="D66" t="s">
-        <v>303</v>
-      </c>
       <c r="E66" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>304</v>
+        <v>452</v>
       </c>
       <c r="J66" t="s">
-        <v>305</v>
-      </c>
-      <c r="K66" t="s">
-        <v>306</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>307</v>
+        <v>44</v>
       </c>
       <c r="T66" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="U66" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="V66" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="W66" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C67" t="s">
+        <v>453</v>
+      </c>
+      <c r="D67" t="s">
         <v>308</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
+        <v>308</v>
+      </c>
+      <c r="F67" t="s">
+        <v>93</v>
+      </c>
+      <c r="G67" t="s">
         <v>309</v>
       </c>
-      <c r="E67" t="s">
-        <v>309</v>
-      </c>
-      <c r="F67" t="s">
-        <v>94</v>
-      </c>
-      <c r="G67" t="s">
-        <v>310</v>
-      </c>
       <c r="J67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W67" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23" ht="285" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" ht="285" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C68" t="s">
+        <v>454</v>
+      </c>
+      <c r="D68" t="s">
         <v>311</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
+        <v>311</v>
+      </c>
+      <c r="F68" t="s">
+        <v>43</v>
+      </c>
+      <c r="I68" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="E68" t="s">
-        <v>312</v>
-      </c>
-      <c r="F68" t="s">
-        <v>44</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>313</v>
-      </c>
       <c r="J68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T68" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V68" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" ht="90" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C69" t="s">
+        <v>455</v>
+      </c>
+      <c r="D69" t="s">
         <v>314</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
+        <v>314</v>
+      </c>
+      <c r="F69" t="s">
+        <v>43</v>
+      </c>
+      <c r="I69" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="E69" t="s">
-        <v>315</v>
-      </c>
-      <c r="F69" t="s">
-        <v>44</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>316</v>
-      </c>
       <c r="J69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U69" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W69" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23" ht="195" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" ht="195" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C70" t="s">
+        <v>456</v>
+      </c>
+      <c r="D70" t="s">
         <v>317</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
+        <v>317</v>
+      </c>
+      <c r="F70" t="s">
+        <v>43</v>
+      </c>
+      <c r="I70" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="E70" t="s">
-        <v>318</v>
-      </c>
-      <c r="F70" t="s">
-        <v>44</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>319</v>
-      </c>
       <c r="J70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U70" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W70" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23" ht="195" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" ht="195" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C71" t="s">
+        <v>457</v>
+      </c>
+      <c r="D71" t="s">
         <v>320</v>
       </c>
-      <c r="D71" t="s">
-        <v>321</v>
-      </c>
       <c r="E71" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W71" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" ht="195" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" ht="195" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C72" t="s">
+        <v>458</v>
+      </c>
+      <c r="D72" t="s">
         <v>322</v>
       </c>
-      <c r="D72" t="s">
-        <v>323</v>
-      </c>
       <c r="E72" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J72" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U72" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W72" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C73" t="s">
+        <v>459</v>
+      </c>
+      <c r="D73" t="s">
         <v>324</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>325</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
+        <v>43</v>
+      </c>
+      <c r="I73" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="F73" t="s">
-        <v>44</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>327</v>
-      </c>
       <c r="J73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W73" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23" ht="195" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" ht="195" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C74" t="s">
+        <v>460</v>
+      </c>
+      <c r="D74" t="s">
         <v>328</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>329</v>
       </c>
-      <c r="E74" t="s">
-        <v>330</v>
-      </c>
       <c r="F74" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T74" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U74" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V74" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W74" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23" ht="195" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" ht="195" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C75" t="s">
+        <v>461</v>
+      </c>
+      <c r="D75" t="s">
         <v>331</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>332</v>
       </c>
-      <c r="E75" t="s">
-        <v>333</v>
-      </c>
       <c r="F75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T75" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U75" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V75" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W75" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C76" t="s">
+        <v>462</v>
+      </c>
+      <c r="D76" t="s">
         <v>334</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>335</v>
       </c>
-      <c r="E76" t="s">
-        <v>336</v>
-      </c>
       <c r="F76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G76" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T76" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U76" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V76" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W76" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C77" t="s">
+        <v>463</v>
+      </c>
+      <c r="D77" t="s">
         <v>337</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>338</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
+        <v>43</v>
+      </c>
+      <c r="I77" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="F77" t="s">
-        <v>44</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>340</v>
-      </c>
       <c r="J77" t="s">
+        <v>464</v>
+      </c>
+      <c r="K77" t="s">
         <v>341</v>
       </c>
-      <c r="K77" t="s">
-        <v>342</v>
-      </c>
       <c r="M77" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="O77" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="O77" s="1" t="s">
+      <c r="P77" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q77" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="P77" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q77" s="1" t="s">
+      <c r="T77" t="s">
+        <v>38</v>
+      </c>
+      <c r="U77" t="s">
+        <v>39</v>
+      </c>
+      <c r="V77" t="s">
+        <v>65</v>
+      </c>
+      <c r="W77" t="s">
         <v>345</v>
       </c>
-      <c r="T77" t="s">
-        <v>39</v>
-      </c>
-      <c r="U77" t="s">
-        <v>40</v>
-      </c>
-      <c r="V77" t="s">
-        <v>66</v>
-      </c>
-      <c r="W77" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C78" t="s">
+        <v>466</v>
+      </c>
+      <c r="D78" t="s">
         <v>347</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>348</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
+        <v>43</v>
+      </c>
+      <c r="I78" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="F78" t="s">
-        <v>44</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>350</v>
-      </c>
       <c r="J78" t="s">
-        <v>351</v>
+        <v>467</v>
       </c>
       <c r="K78" t="s">
-        <v>352</v>
+        <v>468</v>
       </c>
       <c r="M78" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="O78" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="O78" s="1" t="s">
+      <c r="P78" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q78" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="P78" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q78" s="1" t="s">
+      <c r="S78" t="s">
         <v>355</v>
       </c>
-      <c r="S78" t="s">
+      <c r="T78" t="s">
+        <v>38</v>
+      </c>
+      <c r="U78" t="s">
+        <v>108</v>
+      </c>
+      <c r="V78" t="s">
+        <v>65</v>
+      </c>
+      <c r="W78" t="s">
         <v>356</v>
       </c>
-      <c r="T78" t="s">
-        <v>39</v>
-      </c>
-      <c r="U78" t="s">
-        <v>109</v>
-      </c>
-      <c r="V78" t="s">
-        <v>66</v>
-      </c>
-      <c r="W78" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23" ht="360" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:24" ht="360" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C79" t="s">
+        <v>470</v>
+      </c>
+      <c r="D79" t="s">
         <v>358</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
+        <v>358</v>
+      </c>
+      <c r="F79" t="s">
+        <v>43</v>
+      </c>
+      <c r="I79" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="E79" t="s">
-        <v>359</v>
-      </c>
-      <c r="F79" t="s">
-        <v>44</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="J79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U79" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W79" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C80" t="s">
+        <v>471</v>
+      </c>
+      <c r="D80" t="s">
         <v>361</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>362</v>
       </c>
-      <c r="E80" t="s">
-        <v>363</v>
-      </c>
       <c r="F80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J80" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U80" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W80" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="X80" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C81" t="s">
+        <v>473</v>
+      </c>
+      <c r="D81" t="s">
         <v>364</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>365</v>
       </c>
-      <c r="E81" t="s">
-        <v>366</v>
-      </c>
       <c r="F81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W81" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C82" t="s">
+        <v>474</v>
+      </c>
+      <c r="D82" t="s">
         <v>367</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>368</v>
       </c>
-      <c r="E82" t="s">
-        <v>369</v>
-      </c>
       <c r="F82" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J82" t="s">
-        <v>370</v>
-      </c>
-      <c r="K82" t="s">
-        <v>371</v>
-      </c>
-      <c r="M82" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="O82" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="P82" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q82" s="1" t="s">
-        <v>374</v>
+        <v>44</v>
       </c>
       <c r="T82" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="U82" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="V82" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="W82" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="X82" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>30</v>
+        <v>477</v>
       </c>
       <c r="C83" t="s">
+        <v>475</v>
+      </c>
+      <c r="D83" t="s">
         <v>376</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>377</v>
       </c>
-      <c r="E83" t="s">
-        <v>378</v>
-      </c>
       <c r="F83" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J83" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W83" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
+        <v>477</v>
+      </c>
+      <c r="C84" t="s">
+        <v>476</v>
+      </c>
+      <c r="D84" t="s">
+        <v>379</v>
+      </c>
+      <c r="E84" t="s">
+        <v>380</v>
+      </c>
+      <c r="F84" t="s">
+        <v>43</v>
+      </c>
+      <c r="G84" t="s">
+        <v>381</v>
+      </c>
+      <c r="J84" t="s">
+        <v>44</v>
+      </c>
+      <c r="T84" t="s">
+        <v>81</v>
+      </c>
+      <c r="U84" t="s">
+        <v>82</v>
+      </c>
+      <c r="V84" t="s">
+        <v>81</v>
+      </c>
+      <c r="W84" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85" t="s">
+        <v>478</v>
+      </c>
+      <c r="C85" t="s">
         <v>30</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D85" t="s">
+        <v>31</v>
+      </c>
+      <c r="E85" t="s">
+        <v>32</v>
+      </c>
+      <c r="F85" t="s">
+        <v>33</v>
+      </c>
+      <c r="J85" t="s">
+        <v>34</v>
+      </c>
+      <c r="K85" t="s">
+        <v>35</v>
+      </c>
+      <c r="M85" t="s">
+        <v>35</v>
+      </c>
+      <c r="P85" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>37</v>
+      </c>
+      <c r="T85" t="s">
+        <v>38</v>
+      </c>
+      <c r="U85" t="s">
+        <v>39</v>
+      </c>
+      <c r="V85" t="s">
+        <v>40</v>
+      </c>
+      <c r="W85" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>2</v>
+      </c>
+      <c r="B86" t="s">
+        <v>478</v>
+      </c>
+      <c r="C86" t="s">
+        <v>41</v>
+      </c>
+      <c r="D86" t="s">
+        <v>42</v>
+      </c>
+      <c r="E86" t="s">
+        <v>42</v>
+      </c>
+      <c r="F86" t="s">
+        <v>43</v>
+      </c>
+      <c r="J86" t="s">
+        <v>44</v>
+      </c>
+      <c r="T86" t="s">
+        <v>38</v>
+      </c>
+      <c r="U86" t="s">
+        <v>39</v>
+      </c>
+      <c r="V86" t="s">
+        <v>45</v>
+      </c>
+      <c r="W86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>3</v>
+      </c>
+      <c r="B87" t="s">
+        <v>478</v>
+      </c>
+      <c r="C87" t="s">
+        <v>46</v>
+      </c>
+      <c r="D87" t="s">
+        <v>47</v>
+      </c>
+      <c r="E87" t="s">
+        <v>48</v>
+      </c>
+      <c r="F87" t="s">
+        <v>49</v>
+      </c>
+      <c r="H87" t="s">
+        <v>50</v>
+      </c>
+      <c r="J87" t="s">
+        <v>51</v>
+      </c>
+      <c r="K87" t="s">
+        <v>52</v>
+      </c>
+      <c r="M87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>54</v>
+      </c>
+      <c r="T87" t="s">
+        <v>38</v>
+      </c>
+      <c r="U87" t="s">
+        <v>39</v>
+      </c>
+      <c r="V87" t="s">
+        <v>55</v>
+      </c>
+      <c r="W87" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>4</v>
+      </c>
+      <c r="B88" t="s">
+        <v>478</v>
+      </c>
+      <c r="C88" t="s">
+        <v>57</v>
+      </c>
+      <c r="D88" t="s">
+        <v>58</v>
+      </c>
+      <c r="E88" t="s">
+        <v>59</v>
+      </c>
+      <c r="F88" t="s">
+        <v>43</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J88" t="s">
+        <v>58</v>
+      </c>
+      <c r="K88" t="s">
+        <v>61</v>
+      </c>
+      <c r="M88" t="s">
+        <v>62</v>
+      </c>
+      <c r="O88" t="s">
+        <v>63</v>
+      </c>
+      <c r="P88" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q88" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="T88" t="s">
+        <v>38</v>
+      </c>
+      <c r="U88" t="s">
+        <v>39</v>
+      </c>
+      <c r="V88" t="s">
+        <v>65</v>
+      </c>
+      <c r="W88" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>5</v>
+      </c>
+      <c r="B89" t="s">
+        <v>478</v>
+      </c>
+      <c r="C89" t="s">
+        <v>67</v>
+      </c>
+      <c r="D89" t="s">
+        <v>68</v>
+      </c>
+      <c r="E89" t="s">
+        <v>69</v>
+      </c>
+      <c r="F89" t="s">
+        <v>43</v>
+      </c>
+      <c r="G89" t="s">
+        <v>70</v>
+      </c>
+      <c r="J89" t="s">
+        <v>71</v>
+      </c>
+      <c r="K89" t="s">
+        <v>72</v>
+      </c>
+      <c r="M89" t="s">
+        <v>73</v>
+      </c>
+      <c r="O89" t="s">
+        <v>74</v>
+      </c>
+      <c r="P89" t="s">
+        <v>75</v>
+      </c>
+      <c r="R89" t="s">
+        <v>70</v>
+      </c>
+      <c r="T89" t="s">
+        <v>38</v>
+      </c>
+      <c r="U89" t="s">
+        <v>39</v>
+      </c>
+      <c r="V89" t="s">
+        <v>55</v>
+      </c>
+      <c r="W89" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" ht="300" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>6</v>
+      </c>
+      <c r="B90" t="s">
+        <v>478</v>
+      </c>
+      <c r="C90" t="s">
+        <v>77</v>
+      </c>
+      <c r="D90" t="s">
+        <v>78</v>
+      </c>
+      <c r="E90" t="s">
+        <v>79</v>
+      </c>
+      <c r="F90" t="s">
+        <v>43</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J90" t="s">
+        <v>44</v>
+      </c>
+      <c r="T90" t="s">
+        <v>81</v>
+      </c>
+      <c r="U90" t="s">
+        <v>82</v>
+      </c>
+      <c r="V90" t="s">
+        <v>81</v>
+      </c>
+      <c r="W90" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>7</v>
+      </c>
+      <c r="B91" t="s">
+        <v>478</v>
+      </c>
+      <c r="C91" t="s">
+        <v>83</v>
+      </c>
+      <c r="D91" t="s">
+        <v>84</v>
+      </c>
+      <c r="E91" t="s">
+        <v>85</v>
+      </c>
+      <c r="F91" t="s">
+        <v>43</v>
+      </c>
+      <c r="J91" t="s">
+        <v>44</v>
+      </c>
+      <c r="T91" t="s">
+        <v>81</v>
+      </c>
+      <c r="U91" t="s">
+        <v>82</v>
+      </c>
+      <c r="V91" t="s">
+        <v>81</v>
+      </c>
+      <c r="W91" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" ht="210" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>8</v>
+      </c>
+      <c r="B92" t="s">
+        <v>478</v>
+      </c>
+      <c r="C92" t="s">
+        <v>86</v>
+      </c>
+      <c r="D92" t="s">
+        <v>87</v>
+      </c>
+      <c r="E92" t="s">
+        <v>88</v>
+      </c>
+      <c r="F92" t="s">
+        <v>43</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J92" t="s">
+        <v>44</v>
+      </c>
+      <c r="T92" t="s">
+        <v>81</v>
+      </c>
+      <c r="U92" t="s">
+        <v>82</v>
+      </c>
+      <c r="V92" t="s">
+        <v>81</v>
+      </c>
+      <c r="W92" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>9</v>
+      </c>
+      <c r="B93" t="s">
+        <v>478</v>
+      </c>
+      <c r="C93" t="s">
+        <v>90</v>
+      </c>
+      <c r="D93" t="s">
+        <v>91</v>
+      </c>
+      <c r="E93" t="s">
+        <v>92</v>
+      </c>
+      <c r="F93" t="s">
+        <v>93</v>
+      </c>
+      <c r="J93" t="s">
+        <v>44</v>
+      </c>
+      <c r="T93" t="s">
+        <v>81</v>
+      </c>
+      <c r="U93" t="s">
+        <v>82</v>
+      </c>
+      <c r="V93" t="s">
+        <v>81</v>
+      </c>
+      <c r="W93" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>10</v>
+      </c>
+      <c r="B94" t="s">
+        <v>478</v>
+      </c>
+      <c r="C94" t="s">
+        <v>94</v>
+      </c>
+      <c r="D94" t="s">
+        <v>95</v>
+      </c>
+      <c r="E94" t="s">
+        <v>96</v>
+      </c>
+      <c r="F94" t="s">
+        <v>33</v>
+      </c>
+      <c r="J94" t="s">
+        <v>44</v>
+      </c>
+      <c r="T94" t="s">
+        <v>81</v>
+      </c>
+      <c r="U94" t="s">
+        <v>82</v>
+      </c>
+      <c r="V94" t="s">
+        <v>81</v>
+      </c>
+      <c r="W94" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>11</v>
+      </c>
+      <c r="B95" t="s">
+        <v>478</v>
+      </c>
+      <c r="C95" t="s">
+        <v>97</v>
+      </c>
+      <c r="D95" t="s">
+        <v>98</v>
+      </c>
+      <c r="E95" t="s">
+        <v>99</v>
+      </c>
+      <c r="F95" t="s">
+        <v>43</v>
+      </c>
+      <c r="J95" t="s">
+        <v>44</v>
+      </c>
+      <c r="T95" t="s">
+        <v>81</v>
+      </c>
+      <c r="U95" t="s">
+        <v>82</v>
+      </c>
+      <c r="V95" t="s">
+        <v>81</v>
+      </c>
+      <c r="W95" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" ht="225" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>12</v>
+      </c>
+      <c r="B96" t="s">
+        <v>478</v>
+      </c>
+      <c r="C96" t="s">
+        <v>100</v>
+      </c>
+      <c r="D96" t="s">
+        <v>101</v>
+      </c>
+      <c r="E96" t="s">
+        <v>102</v>
+      </c>
+      <c r="F96" t="s">
+        <v>43</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J96" t="s">
+        <v>104</v>
+      </c>
+      <c r="K96" t="s">
+        <v>105</v>
+      </c>
+      <c r="M96" t="s">
+        <v>106</v>
+      </c>
+      <c r="O96" t="s">
+        <v>74</v>
+      </c>
+      <c r="P96" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q96" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="T96" t="s">
+        <v>38</v>
+      </c>
+      <c r="U96" t="s">
+        <v>108</v>
+      </c>
+      <c r="V96" t="s">
+        <v>65</v>
+      </c>
+      <c r="W96" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" ht="225" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>13</v>
+      </c>
+      <c r="B97" t="s">
+        <v>478</v>
+      </c>
+      <c r="C97" t="s">
+        <v>110</v>
+      </c>
+      <c r="D97" t="s">
+        <v>111</v>
+      </c>
+      <c r="E97" t="s">
+        <v>112</v>
+      </c>
+      <c r="F97" t="s">
+        <v>43</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J97" t="s">
+        <v>104</v>
+      </c>
+      <c r="K97" t="s">
+        <v>105</v>
+      </c>
+      <c r="M97" t="s">
+        <v>106</v>
+      </c>
+      <c r="O97" t="s">
+        <v>74</v>
+      </c>
+      <c r="P97" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q97" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="T97" t="s">
+        <v>38</v>
+      </c>
+      <c r="U97" t="s">
+        <v>108</v>
+      </c>
+      <c r="V97" t="s">
+        <v>65</v>
+      </c>
+      <c r="W97" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>14</v>
+      </c>
+      <c r="B98" t="s">
+        <v>478</v>
+      </c>
+      <c r="C98" t="s">
+        <v>115</v>
+      </c>
+      <c r="D98" t="s">
+        <v>116</v>
+      </c>
+      <c r="E98" t="s">
+        <v>116</v>
+      </c>
+      <c r="F98" t="s">
+        <v>43</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J98" t="s">
+        <v>44</v>
+      </c>
+      <c r="T98" t="s">
+        <v>81</v>
+      </c>
+      <c r="U98" t="s">
+        <v>82</v>
+      </c>
+      <c r="V98" t="s">
+        <v>81</v>
+      </c>
+      <c r="W98" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>15</v>
+      </c>
+      <c r="B99" t="s">
+        <v>478</v>
+      </c>
+      <c r="C99" t="s">
+        <v>118</v>
+      </c>
+      <c r="D99" t="s">
+        <v>119</v>
+      </c>
+      <c r="E99" t="s">
+        <v>119</v>
+      </c>
+      <c r="F99" t="s">
+        <v>93</v>
+      </c>
+      <c r="G99" t="s">
+        <v>120</v>
+      </c>
+      <c r="J99" t="s">
+        <v>121</v>
+      </c>
+      <c r="K99" t="s">
+        <v>122</v>
+      </c>
+      <c r="M99" t="s">
+        <v>123</v>
+      </c>
+      <c r="O99" t="s">
+        <v>74</v>
+      </c>
+      <c r="P99" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>54</v>
+      </c>
+      <c r="R99" t="s">
+        <v>120</v>
+      </c>
+      <c r="T99" t="s">
+        <v>38</v>
+      </c>
+      <c r="U99" t="s">
+        <v>39</v>
+      </c>
+      <c r="V99" t="s">
+        <v>124</v>
+      </c>
+      <c r="W99" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" ht="120" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>16</v>
+      </c>
+      <c r="B100" t="s">
+        <v>478</v>
+      </c>
+      <c r="C100" t="s">
+        <v>125</v>
+      </c>
+      <c r="D100" t="s">
+        <v>126</v>
+      </c>
+      <c r="E100" t="s">
+        <v>126</v>
+      </c>
+      <c r="F100" t="s">
+        <v>43</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J100" t="s">
+        <v>121</v>
+      </c>
+      <c r="K100" t="s">
+        <v>122</v>
+      </c>
+      <c r="M100" t="s">
+        <v>123</v>
+      </c>
+      <c r="O100" t="s">
+        <v>74</v>
+      </c>
+      <c r="P100" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>54</v>
+      </c>
+      <c r="R100" t="s">
+        <v>120</v>
+      </c>
+      <c r="T100" t="s">
+        <v>38</v>
+      </c>
+      <c r="U100" t="s">
+        <v>108</v>
+      </c>
+      <c r="V100" t="s">
+        <v>55</v>
+      </c>
+      <c r="W100" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>17</v>
+      </c>
+      <c r="B101" t="s">
+        <v>478</v>
+      </c>
+      <c r="C101" t="s">
+        <v>129</v>
+      </c>
+      <c r="D101" t="s">
+        <v>130</v>
+      </c>
+      <c r="E101" t="s">
+        <v>130</v>
+      </c>
+      <c r="F101" t="s">
+        <v>93</v>
+      </c>
+      <c r="G101" t="s">
+        <v>131</v>
+      </c>
+      <c r="J101" t="s">
+        <v>132</v>
+      </c>
+      <c r="K101" t="s">
+        <v>133</v>
+      </c>
+      <c r="M101" t="s">
+        <v>134</v>
+      </c>
+      <c r="O101" t="s">
+        <v>74</v>
+      </c>
+      <c r="P101" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>54</v>
+      </c>
+      <c r="R101" t="s">
+        <v>131</v>
+      </c>
+      <c r="T101" t="s">
+        <v>38</v>
+      </c>
+      <c r="U101" t="s">
+        <v>39</v>
+      </c>
+      <c r="V101" t="s">
+        <v>124</v>
+      </c>
+      <c r="W101" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" ht="120" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>18</v>
+      </c>
+      <c r="B102" t="s">
+        <v>478</v>
+      </c>
+      <c r="C102" t="s">
+        <v>135</v>
+      </c>
+      <c r="D102" t="s">
+        <v>136</v>
+      </c>
+      <c r="E102" t="s">
+        <v>136</v>
+      </c>
+      <c r="F102" t="s">
+        <v>43</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J102" t="s">
+        <v>132</v>
+      </c>
+      <c r="K102" t="s">
+        <v>133</v>
+      </c>
+      <c r="M102" t="s">
+        <v>134</v>
+      </c>
+      <c r="O102" t="s">
+        <v>74</v>
+      </c>
+      <c r="P102" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>54</v>
+      </c>
+      <c r="R102" t="s">
+        <v>131</v>
+      </c>
+      <c r="T102" t="s">
+        <v>38</v>
+      </c>
+      <c r="U102" t="s">
+        <v>108</v>
+      </c>
+      <c r="V102" t="s">
+        <v>55</v>
+      </c>
+      <c r="W102" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>19</v>
+      </c>
+      <c r="B103" t="s">
+        <v>478</v>
+      </c>
+      <c r="C103" t="s">
+        <v>138</v>
+      </c>
+      <c r="D103" t="s">
+        <v>139</v>
+      </c>
+      <c r="E103" t="s">
+        <v>139</v>
+      </c>
+      <c r="F103" t="s">
+        <v>93</v>
+      </c>
+      <c r="G103" t="s">
+        <v>140</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K103" t="s">
+        <v>142</v>
+      </c>
+      <c r="M103" t="s">
+        <v>143</v>
+      </c>
+      <c r="O103" t="s">
+        <v>144</v>
+      </c>
+      <c r="P103" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>146</v>
+      </c>
+      <c r="R103" t="s">
+        <v>147</v>
+      </c>
+      <c r="T103" t="s">
+        <v>38</v>
+      </c>
+      <c r="U103" t="s">
+        <v>108</v>
+      </c>
+      <c r="V103" t="s">
+        <v>55</v>
+      </c>
+      <c r="W103" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" ht="330" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>20</v>
+      </c>
+      <c r="B104" t="s">
+        <v>478</v>
+      </c>
+      <c r="C104" t="s">
+        <v>149</v>
+      </c>
+      <c r="D104" t="s">
+        <v>150</v>
+      </c>
+      <c r="E104" t="s">
+        <v>150</v>
+      </c>
+      <c r="F104" t="s">
+        <v>93</v>
+      </c>
+      <c r="G104" t="s">
+        <v>120</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="M104" t="s">
+        <v>153</v>
+      </c>
+      <c r="O104" t="s">
+        <v>154</v>
+      </c>
+      <c r="P104" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>156</v>
+      </c>
+      <c r="R104" t="s">
+        <v>157</v>
+      </c>
+      <c r="S104" t="s">
+        <v>158</v>
+      </c>
+      <c r="T104" t="s">
+        <v>38</v>
+      </c>
+      <c r="U104" t="s">
+        <v>108</v>
+      </c>
+      <c r="V104" t="s">
+        <v>55</v>
+      </c>
+      <c r="W104" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" ht="330" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>21</v>
+      </c>
+      <c r="B105" t="s">
+        <v>478</v>
+      </c>
+      <c r="C105" t="s">
+        <v>160</v>
+      </c>
+      <c r="D105" t="s">
+        <v>161</v>
+      </c>
+      <c r="E105" t="s">
+        <v>161</v>
+      </c>
+      <c r="F105" t="s">
+        <v>43</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="M105" t="s">
+        <v>153</v>
+      </c>
+      <c r="O105" t="s">
+        <v>154</v>
+      </c>
+      <c r="P105" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>156</v>
+      </c>
+      <c r="R105" t="s">
+        <v>157</v>
+      </c>
+      <c r="T105" t="s">
+        <v>38</v>
+      </c>
+      <c r="U105" t="s">
+        <v>108</v>
+      </c>
+      <c r="V105" t="s">
+        <v>55</v>
+      </c>
+      <c r="W105" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>22</v>
+      </c>
+      <c r="B106" t="s">
+        <v>478</v>
+      </c>
+      <c r="C106" t="s">
+        <v>164</v>
+      </c>
+      <c r="D106" t="s">
+        <v>165</v>
+      </c>
+      <c r="E106" t="s">
+        <v>165</v>
+      </c>
+      <c r="F106" t="s">
+        <v>93</v>
+      </c>
+      <c r="G106" t="s">
+        <v>166</v>
+      </c>
+      <c r="J106" t="s">
+        <v>44</v>
+      </c>
+      <c r="T106" t="s">
+        <v>81</v>
+      </c>
+      <c r="U106" t="s">
+        <v>82</v>
+      </c>
+      <c r="V106" t="s">
+        <v>81</v>
+      </c>
+      <c r="W106" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>23</v>
+      </c>
+      <c r="B107" t="s">
+        <v>478</v>
+      </c>
+      <c r="C107" t="s">
+        <v>167</v>
+      </c>
+      <c r="D107" t="s">
+        <v>168</v>
+      </c>
+      <c r="E107" t="s">
+        <v>168</v>
+      </c>
+      <c r="F107" t="s">
+        <v>33</v>
+      </c>
+      <c r="J107" t="s">
+        <v>44</v>
+      </c>
+      <c r="T107" t="s">
+        <v>81</v>
+      </c>
+      <c r="U107" t="s">
+        <v>82</v>
+      </c>
+      <c r="V107" t="s">
+        <v>81</v>
+      </c>
+      <c r="W107" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>24</v>
+      </c>
+      <c r="B108" t="s">
+        <v>478</v>
+      </c>
+      <c r="C108" t="s">
+        <v>169</v>
+      </c>
+      <c r="D108" t="s">
+        <v>170</v>
+      </c>
+      <c r="E108" t="s">
+        <v>171</v>
+      </c>
+      <c r="F108" t="s">
+        <v>93</v>
+      </c>
+      <c r="G108" t="s">
+        <v>172</v>
+      </c>
+      <c r="J108" t="s">
+        <v>44</v>
+      </c>
+      <c r="T108" t="s">
+        <v>81</v>
+      </c>
+      <c r="U108" t="s">
+        <v>82</v>
+      </c>
+      <c r="V108" t="s">
+        <v>81</v>
+      </c>
+      <c r="W108" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>25</v>
+      </c>
+      <c r="B109" t="s">
+        <v>478</v>
+      </c>
+      <c r="C109" t="s">
+        <v>173</v>
+      </c>
+      <c r="D109" t="s">
+        <v>174</v>
+      </c>
+      <c r="E109" t="s">
+        <v>175</v>
+      </c>
+      <c r="F109" t="s">
+        <v>93</v>
+      </c>
+      <c r="G109" t="s">
+        <v>172</v>
+      </c>
+      <c r="J109" t="s">
+        <v>44</v>
+      </c>
+      <c r="T109" t="s">
+        <v>81</v>
+      </c>
+      <c r="U109" t="s">
+        <v>82</v>
+      </c>
+      <c r="V109" t="s">
+        <v>81</v>
+      </c>
+      <c r="W109" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>26</v>
+      </c>
+      <c r="B110" t="s">
+        <v>478</v>
+      </c>
+      <c r="C110" t="s">
+        <v>176</v>
+      </c>
+      <c r="D110" t="s">
+        <v>177</v>
+      </c>
+      <c r="E110" t="s">
+        <v>177</v>
+      </c>
+      <c r="F110" t="s">
+        <v>93</v>
+      </c>
+      <c r="G110" t="s">
+        <v>178</v>
+      </c>
+      <c r="J110" t="s">
+        <v>44</v>
+      </c>
+      <c r="T110" t="s">
+        <v>81</v>
+      </c>
+      <c r="U110" t="s">
+        <v>82</v>
+      </c>
+      <c r="V110" t="s">
+        <v>81</v>
+      </c>
+      <c r="W110" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>27</v>
+      </c>
+      <c r="B111" t="s">
+        <v>478</v>
+      </c>
+      <c r="C111" t="s">
+        <v>179</v>
+      </c>
+      <c r="D111" t="s">
+        <v>180</v>
+      </c>
+      <c r="E111" t="s">
+        <v>180</v>
+      </c>
+      <c r="F111" t="s">
+        <v>93</v>
+      </c>
+      <c r="G111" t="s">
+        <v>181</v>
+      </c>
+      <c r="J111" t="s">
+        <v>44</v>
+      </c>
+      <c r="T111" t="s">
+        <v>81</v>
+      </c>
+      <c r="U111" t="s">
+        <v>82</v>
+      </c>
+      <c r="V111" t="s">
+        <v>81</v>
+      </c>
+      <c r="W111" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" ht="120" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>28</v>
+      </c>
+      <c r="B112" t="s">
+        <v>478</v>
+      </c>
+      <c r="C112" t="s">
+        <v>182</v>
+      </c>
+      <c r="D112" t="s">
+        <v>183</v>
+      </c>
+      <c r="E112" t="s">
+        <v>183</v>
+      </c>
+      <c r="F112" t="s">
+        <v>43</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J112" t="s">
+        <v>44</v>
+      </c>
+      <c r="T112" t="s">
+        <v>81</v>
+      </c>
+      <c r="U112" t="s">
+        <v>82</v>
+      </c>
+      <c r="V112" t="s">
+        <v>81</v>
+      </c>
+      <c r="W112" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>29</v>
+      </c>
+      <c r="B113" t="s">
+        <v>478</v>
+      </c>
+      <c r="C113" t="s">
+        <v>185</v>
+      </c>
+      <c r="D113" t="s">
+        <v>186</v>
+      </c>
+      <c r="E113" t="s">
+        <v>186</v>
+      </c>
+      <c r="F113" t="s">
+        <v>93</v>
+      </c>
+      <c r="G113" t="s">
+        <v>187</v>
+      </c>
+      <c r="J113" t="s">
+        <v>44</v>
+      </c>
+      <c r="T113" t="s">
+        <v>81</v>
+      </c>
+      <c r="U113" t="s">
+        <v>82</v>
+      </c>
+      <c r="V113" t="s">
+        <v>81</v>
+      </c>
+      <c r="W113" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>30</v>
+      </c>
+      <c r="B114" t="s">
+        <v>478</v>
+      </c>
+      <c r="C114" t="s">
+        <v>188</v>
+      </c>
+      <c r="D114" t="s">
+        <v>189</v>
+      </c>
+      <c r="E114" t="s">
+        <v>189</v>
+      </c>
+      <c r="F114" t="s">
+        <v>93</v>
+      </c>
+      <c r="G114" t="s">
+        <v>190</v>
+      </c>
+      <c r="J114" t="s">
+        <v>44</v>
+      </c>
+      <c r="T114" t="s">
+        <v>81</v>
+      </c>
+      <c r="U114" t="s">
+        <v>82</v>
+      </c>
+      <c r="V114" t="s">
+        <v>81</v>
+      </c>
+      <c r="W114" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>31</v>
+      </c>
+      <c r="B115" t="s">
+        <v>478</v>
+      </c>
+      <c r="C115" t="s">
+        <v>191</v>
+      </c>
+      <c r="D115" t="s">
+        <v>192</v>
+      </c>
+      <c r="E115" t="s">
+        <v>192</v>
+      </c>
+      <c r="F115" t="s">
+        <v>93</v>
+      </c>
+      <c r="G115" t="s">
+        <v>193</v>
+      </c>
+      <c r="J115" t="s">
+        <v>44</v>
+      </c>
+      <c r="T115" t="s">
+        <v>81</v>
+      </c>
+      <c r="U115" t="s">
+        <v>82</v>
+      </c>
+      <c r="V115" t="s">
+        <v>81</v>
+      </c>
+      <c r="W115" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>32</v>
+      </c>
+      <c r="B116" t="s">
+        <v>478</v>
+      </c>
+      <c r="C116" t="s">
+        <v>194</v>
+      </c>
+      <c r="D116" t="s">
+        <v>195</v>
+      </c>
+      <c r="E116" t="s">
+        <v>195</v>
+      </c>
+      <c r="F116" t="s">
+        <v>93</v>
+      </c>
+      <c r="G116" t="s">
+        <v>193</v>
+      </c>
+      <c r="J116" t="s">
+        <v>44</v>
+      </c>
+      <c r="T116" t="s">
+        <v>81</v>
+      </c>
+      <c r="U116" t="s">
+        <v>82</v>
+      </c>
+      <c r="V116" t="s">
+        <v>81</v>
+      </c>
+      <c r="W116" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>33</v>
+      </c>
+      <c r="B117" t="s">
+        <v>478</v>
+      </c>
+      <c r="C117" t="s">
+        <v>196</v>
+      </c>
+      <c r="D117" t="s">
+        <v>197</v>
+      </c>
+      <c r="E117" t="s">
+        <v>197</v>
+      </c>
+      <c r="F117" t="s">
+        <v>93</v>
+      </c>
+      <c r="G117" t="s">
+        <v>193</v>
+      </c>
+      <c r="J117" t="s">
+        <v>44</v>
+      </c>
+      <c r="T117" t="s">
+        <v>81</v>
+      </c>
+      <c r="U117" t="s">
+        <v>82</v>
+      </c>
+      <c r="V117" t="s">
+        <v>81</v>
+      </c>
+      <c r="W117" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>34</v>
+      </c>
+      <c r="B118" t="s">
+        <v>478</v>
+      </c>
+      <c r="C118" t="s">
+        <v>198</v>
+      </c>
+      <c r="D118" t="s">
+        <v>199</v>
+      </c>
+      <c r="E118" t="s">
+        <v>199</v>
+      </c>
+      <c r="F118" t="s">
+        <v>93</v>
+      </c>
+      <c r="G118" t="s">
+        <v>193</v>
+      </c>
+      <c r="J118" t="s">
+        <v>44</v>
+      </c>
+      <c r="T118" t="s">
+        <v>81</v>
+      </c>
+      <c r="U118" t="s">
+        <v>82</v>
+      </c>
+      <c r="V118" t="s">
+        <v>81</v>
+      </c>
+      <c r="W118" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>35</v>
+      </c>
+      <c r="B119" t="s">
+        <v>478</v>
+      </c>
+      <c r="C119" t="s">
+        <v>200</v>
+      </c>
+      <c r="D119" t="s">
+        <v>201</v>
+      </c>
+      <c r="E119" t="s">
+        <v>201</v>
+      </c>
+      <c r="F119" t="s">
+        <v>93</v>
+      </c>
+      <c r="G119" t="s">
+        <v>193</v>
+      </c>
+      <c r="J119" t="s">
+        <v>44</v>
+      </c>
+      <c r="T119" t="s">
+        <v>81</v>
+      </c>
+      <c r="U119" t="s">
+        <v>82</v>
+      </c>
+      <c r="V119" t="s">
+        <v>81</v>
+      </c>
+      <c r="W119" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>36</v>
+      </c>
+      <c r="B120" t="s">
+        <v>478</v>
+      </c>
+      <c r="C120" t="s">
+        <v>202</v>
+      </c>
+      <c r="D120" t="s">
+        <v>203</v>
+      </c>
+      <c r="E120" t="s">
+        <v>203</v>
+      </c>
+      <c r="F120" t="s">
+        <v>93</v>
+      </c>
+      <c r="G120" t="s">
+        <v>204</v>
+      </c>
+      <c r="J120" t="s">
+        <v>44</v>
+      </c>
+      <c r="T120" t="s">
+        <v>81</v>
+      </c>
+      <c r="U120" t="s">
+        <v>82</v>
+      </c>
+      <c r="V120" t="s">
+        <v>81</v>
+      </c>
+      <c r="W120" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>37</v>
+      </c>
+      <c r="B121" t="s">
+        <v>478</v>
+      </c>
+      <c r="C121" t="s">
+        <v>205</v>
+      </c>
+      <c r="D121" t="s">
+        <v>206</v>
+      </c>
+      <c r="E121" t="s">
+        <v>207</v>
+      </c>
+      <c r="F121" t="s">
+        <v>93</v>
+      </c>
+      <c r="G121" t="s">
+        <v>208</v>
+      </c>
+      <c r="J121" t="s">
+        <v>44</v>
+      </c>
+      <c r="T121" t="s">
+        <v>81</v>
+      </c>
+      <c r="U121" t="s">
+        <v>82</v>
+      </c>
+      <c r="V121" t="s">
+        <v>81</v>
+      </c>
+      <c r="W121" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" ht="120" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>38</v>
+      </c>
+      <c r="B122" t="s">
+        <v>478</v>
+      </c>
+      <c r="C122" t="s">
+        <v>209</v>
+      </c>
+      <c r="D122" t="s">
+        <v>210</v>
+      </c>
+      <c r="E122" t="s">
+        <v>211</v>
+      </c>
+      <c r="F122" t="s">
+        <v>43</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J122" t="s">
+        <v>44</v>
+      </c>
+      <c r="T122" t="s">
+        <v>81</v>
+      </c>
+      <c r="U122" t="s">
+        <v>82</v>
+      </c>
+      <c r="V122" t="s">
+        <v>81</v>
+      </c>
+      <c r="W122" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>39</v>
+      </c>
+      <c r="B123" t="s">
+        <v>478</v>
+      </c>
+      <c r="C123" t="s">
+        <v>213</v>
+      </c>
+      <c r="D123" t="s">
+        <v>214</v>
+      </c>
+      <c r="E123" t="s">
+        <v>215</v>
+      </c>
+      <c r="F123" t="s">
+        <v>93</v>
+      </c>
+      <c r="G123" t="s">
+        <v>208</v>
+      </c>
+      <c r="J123" t="s">
+        <v>44</v>
+      </c>
+      <c r="T123" t="s">
+        <v>81</v>
+      </c>
+      <c r="U123" t="s">
+        <v>82</v>
+      </c>
+      <c r="V123" t="s">
+        <v>81</v>
+      </c>
+      <c r="W123" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" ht="120" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>40</v>
+      </c>
+      <c r="B124" t="s">
+        <v>478</v>
+      </c>
+      <c r="C124" t="s">
+        <v>216</v>
+      </c>
+      <c r="D124" t="s">
+        <v>217</v>
+      </c>
+      <c r="E124" t="s">
+        <v>218</v>
+      </c>
+      <c r="F124" t="s">
+        <v>43</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J124" t="s">
+        <v>44</v>
+      </c>
+      <c r="T124" t="s">
+        <v>81</v>
+      </c>
+      <c r="U124" t="s">
+        <v>82</v>
+      </c>
+      <c r="V124" t="s">
+        <v>81</v>
+      </c>
+      <c r="W124" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>41</v>
+      </c>
+      <c r="B125" t="s">
+        <v>478</v>
+      </c>
+      <c r="C125" t="s">
+        <v>219</v>
+      </c>
+      <c r="D125" t="s">
+        <v>220</v>
+      </c>
+      <c r="E125" t="s">
+        <v>220</v>
+      </c>
+      <c r="F125" t="s">
+        <v>93</v>
+      </c>
+      <c r="G125" t="s">
+        <v>221</v>
+      </c>
+      <c r="J125" t="s">
+        <v>44</v>
+      </c>
+      <c r="T125" t="s">
+        <v>81</v>
+      </c>
+      <c r="U125" t="s">
+        <v>82</v>
+      </c>
+      <c r="V125" t="s">
+        <v>81</v>
+      </c>
+      <c r="W125" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>42</v>
+      </c>
+      <c r="B126" t="s">
+        <v>478</v>
+      </c>
+      <c r="C126" t="s">
+        <v>222</v>
+      </c>
+      <c r="D126" t="s">
+        <v>223</v>
+      </c>
+      <c r="E126" t="s">
+        <v>224</v>
+      </c>
+      <c r="F126" t="s">
+        <v>93</v>
+      </c>
+      <c r="G126" t="s">
+        <v>225</v>
+      </c>
+      <c r="J126" t="s">
+        <v>44</v>
+      </c>
+      <c r="T126" t="s">
+        <v>81</v>
+      </c>
+      <c r="U126" t="s">
+        <v>82</v>
+      </c>
+      <c r="V126" t="s">
+        <v>81</v>
+      </c>
+      <c r="W126" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" ht="180" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>43</v>
+      </c>
+      <c r="B127" t="s">
+        <v>478</v>
+      </c>
+      <c r="C127" t="s">
+        <v>226</v>
+      </c>
+      <c r="D127" t="s">
+        <v>227</v>
+      </c>
+      <c r="E127" t="s">
+        <v>227</v>
+      </c>
+      <c r="F127" t="s">
+        <v>43</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J127" t="s">
+        <v>44</v>
+      </c>
+      <c r="T127" t="s">
+        <v>81</v>
+      </c>
+      <c r="U127" t="s">
+        <v>82</v>
+      </c>
+      <c r="V127" t="s">
+        <v>81</v>
+      </c>
+      <c r="W127" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" ht="135" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>44</v>
+      </c>
+      <c r="B128" t="s">
+        <v>478</v>
+      </c>
+      <c r="C128" t="s">
+        <v>229</v>
+      </c>
+      <c r="D128" t="s">
+        <v>230</v>
+      </c>
+      <c r="E128" t="s">
+        <v>231</v>
+      </c>
+      <c r="F128" t="s">
+        <v>43</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J128" t="s">
+        <v>44</v>
+      </c>
+      <c r="T128" t="s">
+        <v>81</v>
+      </c>
+      <c r="U128" t="s">
+        <v>82</v>
+      </c>
+      <c r="V128" t="s">
+        <v>81</v>
+      </c>
+      <c r="W128" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" ht="105" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>45</v>
+      </c>
+      <c r="B129" t="s">
+        <v>478</v>
+      </c>
+      <c r="C129" t="s">
+        <v>233</v>
+      </c>
+      <c r="D129" t="s">
+        <v>234</v>
+      </c>
+      <c r="E129" t="s">
+        <v>234</v>
+      </c>
+      <c r="F129" t="s">
+        <v>43</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J129" t="s">
+        <v>44</v>
+      </c>
+      <c r="T129" t="s">
+        <v>81</v>
+      </c>
+      <c r="U129" t="s">
+        <v>82</v>
+      </c>
+      <c r="V129" t="s">
+        <v>81</v>
+      </c>
+      <c r="W129" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>46</v>
+      </c>
+      <c r="B130" t="s">
+        <v>478</v>
+      </c>
+      <c r="C130" t="s">
+        <v>236</v>
+      </c>
+      <c r="D130" t="s">
+        <v>237</v>
+      </c>
+      <c r="E130" t="s">
+        <v>237</v>
+      </c>
+      <c r="F130" t="s">
+        <v>93</v>
+      </c>
+      <c r="G130" t="s">
+        <v>238</v>
+      </c>
+      <c r="J130" t="s">
+        <v>44</v>
+      </c>
+      <c r="T130" t="s">
+        <v>81</v>
+      </c>
+      <c r="U130" t="s">
+        <v>82</v>
+      </c>
+      <c r="V130" t="s">
+        <v>81</v>
+      </c>
+      <c r="W130" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" ht="345" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>47</v>
+      </c>
+      <c r="B131" t="s">
+        <v>478</v>
+      </c>
+      <c r="C131" t="s">
+        <v>239</v>
+      </c>
+      <c r="D131" t="s">
+        <v>240</v>
+      </c>
+      <c r="E131" t="s">
+        <v>240</v>
+      </c>
+      <c r="F131" t="s">
+        <v>43</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J131" t="s">
+        <v>242</v>
+      </c>
+      <c r="K131" t="s">
+        <v>243</v>
+      </c>
+      <c r="M131" t="s">
+        <v>244</v>
+      </c>
+      <c r="O131" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="P131" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q131" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="T131" t="s">
+        <v>38</v>
+      </c>
+      <c r="U131" t="s">
+        <v>108</v>
+      </c>
+      <c r="V131" t="s">
+        <v>65</v>
+      </c>
+      <c r="W131" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>48</v>
+      </c>
+      <c r="B132" t="s">
+        <v>478</v>
+      </c>
+      <c r="C132" t="s">
+        <v>248</v>
+      </c>
+      <c r="D132" t="s">
+        <v>249</v>
+      </c>
+      <c r="E132" t="s">
+        <v>250</v>
+      </c>
+      <c r="F132" t="s">
+        <v>43</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="J132" t="s">
+        <v>44</v>
+      </c>
+      <c r="T132" t="s">
+        <v>81</v>
+      </c>
+      <c r="U132" t="s">
+        <v>82</v>
+      </c>
+      <c r="V132" t="s">
+        <v>81</v>
+      </c>
+      <c r="W132" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>49</v>
+      </c>
+      <c r="B133" t="s">
+        <v>478</v>
+      </c>
+      <c r="C133" t="s">
+        <v>252</v>
+      </c>
+      <c r="D133" t="s">
+        <v>253</v>
+      </c>
+      <c r="E133" t="s">
+        <v>254</v>
+      </c>
+      <c r="F133" t="s">
+        <v>43</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="J133" t="s">
+        <v>44</v>
+      </c>
+      <c r="T133" t="s">
+        <v>81</v>
+      </c>
+      <c r="U133" t="s">
+        <v>82</v>
+      </c>
+      <c r="V133" t="s">
+        <v>81</v>
+      </c>
+      <c r="W133" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>50</v>
+      </c>
+      <c r="B134" t="s">
+        <v>478</v>
+      </c>
+      <c r="C134" t="s">
+        <v>255</v>
+      </c>
+      <c r="D134" t="s">
+        <v>256</v>
+      </c>
+      <c r="E134" t="s">
+        <v>257</v>
+      </c>
+      <c r="F134" t="s">
+        <v>43</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="J134" t="s">
+        <v>44</v>
+      </c>
+      <c r="T134" t="s">
+        <v>81</v>
+      </c>
+      <c r="U134" t="s">
+        <v>82</v>
+      </c>
+      <c r="V134" t="s">
+        <v>81</v>
+      </c>
+      <c r="W134" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>51</v>
+      </c>
+      <c r="B135" t="s">
+        <v>478</v>
+      </c>
+      <c r="C135" t="s">
+        <v>258</v>
+      </c>
+      <c r="D135" t="s">
+        <v>259</v>
+      </c>
+      <c r="E135" t="s">
+        <v>260</v>
+      </c>
+      <c r="F135" t="s">
+        <v>43</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="J135" t="s">
+        <v>44</v>
+      </c>
+      <c r="T135" t="s">
+        <v>81</v>
+      </c>
+      <c r="U135" t="s">
+        <v>82</v>
+      </c>
+      <c r="V135" t="s">
+        <v>81</v>
+      </c>
+      <c r="W135" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>52</v>
+      </c>
+      <c r="B136" t="s">
+        <v>478</v>
+      </c>
+      <c r="C136" t="s">
+        <v>262</v>
+      </c>
+      <c r="D136" t="s">
+        <v>263</v>
+      </c>
+      <c r="E136" t="s">
+        <v>263</v>
+      </c>
+      <c r="F136" t="s">
+        <v>43</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="J136" t="s">
+        <v>44</v>
+      </c>
+      <c r="T136" t="s">
+        <v>81</v>
+      </c>
+      <c r="U136" t="s">
+        <v>82</v>
+      </c>
+      <c r="V136" t="s">
+        <v>81</v>
+      </c>
+      <c r="W136" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>53</v>
+      </c>
+      <c r="B137" t="s">
+        <v>478</v>
+      </c>
+      <c r="C137" t="s">
+        <v>264</v>
+      </c>
+      <c r="D137" t="s">
+        <v>265</v>
+      </c>
+      <c r="E137" t="s">
+        <v>265</v>
+      </c>
+      <c r="F137" t="s">
+        <v>43</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="J137" t="s">
+        <v>44</v>
+      </c>
+      <c r="T137" t="s">
+        <v>81</v>
+      </c>
+      <c r="U137" t="s">
+        <v>82</v>
+      </c>
+      <c r="V137" t="s">
+        <v>81</v>
+      </c>
+      <c r="W137" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>54</v>
+      </c>
+      <c r="B138" t="s">
+        <v>478</v>
+      </c>
+      <c r="C138" t="s">
+        <v>266</v>
+      </c>
+      <c r="D138" t="s">
+        <v>267</v>
+      </c>
+      <c r="E138" t="s">
+        <v>267</v>
+      </c>
+      <c r="F138" t="s">
+        <v>43</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="J138" t="s">
+        <v>44</v>
+      </c>
+      <c r="T138" t="s">
+        <v>81</v>
+      </c>
+      <c r="U138" t="s">
+        <v>82</v>
+      </c>
+      <c r="V138" t="s">
+        <v>81</v>
+      </c>
+      <c r="W138" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>55</v>
+      </c>
+      <c r="B139" t="s">
+        <v>478</v>
+      </c>
+      <c r="C139" t="s">
+        <v>268</v>
+      </c>
+      <c r="D139" t="s">
+        <v>269</v>
+      </c>
+      <c r="E139" t="s">
+        <v>269</v>
+      </c>
+      <c r="F139" t="s">
+        <v>43</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="J139" t="s">
+        <v>44</v>
+      </c>
+      <c r="T139" t="s">
+        <v>81</v>
+      </c>
+      <c r="U139" t="s">
+        <v>82</v>
+      </c>
+      <c r="V139" t="s">
+        <v>81</v>
+      </c>
+      <c r="W139" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>56</v>
+      </c>
+      <c r="B140" t="s">
+        <v>478</v>
+      </c>
+      <c r="C140" t="s">
+        <v>270</v>
+      </c>
+      <c r="D140" t="s">
+        <v>271</v>
+      </c>
+      <c r="E140" t="s">
+        <v>271</v>
+      </c>
+      <c r="F140" t="s">
+        <v>43</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="J140" t="s">
+        <v>44</v>
+      </c>
+      <c r="T140" t="s">
+        <v>81</v>
+      </c>
+      <c r="U140" t="s">
+        <v>82</v>
+      </c>
+      <c r="V140" t="s">
+        <v>81</v>
+      </c>
+      <c r="W140" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>57</v>
+      </c>
+      <c r="B141" t="s">
+        <v>478</v>
+      </c>
+      <c r="C141" t="s">
+        <v>272</v>
+      </c>
+      <c r="D141" t="s">
+        <v>273</v>
+      </c>
+      <c r="E141" t="s">
+        <v>274</v>
+      </c>
+      <c r="F141" t="s">
+        <v>43</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="J141" t="s">
+        <v>275</v>
+      </c>
+      <c r="K141" t="s">
+        <v>276</v>
+      </c>
+      <c r="L141" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="T141" t="s">
+        <v>38</v>
+      </c>
+      <c r="U141" t="s">
+        <v>39</v>
+      </c>
+      <c r="V141" t="s">
+        <v>124</v>
+      </c>
+      <c r="W141" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>58</v>
+      </c>
+      <c r="B142" t="s">
+        <v>478</v>
+      </c>
+      <c r="C142" t="s">
+        <v>278</v>
+      </c>
+      <c r="D142" t="s">
+        <v>279</v>
+      </c>
+      <c r="E142" t="s">
+        <v>279</v>
+      </c>
+      <c r="F142" t="s">
+        <v>43</v>
+      </c>
+      <c r="J142" t="s">
+        <v>280</v>
+      </c>
+      <c r="K142" t="s">
+        <v>281</v>
+      </c>
+      <c r="M142" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="O142" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="P142" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>284</v>
+      </c>
+      <c r="T142" t="s">
+        <v>38</v>
+      </c>
+      <c r="U142" t="s">
+        <v>39</v>
+      </c>
+      <c r="V142" t="s">
+        <v>124</v>
+      </c>
+      <c r="W142" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>59</v>
+      </c>
+      <c r="B143" t="s">
+        <v>478</v>
+      </c>
+      <c r="C143" t="s">
+        <v>285</v>
+      </c>
+      <c r="D143" t="s">
+        <v>286</v>
+      </c>
+      <c r="E143" t="s">
+        <v>286</v>
+      </c>
+      <c r="F143" t="s">
+        <v>43</v>
+      </c>
+      <c r="J143" t="s">
+        <v>44</v>
+      </c>
+      <c r="T143" t="s">
+        <v>81</v>
+      </c>
+      <c r="U143" t="s">
+        <v>82</v>
+      </c>
+      <c r="V143" t="s">
+        <v>81</v>
+      </c>
+      <c r="W143" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>60</v>
+      </c>
+      <c r="B144" t="s">
+        <v>478</v>
+      </c>
+      <c r="C144" t="s">
+        <v>287</v>
+      </c>
+      <c r="D144" t="s">
+        <v>288</v>
+      </c>
+      <c r="E144" t="s">
+        <v>288</v>
+      </c>
+      <c r="F144" t="s">
+        <v>43</v>
+      </c>
+      <c r="J144" t="s">
+        <v>44</v>
+      </c>
+      <c r="T144" t="s">
+        <v>81</v>
+      </c>
+      <c r="U144" t="s">
+        <v>82</v>
+      </c>
+      <c r="V144" t="s">
+        <v>81</v>
+      </c>
+      <c r="W144" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>61</v>
+      </c>
+      <c r="B145" t="s">
+        <v>478</v>
+      </c>
+      <c r="C145" t="s">
+        <v>289</v>
+      </c>
+      <c r="D145" t="s">
+        <v>290</v>
+      </c>
+      <c r="E145" t="s">
+        <v>290</v>
+      </c>
+      <c r="F145" t="s">
+        <v>43</v>
+      </c>
+      <c r="J145" t="s">
+        <v>44</v>
+      </c>
+      <c r="T145" t="s">
+        <v>81</v>
+      </c>
+      <c r="U145" t="s">
+        <v>82</v>
+      </c>
+      <c r="V145" t="s">
+        <v>81</v>
+      </c>
+      <c r="W145" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>62</v>
+      </c>
+      <c r="B146" t="s">
+        <v>478</v>
+      </c>
+      <c r="C146" t="s">
+        <v>291</v>
+      </c>
+      <c r="D146" t="s">
+        <v>292</v>
+      </c>
+      <c r="E146" t="s">
+        <v>292</v>
+      </c>
+      <c r="F146" t="s">
+        <v>43</v>
+      </c>
+      <c r="J146" t="s">
+        <v>44</v>
+      </c>
+      <c r="T146" t="s">
+        <v>81</v>
+      </c>
+      <c r="U146" t="s">
+        <v>82</v>
+      </c>
+      <c r="V146" t="s">
+        <v>81</v>
+      </c>
+      <c r="W146" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>63</v>
+      </c>
+      <c r="B147" t="s">
+        <v>478</v>
+      </c>
+      <c r="C147" t="s">
+        <v>293</v>
+      </c>
+      <c r="D147" t="s">
+        <v>294</v>
+      </c>
+      <c r="E147" t="s">
+        <v>294</v>
+      </c>
+      <c r="F147" t="s">
+        <v>43</v>
+      </c>
+      <c r="J147" t="s">
+        <v>295</v>
+      </c>
+      <c r="K147" t="s">
+        <v>296</v>
+      </c>
+      <c r="M147" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="O147" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="P147" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>54</v>
+      </c>
+      <c r="T147" t="s">
+        <v>38</v>
+      </c>
+      <c r="U147" t="s">
+        <v>39</v>
+      </c>
+      <c r="V147" t="s">
+        <v>124</v>
+      </c>
+      <c r="W147" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>64</v>
+      </c>
+      <c r="B148" t="s">
+        <v>478</v>
+      </c>
+      <c r="C148" t="s">
+        <v>299</v>
+      </c>
+      <c r="D148" t="s">
+        <v>300</v>
+      </c>
+      <c r="E148" t="s">
+        <v>300</v>
+      </c>
+      <c r="F148" t="s">
+        <v>43</v>
+      </c>
+      <c r="J148" t="s">
+        <v>44</v>
+      </c>
+      <c r="T148" t="s">
+        <v>81</v>
+      </c>
+      <c r="U148" t="s">
+        <v>82</v>
+      </c>
+      <c r="V148" t="s">
+        <v>81</v>
+      </c>
+      <c r="W148" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>65</v>
+      </c>
+      <c r="B149" t="s">
+        <v>478</v>
+      </c>
+      <c r="C149" t="s">
+        <v>301</v>
+      </c>
+      <c r="D149" t="s">
+        <v>302</v>
+      </c>
+      <c r="E149" t="s">
+        <v>302</v>
+      </c>
+      <c r="F149" t="s">
+        <v>43</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="J149" t="s">
+        <v>304</v>
+      </c>
+      <c r="K149" t="s">
+        <v>305</v>
+      </c>
+      <c r="L149" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="T149" t="s">
+        <v>38</v>
+      </c>
+      <c r="U149" t="s">
+        <v>39</v>
+      </c>
+      <c r="V149" t="s">
+        <v>124</v>
+      </c>
+      <c r="W149" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>66</v>
+      </c>
+      <c r="B150" t="s">
+        <v>478</v>
+      </c>
+      <c r="C150" t="s">
+        <v>307</v>
+      </c>
+      <c r="D150" t="s">
+        <v>308</v>
+      </c>
+      <c r="E150" t="s">
+        <v>308</v>
+      </c>
+      <c r="F150" t="s">
+        <v>93</v>
+      </c>
+      <c r="G150" t="s">
+        <v>309</v>
+      </c>
+      <c r="J150" t="s">
+        <v>44</v>
+      </c>
+      <c r="T150" t="s">
+        <v>81</v>
+      </c>
+      <c r="U150" t="s">
+        <v>82</v>
+      </c>
+      <c r="V150" t="s">
+        <v>81</v>
+      </c>
+      <c r="W150" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23" ht="285" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>67</v>
+      </c>
+      <c r="B151" t="s">
+        <v>478</v>
+      </c>
+      <c r="C151" t="s">
+        <v>310</v>
+      </c>
+      <c r="D151" t="s">
+        <v>311</v>
+      </c>
+      <c r="E151" t="s">
+        <v>311</v>
+      </c>
+      <c r="F151" t="s">
+        <v>43</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="J151" t="s">
+        <v>44</v>
+      </c>
+      <c r="T151" t="s">
+        <v>81</v>
+      </c>
+      <c r="U151" t="s">
+        <v>82</v>
+      </c>
+      <c r="V151" t="s">
+        <v>81</v>
+      </c>
+      <c r="W151" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>68</v>
+      </c>
+      <c r="B152" t="s">
+        <v>478</v>
+      </c>
+      <c r="C152" t="s">
+        <v>313</v>
+      </c>
+      <c r="D152" t="s">
+        <v>314</v>
+      </c>
+      <c r="E152" t="s">
+        <v>314</v>
+      </c>
+      <c r="F152" t="s">
+        <v>43</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="J152" t="s">
+        <v>44</v>
+      </c>
+      <c r="T152" t="s">
+        <v>81</v>
+      </c>
+      <c r="U152" t="s">
+        <v>82</v>
+      </c>
+      <c r="V152" t="s">
+        <v>81</v>
+      </c>
+      <c r="W152" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23" ht="195" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>69</v>
+      </c>
+      <c r="B153" t="s">
+        <v>478</v>
+      </c>
+      <c r="C153" t="s">
+        <v>316</v>
+      </c>
+      <c r="D153" t="s">
+        <v>317</v>
+      </c>
+      <c r="E153" t="s">
+        <v>317</v>
+      </c>
+      <c r="F153" t="s">
+        <v>43</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="J153" t="s">
+        <v>44</v>
+      </c>
+      <c r="T153" t="s">
+        <v>81</v>
+      </c>
+      <c r="U153" t="s">
+        <v>82</v>
+      </c>
+      <c r="V153" t="s">
+        <v>81</v>
+      </c>
+      <c r="W153" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="154" spans="1:23" ht="195" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>70</v>
+      </c>
+      <c r="B154" t="s">
+        <v>478</v>
+      </c>
+      <c r="C154" t="s">
+        <v>319</v>
+      </c>
+      <c r="D154" t="s">
+        <v>320</v>
+      </c>
+      <c r="E154" t="s">
+        <v>320</v>
+      </c>
+      <c r="F154" t="s">
+        <v>43</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="J154" t="s">
+        <v>44</v>
+      </c>
+      <c r="T154" t="s">
+        <v>81</v>
+      </c>
+      <c r="U154" t="s">
+        <v>82</v>
+      </c>
+      <c r="V154" t="s">
+        <v>81</v>
+      </c>
+      <c r="W154" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23" ht="195" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>71</v>
+      </c>
+      <c r="B155" t="s">
+        <v>478</v>
+      </c>
+      <c r="C155" t="s">
+        <v>321</v>
+      </c>
+      <c r="D155" t="s">
+        <v>322</v>
+      </c>
+      <c r="E155" t="s">
+        <v>322</v>
+      </c>
+      <c r="F155" t="s">
+        <v>43</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="J155" t="s">
+        <v>44</v>
+      </c>
+      <c r="T155" t="s">
+        <v>81</v>
+      </c>
+      <c r="U155" t="s">
+        <v>82</v>
+      </c>
+      <c r="V155" t="s">
+        <v>81</v>
+      </c>
+      <c r="W155" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="156" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>72</v>
+      </c>
+      <c r="B156" t="s">
+        <v>478</v>
+      </c>
+      <c r="C156" t="s">
+        <v>323</v>
+      </c>
+      <c r="D156" t="s">
+        <v>324</v>
+      </c>
+      <c r="E156" t="s">
+        <v>325</v>
+      </c>
+      <c r="F156" t="s">
+        <v>43</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="J156" t="s">
+        <v>44</v>
+      </c>
+      <c r="T156" t="s">
+        <v>81</v>
+      </c>
+      <c r="U156" t="s">
+        <v>82</v>
+      </c>
+      <c r="V156" t="s">
+        <v>81</v>
+      </c>
+      <c r="W156" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="157" spans="1:23" ht="195" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>73</v>
+      </c>
+      <c r="B157" t="s">
+        <v>478</v>
+      </c>
+      <c r="C157" t="s">
+        <v>327</v>
+      </c>
+      <c r="D157" t="s">
+        <v>328</v>
+      </c>
+      <c r="E157" t="s">
+        <v>329</v>
+      </c>
+      <c r="F157" t="s">
+        <v>43</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="J157" t="s">
+        <v>44</v>
+      </c>
+      <c r="T157" t="s">
+        <v>81</v>
+      </c>
+      <c r="U157" t="s">
+        <v>82</v>
+      </c>
+      <c r="V157" t="s">
+        <v>81</v>
+      </c>
+      <c r="W157" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="158" spans="1:23" ht="195" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>74</v>
+      </c>
+      <c r="B158" t="s">
+        <v>478</v>
+      </c>
+      <c r="C158" t="s">
+        <v>330</v>
+      </c>
+      <c r="D158" t="s">
+        <v>331</v>
+      </c>
+      <c r="E158" t="s">
+        <v>332</v>
+      </c>
+      <c r="F158" t="s">
+        <v>43</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="J158" t="s">
+        <v>44</v>
+      </c>
+      <c r="T158" t="s">
+        <v>81</v>
+      </c>
+      <c r="U158" t="s">
+        <v>82</v>
+      </c>
+      <c r="V158" t="s">
+        <v>81</v>
+      </c>
+      <c r="W158" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>75</v>
+      </c>
+      <c r="B159" t="s">
+        <v>478</v>
+      </c>
+      <c r="C159" t="s">
+        <v>333</v>
+      </c>
+      <c r="D159" t="s">
+        <v>334</v>
+      </c>
+      <c r="E159" t="s">
+        <v>335</v>
+      </c>
+      <c r="F159" t="s">
+        <v>43</v>
+      </c>
+      <c r="G159" t="s">
+        <v>309</v>
+      </c>
+      <c r="J159" t="s">
+        <v>44</v>
+      </c>
+      <c r="T159" t="s">
+        <v>81</v>
+      </c>
+      <c r="U159" t="s">
+        <v>82</v>
+      </c>
+      <c r="V159" t="s">
+        <v>81</v>
+      </c>
+      <c r="W159" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="160" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>76</v>
+      </c>
+      <c r="B160" t="s">
+        <v>478</v>
+      </c>
+      <c r="C160" t="s">
+        <v>336</v>
+      </c>
+      <c r="D160" t="s">
+        <v>337</v>
+      </c>
+      <c r="E160" t="s">
+        <v>338</v>
+      </c>
+      <c r="F160" t="s">
+        <v>43</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J160" t="s">
+        <v>340</v>
+      </c>
+      <c r="K160" t="s">
+        <v>341</v>
+      </c>
+      <c r="M160" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="O160" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="P160" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q160" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="T160" t="s">
+        <v>38</v>
+      </c>
+      <c r="U160" t="s">
+        <v>39</v>
+      </c>
+      <c r="V160" t="s">
+        <v>65</v>
+      </c>
+      <c r="W160" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="161" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>77</v>
+      </c>
+      <c r="B161" t="s">
+        <v>478</v>
+      </c>
+      <c r="C161" t="s">
+        <v>346</v>
+      </c>
+      <c r="D161" t="s">
+        <v>347</v>
+      </c>
+      <c r="E161" t="s">
+        <v>348</v>
+      </c>
+      <c r="F161" t="s">
+        <v>43</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="J161" t="s">
+        <v>350</v>
+      </c>
+      <c r="K161" t="s">
+        <v>351</v>
+      </c>
+      <c r="M161" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="O161" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="P161" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q161" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="S161" t="s">
+        <v>355</v>
+      </c>
+      <c r="T161" t="s">
+        <v>38</v>
+      </c>
+      <c r="U161" t="s">
+        <v>108</v>
+      </c>
+      <c r="V161" t="s">
+        <v>65</v>
+      </c>
+      <c r="W161" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="162" spans="1:23" ht="360" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>78</v>
+      </c>
+      <c r="B162" t="s">
+        <v>478</v>
+      </c>
+      <c r="C162" t="s">
+        <v>357</v>
+      </c>
+      <c r="D162" t="s">
+        <v>358</v>
+      </c>
+      <c r="E162" t="s">
+        <v>358</v>
+      </c>
+      <c r="F162" t="s">
+        <v>43</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="J162" t="s">
+        <v>44</v>
+      </c>
+      <c r="T162" t="s">
+        <v>81</v>
+      </c>
+      <c r="U162" t="s">
+        <v>82</v>
+      </c>
+      <c r="V162" t="s">
+        <v>81</v>
+      </c>
+      <c r="W162" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="163" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>79</v>
+      </c>
+      <c r="B163" t="s">
+        <v>478</v>
+      </c>
+      <c r="C163" t="s">
+        <v>360</v>
+      </c>
+      <c r="D163" t="s">
+        <v>361</v>
+      </c>
+      <c r="E163" t="s">
+        <v>362</v>
+      </c>
+      <c r="F163" t="s">
+        <v>43</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="J163" t="s">
+        <v>44</v>
+      </c>
+      <c r="T163" t="s">
+        <v>81</v>
+      </c>
+      <c r="U163" t="s">
+        <v>82</v>
+      </c>
+      <c r="V163" t="s">
+        <v>81</v>
+      </c>
+      <c r="W163" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="164" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>80</v>
+      </c>
+      <c r="B164" t="s">
+        <v>478</v>
+      </c>
+      <c r="C164" t="s">
+        <v>363</v>
+      </c>
+      <c r="D164" t="s">
+        <v>364</v>
+      </c>
+      <c r="E164" t="s">
+        <v>365</v>
+      </c>
+      <c r="F164" t="s">
+        <v>43</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="J164" t="s">
+        <v>44</v>
+      </c>
+      <c r="T164" t="s">
+        <v>81</v>
+      </c>
+      <c r="U164" t="s">
+        <v>82</v>
+      </c>
+      <c r="V164" t="s">
+        <v>81</v>
+      </c>
+      <c r="W164" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="165" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>81</v>
+      </c>
+      <c r="B165" t="s">
+        <v>478</v>
+      </c>
+      <c r="C165" t="s">
+        <v>366</v>
+      </c>
+      <c r="D165" t="s">
+        <v>367</v>
+      </c>
+      <c r="E165" t="s">
+        <v>368</v>
+      </c>
+      <c r="F165" t="s">
+        <v>43</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="J165" t="s">
+        <v>369</v>
+      </c>
+      <c r="K165" t="s">
+        <v>370</v>
+      </c>
+      <c r="M165" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="O165" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="P165" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q165" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="T165" t="s">
+        <v>38</v>
+      </c>
+      <c r="U165" t="s">
+        <v>108</v>
+      </c>
+      <c r="V165" t="s">
+        <v>65</v>
+      </c>
+      <c r="W165" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>82</v>
+      </c>
+      <c r="B166" t="s">
+        <v>478</v>
+      </c>
+      <c r="C166" t="s">
+        <v>375</v>
+      </c>
+      <c r="D166" t="s">
+        <v>376</v>
+      </c>
+      <c r="E166" t="s">
+        <v>377</v>
+      </c>
+      <c r="F166" t="s">
+        <v>93</v>
+      </c>
+      <c r="J166" t="s">
+        <v>44</v>
+      </c>
+      <c r="T166" t="s">
+        <v>81</v>
+      </c>
+      <c r="U166" t="s">
+        <v>82</v>
+      </c>
+      <c r="V166" t="s">
+        <v>81</v>
+      </c>
+      <c r="W166" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>83</v>
+      </c>
+      <c r="B167" t="s">
+        <v>478</v>
+      </c>
+      <c r="C167" t="s">
+        <v>378</v>
+      </c>
+      <c r="D167" t="s">
         <v>379</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E167" t="s">
         <v>380</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F167" t="s">
+        <v>43</v>
+      </c>
+      <c r="G167" t="s">
         <v>381</v>
       </c>
-      <c r="F84" t="s">
-        <v>44</v>
-      </c>
-      <c r="G84" t="s">
-        <v>382</v>
-      </c>
-      <c r="J84" t="s">
-        <v>45</v>
-      </c>
-      <c r="T84" t="s">
-        <v>82</v>
-      </c>
-      <c r="U84" t="s">
-        <v>83</v>
-      </c>
-      <c r="V84" t="s">
-        <v>82</v>
-      </c>
-      <c r="W84" t="s">
-        <v>82</v>
+      <c r="J167" t="s">
+        <v>44</v>
+      </c>
+      <c r="T167" t="s">
+        <v>81</v>
+      </c>
+      <c r="U167" t="s">
+        <v>82</v>
+      </c>
+      <c r="V167" t="s">
+        <v>81</v>
+      </c>
+      <c r="W167" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/longitudinal/data_processing_elements_longitudinal-AGN.xlsx
+++ b/longitudinal/data_processing_elements_longitudinal-AGN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19ECFDD-1C41-40AF-876F-87B46AE1752A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C25C962-7077-46ED-885E-C2B37DF769D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{DE4C7F53-17AD-41A0-BCA9-A2A8E85C7880}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="401">
   <si>
     <t>index</t>
   </si>
@@ -204,9 +204,6 @@
   </si>
   <si>
     <t>operation</t>
-  </si>
-  <si>
-    <t>format(as.Date(date_interview2, format = "%d-%m-%Y"), "%Y-%m-%d")</t>
   </si>
   <si>
     <t>sdc_sex</t>
@@ -266,9 +263,6 @@
   </si>
   <si>
     <t>continuous</t>
-  </si>
-  <si>
-    <t>floor(as.numeric(Age2))</t>
   </si>
   <si>
     <t>sdc_education</t>
@@ -1308,266 +1302,26 @@
     <t>items</t>
   </si>
   <si>
-    <t>adm_f1_date</t>
-  </si>
-  <si>
-    <t>date_interview2</t>
-  </si>
-  <si>
     <t>Date of interview - wave 2</t>
   </si>
   <si>
-    <t>sdc_f1_sex</t>
-  </si>
-  <si>
-    <t>sdc_f1_age</t>
-  </si>
-  <si>
-    <t>Age2</t>
-  </si>
-  <si>
     <t>Participant age - wave 2</t>
   </si>
   <si>
-    <t>sdc_f1_education</t>
-  </si>
-  <si>
-    <t>sdc_f1_employment_status</t>
-  </si>
-  <si>
-    <t>sdc_f1_employment_pattern</t>
-  </si>
-  <si>
-    <t>sdc_f1_work_hours</t>
-  </si>
-  <si>
-    <t>sdc_f1_employment_description</t>
-  </si>
-  <si>
-    <t>sdc_f1_retirement_status</t>
-  </si>
-  <si>
-    <t>sdc_f1_married</t>
-  </si>
-  <si>
-    <t>marital_status2</t>
-  </si>
-  <si>
     <t>Participant marital status - wave 2</t>
   </si>
   <si>
-    <t>sdc_f1_relationship</t>
-  </si>
-  <si>
-    <t>sdc_f1_location</t>
-  </si>
-  <si>
-    <t>pm_f1_height</t>
-  </si>
-  <si>
     <t>available at wave 1 and 4 but not wave 2</t>
-  </si>
-  <si>
-    <t>pm_f1_height_method</t>
-  </si>
-  <si>
-    <t>pm_f1_weight</t>
-  </si>
-  <si>
-    <t>pm_f1_weight_method</t>
-  </si>
-  <si>
-    <t>pm_f1_bmi</t>
-  </si>
-  <si>
-    <t>pm_f1_waist_circ</t>
-  </si>
-  <si>
-    <t>pm_f1_waist_circ_method</t>
-  </si>
-  <si>
-    <t>pm_f1_bodyfat_perc</t>
-  </si>
-  <si>
-    <t>pm_f1_bodyfat_perc_method</t>
-  </si>
-  <si>
-    <t>pm_f1_systo_bp</t>
-  </si>
-  <si>
-    <t>pm_f1_diasto_bp</t>
-  </si>
-  <si>
-    <t>pm_f1_resting_heart_rate</t>
-  </si>
-  <si>
-    <t>pm_f1_cardiorespiratoy_fitness</t>
-  </si>
-  <si>
-    <t>lab_f1_blood_fasting</t>
-  </si>
-  <si>
-    <t>lab_f1_red_blood_cell_count</t>
-  </si>
-  <si>
-    <t>lab_f1_HbA1c</t>
-  </si>
-  <si>
-    <t>lab_f1_chol_tot</t>
-  </si>
-  <si>
-    <t>lab_f1_chol_hdl</t>
-  </si>
-  <si>
-    <t>lab_f1_chol_ldl</t>
-  </si>
-  <si>
-    <t>lab_f1_chol_ldl_calculated</t>
-  </si>
-  <si>
-    <t>lab_f1_trigly</t>
-  </si>
-  <si>
-    <t>lab_f1_c_reac_pro</t>
-  </si>
-  <si>
-    <t>nut_f1_fruit_quantity</t>
-  </si>
-  <si>
-    <t>nut_f1_fruit_frequency</t>
-  </si>
-  <si>
-    <t>nut_f1_vegetable_quantity</t>
-  </si>
-  <si>
-    <t>nut_f1_vegetable_frequency</t>
-  </si>
-  <si>
-    <t>nut_f1_energy_tot</t>
-  </si>
-  <si>
-    <t>alc_f1_alcohol</t>
-  </si>
-  <si>
-    <t>alc_f1_alcohol_frequency</t>
-  </si>
-  <si>
-    <t>smk_f1_smoking_status</t>
-  </si>
-  <si>
-    <t>smk_f1_smoking_frequency</t>
-  </si>
-  <si>
-    <t>smk_f1_smoking_quantity</t>
-  </si>
-  <si>
-    <t>lsb_f1_rated_health</t>
-  </si>
-  <si>
-    <t>dis_f1_cvd</t>
-  </si>
-  <si>
-    <t>dis_f1_musculoskeletal</t>
-  </si>
-  <si>
-    <t>dis_f1_diabetes</t>
-  </si>
-  <si>
-    <t>dis_f1_diabetes_type</t>
-  </si>
-  <si>
-    <t>dis_f1_cancer</t>
-  </si>
-  <si>
-    <t>dis_f1_hypercholesteromia</t>
-  </si>
-  <si>
-    <t>med_f1_lipid_lowering</t>
-  </si>
-  <si>
-    <t>med_f1_blood_pressure</t>
-  </si>
-  <si>
-    <t>med_f1_diabetes</t>
-  </si>
-  <si>
-    <t>cog_f1_depression</t>
-  </si>
-  <si>
-    <t>cog_f1_dep_cesd20</t>
-  </si>
-  <si>
-    <t>cog_f1_dep_cesd10</t>
-  </si>
-  <si>
-    <t>cog_f1_dep_malaise</t>
-  </si>
-  <si>
-    <t>cog_f1_dep_kessler</t>
-  </si>
-  <si>
-    <t>cog_f1_dep_phq9</t>
-  </si>
-  <si>
-    <t>cog_f1_mci_mmse_score</t>
-  </si>
-  <si>
-    <t>cog_f1_mci_moca_score</t>
-  </si>
-  <si>
-    <t>cog_f1_alzheimers_dementia</t>
   </si>
   <si>
     <t>0 = Has not been diagnosed with Alzheimers or other dementia ; 
 1 = Has been diagnosed with Alzheimers or other dementia</t>
   </si>
   <si>
-    <t>sleep_f1_duration</t>
-  </si>
-  <si>
-    <t>sleep_f1_duration_cat</t>
-  </si>
-  <si>
-    <t>sleep_f1_difficulties</t>
-  </si>
-  <si>
-    <t>sed_f1_beh_tv_week_all</t>
-  </si>
-  <si>
-    <t>sed_f1_beh_tv_week_days</t>
-  </si>
-  <si>
-    <t>sed_f1_beh_tv_weekend_days</t>
-  </si>
-  <si>
-    <t>sed_f1_beh_comp_use</t>
-  </si>
-  <si>
-    <t>sed_f1_beh_video_games</t>
-  </si>
-  <si>
-    <t>sed_f1_beh_reading</t>
-  </si>
-  <si>
-    <t>sed_f1_beh_total_sitting</t>
-  </si>
-  <si>
-    <t>sed_f1_beh_total_sitting_cat</t>
-  </si>
-  <si>
-    <t>YPAS_sitting2</t>
-  </si>
-  <si>
     <t>Yale Physical Activity Survey conducted during home interview at wave 2. Self-reported. 
 Interview item: About how many hours did you spend sitting on an average day during the past month? Response options and scoring: 0= not at all, 1= Less than 1 hr per day, 2= 1 to less than 3 hrs per day, 3= 3 to less than 5 hrs per day, 4= 5 to less than 5 hrs per day, 5= 7+ hrs per day</t>
   </si>
   <si>
-    <t>phy_f1_walking</t>
-  </si>
-  <si>
-    <t>YPAS_walk_freq2</t>
-  </si>
-  <si>
     <t>Freguence of walks during past month -wave 2</t>
   </si>
   <si>
@@ -1575,31 +1329,43 @@
 Interview item: Think about the walks you have taken during the past month.About how many times per month did you walk for at least 10 minutes or more without stopping which was not strenuous enough to cause large increases in breathing, heart rate or leg fatique or cause you to perspire? Response options and scoring: 0 = Not at all, 1 = 1-3 times per month, 2 = 1-2 times per week, 3 = 3-4 times per week, and 4= 5+ times per week</t>
   </si>
   <si>
-    <t>phy_f1_occupational_pa</t>
-  </si>
-  <si>
-    <t>phy_f1_sport_participation</t>
-  </si>
-  <si>
     <t>PA based on one question not available for wave 2, we could base it on multiple question, but would not be consistent with other waves</t>
   </si>
   <si>
-    <t>phy_f1_active_commuting</t>
-  </si>
-  <si>
-    <t>phy_f1_leisure_time</t>
-  </si>
-  <si>
-    <t>phy_f1_mobility_limitation_SF36</t>
-  </si>
-  <si>
-    <t>phy_f1_SF36_nb_items</t>
-  </si>
-  <si>
     <t>AGN_1</t>
   </si>
   <si>
     <t>AGN_2</t>
+  </si>
+  <si>
+    <t>date_interview1</t>
+  </si>
+  <si>
+    <t>format(as.Date(date_interview4, format = "%d-%m-%Y"), "%Y-%m-%d")</t>
+  </si>
+  <si>
+    <t>floor(as.numeric(Age4))</t>
+  </si>
+  <si>
+    <t>YPAS_walk_freq1</t>
+  </si>
+  <si>
+    <t>YPAS_sitting1</t>
+  </si>
+  <si>
+    <t>marital_status1</t>
+  </si>
+  <si>
+    <t>Age1</t>
+  </si>
+  <si>
+    <t>floor(as.numeric(Age1))</t>
+  </si>
+  <si>
+    <t>format(as.Date(date_interview1, format = "%d-%m-%Y"), "%Y-%m-%d")</t>
+  </si>
+  <si>
+    <t>MMSE_cor_tot_score1</t>
   </si>
 </sst>
 </file>
@@ -1985,11 +1751,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A617E81B-AA39-4B57-8286-9F6F09A3BC0B}">
   <dimension ref="A1:AD167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="95.7109375" customWidth="1"/>
+    <col min="10" max="10" width="30.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -2088,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
@@ -2135,7 +1905,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C3" t="s">
         <v>41</v>
@@ -2170,10 +1940,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C4" t="s">
-        <v>382</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
         <v>47</v>
@@ -2188,10 +1958,10 @@
         <v>50</v>
       </c>
       <c r="J4" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="K4" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="M4" t="s">
         <v>53</v>
@@ -2212,7 +1982,7 @@
         <v>55</v>
       </c>
       <c r="W4" t="s">
-        <v>56</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="45" x14ac:dyDescent="0.25">
@@ -2220,40 +1990,40 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C5" t="s">
-        <v>385</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
         <v>58</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" t="s">
         <v>60</v>
       </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>61</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O5" t="s">
         <v>62</v>
-      </c>
-      <c r="O5" t="s">
-        <v>63</v>
       </c>
       <c r="P5" t="s">
         <v>36</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T5" t="s">
         <v>38</v>
@@ -2262,10 +2032,10 @@
         <v>39</v>
       </c>
       <c r="V5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W5" t="s">
         <v>65</v>
-      </c>
-      <c r="W5" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
@@ -2273,40 +2043,40 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C6" t="s">
-        <v>386</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" t="s">
         <v>68</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
         <v>69</v>
       </c>
-      <c r="F6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" t="s">
-        <v>70</v>
-      </c>
       <c r="J6" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="K6" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" t="s">
         <v>73</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>74</v>
       </c>
-      <c r="P6" t="s">
-        <v>75</v>
-      </c>
       <c r="R6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T6" t="s">
         <v>38</v>
@@ -2318,7 +2088,7 @@
         <v>55</v>
       </c>
       <c r="W6" t="s">
-        <v>76</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="300" x14ac:dyDescent="0.25">
@@ -2326,37 +2096,37 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C7" t="s">
-        <v>389</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="J7" t="s">
         <v>44</v>
       </c>
       <c r="T7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
@@ -2364,16 +2134,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C8" t="s">
-        <v>390</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F8" t="s">
         <v>43</v>
@@ -2382,16 +2152,16 @@
         <v>44</v>
       </c>
       <c r="T8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="210" x14ac:dyDescent="0.25">
@@ -2399,37 +2169,37 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C9" t="s">
-        <v>391</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="J9" t="s">
         <v>44</v>
       </c>
       <c r="T9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
@@ -2437,34 +2207,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C10" t="s">
-        <v>392</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" t="s">
         <v>91</v>
       </c>
-      <c r="E10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" t="s">
-        <v>93</v>
-      </c>
       <c r="J10" t="s">
         <v>44</v>
       </c>
       <c r="T10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
@@ -2472,16 +2242,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C11" t="s">
-        <v>393</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F11" t="s">
         <v>33</v>
@@ -2490,16 +2260,16 @@
         <v>44</v>
       </c>
       <c r="T11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
@@ -2507,16 +2277,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C12" t="s">
-        <v>394</v>
+        <v>95</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F12" t="s">
         <v>43</v>
@@ -2525,16 +2295,16 @@
         <v>44</v>
       </c>
       <c r="T12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="225" x14ac:dyDescent="0.25">
@@ -2542,52 +2312,52 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C13" t="s">
-        <v>395</v>
+        <v>98</v>
       </c>
       <c r="D13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="E13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F13" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="J13" t="s">
         <v>396</v>
       </c>
       <c r="K13" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="M13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P13" t="s">
         <v>36</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="T13" t="s">
         <v>38</v>
       </c>
       <c r="U13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="V13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="225" x14ac:dyDescent="0.25">
@@ -2595,52 +2365,52 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C14" t="s">
-        <v>398</v>
+        <v>108</v>
       </c>
       <c r="D14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="E14" t="s">
-        <v>112</v>
-      </c>
-      <c r="F14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="J14" t="s">
         <v>396</v>
       </c>
       <c r="K14" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="M14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P14" t="s">
         <v>36</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="T14" t="s">
         <v>38</v>
       </c>
       <c r="U14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="V14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="60" x14ac:dyDescent="0.25">
@@ -2648,37 +2418,37 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C15" t="s">
-        <v>399</v>
+        <v>113</v>
       </c>
       <c r="D15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F15" t="s">
         <v>43</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J15" t="s">
         <v>44</v>
       </c>
       <c r="T15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
@@ -2686,40 +2456,40 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C16" t="s">
-        <v>400</v>
+        <v>116</v>
       </c>
       <c r="D16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J16" t="s">
         <v>44</v>
       </c>
       <c r="T16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="X16" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="120" x14ac:dyDescent="0.25">
@@ -2727,40 +2497,40 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C17" t="s">
-        <v>402</v>
+        <v>123</v>
       </c>
       <c r="D17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F17" t="s">
         <v>43</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J17" t="s">
         <v>44</v>
       </c>
       <c r="T17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="X17" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
@@ -2768,40 +2538,40 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C18" t="s">
-        <v>403</v>
+        <v>127</v>
       </c>
       <c r="D18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J18" t="s">
         <v>44</v>
       </c>
       <c r="T18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="X18" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="120" x14ac:dyDescent="0.25">
@@ -2809,40 +2579,40 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C19" t="s">
-        <v>404</v>
+        <v>133</v>
       </c>
       <c r="D19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F19" t="s">
         <v>43</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J19" t="s">
         <v>44</v>
       </c>
       <c r="T19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="X19" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
@@ -2850,40 +2620,40 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C20" t="s">
-        <v>405</v>
+        <v>136</v>
       </c>
       <c r="D20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J20" t="s">
         <v>44</v>
       </c>
       <c r="T20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="X20" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
@@ -2891,40 +2661,40 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C21" t="s">
-        <v>406</v>
+        <v>147</v>
       </c>
       <c r="D21" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E21" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J21" t="s">
         <v>44</v>
       </c>
       <c r="T21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="X21" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="120" x14ac:dyDescent="0.25">
@@ -2932,40 +2702,40 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C22" t="s">
-        <v>407</v>
+        <v>158</v>
       </c>
       <c r="D22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F22" t="s">
         <v>43</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J22" t="s">
         <v>44</v>
       </c>
       <c r="T22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="X22" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
@@ -2973,37 +2743,37 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C23" t="s">
-        <v>408</v>
+        <v>162</v>
       </c>
       <c r="D23" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E23" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J23" t="s">
         <v>44</v>
       </c>
       <c r="T23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
@@ -3011,16 +2781,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C24" t="s">
-        <v>409</v>
+        <v>165</v>
       </c>
       <c r="D24" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E24" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F24" t="s">
         <v>33</v>
@@ -3029,16 +2799,16 @@
         <v>44</v>
       </c>
       <c r="T24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
@@ -3046,37 +2816,37 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C25" t="s">
-        <v>410</v>
+        <v>167</v>
       </c>
       <c r="D25" t="s">
+        <v>168</v>
+      </c>
+      <c r="E25" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" t="s">
         <v>170</v>
       </c>
-      <c r="E25" t="s">
-        <v>171</v>
-      </c>
-      <c r="F25" t="s">
-        <v>93</v>
-      </c>
-      <c r="G25" t="s">
-        <v>172</v>
-      </c>
       <c r="J25" t="s">
         <v>44</v>
       </c>
       <c r="T25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
@@ -3084,37 +2854,37 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C26" t="s">
-        <v>411</v>
+        <v>171</v>
       </c>
       <c r="D26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E26" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J26" t="s">
         <v>44</v>
       </c>
       <c r="T26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
@@ -3122,37 +2892,37 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C27" t="s">
-        <v>412</v>
+        <v>174</v>
       </c>
       <c r="D27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J27" t="s">
         <v>44</v>
       </c>
       <c r="T27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
@@ -3160,37 +2930,37 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C28" t="s">
-        <v>413</v>
+        <v>177</v>
       </c>
       <c r="D28" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E28" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G28" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J28" t="s">
         <v>44</v>
       </c>
       <c r="T28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="120" x14ac:dyDescent="0.25">
@@ -3198,37 +2968,37 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C29" t="s">
-        <v>414</v>
+        <v>180</v>
       </c>
       <c r="D29" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E29" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F29" t="s">
         <v>43</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J29" t="s">
         <v>44</v>
       </c>
       <c r="T29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
@@ -3236,37 +3006,37 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C30" t="s">
-        <v>415</v>
+        <v>183</v>
       </c>
       <c r="D30" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E30" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J30" t="s">
         <v>44</v>
       </c>
       <c r="T30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
@@ -3274,37 +3044,37 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C31" t="s">
-        <v>416</v>
+        <v>186</v>
       </c>
       <c r="D31" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E31" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G31" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J31" t="s">
         <v>44</v>
       </c>
       <c r="T31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
@@ -3312,37 +3082,37 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C32" t="s">
-        <v>417</v>
+        <v>189</v>
       </c>
       <c r="D32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G32" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J32" t="s">
         <v>44</v>
       </c>
       <c r="T32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
@@ -3350,37 +3120,37 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C33" t="s">
-        <v>418</v>
+        <v>192</v>
       </c>
       <c r="D33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G33" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J33" t="s">
         <v>44</v>
       </c>
       <c r="T33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
@@ -3388,37 +3158,37 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C34" t="s">
-        <v>419</v>
+        <v>194</v>
       </c>
       <c r="D34" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E34" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G34" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J34" t="s">
         <v>44</v>
       </c>
       <c r="T34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
@@ -3426,37 +3196,37 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C35" t="s">
-        <v>420</v>
+        <v>196</v>
       </c>
       <c r="D35" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E35" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G35" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J35" t="s">
         <v>44</v>
       </c>
       <c r="T35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
@@ -3464,37 +3234,37 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C36" t="s">
-        <v>421</v>
+        <v>198</v>
       </c>
       <c r="D36" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E36" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G36" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J36" t="s">
         <v>44</v>
       </c>
       <c r="T36" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U36" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V36" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W36" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
@@ -3502,37 +3272,37 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C37" t="s">
-        <v>422</v>
+        <v>200</v>
       </c>
       <c r="D37" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E37" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F37" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G37" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J37" t="s">
         <v>44</v>
       </c>
       <c r="T37" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U37" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V37" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W37" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
@@ -3540,37 +3310,37 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C38" t="s">
-        <v>423</v>
+        <v>203</v>
       </c>
       <c r="D38" t="s">
+        <v>204</v>
+      </c>
+      <c r="E38" t="s">
+        <v>205</v>
+      </c>
+      <c r="F38" t="s">
+        <v>91</v>
+      </c>
+      <c r="G38" t="s">
         <v>206</v>
       </c>
-      <c r="E38" t="s">
-        <v>207</v>
-      </c>
-      <c r="F38" t="s">
-        <v>93</v>
-      </c>
-      <c r="G38" t="s">
-        <v>208</v>
-      </c>
       <c r="J38" t="s">
         <v>44</v>
       </c>
       <c r="T38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U38" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="120" x14ac:dyDescent="0.25">
@@ -3578,37 +3348,37 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C39" t="s">
-        <v>424</v>
+        <v>207</v>
       </c>
       <c r="D39" t="s">
+        <v>208</v>
+      </c>
+      <c r="E39" t="s">
+        <v>209</v>
+      </c>
+      <c r="F39" t="s">
+        <v>43</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E39" t="s">
-        <v>211</v>
-      </c>
-      <c r="F39" t="s">
-        <v>43</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>212</v>
-      </c>
       <c r="J39" t="s">
         <v>44</v>
       </c>
       <c r="T39" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U39" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V39" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W39" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
@@ -3616,37 +3386,37 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C40" t="s">
-        <v>425</v>
+        <v>211</v>
       </c>
       <c r="D40" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F40" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G40" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J40" t="s">
         <v>44</v>
       </c>
       <c r="T40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="120" x14ac:dyDescent="0.25">
@@ -3654,37 +3424,37 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C41" t="s">
-        <v>426</v>
+        <v>214</v>
       </c>
       <c r="D41" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E41" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F41" t="s">
         <v>43</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J41" t="s">
         <v>44</v>
       </c>
       <c r="T41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
@@ -3692,37 +3462,37 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C42" t="s">
-        <v>427</v>
+        <v>217</v>
       </c>
       <c r="D42" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E42" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F42" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G42" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J42" t="s">
         <v>44</v>
       </c>
       <c r="T42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
@@ -3730,37 +3500,37 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C43" t="s">
-        <v>428</v>
+        <v>220</v>
       </c>
       <c r="D43" t="s">
+        <v>221</v>
+      </c>
+      <c r="E43" t="s">
+        <v>222</v>
+      </c>
+      <c r="F43" t="s">
+        <v>91</v>
+      </c>
+      <c r="G43" t="s">
         <v>223</v>
       </c>
-      <c r="E43" t="s">
-        <v>224</v>
-      </c>
-      <c r="F43" t="s">
-        <v>93</v>
-      </c>
-      <c r="G43" t="s">
-        <v>225</v>
-      </c>
       <c r="J43" t="s">
         <v>44</v>
       </c>
       <c r="T43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="180" x14ac:dyDescent="0.25">
@@ -3768,37 +3538,37 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C44" t="s">
-        <v>429</v>
+        <v>224</v>
       </c>
       <c r="D44" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E44" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F44" t="s">
         <v>43</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J44" t="s">
         <v>44</v>
       </c>
       <c r="T44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="135" x14ac:dyDescent="0.25">
@@ -3806,37 +3576,37 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C45" t="s">
-        <v>430</v>
+        <v>227</v>
       </c>
       <c r="D45" t="s">
+        <v>228</v>
+      </c>
+      <c r="E45" t="s">
+        <v>229</v>
+      </c>
+      <c r="F45" t="s">
+        <v>43</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E45" t="s">
-        <v>231</v>
-      </c>
-      <c r="F45" t="s">
-        <v>43</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>232</v>
-      </c>
       <c r="J45" t="s">
         <v>44</v>
       </c>
       <c r="T45" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U45" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V45" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W45" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="105" x14ac:dyDescent="0.25">
@@ -3844,37 +3614,37 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C46" t="s">
-        <v>431</v>
+        <v>231</v>
       </c>
       <c r="D46" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E46" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F46" t="s">
         <v>43</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J46" t="s">
         <v>44</v>
       </c>
       <c r="T46" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U46" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V46" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W46" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
@@ -3882,37 +3652,37 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C47" t="s">
-        <v>432</v>
+        <v>234</v>
       </c>
       <c r="D47" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E47" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G47" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J47" t="s">
         <v>44</v>
       </c>
       <c r="T47" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U47" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V47" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W47" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="165" x14ac:dyDescent="0.25">
@@ -3920,37 +3690,37 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C48" t="s">
-        <v>433</v>
+        <v>237</v>
       </c>
       <c r="D48" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E48" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F48" t="s">
         <v>43</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J48" t="s">
         <v>44</v>
       </c>
       <c r="T48" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U48" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V48" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W48" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -3958,37 +3728,37 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C49" t="s">
-        <v>434</v>
+        <v>246</v>
       </c>
       <c r="D49" t="s">
+        <v>247</v>
+      </c>
+      <c r="E49" t="s">
+        <v>248</v>
+      </c>
+      <c r="F49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E49" t="s">
-        <v>250</v>
-      </c>
-      <c r="F49" t="s">
-        <v>43</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="J49" t="s">
         <v>44</v>
       </c>
       <c r="T49" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U49" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V49" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W49" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -3996,37 +3766,37 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C50" t="s">
-        <v>435</v>
+        <v>250</v>
       </c>
       <c r="D50" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F50" t="s">
         <v>43</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J50" t="s">
         <v>44</v>
       </c>
       <c r="T50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -4034,37 +3804,37 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C51" t="s">
-        <v>436</v>
+        <v>253</v>
       </c>
       <c r="D51" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E51" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F51" t="s">
         <v>43</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J51" t="s">
         <v>44</v>
       </c>
       <c r="T51" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U51" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V51" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W51" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="75" x14ac:dyDescent="0.25">
@@ -4072,37 +3842,37 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C52" t="s">
-        <v>437</v>
+        <v>256</v>
       </c>
       <c r="D52" t="s">
+        <v>257</v>
+      </c>
+      <c r="E52" t="s">
+        <v>258</v>
+      </c>
+      <c r="F52" t="s">
+        <v>43</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E52" t="s">
-        <v>260</v>
-      </c>
-      <c r="F52" t="s">
-        <v>43</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="J52" t="s">
         <v>44</v>
       </c>
       <c r="T52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -4110,37 +3880,37 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C53" t="s">
-        <v>438</v>
+        <v>260</v>
       </c>
       <c r="D53" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E53" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F53" t="s">
         <v>43</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J53" t="s">
         <v>44</v>
       </c>
       <c r="T53" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U53" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V53" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W53" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -4148,37 +3918,37 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C54" t="s">
-        <v>439</v>
+        <v>262</v>
       </c>
       <c r="D54" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E54" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F54" t="s">
         <v>43</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J54" t="s">
         <v>44</v>
       </c>
       <c r="T54" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U54" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V54" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W54" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -4186,37 +3956,37 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C55" t="s">
-        <v>440</v>
+        <v>264</v>
       </c>
       <c r="D55" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E55" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F55" t="s">
         <v>43</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J55" t="s">
         <v>44</v>
       </c>
       <c r="T55" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U55" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V55" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W55" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -4224,37 +3994,37 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C56" t="s">
-        <v>441</v>
+        <v>266</v>
       </c>
       <c r="D56" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E56" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F56" t="s">
         <v>43</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J56" t="s">
         <v>44</v>
       </c>
       <c r="T56" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U56" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V56" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W56" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -4262,37 +4032,37 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C57" t="s">
-        <v>442</v>
+        <v>268</v>
       </c>
       <c r="D57" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E57" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F57" t="s">
         <v>43</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J57" t="s">
         <v>44</v>
       </c>
       <c r="T57" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U57" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V57" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W57" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -4300,37 +4070,37 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C58" t="s">
-        <v>443</v>
+        <v>270</v>
       </c>
       <c r="D58" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E58" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F58" t="s">
         <v>43</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J58" t="s">
         <v>44</v>
       </c>
       <c r="T58" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U58" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V58" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W58" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
@@ -4338,16 +4108,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C59" t="s">
-        <v>444</v>
+        <v>276</v>
       </c>
       <c r="D59" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E59" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F59" t="s">
         <v>43</v>
@@ -4356,16 +4126,16 @@
         <v>44</v>
       </c>
       <c r="T59" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U59" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V59" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W59" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
@@ -4373,16 +4143,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C60" t="s">
-        <v>445</v>
+        <v>283</v>
       </c>
       <c r="D60" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E60" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F60" t="s">
         <v>43</v>
@@ -4391,16 +4161,16 @@
         <v>44</v>
       </c>
       <c r="T60" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U60" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V60" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W60" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
@@ -4408,16 +4178,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C61" t="s">
-        <v>446</v>
+        <v>285</v>
       </c>
       <c r="D61" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E61" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F61" t="s">
         <v>43</v>
@@ -4426,16 +4196,16 @@
         <v>44</v>
       </c>
       <c r="T61" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U61" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V61" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W61" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
@@ -4443,16 +4213,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C62" t="s">
-        <v>447</v>
+        <v>287</v>
       </c>
       <c r="D62" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E62" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F62" t="s">
         <v>43</v>
@@ -4461,16 +4231,16 @@
         <v>44</v>
       </c>
       <c r="T62" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U62" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V62" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W62" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
@@ -4478,16 +4248,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C63" t="s">
-        <v>448</v>
+        <v>289</v>
       </c>
       <c r="D63" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E63" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F63" t="s">
         <v>43</v>
@@ -4496,51 +4266,66 @@
         <v>44</v>
       </c>
       <c r="T63" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U63" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V63" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W63" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C64" t="s">
-        <v>449</v>
+        <v>291</v>
       </c>
       <c r="D64" t="s">
+        <v>292</v>
+      </c>
+      <c r="E64" t="s">
+        <v>292</v>
+      </c>
+      <c r="F64" t="s">
+        <v>43</v>
+      </c>
+      <c r="J64" t="s">
+        <v>400</v>
+      </c>
+      <c r="K64" t="s">
         <v>294</v>
       </c>
-      <c r="E64" t="s">
-        <v>294</v>
-      </c>
-      <c r="F64" t="s">
-        <v>43</v>
-      </c>
-      <c r="J64" t="s">
-        <v>44</v>
+      <c r="M64" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="P64" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>54</v>
       </c>
       <c r="T64" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="U64" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="V64" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="W64" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.25">
@@ -4548,16 +4333,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C65" t="s">
-        <v>450</v>
+        <v>297</v>
       </c>
       <c r="D65" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E65" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F65" t="s">
         <v>43</v>
@@ -4566,16 +4351,16 @@
         <v>44</v>
       </c>
       <c r="T65" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U65" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V65" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W65" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:24" ht="270" x14ac:dyDescent="0.25">
@@ -4583,37 +4368,37 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C66" t="s">
-        <v>451</v>
+        <v>299</v>
       </c>
       <c r="D66" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E66" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F66" t="s">
         <v>43</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>452</v>
+        <v>384</v>
       </c>
       <c r="J66" t="s">
         <v>44</v>
       </c>
       <c r="T66" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U66" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V66" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W66" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.25">
@@ -4621,37 +4406,37 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C67" t="s">
-        <v>453</v>
+        <v>305</v>
       </c>
       <c r="D67" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E67" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F67" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G67" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J67" t="s">
         <v>44</v>
       </c>
       <c r="T67" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U67" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V67" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W67" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:24" ht="285" x14ac:dyDescent="0.25">
@@ -4659,37 +4444,37 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C68" t="s">
-        <v>454</v>
+        <v>308</v>
       </c>
       <c r="D68" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E68" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F68" t="s">
         <v>43</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J68" t="s">
         <v>44</v>
       </c>
       <c r="T68" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U68" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V68" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W68" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:24" ht="90" x14ac:dyDescent="0.25">
@@ -4697,37 +4482,37 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C69" t="s">
-        <v>455</v>
+        <v>311</v>
       </c>
       <c r="D69" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E69" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F69" t="s">
         <v>43</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J69" t="s">
         <v>44</v>
       </c>
       <c r="T69" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U69" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V69" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W69" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:24" ht="195" x14ac:dyDescent="0.25">
@@ -4735,37 +4520,37 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C70" t="s">
-        <v>456</v>
+        <v>314</v>
       </c>
       <c r="D70" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E70" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F70" t="s">
         <v>43</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J70" t="s">
         <v>44</v>
       </c>
       <c r="T70" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U70" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V70" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W70" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:24" ht="195" x14ac:dyDescent="0.25">
@@ -4773,37 +4558,37 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C71" t="s">
-        <v>457</v>
+        <v>317</v>
       </c>
       <c r="D71" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E71" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F71" t="s">
         <v>43</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J71" t="s">
         <v>44</v>
       </c>
       <c r="T71" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U71" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V71" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W71" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:24" ht="195" x14ac:dyDescent="0.25">
@@ -4811,37 +4596,37 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C72" t="s">
-        <v>458</v>
+        <v>319</v>
       </c>
       <c r="D72" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E72" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F72" t="s">
         <v>43</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J72" t="s">
         <v>44</v>
       </c>
       <c r="T72" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U72" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V72" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W72" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
@@ -4849,37 +4634,37 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C73" t="s">
-        <v>459</v>
+        <v>321</v>
       </c>
       <c r="D73" t="s">
+        <v>322</v>
+      </c>
+      <c r="E73" t="s">
+        <v>323</v>
+      </c>
+      <c r="F73" t="s">
+        <v>43</v>
+      </c>
+      <c r="I73" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="E73" t="s">
-        <v>325</v>
-      </c>
-      <c r="F73" t="s">
-        <v>43</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>326</v>
-      </c>
       <c r="J73" t="s">
         <v>44</v>
       </c>
       <c r="T73" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U73" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V73" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W73" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:24" ht="195" x14ac:dyDescent="0.25">
@@ -4887,37 +4672,37 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C74" t="s">
-        <v>460</v>
+        <v>325</v>
       </c>
       <c r="D74" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E74" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F74" t="s">
         <v>43</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J74" t="s">
         <v>44</v>
       </c>
       <c r="T74" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U74" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V74" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W74" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:24" ht="195" x14ac:dyDescent="0.25">
@@ -4925,37 +4710,37 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C75" t="s">
-        <v>461</v>
+        <v>328</v>
       </c>
       <c r="D75" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E75" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F75" t="s">
         <v>43</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J75" t="s">
         <v>44</v>
       </c>
       <c r="T75" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U75" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V75" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W75" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.25">
@@ -4963,37 +4748,37 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C76" t="s">
-        <v>462</v>
+        <v>331</v>
       </c>
       <c r="D76" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E76" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F76" t="s">
         <v>43</v>
       </c>
       <c r="G76" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J76" t="s">
         <v>44</v>
       </c>
       <c r="T76" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U76" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V76" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W76" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
@@ -5001,40 +4786,40 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C77" t="s">
-        <v>463</v>
+        <v>334</v>
       </c>
       <c r="D77" t="s">
+        <v>335</v>
+      </c>
+      <c r="E77" t="s">
+        <v>336</v>
+      </c>
+      <c r="F77" t="s">
+        <v>43</v>
+      </c>
+      <c r="I77" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="E77" t="s">
-        <v>338</v>
-      </c>
-      <c r="F77" t="s">
-        <v>43</v>
-      </c>
-      <c r="I77" s="1" t="s">
+      <c r="J77" t="s">
+        <v>395</v>
+      </c>
+      <c r="K77" t="s">
         <v>339</v>
       </c>
-      <c r="J77" t="s">
-        <v>464</v>
-      </c>
-      <c r="K77" t="s">
+      <c r="M77" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="O77" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="M77" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="O77" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="P77" t="s">
         <v>36</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="T77" t="s">
         <v>38</v>
@@ -5043,10 +4828,10 @@
         <v>39</v>
       </c>
       <c r="V77" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W77" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="78" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
@@ -5054,55 +4839,55 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C78" t="s">
-        <v>466</v>
+        <v>344</v>
       </c>
       <c r="D78" t="s">
+        <v>345</v>
+      </c>
+      <c r="E78" t="s">
+        <v>346</v>
+      </c>
+      <c r="F78" t="s">
+        <v>43</v>
+      </c>
+      <c r="I78" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="E78" t="s">
-        <v>348</v>
-      </c>
-      <c r="F78" t="s">
-        <v>43</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>349</v>
-      </c>
       <c r="J78" t="s">
-        <v>467</v>
+        <v>394</v>
       </c>
       <c r="K78" t="s">
-        <v>468</v>
+        <v>386</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>469</v>
+        <v>387</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="P78" t="s">
         <v>36</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="S78" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="T78" t="s">
         <v>38</v>
       </c>
       <c r="U78" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="V78" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W78" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="79" spans="1:24" ht="360" x14ac:dyDescent="0.25">
@@ -5110,37 +4895,37 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C79" t="s">
-        <v>470</v>
+        <v>355</v>
       </c>
       <c r="D79" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E79" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F79" t="s">
         <v>43</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J79" t="s">
         <v>44</v>
       </c>
       <c r="T79" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U79" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V79" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W79" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -5148,40 +4933,40 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C80" t="s">
-        <v>471</v>
+        <v>358</v>
       </c>
       <c r="D80" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E80" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F80" t="s">
         <v>43</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J80" t="s">
         <v>44</v>
       </c>
       <c r="T80" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U80" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V80" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W80" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="X80" t="s">
-        <v>472</v>
+        <v>388</v>
       </c>
     </row>
     <row r="81" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -5189,37 +4974,37 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C81" t="s">
-        <v>473</v>
+        <v>361</v>
       </c>
       <c r="D81" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E81" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F81" t="s">
         <v>43</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J81" t="s">
         <v>44</v>
       </c>
       <c r="T81" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U81" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V81" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W81" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -5227,40 +5012,40 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C82" t="s">
-        <v>474</v>
+        <v>364</v>
       </c>
       <c r="D82" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E82" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F82" t="s">
         <v>43</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J82" t="s">
         <v>44</v>
       </c>
       <c r="T82" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U82" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V82" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W82" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="X82" t="s">
-        <v>472</v>
+        <v>388</v>
       </c>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.25">
@@ -5268,34 +5053,34 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C83" t="s">
-        <v>475</v>
+        <v>373</v>
       </c>
       <c r="D83" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E83" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F83" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J83" t="s">
         <v>44</v>
       </c>
       <c r="T83" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U83" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V83" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W83" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.25">
@@ -5303,37 +5088,37 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="C84" t="s">
-        <v>476</v>
+        <v>376</v>
       </c>
       <c r="D84" t="s">
+        <v>377</v>
+      </c>
+      <c r="E84" t="s">
+        <v>378</v>
+      </c>
+      <c r="F84" t="s">
+        <v>43</v>
+      </c>
+      <c r="G84" t="s">
         <v>379</v>
       </c>
-      <c r="E84" t="s">
-        <v>380</v>
-      </c>
-      <c r="F84" t="s">
-        <v>43</v>
-      </c>
-      <c r="G84" t="s">
-        <v>381</v>
-      </c>
       <c r="J84" t="s">
         <v>44</v>
       </c>
       <c r="T84" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U84" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V84" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W84" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.25">
@@ -5341,7 +5126,7 @@
         <v>1</v>
       </c>
       <c r="B85" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C85" t="s">
         <v>30</v>
@@ -5388,7 +5173,7 @@
         <v>2</v>
       </c>
       <c r="B86" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C86" t="s">
         <v>41</v>
@@ -5423,7 +5208,7 @@
         <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C87" t="s">
         <v>46</v>
@@ -5465,7 +5250,7 @@
         <v>55</v>
       </c>
       <c r="W87" t="s">
-        <v>56</v>
+        <v>392</v>
       </c>
     </row>
     <row r="88" spans="1:24" ht="45" x14ac:dyDescent="0.25">
@@ -5473,40 +5258,40 @@
         <v>4</v>
       </c>
       <c r="B88" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C88" t="s">
+        <v>56</v>
+      </c>
+      <c r="D88" t="s">
         <v>57</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>58</v>
       </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
+        <v>43</v>
+      </c>
+      <c r="I88" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F88" t="s">
-        <v>43</v>
-      </c>
-      <c r="I88" s="1" t="s">
+      <c r="J88" t="s">
+        <v>57</v>
+      </c>
+      <c r="K88" t="s">
         <v>60</v>
       </c>
-      <c r="J88" t="s">
-        <v>58</v>
-      </c>
-      <c r="K88" t="s">
+      <c r="M88" t="s">
         <v>61</v>
       </c>
-      <c r="M88" t="s">
+      <c r="O88" t="s">
         <v>62</v>
-      </c>
-      <c r="O88" t="s">
-        <v>63</v>
       </c>
       <c r="P88" t="s">
         <v>36</v>
       </c>
       <c r="Q88" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T88" t="s">
         <v>38</v>
@@ -5515,10 +5300,10 @@
         <v>39</v>
       </c>
       <c r="V88" t="s">
+        <v>64</v>
+      </c>
+      <c r="W88" t="s">
         <v>65</v>
-      </c>
-      <c r="W88" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.25">
@@ -5526,40 +5311,40 @@
         <v>5</v>
       </c>
       <c r="B89" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C89" t="s">
+        <v>66</v>
+      </c>
+      <c r="D89" t="s">
         <v>67</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>68</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
+        <v>43</v>
+      </c>
+      <c r="G89" t="s">
         <v>69</v>
       </c>
-      <c r="F89" t="s">
-        <v>43</v>
-      </c>
-      <c r="G89" t="s">
+      <c r="J89" t="s">
         <v>70</v>
       </c>
-      <c r="J89" t="s">
+      <c r="K89" t="s">
         <v>71</v>
       </c>
-      <c r="K89" t="s">
+      <c r="M89" t="s">
         <v>72</v>
       </c>
-      <c r="M89" t="s">
+      <c r="O89" t="s">
         <v>73</v>
       </c>
-      <c r="O89" t="s">
+      <c r="P89" t="s">
         <v>74</v>
       </c>
-      <c r="P89" t="s">
-        <v>75</v>
-      </c>
       <c r="R89" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T89" t="s">
         <v>38</v>
@@ -5571,7 +5356,7 @@
         <v>55</v>
       </c>
       <c r="W89" t="s">
-        <v>76</v>
+        <v>393</v>
       </c>
     </row>
     <row r="90" spans="1:24" ht="300" x14ac:dyDescent="0.25">
@@ -5579,37 +5364,37 @@
         <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C90" t="s">
+        <v>75</v>
+      </c>
+      <c r="D90" t="s">
+        <v>76</v>
+      </c>
+      <c r="E90" t="s">
         <v>77</v>
       </c>
-      <c r="D90" t="s">
+      <c r="F90" t="s">
+        <v>43</v>
+      </c>
+      <c r="I90" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E90" t="s">
-        <v>79</v>
-      </c>
-      <c r="F90" t="s">
-        <v>43</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="J90" t="s">
         <v>44</v>
       </c>
       <c r="T90" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U90" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V90" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W90" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.25">
@@ -5617,17 +5402,17 @@
         <v>7</v>
       </c>
       <c r="B91" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C91" t="s">
+        <v>81</v>
+      </c>
+      <c r="D91" t="s">
+        <v>82</v>
+      </c>
+      <c r="E91" t="s">
         <v>83</v>
       </c>
-      <c r="D91" t="s">
-        <v>84</v>
-      </c>
-      <c r="E91" t="s">
-        <v>85</v>
-      </c>
       <c r="F91" t="s">
         <v>43</v>
       </c>
@@ -5635,16 +5420,16 @@
         <v>44</v>
       </c>
       <c r="T91" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U91" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V91" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W91" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="92" spans="1:24" ht="210" x14ac:dyDescent="0.25">
@@ -5652,37 +5437,37 @@
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C92" t="s">
+        <v>84</v>
+      </c>
+      <c r="D92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E92" t="s">
         <v>86</v>
       </c>
-      <c r="D92" t="s">
+      <c r="F92" t="s">
+        <v>43</v>
+      </c>
+      <c r="I92" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E92" t="s">
-        <v>88</v>
-      </c>
-      <c r="F92" t="s">
-        <v>43</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="J92" t="s">
         <v>44</v>
       </c>
       <c r="T92" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U92" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V92" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W92" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.25">
@@ -5690,34 +5475,34 @@
         <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C93" t="s">
+        <v>88</v>
+      </c>
+      <c r="D93" t="s">
+        <v>89</v>
+      </c>
+      <c r="E93" t="s">
         <v>90</v>
       </c>
-      <c r="D93" t="s">
+      <c r="F93" t="s">
         <v>91</v>
       </c>
-      <c r="E93" t="s">
-        <v>92</v>
-      </c>
-      <c r="F93" t="s">
-        <v>93</v>
-      </c>
       <c r="J93" t="s">
         <v>44</v>
       </c>
       <c r="T93" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U93" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V93" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W93" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.25">
@@ -5725,16 +5510,16 @@
         <v>10</v>
       </c>
       <c r="B94" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C94" t="s">
+        <v>92</v>
+      </c>
+      <c r="D94" t="s">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
         <v>94</v>
-      </c>
-      <c r="D94" t="s">
-        <v>95</v>
-      </c>
-      <c r="E94" t="s">
-        <v>96</v>
       </c>
       <c r="F94" t="s">
         <v>33</v>
@@ -5743,16 +5528,16 @@
         <v>44</v>
       </c>
       <c r="T94" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U94" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V94" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W94" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.25">
@@ -5760,17 +5545,17 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C95" t="s">
+        <v>95</v>
+      </c>
+      <c r="D95" t="s">
+        <v>96</v>
+      </c>
+      <c r="E95" t="s">
         <v>97</v>
       </c>
-      <c r="D95" t="s">
-        <v>98</v>
-      </c>
-      <c r="E95" t="s">
-        <v>99</v>
-      </c>
       <c r="F95" t="s">
         <v>43</v>
       </c>
@@ -5778,16 +5563,16 @@
         <v>44</v>
       </c>
       <c r="T95" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U95" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V95" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W95" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="96" spans="1:24" ht="225" x14ac:dyDescent="0.25">
@@ -5795,52 +5580,52 @@
         <v>12</v>
       </c>
       <c r="B96" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C96" t="s">
+        <v>98</v>
+      </c>
+      <c r="D96" t="s">
+        <v>99</v>
+      </c>
+      <c r="E96" t="s">
         <v>100</v>
       </c>
-      <c r="D96" t="s">
+      <c r="F96" t="s">
+        <v>43</v>
+      </c>
+      <c r="I96" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E96" t="s">
+      <c r="J96" t="s">
         <v>102</v>
       </c>
-      <c r="F96" t="s">
-        <v>43</v>
-      </c>
-      <c r="I96" s="1" t="s">
+      <c r="K96" t="s">
         <v>103</v>
       </c>
-      <c r="J96" t="s">
+      <c r="M96" t="s">
         <v>104</v>
       </c>
-      <c r="K96" t="s">
-        <v>105</v>
-      </c>
-      <c r="M96" t="s">
-        <v>106</v>
-      </c>
       <c r="O96" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P96" t="s">
         <v>36</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="T96" t="s">
         <v>38</v>
       </c>
       <c r="U96" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="V96" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W96" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:23" ht="225" x14ac:dyDescent="0.25">
@@ -5848,52 +5633,52 @@
         <v>13</v>
       </c>
       <c r="B97" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C97" t="s">
+        <v>108</v>
+      </c>
+      <c r="D97" t="s">
+        <v>109</v>
+      </c>
+      <c r="E97" t="s">
         <v>110</v>
       </c>
-      <c r="D97" t="s">
+      <c r="F97" t="s">
+        <v>43</v>
+      </c>
+      <c r="I97" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E97" t="s">
-        <v>112</v>
-      </c>
-      <c r="F97" t="s">
-        <v>43</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="J97" t="s">
+        <v>102</v>
+      </c>
+      <c r="K97" t="s">
+        <v>103</v>
+      </c>
+      <c r="M97" t="s">
         <v>104</v>
       </c>
-      <c r="K97" t="s">
-        <v>105</v>
-      </c>
-      <c r="M97" t="s">
-        <v>106</v>
-      </c>
       <c r="O97" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P97" t="s">
         <v>36</v>
       </c>
       <c r="Q97" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="T97" t="s">
         <v>38</v>
       </c>
       <c r="U97" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="V97" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W97" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:23" ht="60" x14ac:dyDescent="0.25">
@@ -5901,37 +5686,37 @@
         <v>14</v>
       </c>
       <c r="B98" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C98" t="s">
+        <v>113</v>
+      </c>
+      <c r="D98" t="s">
+        <v>114</v>
+      </c>
+      <c r="E98" t="s">
+        <v>114</v>
+      </c>
+      <c r="F98" t="s">
+        <v>43</v>
+      </c>
+      <c r="I98" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D98" t="s">
-        <v>116</v>
-      </c>
-      <c r="E98" t="s">
-        <v>116</v>
-      </c>
-      <c r="F98" t="s">
-        <v>43</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="J98" t="s">
         <v>44</v>
       </c>
       <c r="T98" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U98" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V98" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W98" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.25">
@@ -5939,43 +5724,43 @@
         <v>15</v>
       </c>
       <c r="B99" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C99" t="s">
+        <v>116</v>
+      </c>
+      <c r="D99" t="s">
+        <v>117</v>
+      </c>
+      <c r="E99" t="s">
+        <v>117</v>
+      </c>
+      <c r="F99" t="s">
+        <v>91</v>
+      </c>
+      <c r="G99" t="s">
         <v>118</v>
       </c>
-      <c r="D99" t="s">
+      <c r="J99" t="s">
         <v>119</v>
       </c>
-      <c r="E99" t="s">
-        <v>119</v>
-      </c>
-      <c r="F99" t="s">
-        <v>93</v>
-      </c>
-      <c r="G99" t="s">
+      <c r="K99" t="s">
         <v>120</v>
       </c>
-      <c r="J99" t="s">
+      <c r="M99" t="s">
         <v>121</v>
       </c>
-      <c r="K99" t="s">
-        <v>122</v>
-      </c>
-      <c r="M99" t="s">
-        <v>123</v>
-      </c>
       <c r="O99" t="s">
+        <v>73</v>
+      </c>
+      <c r="P99" t="s">
         <v>74</v>
-      </c>
-      <c r="P99" t="s">
-        <v>75</v>
       </c>
       <c r="Q99" t="s">
         <v>54</v>
       </c>
       <c r="R99" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="T99" t="s">
         <v>38</v>
@@ -5984,10 +5769,10 @@
         <v>39</v>
       </c>
       <c r="V99" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="W99" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="100" spans="1:23" ht="120" x14ac:dyDescent="0.25">
@@ -5995,55 +5780,55 @@
         <v>16</v>
       </c>
       <c r="B100" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C100" t="s">
+        <v>123</v>
+      </c>
+      <c r="D100" t="s">
+        <v>124</v>
+      </c>
+      <c r="E100" t="s">
+        <v>124</v>
+      </c>
+      <c r="F100" t="s">
+        <v>43</v>
+      </c>
+      <c r="I100" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D100" t="s">
-        <v>126</v>
-      </c>
-      <c r="E100" t="s">
-        <v>126</v>
-      </c>
-      <c r="F100" t="s">
-        <v>43</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="J100" t="s">
+        <v>119</v>
+      </c>
+      <c r="K100" t="s">
+        <v>120</v>
+      </c>
+      <c r="M100" t="s">
         <v>121</v>
       </c>
-      <c r="K100" t="s">
-        <v>122</v>
-      </c>
-      <c r="M100" t="s">
-        <v>123</v>
-      </c>
       <c r="O100" t="s">
+        <v>73</v>
+      </c>
+      <c r="P100" t="s">
         <v>74</v>
-      </c>
-      <c r="P100" t="s">
-        <v>75</v>
       </c>
       <c r="Q100" t="s">
         <v>54</v>
       </c>
       <c r="R100" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="T100" t="s">
         <v>38</v>
       </c>
       <c r="U100" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="V100" t="s">
         <v>55</v>
       </c>
       <c r="W100" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.25">
@@ -6051,43 +5836,43 @@
         <v>17</v>
       </c>
       <c r="B101" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C101" t="s">
+        <v>127</v>
+      </c>
+      <c r="D101" t="s">
+        <v>128</v>
+      </c>
+      <c r="E101" t="s">
+        <v>128</v>
+      </c>
+      <c r="F101" t="s">
+        <v>91</v>
+      </c>
+      <c r="G101" t="s">
         <v>129</v>
       </c>
-      <c r="D101" t="s">
+      <c r="J101" t="s">
         <v>130</v>
       </c>
-      <c r="E101" t="s">
-        <v>130</v>
-      </c>
-      <c r="F101" t="s">
-        <v>93</v>
-      </c>
-      <c r="G101" t="s">
+      <c r="K101" t="s">
         <v>131</v>
       </c>
-      <c r="J101" t="s">
+      <c r="M101" t="s">
         <v>132</v>
       </c>
-      <c r="K101" t="s">
-        <v>133</v>
-      </c>
-      <c r="M101" t="s">
-        <v>134</v>
-      </c>
       <c r="O101" t="s">
+        <v>73</v>
+      </c>
+      <c r="P101" t="s">
         <v>74</v>
-      </c>
-      <c r="P101" t="s">
-        <v>75</v>
       </c>
       <c r="Q101" t="s">
         <v>54</v>
       </c>
       <c r="R101" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="T101" t="s">
         <v>38</v>
@@ -6096,10 +5881,10 @@
         <v>39</v>
       </c>
       <c r="V101" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="W101" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="102" spans="1:23" ht="120" x14ac:dyDescent="0.25">
@@ -6107,55 +5892,55 @@
         <v>18</v>
       </c>
       <c r="B102" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C102" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D102" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E102" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F102" t="s">
         <v>43</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J102" t="s">
+        <v>130</v>
+      </c>
+      <c r="K102" t="s">
+        <v>131</v>
+      </c>
+      <c r="M102" t="s">
         <v>132</v>
       </c>
-      <c r="K102" t="s">
-        <v>133</v>
-      </c>
-      <c r="M102" t="s">
-        <v>134</v>
-      </c>
       <c r="O102" t="s">
+        <v>73</v>
+      </c>
+      <c r="P102" t="s">
         <v>74</v>
-      </c>
-      <c r="P102" t="s">
-        <v>75</v>
       </c>
       <c r="Q102" t="s">
         <v>54</v>
       </c>
       <c r="R102" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="T102" t="s">
         <v>38</v>
       </c>
       <c r="U102" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="V102" t="s">
         <v>55</v>
       </c>
       <c r="W102" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="103" spans="1:23" ht="60" x14ac:dyDescent="0.25">
@@ -6163,55 +5948,55 @@
         <v>19</v>
       </c>
       <c r="B103" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C103" t="s">
+        <v>136</v>
+      </c>
+      <c r="D103" t="s">
+        <v>137</v>
+      </c>
+      <c r="E103" t="s">
+        <v>137</v>
+      </c>
+      <c r="F103" t="s">
+        <v>91</v>
+      </c>
+      <c r="G103" t="s">
         <v>138</v>
       </c>
-      <c r="D103" t="s">
+      <c r="J103" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E103" t="s">
-        <v>139</v>
-      </c>
-      <c r="F103" t="s">
-        <v>93</v>
-      </c>
-      <c r="G103" t="s">
+      <c r="K103" t="s">
         <v>140</v>
       </c>
-      <c r="J103" s="1" t="s">
+      <c r="M103" t="s">
         <v>141</v>
       </c>
-      <c r="K103" t="s">
+      <c r="O103" t="s">
         <v>142</v>
       </c>
-      <c r="M103" t="s">
+      <c r="P103" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="O103" t="s">
+      <c r="Q103" t="s">
         <v>144</v>
       </c>
-      <c r="P103" s="1" t="s">
+      <c r="R103" t="s">
         <v>145</v>
-      </c>
-      <c r="Q103" t="s">
-        <v>146</v>
-      </c>
-      <c r="R103" t="s">
-        <v>147</v>
       </c>
       <c r="T103" t="s">
         <v>38</v>
       </c>
       <c r="U103" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="V103" t="s">
         <v>55</v>
       </c>
       <c r="W103" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="104" spans="1:23" ht="330" x14ac:dyDescent="0.25">
@@ -6219,58 +6004,58 @@
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C104" t="s">
+        <v>147</v>
+      </c>
+      <c r="D104" t="s">
+        <v>148</v>
+      </c>
+      <c r="E104" t="s">
+        <v>148</v>
+      </c>
+      <c r="F104" t="s">
+        <v>91</v>
+      </c>
+      <c r="G104" t="s">
+        <v>118</v>
+      </c>
+      <c r="J104" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D104" t="s">
+      <c r="K104" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E104" t="s">
-        <v>150</v>
-      </c>
-      <c r="F104" t="s">
-        <v>93</v>
-      </c>
-      <c r="G104" t="s">
-        <v>120</v>
-      </c>
-      <c r="J104" s="1" t="s">
+      <c r="M104" t="s">
         <v>151</v>
       </c>
-      <c r="K104" s="1" t="s">
+      <c r="O104" t="s">
         <v>152</v>
       </c>
-      <c r="M104" t="s">
+      <c r="P104" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="O104" t="s">
+      <c r="Q104" t="s">
         <v>154</v>
       </c>
-      <c r="P104" s="1" t="s">
+      <c r="R104" t="s">
         <v>155</v>
       </c>
-      <c r="Q104" t="s">
+      <c r="S104" t="s">
         <v>156</v>
-      </c>
-      <c r="R104" t="s">
-        <v>157</v>
-      </c>
-      <c r="S104" t="s">
-        <v>158</v>
       </c>
       <c r="T104" t="s">
         <v>38</v>
       </c>
       <c r="U104" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="V104" t="s">
         <v>55</v>
       </c>
       <c r="W104" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="105" spans="1:23" ht="330" x14ac:dyDescent="0.25">
@@ -6278,55 +6063,55 @@
         <v>21</v>
       </c>
       <c r="B105" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C105" t="s">
+        <v>158</v>
+      </c>
+      <c r="D105" t="s">
+        <v>159</v>
+      </c>
+      <c r="E105" t="s">
+        <v>159</v>
+      </c>
+      <c r="F105" t="s">
+        <v>43</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M105" t="s">
+        <v>151</v>
+      </c>
+      <c r="O105" t="s">
+        <v>152</v>
+      </c>
+      <c r="P105" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D105" t="s">
-        <v>161</v>
-      </c>
-      <c r="E105" t="s">
-        <v>161</v>
-      </c>
-      <c r="F105" t="s">
-        <v>43</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K105" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="M105" t="s">
-        <v>153</v>
-      </c>
-      <c r="O105" t="s">
+      <c r="Q105" t="s">
         <v>154</v>
       </c>
-      <c r="P105" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q105" t="s">
-        <v>156</v>
-      </c>
       <c r="R105" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="T105" t="s">
         <v>38</v>
       </c>
       <c r="U105" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="V105" t="s">
         <v>55</v>
       </c>
       <c r="W105" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.25">
@@ -6334,37 +6119,37 @@
         <v>22</v>
       </c>
       <c r="B106" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C106" t="s">
+        <v>162</v>
+      </c>
+      <c r="D106" t="s">
+        <v>163</v>
+      </c>
+      <c r="E106" t="s">
+        <v>163</v>
+      </c>
+      <c r="F106" t="s">
+        <v>91</v>
+      </c>
+      <c r="G106" t="s">
         <v>164</v>
       </c>
-      <c r="D106" t="s">
-        <v>165</v>
-      </c>
-      <c r="E106" t="s">
-        <v>165</v>
-      </c>
-      <c r="F106" t="s">
-        <v>93</v>
-      </c>
-      <c r="G106" t="s">
-        <v>166</v>
-      </c>
       <c r="J106" t="s">
         <v>44</v>
       </c>
       <c r="T106" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U106" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V106" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W106" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.25">
@@ -6372,16 +6157,16 @@
         <v>23</v>
       </c>
       <c r="B107" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C107" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D107" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E107" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F107" t="s">
         <v>33</v>
@@ -6390,16 +6175,16 @@
         <v>44</v>
       </c>
       <c r="T107" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U107" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V107" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W107" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.25">
@@ -6407,37 +6192,37 @@
         <v>24</v>
       </c>
       <c r="B108" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C108" t="s">
+        <v>167</v>
+      </c>
+      <c r="D108" t="s">
+        <v>168</v>
+      </c>
+      <c r="E108" t="s">
         <v>169</v>
       </c>
-      <c r="D108" t="s">
+      <c r="F108" t="s">
+        <v>91</v>
+      </c>
+      <c r="G108" t="s">
         <v>170</v>
       </c>
-      <c r="E108" t="s">
-        <v>171</v>
-      </c>
-      <c r="F108" t="s">
-        <v>93</v>
-      </c>
-      <c r="G108" t="s">
-        <v>172</v>
-      </c>
       <c r="J108" t="s">
         <v>44</v>
       </c>
       <c r="T108" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U108" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V108" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W108" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.25">
@@ -6445,37 +6230,37 @@
         <v>25</v>
       </c>
       <c r="B109" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C109" t="s">
+        <v>171</v>
+      </c>
+      <c r="D109" t="s">
+        <v>172</v>
+      </c>
+      <c r="E109" t="s">
         <v>173</v>
       </c>
-      <c r="D109" t="s">
-        <v>174</v>
-      </c>
-      <c r="E109" t="s">
-        <v>175</v>
-      </c>
       <c r="F109" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G109" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J109" t="s">
         <v>44</v>
       </c>
       <c r="T109" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U109" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V109" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W109" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.25">
@@ -6483,37 +6268,37 @@
         <v>26</v>
       </c>
       <c r="B110" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C110" t="s">
+        <v>174</v>
+      </c>
+      <c r="D110" t="s">
+        <v>175</v>
+      </c>
+      <c r="E110" t="s">
+        <v>175</v>
+      </c>
+      <c r="F110" t="s">
+        <v>91</v>
+      </c>
+      <c r="G110" t="s">
         <v>176</v>
       </c>
-      <c r="D110" t="s">
-        <v>177</v>
-      </c>
-      <c r="E110" t="s">
-        <v>177</v>
-      </c>
-      <c r="F110" t="s">
-        <v>93</v>
-      </c>
-      <c r="G110" t="s">
-        <v>178</v>
-      </c>
       <c r="J110" t="s">
         <v>44</v>
       </c>
       <c r="T110" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U110" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V110" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W110" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.25">
@@ -6521,37 +6306,37 @@
         <v>27</v>
       </c>
       <c r="B111" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C111" t="s">
+        <v>177</v>
+      </c>
+      <c r="D111" t="s">
+        <v>178</v>
+      </c>
+      <c r="E111" t="s">
+        <v>178</v>
+      </c>
+      <c r="F111" t="s">
+        <v>91</v>
+      </c>
+      <c r="G111" t="s">
         <v>179</v>
       </c>
-      <c r="D111" t="s">
-        <v>180</v>
-      </c>
-      <c r="E111" t="s">
-        <v>180</v>
-      </c>
-      <c r="F111" t="s">
-        <v>93</v>
-      </c>
-      <c r="G111" t="s">
-        <v>181</v>
-      </c>
       <c r="J111" t="s">
         <v>44</v>
       </c>
       <c r="T111" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U111" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V111" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W111" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="112" spans="1:23" ht="120" x14ac:dyDescent="0.25">
@@ -6559,37 +6344,37 @@
         <v>28</v>
       </c>
       <c r="B112" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C112" t="s">
+        <v>180</v>
+      </c>
+      <c r="D112" t="s">
+        <v>181</v>
+      </c>
+      <c r="E112" t="s">
+        <v>181</v>
+      </c>
+      <c r="F112" t="s">
+        <v>43</v>
+      </c>
+      <c r="I112" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D112" t="s">
-        <v>183</v>
-      </c>
-      <c r="E112" t="s">
-        <v>183</v>
-      </c>
-      <c r="F112" t="s">
-        <v>43</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="J112" t="s">
         <v>44</v>
       </c>
       <c r="T112" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U112" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V112" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W112" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="113" spans="1:23" x14ac:dyDescent="0.25">
@@ -6597,37 +6382,37 @@
         <v>29</v>
       </c>
       <c r="B113" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C113" t="s">
+        <v>183</v>
+      </c>
+      <c r="D113" t="s">
+        <v>184</v>
+      </c>
+      <c r="E113" t="s">
+        <v>184</v>
+      </c>
+      <c r="F113" t="s">
+        <v>91</v>
+      </c>
+      <c r="G113" t="s">
         <v>185</v>
       </c>
-      <c r="D113" t="s">
-        <v>186</v>
-      </c>
-      <c r="E113" t="s">
-        <v>186</v>
-      </c>
-      <c r="F113" t="s">
-        <v>93</v>
-      </c>
-      <c r="G113" t="s">
-        <v>187</v>
-      </c>
       <c r="J113" t="s">
         <v>44</v>
       </c>
       <c r="T113" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U113" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V113" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W113" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="114" spans="1:23" x14ac:dyDescent="0.25">
@@ -6635,37 +6420,37 @@
         <v>30</v>
       </c>
       <c r="B114" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C114" t="s">
+        <v>186</v>
+      </c>
+      <c r="D114" t="s">
+        <v>187</v>
+      </c>
+      <c r="E114" t="s">
+        <v>187</v>
+      </c>
+      <c r="F114" t="s">
+        <v>91</v>
+      </c>
+      <c r="G114" t="s">
         <v>188</v>
       </c>
-      <c r="D114" t="s">
-        <v>189</v>
-      </c>
-      <c r="E114" t="s">
-        <v>189</v>
-      </c>
-      <c r="F114" t="s">
-        <v>93</v>
-      </c>
-      <c r="G114" t="s">
-        <v>190</v>
-      </c>
       <c r="J114" t="s">
         <v>44</v>
       </c>
       <c r="T114" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U114" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V114" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W114" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="115" spans="1:23" x14ac:dyDescent="0.25">
@@ -6673,37 +6458,37 @@
         <v>31</v>
       </c>
       <c r="B115" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C115" t="s">
+        <v>189</v>
+      </c>
+      <c r="D115" t="s">
+        <v>190</v>
+      </c>
+      <c r="E115" t="s">
+        <v>190</v>
+      </c>
+      <c r="F115" t="s">
+        <v>91</v>
+      </c>
+      <c r="G115" t="s">
         <v>191</v>
       </c>
-      <c r="D115" t="s">
-        <v>192</v>
-      </c>
-      <c r="E115" t="s">
-        <v>192</v>
-      </c>
-      <c r="F115" t="s">
-        <v>93</v>
-      </c>
-      <c r="G115" t="s">
-        <v>193</v>
-      </c>
       <c r="J115" t="s">
         <v>44</v>
       </c>
       <c r="T115" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U115" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V115" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W115" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="116" spans="1:23" x14ac:dyDescent="0.25">
@@ -6711,37 +6496,37 @@
         <v>32</v>
       </c>
       <c r="B116" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C116" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D116" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E116" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F116" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G116" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J116" t="s">
         <v>44</v>
       </c>
       <c r="T116" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U116" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V116" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W116" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="117" spans="1:23" x14ac:dyDescent="0.25">
@@ -6749,37 +6534,37 @@
         <v>33</v>
       </c>
       <c r="B117" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C117" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D117" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E117" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F117" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G117" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J117" t="s">
         <v>44</v>
       </c>
       <c r="T117" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U117" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V117" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W117" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="118" spans="1:23" x14ac:dyDescent="0.25">
@@ -6787,37 +6572,37 @@
         <v>34</v>
       </c>
       <c r="B118" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C118" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D118" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E118" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F118" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G118" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J118" t="s">
         <v>44</v>
       </c>
       <c r="T118" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U118" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V118" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W118" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="119" spans="1:23" x14ac:dyDescent="0.25">
@@ -6825,37 +6610,37 @@
         <v>35</v>
       </c>
       <c r="B119" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C119" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D119" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E119" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F119" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G119" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J119" t="s">
         <v>44</v>
       </c>
       <c r="T119" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U119" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V119" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W119" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="120" spans="1:23" x14ac:dyDescent="0.25">
@@ -6863,37 +6648,37 @@
         <v>36</v>
       </c>
       <c r="B120" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C120" t="s">
+        <v>200</v>
+      </c>
+      <c r="D120" t="s">
+        <v>201</v>
+      </c>
+      <c r="E120" t="s">
+        <v>201</v>
+      </c>
+      <c r="F120" t="s">
+        <v>91</v>
+      </c>
+      <c r="G120" t="s">
         <v>202</v>
       </c>
-      <c r="D120" t="s">
-        <v>203</v>
-      </c>
-      <c r="E120" t="s">
-        <v>203</v>
-      </c>
-      <c r="F120" t="s">
-        <v>93</v>
-      </c>
-      <c r="G120" t="s">
-        <v>204</v>
-      </c>
       <c r="J120" t="s">
         <v>44</v>
       </c>
       <c r="T120" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U120" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V120" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W120" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="121" spans="1:23" x14ac:dyDescent="0.25">
@@ -6901,37 +6686,37 @@
         <v>37</v>
       </c>
       <c r="B121" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C121" t="s">
+        <v>203</v>
+      </c>
+      <c r="D121" t="s">
+        <v>204</v>
+      </c>
+      <c r="E121" t="s">
         <v>205</v>
       </c>
-      <c r="D121" t="s">
+      <c r="F121" t="s">
+        <v>91</v>
+      </c>
+      <c r="G121" t="s">
         <v>206</v>
       </c>
-      <c r="E121" t="s">
-        <v>207</v>
-      </c>
-      <c r="F121" t="s">
-        <v>93</v>
-      </c>
-      <c r="G121" t="s">
-        <v>208</v>
-      </c>
       <c r="J121" t="s">
         <v>44</v>
       </c>
       <c r="T121" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U121" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V121" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W121" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="122" spans="1:23" ht="120" x14ac:dyDescent="0.25">
@@ -6939,37 +6724,37 @@
         <v>38</v>
       </c>
       <c r="B122" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C122" t="s">
+        <v>207</v>
+      </c>
+      <c r="D122" t="s">
+        <v>208</v>
+      </c>
+      <c r="E122" t="s">
         <v>209</v>
       </c>
-      <c r="D122" t="s">
+      <c r="F122" t="s">
+        <v>43</v>
+      </c>
+      <c r="I122" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E122" t="s">
-        <v>211</v>
-      </c>
-      <c r="F122" t="s">
-        <v>43</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>212</v>
-      </c>
       <c r="J122" t="s">
         <v>44</v>
       </c>
       <c r="T122" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U122" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V122" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W122" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="123" spans="1:23" x14ac:dyDescent="0.25">
@@ -6977,37 +6762,37 @@
         <v>39</v>
       </c>
       <c r="B123" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C123" t="s">
+        <v>211</v>
+      </c>
+      <c r="D123" t="s">
+        <v>212</v>
+      </c>
+      <c r="E123" t="s">
         <v>213</v>
       </c>
-      <c r="D123" t="s">
-        <v>214</v>
-      </c>
-      <c r="E123" t="s">
-        <v>215</v>
-      </c>
       <c r="F123" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G123" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J123" t="s">
         <v>44</v>
       </c>
       <c r="T123" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U123" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V123" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W123" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="124" spans="1:23" ht="120" x14ac:dyDescent="0.25">
@@ -7015,37 +6800,37 @@
         <v>40</v>
       </c>
       <c r="B124" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C124" t="s">
+        <v>214</v>
+      </c>
+      <c r="D124" t="s">
+        <v>215</v>
+      </c>
+      <c r="E124" t="s">
         <v>216</v>
       </c>
-      <c r="D124" t="s">
-        <v>217</v>
-      </c>
-      <c r="E124" t="s">
-        <v>218</v>
-      </c>
       <c r="F124" t="s">
         <v>43</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J124" t="s">
         <v>44</v>
       </c>
       <c r="T124" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U124" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V124" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W124" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="125" spans="1:23" x14ac:dyDescent="0.25">
@@ -7053,37 +6838,37 @@
         <v>41</v>
       </c>
       <c r="B125" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C125" t="s">
+        <v>217</v>
+      </c>
+      <c r="D125" t="s">
+        <v>218</v>
+      </c>
+      <c r="E125" t="s">
+        <v>218</v>
+      </c>
+      <c r="F125" t="s">
+        <v>91</v>
+      </c>
+      <c r="G125" t="s">
         <v>219</v>
       </c>
-      <c r="D125" t="s">
-        <v>220</v>
-      </c>
-      <c r="E125" t="s">
-        <v>220</v>
-      </c>
-      <c r="F125" t="s">
-        <v>93</v>
-      </c>
-      <c r="G125" t="s">
-        <v>221</v>
-      </c>
       <c r="J125" t="s">
         <v>44</v>
       </c>
       <c r="T125" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U125" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V125" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W125" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="126" spans="1:23" x14ac:dyDescent="0.25">
@@ -7091,37 +6876,37 @@
         <v>42</v>
       </c>
       <c r="B126" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C126" t="s">
+        <v>220</v>
+      </c>
+      <c r="D126" t="s">
+        <v>221</v>
+      </c>
+      <c r="E126" t="s">
         <v>222</v>
       </c>
-      <c r="D126" t="s">
+      <c r="F126" t="s">
+        <v>91</v>
+      </c>
+      <c r="G126" t="s">
         <v>223</v>
       </c>
-      <c r="E126" t="s">
-        <v>224</v>
-      </c>
-      <c r="F126" t="s">
-        <v>93</v>
-      </c>
-      <c r="G126" t="s">
-        <v>225</v>
-      </c>
       <c r="J126" t="s">
         <v>44</v>
       </c>
       <c r="T126" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U126" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V126" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W126" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="127" spans="1:23" ht="180" x14ac:dyDescent="0.25">
@@ -7129,37 +6914,37 @@
         <v>43</v>
       </c>
       <c r="B127" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C127" t="s">
+        <v>224</v>
+      </c>
+      <c r="D127" t="s">
+        <v>225</v>
+      </c>
+      <c r="E127" t="s">
+        <v>225</v>
+      </c>
+      <c r="F127" t="s">
+        <v>43</v>
+      </c>
+      <c r="I127" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D127" t="s">
-        <v>227</v>
-      </c>
-      <c r="E127" t="s">
-        <v>227</v>
-      </c>
-      <c r="F127" t="s">
-        <v>43</v>
-      </c>
-      <c r="I127" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="J127" t="s">
         <v>44</v>
       </c>
       <c r="T127" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U127" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V127" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W127" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="128" spans="1:23" ht="135" x14ac:dyDescent="0.25">
@@ -7167,37 +6952,37 @@
         <v>44</v>
       </c>
       <c r="B128" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C128" t="s">
+        <v>227</v>
+      </c>
+      <c r="D128" t="s">
+        <v>228</v>
+      </c>
+      <c r="E128" t="s">
         <v>229</v>
       </c>
-      <c r="D128" t="s">
+      <c r="F128" t="s">
+        <v>43</v>
+      </c>
+      <c r="I128" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E128" t="s">
-        <v>231</v>
-      </c>
-      <c r="F128" t="s">
-        <v>43</v>
-      </c>
-      <c r="I128" s="1" t="s">
-        <v>232</v>
-      </c>
       <c r="J128" t="s">
         <v>44</v>
       </c>
       <c r="T128" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U128" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V128" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W128" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="129" spans="1:23" ht="105" x14ac:dyDescent="0.25">
@@ -7205,37 +6990,37 @@
         <v>45</v>
       </c>
       <c r="B129" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C129" t="s">
+        <v>231</v>
+      </c>
+      <c r="D129" t="s">
+        <v>232</v>
+      </c>
+      <c r="E129" t="s">
+        <v>232</v>
+      </c>
+      <c r="F129" t="s">
+        <v>43</v>
+      </c>
+      <c r="I129" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D129" t="s">
-        <v>234</v>
-      </c>
-      <c r="E129" t="s">
-        <v>234</v>
-      </c>
-      <c r="F129" t="s">
-        <v>43</v>
-      </c>
-      <c r="I129" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="J129" t="s">
         <v>44</v>
       </c>
       <c r="T129" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U129" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V129" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W129" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="130" spans="1:23" x14ac:dyDescent="0.25">
@@ -7243,37 +7028,37 @@
         <v>46</v>
       </c>
       <c r="B130" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C130" t="s">
+        <v>234</v>
+      </c>
+      <c r="D130" t="s">
+        <v>235</v>
+      </c>
+      <c r="E130" t="s">
+        <v>235</v>
+      </c>
+      <c r="F130" t="s">
+        <v>91</v>
+      </c>
+      <c r="G130" t="s">
         <v>236</v>
       </c>
-      <c r="D130" t="s">
-        <v>237</v>
-      </c>
-      <c r="E130" t="s">
-        <v>237</v>
-      </c>
-      <c r="F130" t="s">
-        <v>93</v>
-      </c>
-      <c r="G130" t="s">
-        <v>238</v>
-      </c>
       <c r="J130" t="s">
         <v>44</v>
       </c>
       <c r="T130" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U130" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V130" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W130" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="131" spans="1:23" ht="345" x14ac:dyDescent="0.25">
@@ -7281,52 +7066,52 @@
         <v>47</v>
       </c>
       <c r="B131" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C131" t="s">
+        <v>237</v>
+      </c>
+      <c r="D131" t="s">
+        <v>238</v>
+      </c>
+      <c r="E131" t="s">
+        <v>238</v>
+      </c>
+      <c r="F131" t="s">
+        <v>43</v>
+      </c>
+      <c r="I131" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D131" t="s">
+      <c r="J131" t="s">
         <v>240</v>
       </c>
-      <c r="E131" t="s">
-        <v>240</v>
-      </c>
-      <c r="F131" t="s">
-        <v>43</v>
-      </c>
-      <c r="I131" s="1" t="s">
+      <c r="K131" t="s">
         <v>241</v>
       </c>
-      <c r="J131" t="s">
+      <c r="M131" t="s">
         <v>242</v>
       </c>
-      <c r="K131" t="s">
+      <c r="O131" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="M131" t="s">
-        <v>244</v>
-      </c>
-      <c r="O131" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="P131" t="s">
         <v>36</v>
       </c>
       <c r="Q131" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="T131" t="s">
         <v>38</v>
       </c>
       <c r="U131" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="V131" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W131" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="132" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -7334,37 +7119,37 @@
         <v>48</v>
       </c>
       <c r="B132" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C132" t="s">
+        <v>246</v>
+      </c>
+      <c r="D132" t="s">
+        <v>247</v>
+      </c>
+      <c r="E132" t="s">
         <v>248</v>
       </c>
-      <c r="D132" t="s">
+      <c r="F132" t="s">
+        <v>43</v>
+      </c>
+      <c r="I132" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E132" t="s">
-        <v>250</v>
-      </c>
-      <c r="F132" t="s">
-        <v>43</v>
-      </c>
-      <c r="I132" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="J132" t="s">
         <v>44</v>
       </c>
       <c r="T132" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U132" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V132" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W132" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="133" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -7372,37 +7157,37 @@
         <v>49</v>
       </c>
       <c r="B133" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C133" t="s">
+        <v>250</v>
+      </c>
+      <c r="D133" t="s">
+        <v>251</v>
+      </c>
+      <c r="E133" t="s">
         <v>252</v>
       </c>
-      <c r="D133" t="s">
-        <v>253</v>
-      </c>
-      <c r="E133" t="s">
-        <v>254</v>
-      </c>
       <c r="F133" t="s">
         <v>43</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J133" t="s">
         <v>44</v>
       </c>
       <c r="T133" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U133" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V133" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W133" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="134" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -7410,37 +7195,37 @@
         <v>50</v>
       </c>
       <c r="B134" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C134" t="s">
+        <v>253</v>
+      </c>
+      <c r="D134" t="s">
+        <v>254</v>
+      </c>
+      <c r="E134" t="s">
         <v>255</v>
       </c>
-      <c r="D134" t="s">
-        <v>256</v>
-      </c>
-      <c r="E134" t="s">
-        <v>257</v>
-      </c>
       <c r="F134" t="s">
         <v>43</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J134" t="s">
         <v>44</v>
       </c>
       <c r="T134" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U134" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V134" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W134" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="135" spans="1:23" ht="75" x14ac:dyDescent="0.25">
@@ -7448,37 +7233,37 @@
         <v>51</v>
       </c>
       <c r="B135" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C135" t="s">
+        <v>256</v>
+      </c>
+      <c r="D135" t="s">
+        <v>257</v>
+      </c>
+      <c r="E135" t="s">
         <v>258</v>
       </c>
-      <c r="D135" t="s">
+      <c r="F135" t="s">
+        <v>43</v>
+      </c>
+      <c r="I135" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E135" t="s">
-        <v>260</v>
-      </c>
-      <c r="F135" t="s">
-        <v>43</v>
-      </c>
-      <c r="I135" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="J135" t="s">
         <v>44</v>
       </c>
       <c r="T135" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U135" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V135" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W135" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="136" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -7486,37 +7271,37 @@
         <v>52</v>
       </c>
       <c r="B136" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C136" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D136" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E136" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F136" t="s">
         <v>43</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J136" t="s">
         <v>44</v>
       </c>
       <c r="T136" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U136" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V136" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W136" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="137" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -7524,37 +7309,37 @@
         <v>53</v>
       </c>
       <c r="B137" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C137" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D137" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E137" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F137" t="s">
         <v>43</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J137" t="s">
         <v>44</v>
       </c>
       <c r="T137" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U137" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V137" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W137" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="138" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -7562,37 +7347,37 @@
         <v>54</v>
       </c>
       <c r="B138" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C138" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D138" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E138" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F138" t="s">
         <v>43</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J138" t="s">
         <v>44</v>
       </c>
       <c r="T138" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U138" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V138" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W138" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="139" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -7600,37 +7385,37 @@
         <v>55</v>
       </c>
       <c r="B139" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C139" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D139" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E139" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F139" t="s">
         <v>43</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J139" t="s">
         <v>44</v>
       </c>
       <c r="T139" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U139" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V139" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W139" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="140" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -7638,37 +7423,37 @@
         <v>56</v>
       </c>
       <c r="B140" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C140" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D140" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E140" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F140" t="s">
         <v>43</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J140" t="s">
         <v>44</v>
       </c>
       <c r="T140" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U140" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V140" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W140" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="141" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
@@ -7676,31 +7461,31 @@
         <v>57</v>
       </c>
       <c r="B141" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C141" t="s">
+        <v>270</v>
+      </c>
+      <c r="D141" t="s">
+        <v>271</v>
+      </c>
+      <c r="E141" t="s">
         <v>272</v>
       </c>
-      <c r="D141" t="s">
+      <c r="F141" t="s">
+        <v>43</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J141" t="s">
         <v>273</v>
       </c>
-      <c r="E141" t="s">
+      <c r="K141" t="s">
         <v>274</v>
       </c>
-      <c r="F141" t="s">
-        <v>43</v>
-      </c>
-      <c r="I141" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="J141" t="s">
+      <c r="L141" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="K141" t="s">
-        <v>276</v>
-      </c>
-      <c r="L141" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="T141" t="s">
         <v>38</v>
@@ -7709,10 +7494,10 @@
         <v>39</v>
       </c>
       <c r="V141" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="W141" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="142" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
@@ -7720,37 +7505,37 @@
         <v>58</v>
       </c>
       <c r="B142" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C142" t="s">
+        <v>276</v>
+      </c>
+      <c r="D142" t="s">
+        <v>277</v>
+      </c>
+      <c r="E142" t="s">
+        <v>277</v>
+      </c>
+      <c r="F142" t="s">
+        <v>43</v>
+      </c>
+      <c r="J142" t="s">
         <v>278</v>
       </c>
-      <c r="D142" t="s">
+      <c r="K142" t="s">
         <v>279</v>
       </c>
-      <c r="E142" t="s">
-        <v>279</v>
-      </c>
-      <c r="F142" t="s">
-        <v>43</v>
-      </c>
-      <c r="J142" t="s">
+      <c r="M142" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="K142" t="s">
+      <c r="O142" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="M142" s="1" t="s">
+      <c r="P142" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q142" t="s">
         <v>282</v>
-      </c>
-      <c r="O142" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="P142" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q142" t="s">
-        <v>284</v>
       </c>
       <c r="T142" t="s">
         <v>38</v>
@@ -7759,10 +7544,10 @@
         <v>39</v>
       </c>
       <c r="V142" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="W142" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="143" spans="1:23" x14ac:dyDescent="0.25">
@@ -7770,16 +7555,16 @@
         <v>59</v>
       </c>
       <c r="B143" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C143" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D143" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E143" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F143" t="s">
         <v>43</v>
@@ -7788,16 +7573,16 @@
         <v>44</v>
       </c>
       <c r="T143" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U143" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V143" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W143" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="144" spans="1:23" x14ac:dyDescent="0.25">
@@ -7805,16 +7590,16 @@
         <v>60</v>
       </c>
       <c r="B144" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C144" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D144" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E144" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F144" t="s">
         <v>43</v>
@@ -7823,16 +7608,16 @@
         <v>44</v>
       </c>
       <c r="T144" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U144" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V144" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W144" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="145" spans="1:23" x14ac:dyDescent="0.25">
@@ -7840,16 +7625,16 @@
         <v>61</v>
       </c>
       <c r="B145" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C145" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D145" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E145" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F145" t="s">
         <v>43</v>
@@ -7858,16 +7643,16 @@
         <v>44</v>
       </c>
       <c r="T145" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U145" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V145" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W145" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="146" spans="1:23" x14ac:dyDescent="0.25">
@@ -7875,16 +7660,16 @@
         <v>62</v>
       </c>
       <c r="B146" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C146" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D146" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E146" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F146" t="s">
         <v>43</v>
@@ -7893,16 +7678,16 @@
         <v>44</v>
       </c>
       <c r="T146" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U146" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V146" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W146" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="147" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
@@ -7910,34 +7695,34 @@
         <v>63</v>
       </c>
       <c r="B147" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C147" t="s">
+        <v>291</v>
+      </c>
+      <c r="D147" t="s">
+        <v>292</v>
+      </c>
+      <c r="E147" t="s">
+        <v>292</v>
+      </c>
+      <c r="F147" t="s">
+        <v>43</v>
+      </c>
+      <c r="J147" t="s">
         <v>293</v>
       </c>
-      <c r="D147" t="s">
+      <c r="K147" t="s">
         <v>294</v>
       </c>
-      <c r="E147" t="s">
-        <v>294</v>
-      </c>
-      <c r="F147" t="s">
-        <v>43</v>
-      </c>
-      <c r="J147" t="s">
+      <c r="M147" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="K147" t="s">
+      <c r="O147" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="M147" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="O147" s="1" t="s">
-        <v>298</v>
-      </c>
       <c r="P147" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q147" t="s">
         <v>54</v>
@@ -7949,10 +7734,10 @@
         <v>39</v>
       </c>
       <c r="V147" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="W147" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="148" spans="1:23" x14ac:dyDescent="0.25">
@@ -7960,16 +7745,16 @@
         <v>64</v>
       </c>
       <c r="B148" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C148" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D148" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E148" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F148" t="s">
         <v>43</v>
@@ -7978,16 +7763,16 @@
         <v>44</v>
       </c>
       <c r="T148" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U148" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V148" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W148" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="149" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
@@ -7995,31 +7780,31 @@
         <v>65</v>
       </c>
       <c r="B149" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C149" t="s">
+        <v>299</v>
+      </c>
+      <c r="D149" t="s">
+        <v>300</v>
+      </c>
+      <c r="E149" t="s">
+        <v>300</v>
+      </c>
+      <c r="F149" t="s">
+        <v>43</v>
+      </c>
+      <c r="I149" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D149" t="s">
+      <c r="J149" t="s">
         <v>302</v>
       </c>
-      <c r="E149" t="s">
-        <v>302</v>
-      </c>
-      <c r="F149" t="s">
-        <v>43</v>
-      </c>
-      <c r="I149" s="1" t="s">
+      <c r="K149" t="s">
         <v>303</v>
       </c>
-      <c r="J149" t="s">
+      <c r="L149" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="K149" t="s">
-        <v>305</v>
-      </c>
-      <c r="L149" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="T149" t="s">
         <v>38</v>
@@ -8028,10 +7813,10 @@
         <v>39</v>
       </c>
       <c r="V149" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="W149" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="150" spans="1:23" x14ac:dyDescent="0.25">
@@ -8039,37 +7824,37 @@
         <v>66</v>
       </c>
       <c r="B150" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C150" t="s">
+        <v>305</v>
+      </c>
+      <c r="D150" t="s">
+        <v>306</v>
+      </c>
+      <c r="E150" t="s">
+        <v>306</v>
+      </c>
+      <c r="F150" t="s">
+        <v>91</v>
+      </c>
+      <c r="G150" t="s">
         <v>307</v>
       </c>
-      <c r="D150" t="s">
-        <v>308</v>
-      </c>
-      <c r="E150" t="s">
-        <v>308</v>
-      </c>
-      <c r="F150" t="s">
-        <v>93</v>
-      </c>
-      <c r="G150" t="s">
-        <v>309</v>
-      </c>
       <c r="J150" t="s">
         <v>44</v>
       </c>
       <c r="T150" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U150" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V150" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W150" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="151" spans="1:23" ht="285" x14ac:dyDescent="0.25">
@@ -8077,37 +7862,37 @@
         <v>67</v>
       </c>
       <c r="B151" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C151" t="s">
+        <v>308</v>
+      </c>
+      <c r="D151" t="s">
+        <v>309</v>
+      </c>
+      <c r="E151" t="s">
+        <v>309</v>
+      </c>
+      <c r="F151" t="s">
+        <v>43</v>
+      </c>
+      <c r="I151" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D151" t="s">
-        <v>311</v>
-      </c>
-      <c r="E151" t="s">
-        <v>311</v>
-      </c>
-      <c r="F151" t="s">
-        <v>43</v>
-      </c>
-      <c r="I151" s="1" t="s">
-        <v>312</v>
-      </c>
       <c r="J151" t="s">
         <v>44</v>
       </c>
       <c r="T151" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U151" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V151" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W151" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="152" spans="1:23" ht="90" x14ac:dyDescent="0.25">
@@ -8115,37 +7900,37 @@
         <v>68</v>
       </c>
       <c r="B152" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C152" t="s">
+        <v>311</v>
+      </c>
+      <c r="D152" t="s">
+        <v>312</v>
+      </c>
+      <c r="E152" t="s">
+        <v>312</v>
+      </c>
+      <c r="F152" t="s">
+        <v>43</v>
+      </c>
+      <c r="I152" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D152" t="s">
-        <v>314</v>
-      </c>
-      <c r="E152" t="s">
-        <v>314</v>
-      </c>
-      <c r="F152" t="s">
-        <v>43</v>
-      </c>
-      <c r="I152" s="1" t="s">
-        <v>315</v>
-      </c>
       <c r="J152" t="s">
         <v>44</v>
       </c>
       <c r="T152" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U152" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V152" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W152" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="153" spans="1:23" ht="195" x14ac:dyDescent="0.25">
@@ -8153,37 +7938,37 @@
         <v>69</v>
       </c>
       <c r="B153" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C153" t="s">
+        <v>314</v>
+      </c>
+      <c r="D153" t="s">
+        <v>315</v>
+      </c>
+      <c r="E153" t="s">
+        <v>315</v>
+      </c>
+      <c r="F153" t="s">
+        <v>43</v>
+      </c>
+      <c r="I153" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="D153" t="s">
-        <v>317</v>
-      </c>
-      <c r="E153" t="s">
-        <v>317</v>
-      </c>
-      <c r="F153" t="s">
-        <v>43</v>
-      </c>
-      <c r="I153" s="1" t="s">
-        <v>318</v>
-      </c>
       <c r="J153" t="s">
         <v>44</v>
       </c>
       <c r="T153" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U153" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V153" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W153" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="154" spans="1:23" ht="195" x14ac:dyDescent="0.25">
@@ -8191,37 +7976,37 @@
         <v>70</v>
       </c>
       <c r="B154" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C154" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D154" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E154" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F154" t="s">
         <v>43</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J154" t="s">
         <v>44</v>
       </c>
       <c r="T154" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U154" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V154" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W154" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="155" spans="1:23" ht="195" x14ac:dyDescent="0.25">
@@ -8229,37 +8014,37 @@
         <v>71</v>
       </c>
       <c r="B155" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C155" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D155" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E155" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F155" t="s">
         <v>43</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J155" t="s">
         <v>44</v>
       </c>
       <c r="T155" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U155" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V155" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W155" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="156" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
@@ -8267,37 +8052,37 @@
         <v>72</v>
       </c>
       <c r="B156" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C156" t="s">
+        <v>321</v>
+      </c>
+      <c r="D156" t="s">
+        <v>322</v>
+      </c>
+      <c r="E156" t="s">
         <v>323</v>
       </c>
-      <c r="D156" t="s">
+      <c r="F156" t="s">
+        <v>43</v>
+      </c>
+      <c r="I156" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="E156" t="s">
-        <v>325</v>
-      </c>
-      <c r="F156" t="s">
-        <v>43</v>
-      </c>
-      <c r="I156" s="1" t="s">
-        <v>326</v>
-      </c>
       <c r="J156" t="s">
         <v>44</v>
       </c>
       <c r="T156" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U156" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V156" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W156" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="157" spans="1:23" ht="195" x14ac:dyDescent="0.25">
@@ -8305,37 +8090,37 @@
         <v>73</v>
       </c>
       <c r="B157" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C157" t="s">
+        <v>325</v>
+      </c>
+      <c r="D157" t="s">
+        <v>326</v>
+      </c>
+      <c r="E157" t="s">
         <v>327</v>
       </c>
-      <c r="D157" t="s">
-        <v>328</v>
-      </c>
-      <c r="E157" t="s">
-        <v>329</v>
-      </c>
       <c r="F157" t="s">
         <v>43</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J157" t="s">
         <v>44</v>
       </c>
       <c r="T157" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U157" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V157" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W157" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="158" spans="1:23" ht="195" x14ac:dyDescent="0.25">
@@ -8343,37 +8128,37 @@
         <v>74</v>
       </c>
       <c r="B158" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C158" t="s">
+        <v>328</v>
+      </c>
+      <c r="D158" t="s">
+        <v>329</v>
+      </c>
+      <c r="E158" t="s">
         <v>330</v>
       </c>
-      <c r="D158" t="s">
-        <v>331</v>
-      </c>
-      <c r="E158" t="s">
-        <v>332</v>
-      </c>
       <c r="F158" t="s">
         <v>43</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J158" t="s">
         <v>44</v>
       </c>
       <c r="T158" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U158" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V158" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W158" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="159" spans="1:23" x14ac:dyDescent="0.25">
@@ -8381,37 +8166,37 @@
         <v>75</v>
       </c>
       <c r="B159" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C159" t="s">
+        <v>331</v>
+      </c>
+      <c r="D159" t="s">
+        <v>332</v>
+      </c>
+      <c r="E159" t="s">
         <v>333</v>
       </c>
-      <c r="D159" t="s">
-        <v>334</v>
-      </c>
-      <c r="E159" t="s">
-        <v>335</v>
-      </c>
       <c r="F159" t="s">
         <v>43</v>
       </c>
       <c r="G159" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J159" t="s">
         <v>44</v>
       </c>
       <c r="T159" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U159" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V159" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W159" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="160" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
@@ -8419,40 +8204,40 @@
         <v>76</v>
       </c>
       <c r="B160" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C160" t="s">
+        <v>334</v>
+      </c>
+      <c r="D160" t="s">
+        <v>335</v>
+      </c>
+      <c r="E160" t="s">
         <v>336</v>
       </c>
-      <c r="D160" t="s">
+      <c r="F160" t="s">
+        <v>43</v>
+      </c>
+      <c r="I160" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="E160" t="s">
+      <c r="J160" t="s">
         <v>338</v>
       </c>
-      <c r="F160" t="s">
-        <v>43</v>
-      </c>
-      <c r="I160" s="1" t="s">
+      <c r="K160" t="s">
         <v>339</v>
       </c>
-      <c r="J160" t="s">
+      <c r="M160" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="K160" t="s">
+      <c r="O160" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="M160" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="O160" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="P160" t="s">
         <v>36</v>
       </c>
       <c r="Q160" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="T160" t="s">
         <v>38</v>
@@ -8461,10 +8246,10 @@
         <v>39</v>
       </c>
       <c r="V160" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W160" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="161" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
@@ -8472,55 +8257,55 @@
         <v>77</v>
       </c>
       <c r="B161" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C161" t="s">
+        <v>344</v>
+      </c>
+      <c r="D161" t="s">
+        <v>345</v>
+      </c>
+      <c r="E161" t="s">
         <v>346</v>
       </c>
-      <c r="D161" t="s">
+      <c r="F161" t="s">
+        <v>43</v>
+      </c>
+      <c r="I161" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="E161" t="s">
+      <c r="J161" t="s">
         <v>348</v>
       </c>
-      <c r="F161" t="s">
-        <v>43</v>
-      </c>
-      <c r="I161" s="1" t="s">
+      <c r="K161" t="s">
         <v>349</v>
       </c>
-      <c r="J161" t="s">
+      <c r="M161" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="K161" t="s">
+      <c r="O161" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="M161" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="O161" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="P161" t="s">
         <v>36</v>
       </c>
       <c r="Q161" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="S161" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="T161" t="s">
         <v>38</v>
       </c>
       <c r="U161" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="V161" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W161" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="162" spans="1:23" ht="360" x14ac:dyDescent="0.25">
@@ -8528,37 +8313,37 @@
         <v>78</v>
       </c>
       <c r="B162" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C162" t="s">
+        <v>355</v>
+      </c>
+      <c r="D162" t="s">
+        <v>356</v>
+      </c>
+      <c r="E162" t="s">
+        <v>356</v>
+      </c>
+      <c r="F162" t="s">
+        <v>43</v>
+      </c>
+      <c r="I162" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="D162" t="s">
-        <v>358</v>
-      </c>
-      <c r="E162" t="s">
-        <v>358</v>
-      </c>
-      <c r="F162" t="s">
-        <v>43</v>
-      </c>
-      <c r="I162" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="J162" t="s">
         <v>44</v>
       </c>
       <c r="T162" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U162" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V162" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W162" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="163" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -8566,37 +8351,37 @@
         <v>79</v>
       </c>
       <c r="B163" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C163" t="s">
+        <v>358</v>
+      </c>
+      <c r="D163" t="s">
+        <v>359</v>
+      </c>
+      <c r="E163" t="s">
         <v>360</v>
       </c>
-      <c r="D163" t="s">
-        <v>361</v>
-      </c>
-      <c r="E163" t="s">
-        <v>362</v>
-      </c>
       <c r="F163" t="s">
         <v>43</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J163" t="s">
         <v>44</v>
       </c>
       <c r="T163" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U163" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V163" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W163" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="164" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -8604,37 +8389,37 @@
         <v>80</v>
       </c>
       <c r="B164" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C164" t="s">
+        <v>361</v>
+      </c>
+      <c r="D164" t="s">
+        <v>362</v>
+      </c>
+      <c r="E164" t="s">
         <v>363</v>
       </c>
-      <c r="D164" t="s">
-        <v>364</v>
-      </c>
-      <c r="E164" t="s">
-        <v>365</v>
-      </c>
       <c r="F164" t="s">
         <v>43</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J164" t="s">
         <v>44</v>
       </c>
       <c r="T164" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U164" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V164" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W164" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="165" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
@@ -8642,52 +8427,52 @@
         <v>81</v>
       </c>
       <c r="B165" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C165" t="s">
+        <v>364</v>
+      </c>
+      <c r="D165" t="s">
+        <v>365</v>
+      </c>
+      <c r="E165" t="s">
         <v>366</v>
       </c>
-      <c r="D165" t="s">
+      <c r="F165" t="s">
+        <v>43</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J165" t="s">
         <v>367</v>
       </c>
-      <c r="E165" t="s">
+      <c r="K165" t="s">
         <v>368</v>
       </c>
-      <c r="F165" t="s">
-        <v>43</v>
-      </c>
-      <c r="I165" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="J165" t="s">
+      <c r="M165" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="K165" t="s">
+      <c r="O165" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="M165" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="O165" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="P165" t="s">
         <v>36</v>
       </c>
       <c r="Q165" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="T165" t="s">
         <v>38</v>
       </c>
       <c r="U165" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="V165" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W165" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="166" spans="1:23" x14ac:dyDescent="0.25">
@@ -8695,34 +8480,34 @@
         <v>82</v>
       </c>
       <c r="B166" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C166" t="s">
+        <v>373</v>
+      </c>
+      <c r="D166" t="s">
+        <v>374</v>
+      </c>
+      <c r="E166" t="s">
         <v>375</v>
       </c>
-      <c r="D166" t="s">
-        <v>376</v>
-      </c>
-      <c r="E166" t="s">
-        <v>377</v>
-      </c>
       <c r="F166" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J166" t="s">
         <v>44</v>
       </c>
       <c r="T166" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U166" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V166" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W166" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="167" spans="1:23" x14ac:dyDescent="0.25">
@@ -8730,37 +8515,37 @@
         <v>83</v>
       </c>
       <c r="B167" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C167" t="s">
+        <v>376</v>
+      </c>
+      <c r="D167" t="s">
+        <v>377</v>
+      </c>
+      <c r="E167" t="s">
         <v>378</v>
       </c>
-      <c r="D167" t="s">
+      <c r="F167" t="s">
+        <v>43</v>
+      </c>
+      <c r="G167" t="s">
         <v>379</v>
       </c>
-      <c r="E167" t="s">
-        <v>380</v>
-      </c>
-      <c r="F167" t="s">
-        <v>43</v>
-      </c>
-      <c r="G167" t="s">
-        <v>381</v>
-      </c>
       <c r="J167" t="s">
         <v>44</v>
       </c>
       <c r="T167" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U167" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V167" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W167" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/longitudinal/data_processing_elements_longitudinal-AGN.xlsx
+++ b/longitudinal/data_processing_elements_longitudinal-AGN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C25C962-7077-46ED-885E-C2B37DF769D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6057DAA6-4AC5-4081-9D4C-AD951D6CD27C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{DE4C7F53-17AD-41A0-BCA9-A2A8E85C7880}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="400">
   <si>
     <t>index</t>
   </si>
@@ -1363,9 +1363,6 @@
   </si>
   <si>
     <t>format(as.Date(date_interview1, format = "%d-%m-%Y"), "%Y-%m-%d")</t>
-  </si>
-  <si>
-    <t>MMSE_cor_tot_score1</t>
   </si>
 </sst>
 </file>
@@ -1751,8 +1748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A617E81B-AA39-4B57-8286-9F6F09A3BC0B}">
   <dimension ref="A1:AD167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="J72" sqref="J72"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4278,7 +4275,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4298,34 +4295,19 @@
         <v>43</v>
       </c>
       <c r="J64" t="s">
-        <v>400</v>
-      </c>
-      <c r="K64" t="s">
-        <v>294</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="O64" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="P64" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="T64" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U64" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="V64" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="W64" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.25">

--- a/longitudinal/data_processing_elements_longitudinal-AGN.xlsx
+++ b/longitudinal/data_processing_elements_longitudinal-AGN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6057DAA6-4AC5-4081-9D4C-AD951D6CD27C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A0F523-92FD-4DC7-A5FD-C31D8EE355F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{DE4C7F53-17AD-41A0-BCA9-A2A8E85C7880}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="416">
   <si>
     <t>index</t>
   </si>
@@ -1363,6 +1363,57 @@
   </si>
   <si>
     <t>format(as.Date(date_interview1, format = "%d-%m-%Y"), "%Y-%m-%d")</t>
+  </si>
+  <si>
+    <t>MMSE_cor_tot_score1</t>
+  </si>
+  <si>
+    <t>round(MMSE_cor_tot_score1)</t>
+  </si>
+  <si>
+    <t>round(MMSE_cor_tot_score4)</t>
+  </si>
+  <si>
+    <t>CESD_tot_score1</t>
+  </si>
+  <si>
+    <t>height1</t>
+  </si>
+  <si>
+    <t>weight1</t>
+  </si>
+  <si>
+    <t>weight1; 
+height1</t>
+  </si>
+  <si>
+    <t>round(weight1 / (height1/100)^2, 2)</t>
+  </si>
+  <si>
+    <t>ifelse(!is.na(weight1), 2, NA)</t>
+  </si>
+  <si>
+    <t>ifelse(!is.na(height1), 2, NA)</t>
+  </si>
+  <si>
+    <t>waist_circumference1_1; 
+waist_circumference1_2; 
+waist_circumference1_3</t>
+  </si>
+  <si>
+    <t>ifelse(!is.na(waist_circumference1_1) | !is.na(waist_circumference1_2) | !is.na(waist_circumference1_3), 2, NA)</t>
+  </si>
+  <si>
+    <t>round(rowMeans(select(., waist_circumference1_1, waist_circumference1_2, waist_circumference1_3), na.rm = TRUE),2)</t>
+  </si>
+  <si>
+    <t>self_rated_health1</t>
+  </si>
+  <si>
+    <t>Depression_dichotomous1</t>
+  </si>
+  <si>
+    <t>level_of_PA_single_question1</t>
   </si>
 </sst>
 </file>
@@ -1748,14 +1799,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A617E81B-AA39-4B57-8286-9F6F09A3BC0B}">
   <dimension ref="A1:AD167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="J57" sqref="J57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="95.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1"/>
     <col min="10" max="10" width="30.42578125" customWidth="1"/>
+    <col min="22" max="22" width="12" customWidth="1"/>
+    <col min="23" max="23" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2471,19 +2525,37 @@
         <v>118</v>
       </c>
       <c r="J16" t="s">
-        <v>44</v>
+        <v>404</v>
+      </c>
+      <c r="K16" t="s">
+        <v>120</v>
+      </c>
+      <c r="M16" t="s">
+        <v>121</v>
+      </c>
+      <c r="O16" t="s">
+        <v>73</v>
+      </c>
+      <c r="P16" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>54</v>
+      </c>
+      <c r="R16" t="s">
+        <v>118</v>
       </c>
       <c r="T16" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U16" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="V16" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="W16" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="X16" t="s">
         <v>383</v>
@@ -2512,19 +2584,37 @@
         <v>125</v>
       </c>
       <c r="J17" t="s">
-        <v>44</v>
+        <v>404</v>
+      </c>
+      <c r="K17" t="s">
+        <v>120</v>
+      </c>
+      <c r="M17" t="s">
+        <v>121</v>
+      </c>
+      <c r="O17" t="s">
+        <v>73</v>
+      </c>
+      <c r="P17" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>54</v>
+      </c>
+      <c r="R17" t="s">
+        <v>118</v>
       </c>
       <c r="T17" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U17" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="V17" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="W17" t="s">
-        <v>79</v>
+        <v>409</v>
       </c>
       <c r="X17" t="s">
         <v>383</v>
@@ -2553,19 +2643,37 @@
         <v>129</v>
       </c>
       <c r="J18" t="s">
-        <v>44</v>
+        <v>405</v>
+      </c>
+      <c r="K18" t="s">
+        <v>131</v>
+      </c>
+      <c r="M18" t="s">
+        <v>132</v>
+      </c>
+      <c r="O18" t="s">
+        <v>73</v>
+      </c>
+      <c r="P18" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>54</v>
+      </c>
+      <c r="R18" t="s">
+        <v>129</v>
       </c>
       <c r="T18" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U18" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="V18" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="W18" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="X18" t="s">
         <v>383</v>
@@ -2594,25 +2702,43 @@
         <v>125</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>405</v>
+      </c>
+      <c r="K19" t="s">
+        <v>131</v>
+      </c>
+      <c r="M19" t="s">
+        <v>132</v>
+      </c>
+      <c r="O19" t="s">
+        <v>73</v>
+      </c>
+      <c r="P19" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>54</v>
+      </c>
+      <c r="R19" t="s">
+        <v>129</v>
       </c>
       <c r="T19" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U19" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="V19" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="W19" t="s">
-        <v>79</v>
+        <v>408</v>
       </c>
       <c r="X19" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2634,26 +2760,44 @@
       <c r="G20" t="s">
         <v>138</v>
       </c>
-      <c r="J20" t="s">
-        <v>44</v>
+      <c r="J20" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="K20" t="s">
+        <v>140</v>
+      </c>
+      <c r="M20" t="s">
+        <v>141</v>
+      </c>
+      <c r="O20" t="s">
+        <v>142</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>144</v>
+      </c>
+      <c r="R20" t="s">
+        <v>145</v>
       </c>
       <c r="T20" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U20" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="V20" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="W20" t="s">
-        <v>79</v>
+        <v>407</v>
       </c>
       <c r="X20" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="330" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2675,26 +2819,47 @@
       <c r="G21" t="s">
         <v>118</v>
       </c>
-      <c r="J21" t="s">
-        <v>44</v>
+      <c r="J21" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M21" t="s">
+        <v>151</v>
+      </c>
+      <c r="O21" t="s">
+        <v>152</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>154</v>
+      </c>
+      <c r="R21" t="s">
+        <v>155</v>
+      </c>
+      <c r="S21" t="s">
+        <v>156</v>
       </c>
       <c r="T21" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U21" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="V21" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="W21" t="s">
-        <v>79</v>
+        <v>412</v>
       </c>
       <c r="X21" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="120" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="330" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2716,20 +2881,38 @@
       <c r="I22" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="J22" t="s">
-        <v>44</v>
+      <c r="J22" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M22" t="s">
+        <v>151</v>
+      </c>
+      <c r="O22" t="s">
+        <v>152</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>154</v>
+      </c>
+      <c r="R22" t="s">
+        <v>155</v>
       </c>
       <c r="T22" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U22" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="V22" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="W22" t="s">
-        <v>79</v>
+        <v>411</v>
       </c>
       <c r="X22" t="s">
         <v>383</v>
@@ -3682,7 +3865,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="165" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" ht="345" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3705,19 +3888,34 @@
         <v>239</v>
       </c>
       <c r="J48" t="s">
-        <v>44</v>
+        <v>413</v>
+      </c>
+      <c r="K48" t="s">
+        <v>241</v>
+      </c>
+      <c r="M48" t="s">
+        <v>242</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="P48" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>244</v>
       </c>
       <c r="T48" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U48" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="V48" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="W48" t="s">
-        <v>79</v>
+        <v>245</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -4062,7 +4260,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4085,22 +4283,28 @@
         <v>249</v>
       </c>
       <c r="J58" t="s">
-        <v>44</v>
+        <v>414</v>
+      </c>
+      <c r="K58" t="s">
+        <v>274</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="T58" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U58" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="V58" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="W58" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4120,19 +4324,34 @@
         <v>43</v>
       </c>
       <c r="J59" t="s">
-        <v>44</v>
+        <v>403</v>
+      </c>
+      <c r="K59" t="s">
+        <v>279</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="P59" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>282</v>
       </c>
       <c r="T59" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U59" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="V59" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="W59" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
@@ -4275,7 +4494,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4295,19 +4514,34 @@
         <v>43</v>
       </c>
       <c r="J64" t="s">
-        <v>44</v>
+        <v>400</v>
+      </c>
+      <c r="K64" t="s">
+        <v>294</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="P64" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>54</v>
       </c>
       <c r="T64" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U64" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="V64" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="W64" t="s">
-        <v>79</v>
+        <v>401</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.25">
@@ -4345,7 +4579,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="66" spans="1:24" ht="270" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" ht="120" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4989,7 +5223,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5012,19 +5246,34 @@
         <v>249</v>
       </c>
       <c r="J82" t="s">
-        <v>44</v>
+        <v>415</v>
+      </c>
+      <c r="K82" t="s">
+        <v>368</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="P82" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q82" s="1" t="s">
+        <v>371</v>
       </c>
       <c r="T82" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U82" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="V82" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="W82" t="s">
-        <v>79</v>
+        <v>372</v>
       </c>
       <c r="X82" t="s">
         <v>388</v>
@@ -7716,10 +7965,10 @@
         <v>39</v>
       </c>
       <c r="V147" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="W147" t="s">
-        <v>122</v>
+        <v>402</v>
       </c>
     </row>
     <row r="148" spans="1:23" x14ac:dyDescent="0.25">

--- a/longitudinal/data_processing_elements_longitudinal-AGN.xlsx
+++ b/longitudinal/data_processing_elements_longitudinal-AGN.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A0F523-92FD-4DC7-A5FD-C31D8EE355F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBA2DEE-4E5B-4EF9-889D-3E74CFB97EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{DE4C7F53-17AD-41A0-BCA9-A2A8E85C7880}"/>
+    <workbookView xWindow="28680" yWindow="465" windowWidth="29040" windowHeight="15720" xr2:uid="{DE4C7F53-17AD-41A0-BCA9-A2A8E85C7880}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="401">
   <si>
     <t>index</t>
   </si>
@@ -1332,88 +1332,40 @@
     <t>PA based on one question not available for wave 2, we could base it on multiple question, but would not be consistent with other waves</t>
   </si>
   <si>
-    <t>AGN_1</t>
-  </si>
-  <si>
     <t>AGN_2</t>
   </si>
   <si>
-    <t>date_interview1</t>
-  </si>
-  <si>
     <t>format(as.Date(date_interview4, format = "%d-%m-%Y"), "%Y-%m-%d")</t>
   </si>
   <si>
     <t>floor(as.numeric(Age4))</t>
   </si>
   <si>
-    <t>YPAS_walk_freq1</t>
-  </si>
-  <si>
-    <t>YPAS_sitting1</t>
-  </si>
-  <si>
-    <t>marital_status1</t>
-  </si>
-  <si>
-    <t>Age1</t>
-  </si>
-  <si>
-    <t>floor(as.numeric(Age1))</t>
-  </si>
-  <si>
-    <t>format(as.Date(date_interview1, format = "%d-%m-%Y"), "%Y-%m-%d")</t>
-  </si>
-  <si>
-    <t>MMSE_cor_tot_score1</t>
-  </si>
-  <si>
-    <t>round(MMSE_cor_tot_score1)</t>
-  </si>
-  <si>
     <t>round(MMSE_cor_tot_score4)</t>
   </si>
   <si>
-    <t>CESD_tot_score1</t>
-  </si>
-  <si>
-    <t>height1</t>
-  </si>
-  <si>
-    <t>weight1</t>
-  </si>
-  <si>
-    <t>weight1; 
-height1</t>
-  </si>
-  <si>
-    <t>round(weight1 / (height1/100)^2, 2)</t>
-  </si>
-  <si>
-    <t>ifelse(!is.na(weight1), 2, NA)</t>
-  </si>
-  <si>
-    <t>ifelse(!is.na(height1), 2, NA)</t>
-  </si>
-  <si>
-    <t>waist_circumference1_1; 
-waist_circumference1_2; 
-waist_circumference1_3</t>
-  </si>
-  <si>
-    <t>ifelse(!is.na(waist_circumference1_1) | !is.na(waist_circumference1_2) | !is.na(waist_circumference1_3), 2, NA)</t>
-  </si>
-  <si>
-    <t>round(rowMeans(select(., waist_circumference1_1, waist_circumference1_2, waist_circumference1_3), na.rm = TRUE),2)</t>
-  </si>
-  <si>
-    <t>self_rated_health1</t>
-  </si>
-  <si>
-    <t>Depression_dichotomous1</t>
-  </si>
-  <si>
-    <t>level_of_PA_single_question1</t>
+    <t>date_interview2</t>
+  </si>
+  <si>
+    <t>format(as.Date(date_interview2, format = "%d-%m-%Y"), "%Y-%m-%d")</t>
+  </si>
+  <si>
+    <t>Age2</t>
+  </si>
+  <si>
+    <t>floor(as.numeric(Age2))</t>
+  </si>
+  <si>
+    <t>marital_status2</t>
+  </si>
+  <si>
+    <t>YPAS_sitting2</t>
+  </si>
+  <si>
+    <t>YPAS_walk_freq2</t>
+  </si>
+  <si>
+    <t>AGN_4</t>
   </si>
 </sst>
 </file>
@@ -1481,7 +1433,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1800,10 +1752,10 @@
   <dimension ref="A1:AD167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="95.7109375" customWidth="1"/>
     <col min="9" max="9" width="17.85546875" customWidth="1"/>
@@ -2009,7 +1961,7 @@
         <v>50</v>
       </c>
       <c r="J4" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="K4" t="s">
         <v>380</v>
@@ -2033,7 +1985,7 @@
         <v>55</v>
       </c>
       <c r="W4" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="45" x14ac:dyDescent="0.25">
@@ -2112,7 +2064,7 @@
         <v>69</v>
       </c>
       <c r="J6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K6" t="s">
         <v>381</v>
@@ -2139,10 +2091,10 @@
         <v>55</v>
       </c>
       <c r="W6" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" ht="300" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="135" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2215,7 +2167,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="210" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" ht="90" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2381,7 +2333,7 @@
         <v>101</v>
       </c>
       <c r="J13" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K13" t="s">
         <v>382</v>
@@ -2434,7 +2386,7 @@
         <v>111</v>
       </c>
       <c r="J14" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K14" t="s">
         <v>382</v>
@@ -2464,7 +2416,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2525,43 +2477,25 @@
         <v>118</v>
       </c>
       <c r="J16" t="s">
-        <v>404</v>
-      </c>
-      <c r="K16" t="s">
-        <v>120</v>
-      </c>
-      <c r="M16" t="s">
-        <v>121</v>
-      </c>
-      <c r="O16" t="s">
-        <v>73</v>
-      </c>
-      <c r="P16" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>54</v>
-      </c>
-      <c r="R16" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="T16" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U16" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="V16" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="W16" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="X16" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="120" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2584,37 +2518,19 @@
         <v>125</v>
       </c>
       <c r="J17" t="s">
-        <v>404</v>
-      </c>
-      <c r="K17" t="s">
-        <v>120</v>
-      </c>
-      <c r="M17" t="s">
-        <v>121</v>
-      </c>
-      <c r="O17" t="s">
-        <v>73</v>
-      </c>
-      <c r="P17" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>54</v>
-      </c>
-      <c r="R17" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="T17" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U17" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="V17" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="W17" t="s">
-        <v>409</v>
+        <v>79</v>
       </c>
       <c r="X17" t="s">
         <v>383</v>
@@ -2643,43 +2559,25 @@
         <v>129</v>
       </c>
       <c r="J18" t="s">
-        <v>405</v>
-      </c>
-      <c r="K18" t="s">
-        <v>131</v>
-      </c>
-      <c r="M18" t="s">
-        <v>132</v>
-      </c>
-      <c r="O18" t="s">
-        <v>73</v>
-      </c>
-      <c r="P18" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>54</v>
-      </c>
-      <c r="R18" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="T18" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U18" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="V18" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="W18" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="X18" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="120" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2702,43 +2600,25 @@
         <v>125</v>
       </c>
       <c r="J19" t="s">
-        <v>405</v>
-      </c>
-      <c r="K19" t="s">
-        <v>131</v>
-      </c>
-      <c r="M19" t="s">
-        <v>132</v>
-      </c>
-      <c r="O19" t="s">
-        <v>73</v>
-      </c>
-      <c r="P19" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>54</v>
-      </c>
-      <c r="R19" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="T19" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U19" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="V19" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="W19" t="s">
-        <v>408</v>
+        <v>79</v>
       </c>
       <c r="X19" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2761,43 +2641,26 @@
         <v>138</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="K20" t="s">
-        <v>140</v>
-      </c>
-      <c r="M20" t="s">
-        <v>141</v>
-      </c>
-      <c r="O20" t="s">
-        <v>142</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>144</v>
-      </c>
-      <c r="R20" t="s">
-        <v>145</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="P20" s="1"/>
       <c r="T20" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U20" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="V20" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="W20" t="s">
-        <v>407</v>
+        <v>79</v>
       </c>
       <c r="X20" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="330" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2820,46 +2683,27 @@
         <v>118</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="M21" t="s">
-        <v>151</v>
-      </c>
-      <c r="O21" t="s">
-        <v>152</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>154</v>
-      </c>
-      <c r="R21" t="s">
-        <v>155</v>
-      </c>
-      <c r="S21" t="s">
-        <v>156</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="P21" s="1"/>
       <c r="T21" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U21" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="V21" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="W21" t="s">
-        <v>412</v>
+        <v>79</v>
       </c>
       <c r="X21" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="330" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2882,37 +2726,21 @@
         <v>125</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="M22" t="s">
-        <v>151</v>
-      </c>
-      <c r="O22" t="s">
-        <v>152</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>154</v>
-      </c>
-      <c r="R22" t="s">
-        <v>155</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="P22" s="1"/>
       <c r="T22" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U22" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="V22" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="W22" t="s">
-        <v>411</v>
+        <v>79</v>
       </c>
       <c r="X22" t="s">
         <v>383</v>
@@ -3143,7 +2971,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="120" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3523,7 +3351,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="120" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3599,7 +3427,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="120" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3713,7 +3541,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="180" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" ht="90" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3751,7 +3579,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="135" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" ht="75" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3789,7 +3617,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="105" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3865,7 +3693,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="345" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" ht="90" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3888,34 +3716,21 @@
         <v>239</v>
       </c>
       <c r="J48" t="s">
-        <v>413</v>
-      </c>
-      <c r="K48" t="s">
-        <v>241</v>
-      </c>
-      <c r="M48" t="s">
-        <v>242</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="P48" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q48" s="1" t="s">
-        <v>244</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="O48" s="1"/>
+      <c r="Q48" s="1"/>
       <c r="T48" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U48" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="V48" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="W48" t="s">
-        <v>245</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -4032,7 +3847,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4260,7 +4075,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4283,28 +4098,23 @@
         <v>249</v>
       </c>
       <c r="J58" t="s">
-        <v>414</v>
-      </c>
-      <c r="K58" t="s">
-        <v>274</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>275</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="L58" s="1"/>
       <c r="T58" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U58" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="V58" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="W58" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4324,34 +4134,21 @@
         <v>43</v>
       </c>
       <c r="J59" t="s">
-        <v>403</v>
-      </c>
-      <c r="K59" t="s">
-        <v>279</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="P59" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>282</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="M59" s="1"/>
+      <c r="O59" s="1"/>
       <c r="T59" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U59" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="V59" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="W59" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
@@ -4494,7 +4291,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4514,34 +4311,21 @@
         <v>43</v>
       </c>
       <c r="J64" t="s">
-        <v>400</v>
-      </c>
-      <c r="K64" t="s">
-        <v>294</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="O64" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="P64" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>54</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="M64" s="1"/>
+      <c r="O64" s="1"/>
       <c r="T64" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U64" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="V64" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="W64" t="s">
-        <v>401</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.25">
@@ -4655,7 +4439,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="285" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4693,7 +4477,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="90" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4731,7 +4515,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:24" ht="195" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" ht="105" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4769,7 +4553,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71" spans="1:24" ht="195" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" ht="105" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4807,7 +4591,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="1:24" ht="195" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" ht="105" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4845,7 +4629,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" ht="330" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4883,7 +4667,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74" spans="1:24" ht="195" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" ht="105" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4921,7 +4705,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:24" ht="195" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" ht="105" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5020,7 +4804,7 @@
         <v>337</v>
       </c>
       <c r="J77" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="K77" t="s">
         <v>339</v>
@@ -5073,7 +4857,7 @@
         <v>347</v>
       </c>
       <c r="J78" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="K78" t="s">
         <v>386</v>
@@ -5106,7 +4890,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="79" spans="1:24" ht="360" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" ht="180" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5223,7 +5007,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5246,34 +5030,22 @@
         <v>249</v>
       </c>
       <c r="J82" t="s">
-        <v>415</v>
-      </c>
-      <c r="K82" t="s">
-        <v>368</v>
-      </c>
-      <c r="M82" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="O82" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="P82" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q82" s="1" t="s">
-        <v>371</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="M82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="Q82" s="1"/>
       <c r="T82" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U82" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="V82" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="W82" t="s">
-        <v>372</v>
+        <v>79</v>
       </c>
       <c r="X82" t="s">
         <v>388</v>
@@ -5357,7 +5129,7 @@
         <v>1</v>
       </c>
       <c r="B85" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C85" t="s">
         <v>30</v>
@@ -5404,7 +5176,7 @@
         <v>2</v>
       </c>
       <c r="B86" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C86" t="s">
         <v>41</v>
@@ -5439,7 +5211,7 @@
         <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C87" t="s">
         <v>46</v>
@@ -5481,7 +5253,7 @@
         <v>55</v>
       </c>
       <c r="W87" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="88" spans="1:24" ht="45" x14ac:dyDescent="0.25">
@@ -5489,7 +5261,7 @@
         <v>4</v>
       </c>
       <c r="B88" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C88" t="s">
         <v>56</v>
@@ -5542,7 +5314,7 @@
         <v>5</v>
       </c>
       <c r="B89" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C89" t="s">
         <v>66</v>
@@ -5587,15 +5359,15 @@
         <v>55</v>
       </c>
       <c r="W89" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="90" spans="1:24" ht="300" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" ht="135" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C90" t="s">
         <v>75</v>
@@ -5633,7 +5405,7 @@
         <v>7</v>
       </c>
       <c r="B91" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C91" t="s">
         <v>81</v>
@@ -5663,12 +5435,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="210" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" ht="90" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C92" t="s">
         <v>84</v>
@@ -5706,7 +5478,7 @@
         <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C93" t="s">
         <v>88</v>
@@ -5741,7 +5513,7 @@
         <v>10</v>
       </c>
       <c r="B94" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C94" t="s">
         <v>92</v>
@@ -5776,7 +5548,7 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C95" t="s">
         <v>95</v>
@@ -5811,7 +5583,7 @@
         <v>12</v>
       </c>
       <c r="B96" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C96" t="s">
         <v>98</v>
@@ -5864,7 +5636,7 @@
         <v>13</v>
       </c>
       <c r="B97" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C97" t="s">
         <v>108</v>
@@ -5912,12 +5684,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="98" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>14</v>
       </c>
       <c r="B98" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C98" t="s">
         <v>113</v>
@@ -5955,7 +5727,7 @@
         <v>15</v>
       </c>
       <c r="B99" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C99" t="s">
         <v>116</v>
@@ -6006,12 +5778,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="100" spans="1:23" ht="120" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>16</v>
       </c>
       <c r="B100" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C100" t="s">
         <v>123</v>
@@ -6067,7 +5839,7 @@
         <v>17</v>
       </c>
       <c r="B101" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C101" t="s">
         <v>127</v>
@@ -6118,12 +5890,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="102" spans="1:23" ht="120" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>18</v>
       </c>
       <c r="B102" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C102" t="s">
         <v>133</v>
@@ -6179,7 +5951,7 @@
         <v>19</v>
       </c>
       <c r="B103" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C103" t="s">
         <v>136</v>
@@ -6235,7 +6007,7 @@
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C104" t="s">
         <v>147</v>
@@ -6294,7 +6066,7 @@
         <v>21</v>
       </c>
       <c r="B105" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C105" t="s">
         <v>158</v>
@@ -6350,7 +6122,7 @@
         <v>22</v>
       </c>
       <c r="B106" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C106" t="s">
         <v>162</v>
@@ -6388,7 +6160,7 @@
         <v>23</v>
       </c>
       <c r="B107" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C107" t="s">
         <v>165</v>
@@ -6423,7 +6195,7 @@
         <v>24</v>
       </c>
       <c r="B108" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C108" t="s">
         <v>167</v>
@@ -6461,7 +6233,7 @@
         <v>25</v>
       </c>
       <c r="B109" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C109" t="s">
         <v>171</v>
@@ -6499,7 +6271,7 @@
         <v>26</v>
       </c>
       <c r="B110" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C110" t="s">
         <v>174</v>
@@ -6537,7 +6309,7 @@
         <v>27</v>
       </c>
       <c r="B111" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C111" t="s">
         <v>177</v>
@@ -6570,12 +6342,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="112" spans="1:23" ht="120" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>28</v>
       </c>
       <c r="B112" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C112" t="s">
         <v>180</v>
@@ -6613,7 +6385,7 @@
         <v>29</v>
       </c>
       <c r="B113" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C113" t="s">
         <v>183</v>
@@ -6651,7 +6423,7 @@
         <v>30</v>
       </c>
       <c r="B114" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C114" t="s">
         <v>186</v>
@@ -6689,7 +6461,7 @@
         <v>31</v>
       </c>
       <c r="B115" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C115" t="s">
         <v>189</v>
@@ -6727,7 +6499,7 @@
         <v>32</v>
       </c>
       <c r="B116" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C116" t="s">
         <v>192</v>
@@ -6765,7 +6537,7 @@
         <v>33</v>
       </c>
       <c r="B117" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C117" t="s">
         <v>194</v>
@@ -6803,7 +6575,7 @@
         <v>34</v>
       </c>
       <c r="B118" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C118" t="s">
         <v>196</v>
@@ -6841,7 +6613,7 @@
         <v>35</v>
       </c>
       <c r="B119" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C119" t="s">
         <v>198</v>
@@ -6879,7 +6651,7 @@
         <v>36</v>
       </c>
       <c r="B120" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C120" t="s">
         <v>200</v>
@@ -6917,7 +6689,7 @@
         <v>37</v>
       </c>
       <c r="B121" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C121" t="s">
         <v>203</v>
@@ -6950,12 +6722,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="122" spans="1:23" ht="120" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>38</v>
       </c>
       <c r="B122" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C122" t="s">
         <v>207</v>
@@ -6993,7 +6765,7 @@
         <v>39</v>
       </c>
       <c r="B123" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C123" t="s">
         <v>211</v>
@@ -7026,12 +6798,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="124" spans="1:23" ht="120" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>40</v>
       </c>
       <c r="B124" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C124" t="s">
         <v>214</v>
@@ -7069,7 +6841,7 @@
         <v>41</v>
       </c>
       <c r="B125" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C125" t="s">
         <v>217</v>
@@ -7107,7 +6879,7 @@
         <v>42</v>
       </c>
       <c r="B126" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C126" t="s">
         <v>220</v>
@@ -7140,12 +6912,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="127" spans="1:23" ht="180" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" ht="90" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>43</v>
       </c>
       <c r="B127" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C127" t="s">
         <v>224</v>
@@ -7178,12 +6950,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="128" spans="1:23" ht="135" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" ht="75" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>44</v>
       </c>
       <c r="B128" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C128" t="s">
         <v>227</v>
@@ -7216,12 +6988,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="129" spans="1:23" ht="105" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>45</v>
       </c>
       <c r="B129" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C129" t="s">
         <v>231</v>
@@ -7259,7 +7031,7 @@
         <v>46</v>
       </c>
       <c r="B130" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C130" t="s">
         <v>234</v>
@@ -7297,7 +7069,7 @@
         <v>47</v>
       </c>
       <c r="B131" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C131" t="s">
         <v>237</v>
@@ -7350,7 +7122,7 @@
         <v>48</v>
       </c>
       <c r="B132" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C132" t="s">
         <v>246</v>
@@ -7388,7 +7160,7 @@
         <v>49</v>
       </c>
       <c r="B133" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C133" t="s">
         <v>250</v>
@@ -7426,7 +7198,7 @@
         <v>50</v>
       </c>
       <c r="B134" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C134" t="s">
         <v>253</v>
@@ -7459,12 +7231,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="135" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>51</v>
       </c>
       <c r="B135" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C135" t="s">
         <v>256</v>
@@ -7502,7 +7274,7 @@
         <v>52</v>
       </c>
       <c r="B136" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C136" t="s">
         <v>260</v>
@@ -7540,7 +7312,7 @@
         <v>53</v>
       </c>
       <c r="B137" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C137" t="s">
         <v>262</v>
@@ -7578,7 +7350,7 @@
         <v>54</v>
       </c>
       <c r="B138" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C138" t="s">
         <v>264</v>
@@ -7616,7 +7388,7 @@
         <v>55</v>
       </c>
       <c r="B139" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C139" t="s">
         <v>266</v>
@@ -7654,7 +7426,7 @@
         <v>56</v>
       </c>
       <c r="B140" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C140" t="s">
         <v>268</v>
@@ -7692,7 +7464,7 @@
         <v>57</v>
       </c>
       <c r="B141" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C141" t="s">
         <v>270</v>
@@ -7736,7 +7508,7 @@
         <v>58</v>
       </c>
       <c r="B142" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C142" t="s">
         <v>276</v>
@@ -7786,7 +7558,7 @@
         <v>59</v>
       </c>
       <c r="B143" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C143" t="s">
         <v>283</v>
@@ -7821,7 +7593,7 @@
         <v>60</v>
       </c>
       <c r="B144" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C144" t="s">
         <v>285</v>
@@ -7856,7 +7628,7 @@
         <v>61</v>
       </c>
       <c r="B145" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C145" t="s">
         <v>287</v>
@@ -7891,7 +7663,7 @@
         <v>62</v>
       </c>
       <c r="B146" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C146" t="s">
         <v>289</v>
@@ -7926,7 +7698,7 @@
         <v>63</v>
       </c>
       <c r="B147" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C147" t="s">
         <v>291</v>
@@ -7968,7 +7740,7 @@
         <v>55</v>
       </c>
       <c r="W147" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
     </row>
     <row r="148" spans="1:23" x14ac:dyDescent="0.25">
@@ -7976,7 +7748,7 @@
         <v>64</v>
       </c>
       <c r="B148" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C148" t="s">
         <v>297</v>
@@ -8011,7 +7783,7 @@
         <v>65</v>
       </c>
       <c r="B149" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C149" t="s">
         <v>299</v>
@@ -8055,7 +7827,7 @@
         <v>66</v>
       </c>
       <c r="B150" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C150" t="s">
         <v>305</v>
@@ -8088,12 +7860,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="151" spans="1:23" ht="285" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:23" ht="150" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>67</v>
       </c>
       <c r="B151" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C151" t="s">
         <v>308</v>
@@ -8126,12 +7898,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="152" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>68</v>
       </c>
       <c r="B152" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C152" t="s">
         <v>311</v>
@@ -8164,12 +7936,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="153" spans="1:23" ht="195" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:23" ht="105" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>69</v>
       </c>
       <c r="B153" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C153" t="s">
         <v>314</v>
@@ -8202,12 +7974,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="154" spans="1:23" ht="195" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:23" ht="105" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>70</v>
       </c>
       <c r="B154" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C154" t="s">
         <v>317</v>
@@ -8240,12 +8012,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="155" spans="1:23" ht="195" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:23" ht="105" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>71</v>
       </c>
       <c r="B155" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C155" t="s">
         <v>319</v>
@@ -8278,12 +8050,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="156" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:23" ht="330" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>72</v>
       </c>
       <c r="B156" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C156" t="s">
         <v>321</v>
@@ -8316,12 +8088,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="157" spans="1:23" ht="195" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:23" ht="105" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>73</v>
       </c>
       <c r="B157" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C157" t="s">
         <v>325</v>
@@ -8354,12 +8126,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="158" spans="1:23" ht="195" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:23" ht="105" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>74</v>
       </c>
       <c r="B158" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C158" t="s">
         <v>328</v>
@@ -8397,7 +8169,7 @@
         <v>75</v>
       </c>
       <c r="B159" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C159" t="s">
         <v>331</v>
@@ -8435,7 +8207,7 @@
         <v>76</v>
       </c>
       <c r="B160" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C160" t="s">
         <v>334</v>
@@ -8488,7 +8260,7 @@
         <v>77</v>
       </c>
       <c r="B161" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C161" t="s">
         <v>344</v>
@@ -8539,12 +8311,12 @@
         <v>354</v>
       </c>
     </row>
-    <row r="162" spans="1:23" ht="360" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:23" ht="180" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>78</v>
       </c>
       <c r="B162" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C162" t="s">
         <v>355</v>
@@ -8582,7 +8354,7 @@
         <v>79</v>
       </c>
       <c r="B163" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C163" t="s">
         <v>358</v>
@@ -8620,7 +8392,7 @@
         <v>80</v>
       </c>
       <c r="B164" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C164" t="s">
         <v>361</v>
@@ -8658,7 +8430,7 @@
         <v>81</v>
       </c>
       <c r="B165" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C165" t="s">
         <v>364</v>
@@ -8711,7 +8483,7 @@
         <v>82</v>
       </c>
       <c r="B166" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C166" t="s">
         <v>373</v>
@@ -8746,7 +8518,7 @@
         <v>83</v>
       </c>
       <c r="B167" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C167" t="s">
         <v>376</v>

--- a/longitudinal/data_processing_elements_longitudinal-AGN.xlsx
+++ b/longitudinal/data_processing_elements_longitudinal-AGN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maelstrom\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBA2DEE-4E5B-4EF9-889D-3E74CFB97EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0EF036A-4C10-4C3D-997A-643131593522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="465" windowWidth="29040" windowHeight="15720" xr2:uid="{DE4C7F53-17AD-41A0-BCA9-A2A8E85C7880}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DE4C7F53-17AD-41A0-BCA9-A2A8E85C7880}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="402">
   <si>
     <t>index</t>
   </si>
@@ -549,9 +549,6 @@
     <t>continuous;
 continuous; 
 continuous</t>
-  </si>
-  <si>
-    <t>ifelse(!is.na(waist_circumference4_1) | !is.na(waist_circumference4_2) | !is.na(waist_circumference4_3), 2, NA)</t>
   </si>
   <si>
     <t>pm_bodyfat_perc</t>
@@ -1366,6 +1363,14 @@
   </si>
   <si>
     <t>AGN_4</t>
+  </si>
+  <si>
+    <t>waist_circumference1_4; 
+waist_circumference2_4; 
+waist_circumference3_4</t>
+  </si>
+  <si>
+    <t>ifelse(!is.na(waist_circumference1_4) | !is.na(waist_circumference2_4) | !is.na(waist_circumference3_4), 2, NA)</t>
   </si>
 </sst>
 </file>
@@ -1751,20 +1756,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A617E81B-AA39-4B57-8286-9F6F09A3BC0B}">
   <dimension ref="A1:AD167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="95.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" customWidth="1"/>
-    <col min="10" max="10" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="95.7265625" customWidth="1"/>
+    <col min="9" max="9" width="17.81640625" customWidth="1"/>
+    <col min="10" max="10" width="30.453125" customWidth="1"/>
     <col min="22" max="22" width="12" customWidth="1"/>
-    <col min="23" max="23" width="26.85546875" customWidth="1"/>
+    <col min="23" max="23" width="26.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1856,12 +1861,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
@@ -1903,12 +1908,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C3" t="s">
         <v>41</v>
@@ -1938,12 +1943,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C4" t="s">
         <v>46</v>
@@ -1961,10 +1966,10 @@
         <v>50</v>
       </c>
       <c r="J4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M4" t="s">
         <v>53</v>
@@ -1985,15 +1990,15 @@
         <v>55</v>
       </c>
       <c r="W4" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C5" t="s">
         <v>56</v>
@@ -2041,12 +2046,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C6" t="s">
         <v>66</v>
@@ -2064,10 +2069,10 @@
         <v>69</v>
       </c>
       <c r="J6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M6" t="s">
         <v>72</v>
@@ -2091,15 +2096,15 @@
         <v>55</v>
       </c>
       <c r="W6" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" ht="135" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C7" t="s">
         <v>75</v>
@@ -2132,12 +2137,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C8" t="s">
         <v>81</v>
@@ -2167,12 +2172,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" ht="87" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C9" t="s">
         <v>84</v>
@@ -2205,12 +2210,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C10" t="s">
         <v>88</v>
@@ -2240,12 +2245,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C11" t="s">
         <v>92</v>
@@ -2275,12 +2280,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C12" t="s">
         <v>95</v>
@@ -2310,12 +2315,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="225" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C13" t="s">
         <v>98</v>
@@ -2333,10 +2338,10 @@
         <v>101</v>
       </c>
       <c r="J13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M13" t="s">
         <v>104</v>
@@ -2363,12 +2368,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="225" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C14" t="s">
         <v>108</v>
@@ -2386,10 +2391,10 @@
         <v>111</v>
       </c>
       <c r="J14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M14" t="s">
         <v>104</v>
@@ -2416,12 +2421,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C15" t="s">
         <v>113</v>
@@ -2454,12 +2459,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C16" t="s">
         <v>116</v>
@@ -2492,15 +2497,15 @@
         <v>79</v>
       </c>
       <c r="X16" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C17" t="s">
         <v>123</v>
@@ -2533,15 +2538,15 @@
         <v>79</v>
       </c>
       <c r="X17" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C18" t="s">
         <v>127</v>
@@ -2574,15 +2579,15 @@
         <v>79</v>
       </c>
       <c r="X18" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C19" t="s">
         <v>133</v>
@@ -2615,15 +2620,15 @@
         <v>79</v>
       </c>
       <c r="X19" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C20" t="s">
         <v>136</v>
@@ -2657,15 +2662,15 @@
         <v>79</v>
       </c>
       <c r="X20" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C21" t="s">
         <v>147</v>
@@ -2700,15 +2705,15 @@
         <v>79</v>
       </c>
       <c r="X21" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C22" t="s">
         <v>158</v>
@@ -2743,30 +2748,30 @@
         <v>79</v>
       </c>
       <c r="X22" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C23" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" t="s">
         <v>162</v>
       </c>
-      <c r="D23" t="s">
-        <v>163</v>
-      </c>
       <c r="E23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F23" t="s">
         <v>91</v>
       </c>
       <c r="G23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J23" t="s">
         <v>44</v>
@@ -2784,21 +2789,21 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C24" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24" t="s">
         <v>165</v>
       </c>
-      <c r="D24" t="s">
-        <v>166</v>
-      </c>
       <c r="E24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F24" t="s">
         <v>33</v>
@@ -2819,27 +2824,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C25" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" t="s">
         <v>167</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>168</v>
-      </c>
-      <c r="E25" t="s">
-        <v>169</v>
       </c>
       <c r="F25" t="s">
         <v>91</v>
       </c>
       <c r="G25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J25" t="s">
         <v>44</v>
@@ -2857,27 +2862,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C26" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" t="s">
         <v>171</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>172</v>
-      </c>
-      <c r="E26" t="s">
-        <v>173</v>
       </c>
       <c r="F26" t="s">
         <v>91</v>
       </c>
       <c r="G26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J26" t="s">
         <v>44</v>
@@ -2895,27 +2900,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C27" t="s">
+        <v>173</v>
+      </c>
+      <c r="D27" t="s">
         <v>174</v>
       </c>
-      <c r="D27" t="s">
-        <v>175</v>
-      </c>
       <c r="E27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F27" t="s">
         <v>91</v>
       </c>
       <c r="G27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J27" t="s">
         <v>44</v>
@@ -2933,27 +2938,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C28" t="s">
+        <v>176</v>
+      </c>
+      <c r="D28" t="s">
         <v>177</v>
       </c>
-      <c r="D28" t="s">
-        <v>178</v>
-      </c>
       <c r="E28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F28" t="s">
         <v>91</v>
       </c>
       <c r="G28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J28" t="s">
         <v>44</v>
@@ -2971,28 +2976,28 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="58" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C29" t="s">
+        <v>179</v>
+      </c>
+      <c r="D29" t="s">
         <v>180</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
+        <v>180</v>
+      </c>
+      <c r="F29" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E29" t="s">
-        <v>181</v>
-      </c>
-      <c r="F29" t="s">
-        <v>43</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="J29" t="s">
         <v>44</v>
       </c>
@@ -3009,27 +3014,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C30" t="s">
+        <v>182</v>
+      </c>
+      <c r="D30" t="s">
         <v>183</v>
       </c>
-      <c r="D30" t="s">
-        <v>184</v>
-      </c>
       <c r="E30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F30" t="s">
         <v>91</v>
       </c>
       <c r="G30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J30" t="s">
         <v>44</v>
@@ -3047,27 +3052,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C31" t="s">
+        <v>185</v>
+      </c>
+      <c r="D31" t="s">
         <v>186</v>
       </c>
-      <c r="D31" t="s">
-        <v>187</v>
-      </c>
       <c r="E31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F31" t="s">
         <v>91</v>
       </c>
       <c r="G31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J31" t="s">
         <v>44</v>
@@ -3085,27 +3090,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C32" t="s">
+        <v>188</v>
+      </c>
+      <c r="D32" t="s">
         <v>189</v>
       </c>
-      <c r="D32" t="s">
-        <v>190</v>
-      </c>
       <c r="E32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F32" t="s">
         <v>91</v>
       </c>
       <c r="G32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J32" t="s">
         <v>44</v>
@@ -3123,27 +3128,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C33" t="s">
+        <v>191</v>
+      </c>
+      <c r="D33" t="s">
         <v>192</v>
       </c>
-      <c r="D33" t="s">
-        <v>193</v>
-      </c>
       <c r="E33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F33" t="s">
         <v>91</v>
       </c>
       <c r="G33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J33" t="s">
         <v>44</v>
@@ -3161,27 +3166,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C34" t="s">
+        <v>193</v>
+      </c>
+      <c r="D34" t="s">
         <v>194</v>
       </c>
-      <c r="D34" t="s">
-        <v>195</v>
-      </c>
       <c r="E34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F34" t="s">
         <v>91</v>
       </c>
       <c r="G34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J34" t="s">
         <v>44</v>
@@ -3199,27 +3204,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C35" t="s">
+        <v>195</v>
+      </c>
+      <c r="D35" t="s">
         <v>196</v>
       </c>
-      <c r="D35" t="s">
-        <v>197</v>
-      </c>
       <c r="E35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F35" t="s">
         <v>91</v>
       </c>
       <c r="G35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J35" t="s">
         <v>44</v>
@@ -3237,27 +3242,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C36" t="s">
+        <v>197</v>
+      </c>
+      <c r="D36" t="s">
         <v>198</v>
       </c>
-      <c r="D36" t="s">
-        <v>199</v>
-      </c>
       <c r="E36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F36" t="s">
         <v>91</v>
       </c>
       <c r="G36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J36" t="s">
         <v>44</v>
@@ -3275,27 +3280,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C37" t="s">
+        <v>199</v>
+      </c>
+      <c r="D37" t="s">
         <v>200</v>
       </c>
-      <c r="D37" t="s">
-        <v>201</v>
-      </c>
       <c r="E37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F37" t="s">
         <v>91</v>
       </c>
       <c r="G37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J37" t="s">
         <v>44</v>
@@ -3313,27 +3318,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C38" t="s">
+        <v>202</v>
+      </c>
+      <c r="D38" t="s">
         <v>203</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>204</v>
-      </c>
-      <c r="E38" t="s">
-        <v>205</v>
       </c>
       <c r="F38" t="s">
         <v>91</v>
       </c>
       <c r="G38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J38" t="s">
         <v>44</v>
@@ -3351,28 +3356,28 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="58" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C39" t="s">
+        <v>206</v>
+      </c>
+      <c r="D39" t="s">
         <v>207</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>208</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
+        <v>43</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F39" t="s">
-        <v>43</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="J39" t="s">
         <v>44</v>
       </c>
@@ -3389,27 +3394,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C40" t="s">
+        <v>210</v>
+      </c>
+      <c r="D40" t="s">
         <v>211</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>212</v>
-      </c>
-      <c r="E40" t="s">
-        <v>213</v>
       </c>
       <c r="F40" t="s">
         <v>91</v>
       </c>
       <c r="G40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J40" t="s">
         <v>44</v>
@@ -3427,27 +3432,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="58" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C41" t="s">
+        <v>213</v>
+      </c>
+      <c r="D41" t="s">
         <v>214</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>215</v>
       </c>
-      <c r="E41" t="s">
-        <v>216</v>
-      </c>
       <c r="F41" t="s">
         <v>43</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J41" t="s">
         <v>44</v>
@@ -3465,27 +3470,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C42" t="s">
+        <v>216</v>
+      </c>
+      <c r="D42" t="s">
         <v>217</v>
       </c>
-      <c r="D42" t="s">
-        <v>218</v>
-      </c>
       <c r="E42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F42" t="s">
         <v>91</v>
       </c>
       <c r="G42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J42" t="s">
         <v>44</v>
@@ -3503,104 +3508,104 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C43" t="s">
+        <v>219</v>
+      </c>
+      <c r="D43" t="s">
         <v>220</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>221</v>
-      </c>
-      <c r="E43" t="s">
-        <v>222</v>
       </c>
       <c r="F43" t="s">
         <v>91</v>
       </c>
       <c r="G43" t="s">
+        <v>222</v>
+      </c>
+      <c r="J43" t="s">
+        <v>44</v>
+      </c>
+      <c r="T43" t="s">
+        <v>79</v>
+      </c>
+      <c r="U43" t="s">
+        <v>80</v>
+      </c>
+      <c r="V43" t="s">
+        <v>79</v>
+      </c>
+      <c r="W43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="87" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>388</v>
+      </c>
+      <c r="C44" t="s">
         <v>223</v>
       </c>
-      <c r="J43" t="s">
-        <v>44</v>
-      </c>
-      <c r="T43" t="s">
-        <v>79</v>
-      </c>
-      <c r="U43" t="s">
-        <v>80</v>
-      </c>
-      <c r="V43" t="s">
-        <v>79</v>
-      </c>
-      <c r="W43" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" ht="90" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>389</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>224</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
+        <v>224</v>
+      </c>
+      <c r="F44" t="s">
+        <v>43</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E44" t="s">
-        <v>225</v>
-      </c>
-      <c r="F44" t="s">
-        <v>43</v>
-      </c>
-      <c r="I44" s="1" t="s">
+      <c r="J44" t="s">
+        <v>44</v>
+      </c>
+      <c r="T44" t="s">
+        <v>79</v>
+      </c>
+      <c r="U44" t="s">
+        <v>80</v>
+      </c>
+      <c r="V44" t="s">
+        <v>79</v>
+      </c>
+      <c r="W44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="58" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>388</v>
+      </c>
+      <c r="C45" t="s">
         <v>226</v>
       </c>
-      <c r="J44" t="s">
-        <v>44</v>
-      </c>
-      <c r="T44" t="s">
-        <v>79</v>
-      </c>
-      <c r="U44" t="s">
-        <v>80</v>
-      </c>
-      <c r="V44" t="s">
-        <v>79</v>
-      </c>
-      <c r="W44" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" ht="75" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>389</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>227</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>228</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
+        <v>43</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="F45" t="s">
-        <v>43</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="J45" t="s">
         <v>44</v>
       </c>
@@ -3617,28 +3622,28 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C46" t="s">
+        <v>230</v>
+      </c>
+      <c r="D46" t="s">
         <v>231</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
+        <v>231</v>
+      </c>
+      <c r="F46" t="s">
+        <v>43</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E46" t="s">
-        <v>232</v>
-      </c>
-      <c r="F46" t="s">
-        <v>43</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="J46" t="s">
         <v>44</v>
       </c>
@@ -3655,27 +3660,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C47" t="s">
+        <v>233</v>
+      </c>
+      <c r="D47" t="s">
         <v>234</v>
       </c>
-      <c r="D47" t="s">
-        <v>235</v>
-      </c>
       <c r="E47" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F47" t="s">
         <v>91</v>
       </c>
       <c r="G47" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J47" t="s">
         <v>44</v>
@@ -3693,27 +3698,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C48" t="s">
+        <v>236</v>
+      </c>
+      <c r="D48" t="s">
         <v>237</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
+        <v>237</v>
+      </c>
+      <c r="F48" t="s">
+        <v>43</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="E48" t="s">
-        <v>238</v>
-      </c>
-      <c r="F48" t="s">
-        <v>43</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="J48" t="s">
         <v>44</v>
@@ -3733,28 +3738,28 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C49" t="s">
+        <v>245</v>
+      </c>
+      <c r="D49" t="s">
         <v>246</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>247</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F49" t="s">
-        <v>43</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="J49" t="s">
         <v>44</v>
       </c>
@@ -3771,27 +3776,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C50" t="s">
+        <v>249</v>
+      </c>
+      <c r="D50" t="s">
         <v>250</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>251</v>
       </c>
-      <c r="E50" t="s">
-        <v>252</v>
-      </c>
       <c r="F50" t="s">
         <v>43</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J50" t="s">
         <v>44</v>
@@ -3809,27 +3814,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C51" t="s">
+        <v>252</v>
+      </c>
+      <c r="D51" t="s">
         <v>253</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>254</v>
       </c>
-      <c r="E51" t="s">
-        <v>255</v>
-      </c>
       <c r="F51" t="s">
         <v>43</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J51" t="s">
         <v>44</v>
@@ -3847,28 +3852,28 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C52" t="s">
+        <v>255</v>
+      </c>
+      <c r="D52" t="s">
         <v>256</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>257</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
+        <v>43</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F52" t="s">
-        <v>43</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="J52" t="s">
         <v>44</v>
       </c>
@@ -3885,27 +3890,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C53" t="s">
+        <v>259</v>
+      </c>
+      <c r="D53" t="s">
         <v>260</v>
       </c>
-      <c r="D53" t="s">
-        <v>261</v>
-      </c>
       <c r="E53" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F53" t="s">
         <v>43</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J53" t="s">
         <v>44</v>
@@ -3923,27 +3928,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C54" t="s">
+        <v>261</v>
+      </c>
+      <c r="D54" t="s">
         <v>262</v>
       </c>
-      <c r="D54" t="s">
-        <v>263</v>
-      </c>
       <c r="E54" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F54" t="s">
         <v>43</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J54" t="s">
         <v>44</v>
@@ -3961,27 +3966,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C55" t="s">
+        <v>263</v>
+      </c>
+      <c r="D55" t="s">
         <v>264</v>
       </c>
-      <c r="D55" t="s">
-        <v>265</v>
-      </c>
       <c r="E55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F55" t="s">
         <v>43</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J55" t="s">
         <v>44</v>
@@ -3999,27 +4004,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C56" t="s">
+        <v>265</v>
+      </c>
+      <c r="D56" t="s">
         <v>266</v>
       </c>
-      <c r="D56" t="s">
-        <v>267</v>
-      </c>
       <c r="E56" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F56" t="s">
         <v>43</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J56" t="s">
         <v>44</v>
@@ -4037,27 +4042,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C57" t="s">
+        <v>267</v>
+      </c>
+      <c r="D57" t="s">
         <v>268</v>
       </c>
-      <c r="D57" t="s">
-        <v>269</v>
-      </c>
       <c r="E57" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F57" t="s">
         <v>43</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J57" t="s">
         <v>44</v>
@@ -4075,27 +4080,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C58" t="s">
+        <v>269</v>
+      </c>
+      <c r="D58" t="s">
         <v>270</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>271</v>
       </c>
-      <c r="E58" t="s">
-        <v>272</v>
-      </c>
       <c r="F58" t="s">
         <v>43</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J58" t="s">
         <v>44</v>
@@ -4114,21 +4119,21 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C59" t="s">
+        <v>275</v>
+      </c>
+      <c r="D59" t="s">
         <v>276</v>
       </c>
-      <c r="D59" t="s">
-        <v>277</v>
-      </c>
       <c r="E59" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F59" t="s">
         <v>43</v>
@@ -4151,21 +4156,21 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C60" t="s">
+        <v>282</v>
+      </c>
+      <c r="D60" t="s">
         <v>283</v>
       </c>
-      <c r="D60" t="s">
-        <v>284</v>
-      </c>
       <c r="E60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F60" t="s">
         <v>43</v>
@@ -4186,21 +4191,21 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C61" t="s">
+        <v>284</v>
+      </c>
+      <c r="D61" t="s">
         <v>285</v>
       </c>
-      <c r="D61" t="s">
-        <v>286</v>
-      </c>
       <c r="E61" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F61" t="s">
         <v>43</v>
@@ -4221,21 +4226,21 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C62" t="s">
+        <v>286</v>
+      </c>
+      <c r="D62" t="s">
         <v>287</v>
       </c>
-      <c r="D62" t="s">
-        <v>288</v>
-      </c>
       <c r="E62" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F62" t="s">
         <v>43</v>
@@ -4256,21 +4261,21 @@
         <v>79</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C63" t="s">
+        <v>288</v>
+      </c>
+      <c r="D63" t="s">
         <v>289</v>
       </c>
-      <c r="D63" t="s">
-        <v>290</v>
-      </c>
       <c r="E63" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F63" t="s">
         <v>43</v>
@@ -4291,21 +4296,21 @@
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C64" t="s">
+        <v>290</v>
+      </c>
+      <c r="D64" t="s">
         <v>291</v>
       </c>
-      <c r="D64" t="s">
-        <v>292</v>
-      </c>
       <c r="E64" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F64" t="s">
         <v>43</v>
@@ -4328,21 +4333,21 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C65" t="s">
+        <v>296</v>
+      </c>
+      <c r="D65" t="s">
         <v>297</v>
       </c>
-      <c r="D65" t="s">
-        <v>298</v>
-      </c>
       <c r="E65" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F65" t="s">
         <v>43</v>
@@ -4363,27 +4368,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="66" spans="1:24" ht="120" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C66" t="s">
+        <v>298</v>
+      </c>
+      <c r="D66" t="s">
         <v>299</v>
       </c>
-      <c r="D66" t="s">
-        <v>300</v>
-      </c>
       <c r="E66" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F66" t="s">
         <v>43</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J66" t="s">
         <v>44</v>
@@ -4401,27 +4406,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C67" t="s">
+        <v>304</v>
+      </c>
+      <c r="D67" t="s">
         <v>305</v>
       </c>
-      <c r="D67" t="s">
-        <v>306</v>
-      </c>
       <c r="E67" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F67" t="s">
         <v>91</v>
       </c>
       <c r="G67" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J67" t="s">
         <v>44</v>
@@ -4439,28 +4444,28 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="150" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C68" t="s">
+        <v>307</v>
+      </c>
+      <c r="D68" t="s">
         <v>308</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
+        <v>308</v>
+      </c>
+      <c r="F68" t="s">
+        <v>43</v>
+      </c>
+      <c r="I68" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="E68" t="s">
-        <v>309</v>
-      </c>
-      <c r="F68" t="s">
-        <v>43</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="J68" t="s">
         <v>44</v>
       </c>
@@ -4477,28 +4482,28 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C69" t="s">
+        <v>310</v>
+      </c>
+      <c r="D69" t="s">
         <v>311</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
+        <v>311</v>
+      </c>
+      <c r="F69" t="s">
+        <v>43</v>
+      </c>
+      <c r="I69" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="E69" t="s">
-        <v>312</v>
-      </c>
-      <c r="F69" t="s">
-        <v>43</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>313</v>
-      </c>
       <c r="J69" t="s">
         <v>44</v>
       </c>
@@ -4515,28 +4520,28 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:24" ht="105" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" ht="87" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C70" t="s">
+        <v>313</v>
+      </c>
+      <c r="D70" t="s">
         <v>314</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
+        <v>314</v>
+      </c>
+      <c r="F70" t="s">
+        <v>43</v>
+      </c>
+      <c r="I70" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="E70" t="s">
-        <v>315</v>
-      </c>
-      <c r="F70" t="s">
-        <v>43</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>316</v>
-      </c>
       <c r="J70" t="s">
         <v>44</v>
       </c>
@@ -4553,27 +4558,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71" spans="1:24" ht="105" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" ht="87" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C71" t="s">
+        <v>316</v>
+      </c>
+      <c r="D71" t="s">
         <v>317</v>
       </c>
-      <c r="D71" t="s">
-        <v>318</v>
-      </c>
       <c r="E71" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F71" t="s">
         <v>43</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J71" t="s">
         <v>44</v>
@@ -4591,27 +4596,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="1:24" ht="105" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" ht="87" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C72" t="s">
+        <v>318</v>
+      </c>
+      <c r="D72" t="s">
         <v>319</v>
       </c>
-      <c r="D72" t="s">
-        <v>320</v>
-      </c>
       <c r="E72" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F72" t="s">
         <v>43</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J72" t="s">
         <v>44</v>
@@ -4629,28 +4634,28 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73" spans="1:24" ht="330" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" ht="319" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C73" t="s">
+        <v>320</v>
+      </c>
+      <c r="D73" t="s">
         <v>321</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>322</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
+        <v>43</v>
+      </c>
+      <c r="I73" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="F73" t="s">
-        <v>43</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>324</v>
-      </c>
       <c r="J73" t="s">
         <v>44</v>
       </c>
@@ -4667,27 +4672,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74" spans="1:24" ht="105" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" ht="87" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C74" t="s">
+        <v>324</v>
+      </c>
+      <c r="D74" t="s">
         <v>325</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>326</v>
       </c>
-      <c r="E74" t="s">
-        <v>327</v>
-      </c>
       <c r="F74" t="s">
         <v>43</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J74" t="s">
         <v>44</v>
@@ -4705,27 +4710,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:24" ht="105" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" ht="87" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C75" t="s">
+        <v>327</v>
+      </c>
+      <c r="D75" t="s">
         <v>328</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>329</v>
       </c>
-      <c r="E75" t="s">
-        <v>330</v>
-      </c>
       <c r="F75" t="s">
         <v>43</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J75" t="s">
         <v>44</v>
@@ -4743,27 +4748,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C76" t="s">
+        <v>330</v>
+      </c>
+      <c r="D76" t="s">
         <v>331</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>332</v>
       </c>
-      <c r="E76" t="s">
-        <v>333</v>
-      </c>
       <c r="F76" t="s">
         <v>43</v>
       </c>
       <c r="G76" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J76" t="s">
         <v>44</v>
@@ -4781,45 +4786,45 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C77" t="s">
+        <v>333</v>
+      </c>
+      <c r="D77" t="s">
         <v>334</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>335</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
+        <v>43</v>
+      </c>
+      <c r="I77" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="F77" t="s">
-        <v>43</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>337</v>
-      </c>
       <c r="J77" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K77" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P77" t="s">
         <v>36</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="T77" t="s">
         <v>38</v>
@@ -4831,51 +4836,51 @@
         <v>64</v>
       </c>
       <c r="W77" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="78" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C78" t="s">
+        <v>343</v>
+      </c>
+      <c r="D78" t="s">
         <v>344</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>345</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
+        <v>43</v>
+      </c>
+      <c r="I78" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="F78" t="s">
-        <v>43</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>347</v>
-      </c>
       <c r="J78" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K78" t="s">
+        <v>385</v>
+      </c>
+      <c r="M78" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="M78" s="1" t="s">
-        <v>387</v>
-      </c>
       <c r="O78" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P78" t="s">
         <v>36</v>
       </c>
       <c r="Q78" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="S78" t="s">
         <v>352</v>
-      </c>
-      <c r="S78" t="s">
-        <v>353</v>
       </c>
       <c r="T78" t="s">
         <v>38</v>
@@ -4887,109 +4892,109 @@
         <v>64</v>
       </c>
       <c r="W78" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="79" spans="1:24" ht="180" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" ht="145" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C79" t="s">
+        <v>354</v>
+      </c>
+      <c r="D79" t="s">
         <v>355</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
+        <v>355</v>
+      </c>
+      <c r="F79" t="s">
+        <v>43</v>
+      </c>
+      <c r="I79" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="E79" t="s">
-        <v>356</v>
-      </c>
-      <c r="F79" t="s">
-        <v>43</v>
-      </c>
-      <c r="I79" s="1" t="s">
+      <c r="J79" t="s">
+        <v>44</v>
+      </c>
+      <c r="T79" t="s">
+        <v>79</v>
+      </c>
+      <c r="U79" t="s">
+        <v>80</v>
+      </c>
+      <c r="V79" t="s">
+        <v>79</v>
+      </c>
+      <c r="W79" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" ht="29" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>388</v>
+      </c>
+      <c r="C80" t="s">
         <v>357</v>
       </c>
-      <c r="J79" t="s">
-        <v>44</v>
-      </c>
-      <c r="T79" t="s">
-        <v>79</v>
-      </c>
-      <c r="U79" t="s">
-        <v>80</v>
-      </c>
-      <c r="V79" t="s">
-        <v>79</v>
-      </c>
-      <c r="W79" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="80" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80" t="s">
-        <v>389</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>358</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>359</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
+        <v>43</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="J80" t="s">
+        <v>44</v>
+      </c>
+      <c r="T80" t="s">
+        <v>79</v>
+      </c>
+      <c r="U80" t="s">
+        <v>80</v>
+      </c>
+      <c r="V80" t="s">
+        <v>79</v>
+      </c>
+      <c r="W80" t="s">
+        <v>79</v>
+      </c>
+      <c r="X80" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" ht="29" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>388</v>
+      </c>
+      <c r="C81" t="s">
         <v>360</v>
       </c>
-      <c r="F80" t="s">
-        <v>43</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="J80" t="s">
-        <v>44</v>
-      </c>
-      <c r="T80" t="s">
-        <v>79</v>
-      </c>
-      <c r="U80" t="s">
-        <v>80</v>
-      </c>
-      <c r="V80" t="s">
-        <v>79</v>
-      </c>
-      <c r="W80" t="s">
-        <v>79</v>
-      </c>
-      <c r="X80" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="81" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81" t="s">
-        <v>389</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>361</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>362</v>
       </c>
-      <c r="E81" t="s">
-        <v>363</v>
-      </c>
       <c r="F81" t="s">
         <v>43</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J81" t="s">
         <v>44</v>
@@ -5007,27 +5012,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C82" t="s">
+        <v>363</v>
+      </c>
+      <c r="D82" t="s">
         <v>364</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>365</v>
       </c>
-      <c r="E82" t="s">
-        <v>366</v>
-      </c>
       <c r="F82" t="s">
         <v>43</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J82" t="s">
         <v>44</v>
@@ -5048,24 +5053,24 @@
         <v>79</v>
       </c>
       <c r="X82" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C83" t="s">
+        <v>372</v>
+      </c>
+      <c r="D83" t="s">
         <v>373</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>374</v>
-      </c>
-      <c r="E83" t="s">
-        <v>375</v>
       </c>
       <c r="F83" t="s">
         <v>91</v>
@@ -5086,28 +5091,28 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C84" t="s">
+        <v>375</v>
+      </c>
+      <c r="D84" t="s">
         <v>376</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>377</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
+        <v>43</v>
+      </c>
+      <c r="G84" t="s">
         <v>378</v>
       </c>
-      <c r="F84" t="s">
-        <v>43</v>
-      </c>
-      <c r="G84" t="s">
-        <v>379</v>
-      </c>
       <c r="J84" t="s">
         <v>44</v>
       </c>
@@ -5124,12 +5129,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>1</v>
       </c>
       <c r="B85" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C85" t="s">
         <v>30</v>
@@ -5171,12 +5176,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>2</v>
       </c>
       <c r="B86" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C86" t="s">
         <v>41</v>
@@ -5206,12 +5211,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C87" t="s">
         <v>46</v>
@@ -5253,15 +5258,15 @@
         <v>55</v>
       </c>
       <c r="W87" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="88" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>4</v>
       </c>
       <c r="B88" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C88" t="s">
         <v>56</v>
@@ -5309,12 +5314,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>5</v>
       </c>
       <c r="B89" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C89" t="s">
         <v>66</v>
@@ -5359,15 +5364,15 @@
         <v>55</v>
       </c>
       <c r="W89" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="90" spans="1:24" ht="135" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C90" t="s">
         <v>75</v>
@@ -5400,12 +5405,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>7</v>
       </c>
       <c r="B91" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C91" t="s">
         <v>81</v>
@@ -5435,12 +5440,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="90" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" ht="87" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C92" t="s">
         <v>84</v>
@@ -5473,12 +5478,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C93" t="s">
         <v>88</v>
@@ -5508,12 +5513,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>10</v>
       </c>
       <c r="B94" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C94" t="s">
         <v>92</v>
@@ -5543,12 +5548,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C95" t="s">
         <v>95</v>
@@ -5578,12 +5583,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="96" spans="1:24" ht="225" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>12</v>
       </c>
       <c r="B96" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C96" t="s">
         <v>98</v>
@@ -5631,12 +5636,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="97" spans="1:23" ht="225" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>13</v>
       </c>
       <c r="B97" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C97" t="s">
         <v>108</v>
@@ -5684,12 +5689,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="98" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>14</v>
       </c>
       <c r="B98" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C98" t="s">
         <v>113</v>
@@ -5722,12 +5727,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>15</v>
       </c>
       <c r="B99" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C99" t="s">
         <v>116</v>
@@ -5778,12 +5783,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="100" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>16</v>
       </c>
       <c r="B100" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C100" t="s">
         <v>123</v>
@@ -5834,12 +5839,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>17</v>
       </c>
       <c r="B101" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C101" t="s">
         <v>127</v>
@@ -5890,12 +5895,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="102" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>18</v>
       </c>
       <c r="B102" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C102" t="s">
         <v>133</v>
@@ -5946,12 +5951,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="103" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" ht="58" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>19</v>
       </c>
       <c r="B103" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C103" t="s">
         <v>136</v>
@@ -6002,12 +6007,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="104" spans="1:23" ht="330" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C104" t="s">
         <v>147</v>
@@ -6061,12 +6066,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="105" spans="1:23" ht="330" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>21</v>
       </c>
       <c r="B105" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C105" t="s">
         <v>158</v>
@@ -6084,7 +6089,7 @@
         <v>125</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>149</v>
+        <v>400</v>
       </c>
       <c r="K105" s="1" t="s">
         <v>150</v>
@@ -6114,30 +6119,30 @@
         <v>55</v>
       </c>
       <c r="W105" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>22</v>
       </c>
       <c r="B106" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C106" t="s">
+        <v>161</v>
+      </c>
+      <c r="D106" t="s">
         <v>162</v>
       </c>
-      <c r="D106" t="s">
-        <v>163</v>
-      </c>
       <c r="E106" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F106" t="s">
         <v>91</v>
       </c>
       <c r="G106" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J106" t="s">
         <v>44</v>
@@ -6155,21 +6160,21 @@
         <v>79</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>23</v>
       </c>
       <c r="B107" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C107" t="s">
+        <v>164</v>
+      </c>
+      <c r="D107" t="s">
         <v>165</v>
       </c>
-      <c r="D107" t="s">
-        <v>166</v>
-      </c>
       <c r="E107" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F107" t="s">
         <v>33</v>
@@ -6190,27 +6195,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>24</v>
       </c>
       <c r="B108" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C108" t="s">
+        <v>166</v>
+      </c>
+      <c r="D108" t="s">
         <v>167</v>
       </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
         <v>168</v>
-      </c>
-      <c r="E108" t="s">
-        <v>169</v>
       </c>
       <c r="F108" t="s">
         <v>91</v>
       </c>
       <c r="G108" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J108" t="s">
         <v>44</v>
@@ -6228,27 +6233,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>25</v>
       </c>
       <c r="B109" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C109" t="s">
+        <v>170</v>
+      </c>
+      <c r="D109" t="s">
         <v>171</v>
       </c>
-      <c r="D109" t="s">
+      <c r="E109" t="s">
         <v>172</v>
-      </c>
-      <c r="E109" t="s">
-        <v>173</v>
       </c>
       <c r="F109" t="s">
         <v>91</v>
       </c>
       <c r="G109" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J109" t="s">
         <v>44</v>
@@ -6266,27 +6271,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>26</v>
       </c>
       <c r="B110" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C110" t="s">
+        <v>173</v>
+      </c>
+      <c r="D110" t="s">
         <v>174</v>
       </c>
-      <c r="D110" t="s">
-        <v>175</v>
-      </c>
       <c r="E110" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F110" t="s">
         <v>91</v>
       </c>
       <c r="G110" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J110" t="s">
         <v>44</v>
@@ -6304,27 +6309,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>27</v>
       </c>
       <c r="B111" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C111" t="s">
+        <v>176</v>
+      </c>
+      <c r="D111" t="s">
         <v>177</v>
       </c>
-      <c r="D111" t="s">
-        <v>178</v>
-      </c>
       <c r="E111" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F111" t="s">
         <v>91</v>
       </c>
       <c r="G111" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J111" t="s">
         <v>44</v>
@@ -6342,28 +6347,28 @@
         <v>79</v>
       </c>
     </row>
-    <row r="112" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" ht="58" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>28</v>
       </c>
       <c r="B112" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C112" t="s">
+        <v>179</v>
+      </c>
+      <c r="D112" t="s">
         <v>180</v>
       </c>
-      <c r="D112" t="s">
+      <c r="E112" t="s">
+        <v>180</v>
+      </c>
+      <c r="F112" t="s">
+        <v>43</v>
+      </c>
+      <c r="I112" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E112" t="s">
-        <v>181</v>
-      </c>
-      <c r="F112" t="s">
-        <v>43</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="J112" t="s">
         <v>44</v>
       </c>
@@ -6380,27 +6385,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>29</v>
       </c>
       <c r="B113" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C113" t="s">
+        <v>182</v>
+      </c>
+      <c r="D113" t="s">
         <v>183</v>
       </c>
-      <c r="D113" t="s">
-        <v>184</v>
-      </c>
       <c r="E113" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F113" t="s">
         <v>91</v>
       </c>
       <c r="G113" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J113" t="s">
         <v>44</v>
@@ -6418,27 +6423,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>30</v>
       </c>
       <c r="B114" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C114" t="s">
+        <v>185</v>
+      </c>
+      <c r="D114" t="s">
         <v>186</v>
       </c>
-      <c r="D114" t="s">
-        <v>187</v>
-      </c>
       <c r="E114" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F114" t="s">
         <v>91</v>
       </c>
       <c r="G114" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J114" t="s">
         <v>44</v>
@@ -6456,27 +6461,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>31</v>
       </c>
       <c r="B115" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C115" t="s">
+        <v>188</v>
+      </c>
+      <c r="D115" t="s">
         <v>189</v>
       </c>
-      <c r="D115" t="s">
-        <v>190</v>
-      </c>
       <c r="E115" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F115" t="s">
         <v>91</v>
       </c>
       <c r="G115" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J115" t="s">
         <v>44</v>
@@ -6494,27 +6499,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>32</v>
       </c>
       <c r="B116" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C116" t="s">
+        <v>191</v>
+      </c>
+      <c r="D116" t="s">
         <v>192</v>
       </c>
-      <c r="D116" t="s">
-        <v>193</v>
-      </c>
       <c r="E116" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F116" t="s">
         <v>91</v>
       </c>
       <c r="G116" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J116" t="s">
         <v>44</v>
@@ -6532,27 +6537,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>33</v>
       </c>
       <c r="B117" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C117" t="s">
+        <v>193</v>
+      </c>
+      <c r="D117" t="s">
         <v>194</v>
       </c>
-      <c r="D117" t="s">
-        <v>195</v>
-      </c>
       <c r="E117" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F117" t="s">
         <v>91</v>
       </c>
       <c r="G117" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J117" t="s">
         <v>44</v>
@@ -6570,27 +6575,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>34</v>
       </c>
       <c r="B118" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C118" t="s">
+        <v>195</v>
+      </c>
+      <c r="D118" t="s">
         <v>196</v>
       </c>
-      <c r="D118" t="s">
-        <v>197</v>
-      </c>
       <c r="E118" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F118" t="s">
         <v>91</v>
       </c>
       <c r="G118" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J118" t="s">
         <v>44</v>
@@ -6608,27 +6613,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>35</v>
       </c>
       <c r="B119" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C119" t="s">
+        <v>197</v>
+      </c>
+      <c r="D119" t="s">
         <v>198</v>
       </c>
-      <c r="D119" t="s">
-        <v>199</v>
-      </c>
       <c r="E119" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F119" t="s">
         <v>91</v>
       </c>
       <c r="G119" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J119" t="s">
         <v>44</v>
@@ -6646,27 +6651,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>36</v>
       </c>
       <c r="B120" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C120" t="s">
+        <v>199</v>
+      </c>
+      <c r="D120" t="s">
         <v>200</v>
       </c>
-      <c r="D120" t="s">
-        <v>201</v>
-      </c>
       <c r="E120" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F120" t="s">
         <v>91</v>
       </c>
       <c r="G120" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J120" t="s">
         <v>44</v>
@@ -6684,27 +6689,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>37</v>
       </c>
       <c r="B121" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C121" t="s">
+        <v>202</v>
+      </c>
+      <c r="D121" t="s">
         <v>203</v>
       </c>
-      <c r="D121" t="s">
+      <c r="E121" t="s">
         <v>204</v>
-      </c>
-      <c r="E121" t="s">
-        <v>205</v>
       </c>
       <c r="F121" t="s">
         <v>91</v>
       </c>
       <c r="G121" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J121" t="s">
         <v>44</v>
@@ -6722,28 +6727,28 @@
         <v>79</v>
       </c>
     </row>
-    <row r="122" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" ht="58" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>38</v>
       </c>
       <c r="B122" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C122" t="s">
+        <v>206</v>
+      </c>
+      <c r="D122" t="s">
         <v>207</v>
       </c>
-      <c r="D122" t="s">
+      <c r="E122" t="s">
         <v>208</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
+        <v>43</v>
+      </c>
+      <c r="I122" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F122" t="s">
-        <v>43</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="J122" t="s">
         <v>44</v>
       </c>
@@ -6760,27 +6765,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>39</v>
       </c>
       <c r="B123" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C123" t="s">
+        <v>210</v>
+      </c>
+      <c r="D123" t="s">
         <v>211</v>
       </c>
-      <c r="D123" t="s">
+      <c r="E123" t="s">
         <v>212</v>
-      </c>
-      <c r="E123" t="s">
-        <v>213</v>
       </c>
       <c r="F123" t="s">
         <v>91</v>
       </c>
       <c r="G123" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J123" t="s">
         <v>44</v>
@@ -6798,27 +6803,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="124" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" ht="58" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>40</v>
       </c>
       <c r="B124" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C124" t="s">
+        <v>213</v>
+      </c>
+      <c r="D124" t="s">
         <v>214</v>
       </c>
-      <c r="D124" t="s">
+      <c r="E124" t="s">
         <v>215</v>
       </c>
-      <c r="E124" t="s">
-        <v>216</v>
-      </c>
       <c r="F124" t="s">
         <v>43</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J124" t="s">
         <v>44</v>
@@ -6836,27 +6841,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>41</v>
       </c>
       <c r="B125" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C125" t="s">
+        <v>216</v>
+      </c>
+      <c r="D125" t="s">
         <v>217</v>
       </c>
-      <c r="D125" t="s">
-        <v>218</v>
-      </c>
       <c r="E125" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F125" t="s">
         <v>91</v>
       </c>
       <c r="G125" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J125" t="s">
         <v>44</v>
@@ -6874,104 +6879,104 @@
         <v>79</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>42</v>
       </c>
       <c r="B126" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C126" t="s">
+        <v>219</v>
+      </c>
+      <c r="D126" t="s">
         <v>220</v>
       </c>
-      <c r="D126" t="s">
+      <c r="E126" t="s">
         <v>221</v>
-      </c>
-      <c r="E126" t="s">
-        <v>222</v>
       </c>
       <c r="F126" t="s">
         <v>91</v>
       </c>
       <c r="G126" t="s">
+        <v>222</v>
+      </c>
+      <c r="J126" t="s">
+        <v>44</v>
+      </c>
+      <c r="T126" t="s">
+        <v>79</v>
+      </c>
+      <c r="U126" t="s">
+        <v>80</v>
+      </c>
+      <c r="V126" t="s">
+        <v>79</v>
+      </c>
+      <c r="W126" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" ht="87" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>43</v>
+      </c>
+      <c r="B127" t="s">
+        <v>399</v>
+      </c>
+      <c r="C127" t="s">
         <v>223</v>
       </c>
-      <c r="J126" t="s">
-        <v>44</v>
-      </c>
-      <c r="T126" t="s">
-        <v>79</v>
-      </c>
-      <c r="U126" t="s">
-        <v>80</v>
-      </c>
-      <c r="V126" t="s">
-        <v>79</v>
-      </c>
-      <c r="W126" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="127" spans="1:23" ht="90" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>43</v>
-      </c>
-      <c r="B127" t="s">
-        <v>400</v>
-      </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
         <v>224</v>
       </c>
-      <c r="D127" t="s">
+      <c r="E127" t="s">
+        <v>224</v>
+      </c>
+      <c r="F127" t="s">
+        <v>43</v>
+      </c>
+      <c r="I127" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E127" t="s">
-        <v>225</v>
-      </c>
-      <c r="F127" t="s">
-        <v>43</v>
-      </c>
-      <c r="I127" s="1" t="s">
+      <c r="J127" t="s">
+        <v>44</v>
+      </c>
+      <c r="T127" t="s">
+        <v>79</v>
+      </c>
+      <c r="U127" t="s">
+        <v>80</v>
+      </c>
+      <c r="V127" t="s">
+        <v>79</v>
+      </c>
+      <c r="W127" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" ht="58" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>44</v>
+      </c>
+      <c r="B128" t="s">
+        <v>399</v>
+      </c>
+      <c r="C128" t="s">
         <v>226</v>
       </c>
-      <c r="J127" t="s">
-        <v>44</v>
-      </c>
-      <c r="T127" t="s">
-        <v>79</v>
-      </c>
-      <c r="U127" t="s">
-        <v>80</v>
-      </c>
-      <c r="V127" t="s">
-        <v>79</v>
-      </c>
-      <c r="W127" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="128" spans="1:23" ht="75" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>44</v>
-      </c>
-      <c r="B128" t="s">
-        <v>400</v>
-      </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>227</v>
       </c>
-      <c r="D128" t="s">
+      <c r="E128" t="s">
         <v>228</v>
       </c>
-      <c r="E128" t="s">
+      <c r="F128" t="s">
+        <v>43</v>
+      </c>
+      <c r="I128" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="F128" t="s">
-        <v>43</v>
-      </c>
-      <c r="I128" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="J128" t="s">
         <v>44</v>
       </c>
@@ -6988,28 +6993,28 @@
         <v>79</v>
       </c>
     </row>
-    <row r="129" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>45</v>
       </c>
       <c r="B129" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C129" t="s">
+        <v>230</v>
+      </c>
+      <c r="D129" t="s">
         <v>231</v>
       </c>
-      <c r="D129" t="s">
+      <c r="E129" t="s">
+        <v>231</v>
+      </c>
+      <c r="F129" t="s">
+        <v>43</v>
+      </c>
+      <c r="I129" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E129" t="s">
-        <v>232</v>
-      </c>
-      <c r="F129" t="s">
-        <v>43</v>
-      </c>
-      <c r="I129" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="J129" t="s">
         <v>44</v>
       </c>
@@ -7026,27 +7031,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>46</v>
       </c>
       <c r="B130" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C130" t="s">
+        <v>233</v>
+      </c>
+      <c r="D130" t="s">
         <v>234</v>
       </c>
-      <c r="D130" t="s">
-        <v>235</v>
-      </c>
       <c r="E130" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F130" t="s">
         <v>91</v>
       </c>
       <c r="G130" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J130" t="s">
         <v>44</v>
@@ -7064,45 +7069,45 @@
         <v>79</v>
       </c>
     </row>
-    <row r="131" spans="1:23" ht="345" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" ht="333.5" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>47</v>
       </c>
       <c r="B131" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C131" t="s">
+        <v>236</v>
+      </c>
+      <c r="D131" t="s">
         <v>237</v>
       </c>
-      <c r="D131" t="s">
+      <c r="E131" t="s">
+        <v>237</v>
+      </c>
+      <c r="F131" t="s">
+        <v>43</v>
+      </c>
+      <c r="I131" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E131" t="s">
-        <v>238</v>
-      </c>
-      <c r="F131" t="s">
-        <v>43</v>
-      </c>
-      <c r="I131" s="1" t="s">
+      <c r="J131" t="s">
         <v>239</v>
       </c>
-      <c r="J131" t="s">
+      <c r="K131" t="s">
         <v>240</v>
       </c>
-      <c r="K131" t="s">
+      <c r="M131" t="s">
         <v>241</v>
       </c>
-      <c r="M131" t="s">
+      <c r="O131" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="O131" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="P131" t="s">
         <v>36</v>
       </c>
       <c r="Q131" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="T131" t="s">
         <v>38</v>
@@ -7114,31 +7119,31 @@
         <v>64</v>
       </c>
       <c r="W131" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="132" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>48</v>
       </c>
       <c r="B132" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C132" t="s">
+        <v>245</v>
+      </c>
+      <c r="D132" t="s">
         <v>246</v>
       </c>
-      <c r="D132" t="s">
+      <c r="E132" t="s">
         <v>247</v>
       </c>
-      <c r="E132" t="s">
+      <c r="F132" t="s">
+        <v>43</v>
+      </c>
+      <c r="I132" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F132" t="s">
-        <v>43</v>
-      </c>
-      <c r="I132" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="J132" t="s">
         <v>44</v>
       </c>
@@ -7155,27 +7160,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="133" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>49</v>
       </c>
       <c r="B133" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C133" t="s">
+        <v>249</v>
+      </c>
+      <c r="D133" t="s">
         <v>250</v>
       </c>
-      <c r="D133" t="s">
+      <c r="E133" t="s">
         <v>251</v>
       </c>
-      <c r="E133" t="s">
-        <v>252</v>
-      </c>
       <c r="F133" t="s">
         <v>43</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J133" t="s">
         <v>44</v>
@@ -7193,27 +7198,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="134" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>50</v>
       </c>
       <c r="B134" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C134" t="s">
+        <v>252</v>
+      </c>
+      <c r="D134" t="s">
         <v>253</v>
       </c>
-      <c r="D134" t="s">
+      <c r="E134" t="s">
         <v>254</v>
       </c>
-      <c r="E134" t="s">
-        <v>255</v>
-      </c>
       <c r="F134" t="s">
         <v>43</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J134" t="s">
         <v>44</v>
@@ -7231,28 +7236,28 @@
         <v>79</v>
       </c>
     </row>
-    <row r="135" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>51</v>
       </c>
       <c r="B135" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C135" t="s">
+        <v>255</v>
+      </c>
+      <c r="D135" t="s">
         <v>256</v>
       </c>
-      <c r="D135" t="s">
+      <c r="E135" t="s">
         <v>257</v>
       </c>
-      <c r="E135" t="s">
+      <c r="F135" t="s">
+        <v>43</v>
+      </c>
+      <c r="I135" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F135" t="s">
-        <v>43</v>
-      </c>
-      <c r="I135" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="J135" t="s">
         <v>44</v>
       </c>
@@ -7269,27 +7274,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="136" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>52</v>
       </c>
       <c r="B136" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C136" t="s">
+        <v>259</v>
+      </c>
+      <c r="D136" t="s">
         <v>260</v>
       </c>
-      <c r="D136" t="s">
-        <v>261</v>
-      </c>
       <c r="E136" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F136" t="s">
         <v>43</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J136" t="s">
         <v>44</v>
@@ -7307,27 +7312,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="137" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>53</v>
       </c>
       <c r="B137" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C137" t="s">
+        <v>261</v>
+      </c>
+      <c r="D137" t="s">
         <v>262</v>
       </c>
-      <c r="D137" t="s">
-        <v>263</v>
-      </c>
       <c r="E137" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F137" t="s">
         <v>43</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J137" t="s">
         <v>44</v>
@@ -7345,27 +7350,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="138" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>54</v>
       </c>
       <c r="B138" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C138" t="s">
+        <v>263</v>
+      </c>
+      <c r="D138" t="s">
         <v>264</v>
       </c>
-      <c r="D138" t="s">
-        <v>265</v>
-      </c>
       <c r="E138" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F138" t="s">
         <v>43</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J138" t="s">
         <v>44</v>
@@ -7383,27 +7388,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="139" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>55</v>
       </c>
       <c r="B139" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C139" t="s">
+        <v>265</v>
+      </c>
+      <c r="D139" t="s">
         <v>266</v>
       </c>
-      <c r="D139" t="s">
-        <v>267</v>
-      </c>
       <c r="E139" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F139" t="s">
         <v>43</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J139" t="s">
         <v>44</v>
@@ -7421,27 +7426,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="140" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>56</v>
       </c>
       <c r="B140" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C140" t="s">
+        <v>267</v>
+      </c>
+      <c r="D140" t="s">
         <v>268</v>
       </c>
-      <c r="D140" t="s">
-        <v>269</v>
-      </c>
       <c r="E140" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F140" t="s">
         <v>43</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J140" t="s">
         <v>44</v>
@@ -7459,36 +7464,36 @@
         <v>79</v>
       </c>
     </row>
-    <row r="141" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23" ht="377" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>57</v>
       </c>
       <c r="B141" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C141" t="s">
+        <v>269</v>
+      </c>
+      <c r="D141" t="s">
         <v>270</v>
       </c>
-      <c r="D141" t="s">
+      <c r="E141" t="s">
         <v>271</v>
       </c>
-      <c r="E141" t="s">
+      <c r="F141" t="s">
+        <v>43</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="J141" t="s">
         <v>272</v>
       </c>
-      <c r="F141" t="s">
-        <v>43</v>
-      </c>
-      <c r="I141" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="J141" t="s">
+      <c r="K141" t="s">
         <v>273</v>
       </c>
-      <c r="K141" t="s">
+      <c r="L141" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="L141" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="T141" t="s">
         <v>38</v>
@@ -7503,42 +7508,42 @@
         <v>122</v>
       </c>
     </row>
-    <row r="142" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:23" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>58</v>
       </c>
       <c r="B142" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C142" t="s">
+        <v>275</v>
+      </c>
+      <c r="D142" t="s">
         <v>276</v>
       </c>
-      <c r="D142" t="s">
+      <c r="E142" t="s">
+        <v>276</v>
+      </c>
+      <c r="F142" t="s">
+        <v>43</v>
+      </c>
+      <c r="J142" t="s">
         <v>277</v>
       </c>
-      <c r="E142" t="s">
-        <v>277</v>
-      </c>
-      <c r="F142" t="s">
-        <v>43</v>
-      </c>
-      <c r="J142" t="s">
+      <c r="K142" t="s">
         <v>278</v>
       </c>
-      <c r="K142" t="s">
+      <c r="M142" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="M142" s="1" t="s">
+      <c r="O142" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="O142" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="P142" t="s">
         <v>74</v>
       </c>
       <c r="Q142" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="T142" t="s">
         <v>38</v>
@@ -7553,21 +7558,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>59</v>
       </c>
       <c r="B143" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C143" t="s">
+        <v>282</v>
+      </c>
+      <c r="D143" t="s">
         <v>283</v>
       </c>
-      <c r="D143" t="s">
-        <v>284</v>
-      </c>
       <c r="E143" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F143" t="s">
         <v>43</v>
@@ -7588,21 +7593,21 @@
         <v>79</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>60</v>
       </c>
       <c r="B144" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C144" t="s">
+        <v>284</v>
+      </c>
+      <c r="D144" t="s">
         <v>285</v>
       </c>
-      <c r="D144" t="s">
-        <v>286</v>
-      </c>
       <c r="E144" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F144" t="s">
         <v>43</v>
@@ -7623,21 +7628,21 @@
         <v>79</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>61</v>
       </c>
       <c r="B145" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C145" t="s">
+        <v>286</v>
+      </c>
+      <c r="D145" t="s">
         <v>287</v>
       </c>
-      <c r="D145" t="s">
-        <v>288</v>
-      </c>
       <c r="E145" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F145" t="s">
         <v>43</v>
@@ -7658,21 +7663,21 @@
         <v>79</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>62</v>
       </c>
       <c r="B146" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C146" t="s">
+        <v>288</v>
+      </c>
+      <c r="D146" t="s">
         <v>289</v>
       </c>
-      <c r="D146" t="s">
-        <v>290</v>
-      </c>
       <c r="E146" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F146" t="s">
         <v>43</v>
@@ -7693,36 +7698,36 @@
         <v>79</v>
       </c>
     </row>
-    <row r="147" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:23" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>63</v>
       </c>
       <c r="B147" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C147" t="s">
+        <v>290</v>
+      </c>
+      <c r="D147" t="s">
         <v>291</v>
       </c>
-      <c r="D147" t="s">
+      <c r="E147" t="s">
+        <v>291</v>
+      </c>
+      <c r="F147" t="s">
+        <v>43</v>
+      </c>
+      <c r="J147" t="s">
         <v>292</v>
       </c>
-      <c r="E147" t="s">
-        <v>292</v>
-      </c>
-      <c r="F147" t="s">
-        <v>43</v>
-      </c>
-      <c r="J147" t="s">
+      <c r="K147" t="s">
         <v>293</v>
       </c>
-      <c r="K147" t="s">
+      <c r="M147" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="M147" s="1" t="s">
+      <c r="O147" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="O147" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="P147" t="s">
         <v>74</v>
@@ -7740,24 +7745,24 @@
         <v>55</v>
       </c>
       <c r="W147" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>64</v>
       </c>
       <c r="B148" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C148" t="s">
+        <v>296</v>
+      </c>
+      <c r="D148" t="s">
         <v>297</v>
       </c>
-      <c r="D148" t="s">
-        <v>298</v>
-      </c>
       <c r="E148" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F148" t="s">
         <v>43</v>
@@ -7778,36 +7783,36 @@
         <v>79</v>
       </c>
     </row>
-    <row r="149" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:23" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>65</v>
       </c>
       <c r="B149" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C149" t="s">
+        <v>298</v>
+      </c>
+      <c r="D149" t="s">
         <v>299</v>
       </c>
-      <c r="D149" t="s">
+      <c r="E149" t="s">
+        <v>299</v>
+      </c>
+      <c r="F149" t="s">
+        <v>43</v>
+      </c>
+      <c r="I149" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="E149" t="s">
-        <v>300</v>
-      </c>
-      <c r="F149" t="s">
-        <v>43</v>
-      </c>
-      <c r="I149" s="1" t="s">
+      <c r="J149" t="s">
         <v>301</v>
       </c>
-      <c r="J149" t="s">
+      <c r="K149" t="s">
         <v>302</v>
       </c>
-      <c r="K149" t="s">
+      <c r="L149" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="L149" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="T149" t="s">
         <v>38</v>
@@ -7822,27 +7827,27 @@
         <v>122</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>66</v>
       </c>
       <c r="B150" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C150" t="s">
+        <v>304</v>
+      </c>
+      <c r="D150" t="s">
         <v>305</v>
       </c>
-      <c r="D150" t="s">
-        <v>306</v>
-      </c>
       <c r="E150" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F150" t="s">
         <v>91</v>
       </c>
       <c r="G150" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J150" t="s">
         <v>44</v>
@@ -7860,28 +7865,28 @@
         <v>79</v>
       </c>
     </row>
-    <row r="151" spans="1:23" ht="150" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:23" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>67</v>
       </c>
       <c r="B151" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C151" t="s">
+        <v>307</v>
+      </c>
+      <c r="D151" t="s">
         <v>308</v>
       </c>
-      <c r="D151" t="s">
+      <c r="E151" t="s">
+        <v>308</v>
+      </c>
+      <c r="F151" t="s">
+        <v>43</v>
+      </c>
+      <c r="I151" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="E151" t="s">
-        <v>309</v>
-      </c>
-      <c r="F151" t="s">
-        <v>43</v>
-      </c>
-      <c r="I151" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="J151" t="s">
         <v>44</v>
       </c>
@@ -7898,28 +7903,28 @@
         <v>79</v>
       </c>
     </row>
-    <row r="152" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>68</v>
       </c>
       <c r="B152" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C152" t="s">
+        <v>310</v>
+      </c>
+      <c r="D152" t="s">
         <v>311</v>
       </c>
-      <c r="D152" t="s">
+      <c r="E152" t="s">
+        <v>311</v>
+      </c>
+      <c r="F152" t="s">
+        <v>43</v>
+      </c>
+      <c r="I152" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="E152" t="s">
-        <v>312</v>
-      </c>
-      <c r="F152" t="s">
-        <v>43</v>
-      </c>
-      <c r="I152" s="1" t="s">
-        <v>313</v>
-      </c>
       <c r="J152" t="s">
         <v>44</v>
       </c>
@@ -7936,28 +7941,28 @@
         <v>79</v>
       </c>
     </row>
-    <row r="153" spans="1:23" ht="105" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:23" ht="87" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>69</v>
       </c>
       <c r="B153" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C153" t="s">
+        <v>313</v>
+      </c>
+      <c r="D153" t="s">
         <v>314</v>
       </c>
-      <c r="D153" t="s">
+      <c r="E153" t="s">
+        <v>314</v>
+      </c>
+      <c r="F153" t="s">
+        <v>43</v>
+      </c>
+      <c r="I153" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="E153" t="s">
-        <v>315</v>
-      </c>
-      <c r="F153" t="s">
-        <v>43</v>
-      </c>
-      <c r="I153" s="1" t="s">
-        <v>316</v>
-      </c>
       <c r="J153" t="s">
         <v>44</v>
       </c>
@@ -7974,27 +7979,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="154" spans="1:23" ht="105" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:23" ht="87" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>70</v>
       </c>
       <c r="B154" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C154" t="s">
+        <v>316</v>
+      </c>
+      <c r="D154" t="s">
         <v>317</v>
       </c>
-      <c r="D154" t="s">
-        <v>318</v>
-      </c>
       <c r="E154" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F154" t="s">
         <v>43</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J154" t="s">
         <v>44</v>
@@ -8012,27 +8017,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="155" spans="1:23" ht="105" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:23" ht="87" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>71</v>
       </c>
       <c r="B155" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C155" t="s">
+        <v>318</v>
+      </c>
+      <c r="D155" t="s">
         <v>319</v>
       </c>
-      <c r="D155" t="s">
-        <v>320</v>
-      </c>
       <c r="E155" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F155" t="s">
         <v>43</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J155" t="s">
         <v>44</v>
@@ -8050,28 +8055,28 @@
         <v>79</v>
       </c>
     </row>
-    <row r="156" spans="1:23" ht="330" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:23" ht="319" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>72</v>
       </c>
       <c r="B156" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C156" t="s">
+        <v>320</v>
+      </c>
+      <c r="D156" t="s">
         <v>321</v>
       </c>
-      <c r="D156" t="s">
+      <c r="E156" t="s">
         <v>322</v>
       </c>
-      <c r="E156" t="s">
+      <c r="F156" t="s">
+        <v>43</v>
+      </c>
+      <c r="I156" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="F156" t="s">
-        <v>43</v>
-      </c>
-      <c r="I156" s="1" t="s">
-        <v>324</v>
-      </c>
       <c r="J156" t="s">
         <v>44</v>
       </c>
@@ -8088,27 +8093,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="157" spans="1:23" ht="105" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:23" ht="87" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>73</v>
       </c>
       <c r="B157" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C157" t="s">
+        <v>324</v>
+      </c>
+      <c r="D157" t="s">
         <v>325</v>
       </c>
-      <c r="D157" t="s">
+      <c r="E157" t="s">
         <v>326</v>
       </c>
-      <c r="E157" t="s">
-        <v>327</v>
-      </c>
       <c r="F157" t="s">
         <v>43</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J157" t="s">
         <v>44</v>
@@ -8126,27 +8131,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="158" spans="1:23" ht="105" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:23" ht="87" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>74</v>
       </c>
       <c r="B158" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C158" t="s">
+        <v>327</v>
+      </c>
+      <c r="D158" t="s">
         <v>328</v>
       </c>
-      <c r="D158" t="s">
+      <c r="E158" t="s">
         <v>329</v>
       </c>
-      <c r="E158" t="s">
-        <v>330</v>
-      </c>
       <c r="F158" t="s">
         <v>43</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J158" t="s">
         <v>44</v>
@@ -8164,27 +8169,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>75</v>
       </c>
       <c r="B159" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C159" t="s">
+        <v>330</v>
+      </c>
+      <c r="D159" t="s">
         <v>331</v>
       </c>
-      <c r="D159" t="s">
+      <c r="E159" t="s">
         <v>332</v>
       </c>
-      <c r="E159" t="s">
-        <v>333</v>
-      </c>
       <c r="F159" t="s">
         <v>43</v>
       </c>
       <c r="G159" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J159" t="s">
         <v>44</v>
@@ -8202,45 +8207,45 @@
         <v>79</v>
       </c>
     </row>
-    <row r="160" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:23" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>76</v>
       </c>
       <c r="B160" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C160" t="s">
+        <v>333</v>
+      </c>
+      <c r="D160" t="s">
         <v>334</v>
       </c>
-      <c r="D160" t="s">
+      <c r="E160" t="s">
         <v>335</v>
       </c>
-      <c r="E160" t="s">
+      <c r="F160" t="s">
+        <v>43</v>
+      </c>
+      <c r="I160" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="F160" t="s">
-        <v>43</v>
-      </c>
-      <c r="I160" s="1" t="s">
+      <c r="J160" t="s">
         <v>337</v>
       </c>
-      <c r="J160" t="s">
+      <c r="K160" t="s">
         <v>338</v>
       </c>
-      <c r="K160" t="s">
+      <c r="M160" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="M160" s="1" t="s">
+      <c r="O160" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="O160" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="P160" t="s">
         <v>36</v>
       </c>
       <c r="Q160" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="T160" t="s">
         <v>38</v>
@@ -8252,51 +8257,51 @@
         <v>64</v>
       </c>
       <c r="W160" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="161" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="161" spans="1:23" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>77</v>
       </c>
       <c r="B161" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C161" t="s">
+        <v>343</v>
+      </c>
+      <c r="D161" t="s">
         <v>344</v>
       </c>
-      <c r="D161" t="s">
+      <c r="E161" t="s">
         <v>345</v>
       </c>
-      <c r="E161" t="s">
+      <c r="F161" t="s">
+        <v>43</v>
+      </c>
+      <c r="I161" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="F161" t="s">
-        <v>43</v>
-      </c>
-      <c r="I161" s="1" t="s">
+      <c r="J161" t="s">
         <v>347</v>
       </c>
-      <c r="J161" t="s">
+      <c r="K161" t="s">
         <v>348</v>
       </c>
-      <c r="K161" t="s">
+      <c r="M161" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="M161" s="1" t="s">
+      <c r="O161" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="O161" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="P161" t="s">
         <v>36</v>
       </c>
       <c r="Q161" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="S161" t="s">
         <v>352</v>
-      </c>
-      <c r="S161" t="s">
-        <v>353</v>
       </c>
       <c r="T161" t="s">
         <v>38</v>
@@ -8308,106 +8313,106 @@
         <v>64</v>
       </c>
       <c r="W161" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="162" spans="1:23" ht="180" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="162" spans="1:23" ht="145" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>78</v>
       </c>
       <c r="B162" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C162" t="s">
+        <v>354</v>
+      </c>
+      <c r="D162" t="s">
         <v>355</v>
       </c>
-      <c r="D162" t="s">
+      <c r="E162" t="s">
+        <v>355</v>
+      </c>
+      <c r="F162" t="s">
+        <v>43</v>
+      </c>
+      <c r="I162" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="E162" t="s">
-        <v>356</v>
-      </c>
-      <c r="F162" t="s">
-        <v>43</v>
-      </c>
-      <c r="I162" s="1" t="s">
+      <c r="J162" t="s">
+        <v>44</v>
+      </c>
+      <c r="T162" t="s">
+        <v>79</v>
+      </c>
+      <c r="U162" t="s">
+        <v>80</v>
+      </c>
+      <c r="V162" t="s">
+        <v>79</v>
+      </c>
+      <c r="W162" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="163" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+      <c r="A163">
+        <v>79</v>
+      </c>
+      <c r="B163" t="s">
+        <v>399</v>
+      </c>
+      <c r="C163" t="s">
         <v>357</v>
       </c>
-      <c r="J162" t="s">
-        <v>44</v>
-      </c>
-      <c r="T162" t="s">
-        <v>79</v>
-      </c>
-      <c r="U162" t="s">
-        <v>80</v>
-      </c>
-      <c r="V162" t="s">
-        <v>79</v>
-      </c>
-      <c r="W162" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="163" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>79</v>
-      </c>
-      <c r="B163" t="s">
-        <v>400</v>
-      </c>
-      <c r="C163" t="s">
+      <c r="D163" t="s">
         <v>358</v>
       </c>
-      <c r="D163" t="s">
+      <c r="E163" t="s">
         <v>359</v>
       </c>
-      <c r="E163" t="s">
+      <c r="F163" t="s">
+        <v>43</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="J163" t="s">
+        <v>44</v>
+      </c>
+      <c r="T163" t="s">
+        <v>79</v>
+      </c>
+      <c r="U163" t="s">
+        <v>80</v>
+      </c>
+      <c r="V163" t="s">
+        <v>79</v>
+      </c>
+      <c r="W163" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="164" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+      <c r="A164">
+        <v>80</v>
+      </c>
+      <c r="B164" t="s">
+        <v>399</v>
+      </c>
+      <c r="C164" t="s">
         <v>360</v>
       </c>
-      <c r="F163" t="s">
-        <v>43</v>
-      </c>
-      <c r="I163" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="J163" t="s">
-        <v>44</v>
-      </c>
-      <c r="T163" t="s">
-        <v>79</v>
-      </c>
-      <c r="U163" t="s">
-        <v>80</v>
-      </c>
-      <c r="V163" t="s">
-        <v>79</v>
-      </c>
-      <c r="W163" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="164" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>80</v>
-      </c>
-      <c r="B164" t="s">
-        <v>400</v>
-      </c>
-      <c r="C164" t="s">
+      <c r="D164" t="s">
         <v>361</v>
       </c>
-      <c r="D164" t="s">
+      <c r="E164" t="s">
         <v>362</v>
       </c>
-      <c r="E164" t="s">
-        <v>363</v>
-      </c>
       <c r="F164" t="s">
         <v>43</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J164" t="s">
         <v>44</v>
@@ -8425,45 +8430,45 @@
         <v>79</v>
       </c>
     </row>
-    <row r="165" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:23" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>81</v>
       </c>
       <c r="B165" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C165" t="s">
+        <v>363</v>
+      </c>
+      <c r="D165" t="s">
         <v>364</v>
       </c>
-      <c r="D165" t="s">
+      <c r="E165" t="s">
         <v>365</v>
       </c>
-      <c r="E165" t="s">
+      <c r="F165" t="s">
+        <v>43</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="J165" t="s">
         <v>366</v>
       </c>
-      <c r="F165" t="s">
-        <v>43</v>
-      </c>
-      <c r="I165" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="J165" t="s">
+      <c r="K165" t="s">
         <v>367</v>
       </c>
-      <c r="K165" t="s">
+      <c r="M165" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="M165" s="1" t="s">
+      <c r="O165" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="O165" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="P165" t="s">
         <v>36</v>
       </c>
       <c r="Q165" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T165" t="s">
         <v>38</v>
@@ -8475,24 +8480,24 @@
         <v>64</v>
       </c>
       <c r="W165" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="166" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>82</v>
       </c>
       <c r="B166" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C166" t="s">
+        <v>372</v>
+      </c>
+      <c r="D166" t="s">
         <v>373</v>
       </c>
-      <c r="D166" t="s">
+      <c r="E166" t="s">
         <v>374</v>
-      </c>
-      <c r="E166" t="s">
-        <v>375</v>
       </c>
       <c r="F166" t="s">
         <v>91</v>
@@ -8513,27 +8518,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>83</v>
       </c>
       <c r="B167" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C167" t="s">
+        <v>375</v>
+      </c>
+      <c r="D167" t="s">
         <v>376</v>
       </c>
-      <c r="D167" t="s">
+      <c r="E167" t="s">
         <v>377</v>
       </c>
-      <c r="E167" t="s">
+      <c r="F167" t="s">
+        <v>43</v>
+      </c>
+      <c r="G167" t="s">
         <v>378</v>
-      </c>
-      <c r="F167" t="s">
-        <v>43</v>
-      </c>
-      <c r="G167" t="s">
-        <v>379</v>
       </c>
       <c r="J167" t="s">
         <v>44</v>

--- a/longitudinal/data_processing_elements_longitudinal-AGN.xlsx
+++ b/longitudinal/data_processing_elements_longitudinal-AGN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maelstrom\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0EF036A-4C10-4C3D-997A-643131593522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21070ED9-7A2D-4CCF-832B-548E145F4B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DE4C7F53-17AD-41A0-BCA9-A2A8E85C7880}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="401">
   <si>
     <t>index</t>
   </si>
@@ -1365,12 +1365,7 @@
     <t>AGN_4</t>
   </si>
   <si>
-    <t>waist_circumference1_4; 
-waist_circumference2_4; 
-waist_circumference3_4</t>
-  </si>
-  <si>
-    <t>ifelse(!is.na(waist_circumference1_4) | !is.na(waist_circumference2_4) | !is.na(waist_circumference3_4), 2, NA)</t>
+    <t>ifelse(!is.na(waist_circumference4_1) | !is.na(waist_circumference4_2) | !is.na(waist_circumference4_3), 2, NA)</t>
   </si>
 </sst>
 </file>
@@ -1756,8 +1751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A617E81B-AA39-4B57-8286-9F6F09A3BC0B}">
   <dimension ref="A1:AD167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="K105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S105" sqref="S105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6089,7 +6084,7 @@
         <v>125</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>400</v>
+        <v>149</v>
       </c>
       <c r="K105" s="1" t="s">
         <v>150</v>
@@ -6119,7 +6114,7 @@
         <v>55</v>
       </c>
       <c r="W105" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.35">

--- a/longitudinal/data_processing_elements_longitudinal-AGN.xlsx
+++ b/longitudinal/data_processing_elements_longitudinal-AGN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maelstrom\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21070ED9-7A2D-4CCF-832B-548E145F4B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561DC9A1-4BFC-4D6E-BBB7-B501A876E602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DE4C7F53-17AD-41A0-BCA9-A2A8E85C7880}"/>
   </bookViews>
@@ -507,11 +507,6 @@
     <t>Waist circumference</t>
   </si>
   <si>
-    <t>waist_circumference4_1; 
-waist_circumference4_2; 
-waist_circumference4_3</t>
-  </si>
-  <si>
     <t>waist circumference in cm, wave 4 - first measurement;
 waist circumference in cm, wave 4 - second measurement;
 waist circumference in cm, wave 4 - third measurement</t>
@@ -535,9 +530,6 @@
   </si>
   <si>
     <t>Average of 3 measures</t>
-  </si>
-  <si>
-    <t>round(rowMeans(select(., waist_circumference4_1, waist_circumference4_2, waist_circumference4_3), na.rm = TRUE),2)</t>
   </si>
   <si>
     <t>pm_waist_circ_method</t>
@@ -1365,7 +1357,15 @@
     <t>AGN_4</t>
   </si>
   <si>
-    <t>ifelse(!is.na(waist_circumference4_1) | !is.na(waist_circumference4_2) | !is.na(waist_circumference4_3), 2, NA)</t>
+    <t>waist_circumference1_4; 
+waist_circumference2_4; 
+waist_circumference3_4</t>
+  </si>
+  <si>
+    <t>ifelse(!is.na(waist_circumference1_4) | !is.na(waist_circumference2_4) | !is.na(waist_circumference3_4), 2, NA)</t>
+  </si>
+  <si>
+    <t>round(rowMeans(select(., waist_circumference1_4, waist_circumference2_4, waist_circumference3_4), na.rm = TRUE),2)</t>
   </si>
 </sst>
 </file>
@@ -1751,8 +1751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A617E81B-AA39-4B57-8286-9F6F09A3BC0B}">
   <dimension ref="A1:AD167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S105" sqref="S105"/>
+    <sheetView tabSelected="1" topLeftCell="J105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T105" sqref="T105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1861,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
@@ -1908,7 +1908,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C3" t="s">
         <v>41</v>
@@ -1943,7 +1943,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C4" t="s">
         <v>46</v>
@@ -1961,10 +1961,10 @@
         <v>50</v>
       </c>
       <c r="J4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="K4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="M4" t="s">
         <v>53</v>
@@ -1985,7 +1985,7 @@
         <v>55</v>
       </c>
       <c r="W4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="29" x14ac:dyDescent="0.35">
@@ -1993,7 +1993,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C5" t="s">
         <v>56</v>
@@ -2046,7 +2046,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C6" t="s">
         <v>66</v>
@@ -2064,10 +2064,10 @@
         <v>69</v>
       </c>
       <c r="J6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="M6" t="s">
         <v>72</v>
@@ -2091,7 +2091,7 @@
         <v>55</v>
       </c>
       <c r="W6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="130.5" x14ac:dyDescent="0.35">
@@ -2099,7 +2099,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C7" t="s">
         <v>75</v>
@@ -2137,7 +2137,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C8" t="s">
         <v>81</v>
@@ -2172,7 +2172,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C9" t="s">
         <v>84</v>
@@ -2210,7 +2210,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C10" t="s">
         <v>88</v>
@@ -2245,7 +2245,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C11" t="s">
         <v>92</v>
@@ -2280,7 +2280,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C12" t="s">
         <v>95</v>
@@ -2315,7 +2315,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C13" t="s">
         <v>98</v>
@@ -2333,10 +2333,10 @@
         <v>101</v>
       </c>
       <c r="J13" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="K13" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M13" t="s">
         <v>104</v>
@@ -2368,7 +2368,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C14" t="s">
         <v>108</v>
@@ -2386,10 +2386,10 @@
         <v>111</v>
       </c>
       <c r="J14" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="K14" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M14" t="s">
         <v>104</v>
@@ -2421,7 +2421,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C15" t="s">
         <v>113</v>
@@ -2459,7 +2459,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C16" t="s">
         <v>116</v>
@@ -2492,7 +2492,7 @@
         <v>79</v>
       </c>
       <c r="X16" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
@@ -2500,7 +2500,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C17" t="s">
         <v>123</v>
@@ -2533,7 +2533,7 @@
         <v>79</v>
       </c>
       <c r="X17" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.35">
@@ -2541,7 +2541,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C18" t="s">
         <v>127</v>
@@ -2574,7 +2574,7 @@
         <v>79</v>
       </c>
       <c r="X18" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
@@ -2582,7 +2582,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C19" t="s">
         <v>133</v>
@@ -2615,7 +2615,7 @@
         <v>79</v>
       </c>
       <c r="X19" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.35">
@@ -2623,7 +2623,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C20" t="s">
         <v>136</v>
@@ -2657,7 +2657,7 @@
         <v>79</v>
       </c>
       <c r="X20" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.35">
@@ -2665,7 +2665,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C21" t="s">
         <v>147</v>
@@ -2700,7 +2700,7 @@
         <v>79</v>
       </c>
       <c r="X21" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
@@ -2708,16 +2708,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F22" t="s">
         <v>43</v>
@@ -2743,7 +2743,7 @@
         <v>79</v>
       </c>
       <c r="X22" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.35">
@@ -2751,22 +2751,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C23" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D23" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E23" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F23" t="s">
         <v>91</v>
       </c>
       <c r="G23" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J23" t="s">
         <v>44</v>
@@ -2789,16 +2789,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D24" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E24" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F24" t="s">
         <v>33</v>
@@ -2824,22 +2824,22 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C25" t="s">
+        <v>164</v>
+      </c>
+      <c r="D25" t="s">
+        <v>165</v>
+      </c>
+      <c r="E25" t="s">
         <v>166</v>
-      </c>
-      <c r="D25" t="s">
-        <v>167</v>
-      </c>
-      <c r="E25" t="s">
-        <v>168</v>
       </c>
       <c r="F25" t="s">
         <v>91</v>
       </c>
       <c r="G25" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J25" t="s">
         <v>44</v>
@@ -2862,22 +2862,22 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C26" t="s">
+        <v>168</v>
+      </c>
+      <c r="D26" t="s">
+        <v>169</v>
+      </c>
+      <c r="E26" t="s">
         <v>170</v>
-      </c>
-      <c r="D26" t="s">
-        <v>171</v>
-      </c>
-      <c r="E26" t="s">
-        <v>172</v>
       </c>
       <c r="F26" t="s">
         <v>91</v>
       </c>
       <c r="G26" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J26" t="s">
         <v>44</v>
@@ -2900,22 +2900,22 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D27" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E27" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F27" t="s">
         <v>91</v>
       </c>
       <c r="G27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J27" t="s">
         <v>44</v>
@@ -2938,22 +2938,22 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F28" t="s">
         <v>91</v>
       </c>
       <c r="G28" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J28" t="s">
         <v>44</v>
@@ -2976,22 +2976,22 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C29" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" t="s">
+        <v>178</v>
+      </c>
+      <c r="E29" t="s">
+        <v>178</v>
+      </c>
+      <c r="F29" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="D29" t="s">
-        <v>180</v>
-      </c>
-      <c r="E29" t="s">
-        <v>180</v>
-      </c>
-      <c r="F29" t="s">
-        <v>43</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="J29" t="s">
         <v>44</v>
@@ -3014,22 +3014,22 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C30" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D30" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E30" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F30" t="s">
         <v>91</v>
       </c>
       <c r="G30" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J30" t="s">
         <v>44</v>
@@ -3052,22 +3052,22 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C31" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D31" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E31" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F31" t="s">
         <v>91</v>
       </c>
       <c r="G31" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J31" t="s">
         <v>44</v>
@@ -3090,22 +3090,22 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C32" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D32" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E32" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F32" t="s">
         <v>91</v>
       </c>
       <c r="G32" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J32" t="s">
         <v>44</v>
@@ -3128,22 +3128,22 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C33" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D33" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E33" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F33" t="s">
         <v>91</v>
       </c>
       <c r="G33" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J33" t="s">
         <v>44</v>
@@ -3166,22 +3166,22 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C34" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D34" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E34" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F34" t="s">
         <v>91</v>
       </c>
       <c r="G34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J34" t="s">
         <v>44</v>
@@ -3204,22 +3204,22 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C35" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D35" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E35" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F35" t="s">
         <v>91</v>
       </c>
       <c r="G35" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J35" t="s">
         <v>44</v>
@@ -3242,22 +3242,22 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C36" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D36" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E36" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F36" t="s">
         <v>91</v>
       </c>
       <c r="G36" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J36" t="s">
         <v>44</v>
@@ -3280,22 +3280,22 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C37" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D37" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E37" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F37" t="s">
         <v>91</v>
       </c>
       <c r="G37" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J37" t="s">
         <v>44</v>
@@ -3318,22 +3318,22 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C38" t="s">
+        <v>200</v>
+      </c>
+      <c r="D38" t="s">
+        <v>201</v>
+      </c>
+      <c r="E38" t="s">
         <v>202</v>
-      </c>
-      <c r="D38" t="s">
-        <v>203</v>
-      </c>
-      <c r="E38" t="s">
-        <v>204</v>
       </c>
       <c r="F38" t="s">
         <v>91</v>
       </c>
       <c r="G38" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J38" t="s">
         <v>44</v>
@@ -3356,22 +3356,22 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C39" t="s">
+        <v>204</v>
+      </c>
+      <c r="D39" t="s">
+        <v>205</v>
+      </c>
+      <c r="E39" t="s">
         <v>206</v>
       </c>
-      <c r="D39" t="s">
+      <c r="F39" t="s">
+        <v>43</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="E39" t="s">
-        <v>208</v>
-      </c>
-      <c r="F39" t="s">
-        <v>43</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="J39" t="s">
         <v>44</v>
@@ -3394,22 +3394,22 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C40" t="s">
+        <v>208</v>
+      </c>
+      <c r="D40" t="s">
+        <v>209</v>
+      </c>
+      <c r="E40" t="s">
         <v>210</v>
-      </c>
-      <c r="D40" t="s">
-        <v>211</v>
-      </c>
-      <c r="E40" t="s">
-        <v>212</v>
       </c>
       <c r="F40" t="s">
         <v>91</v>
       </c>
       <c r="G40" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J40" t="s">
         <v>44</v>
@@ -3432,22 +3432,22 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C41" t="s">
+        <v>211</v>
+      </c>
+      <c r="D41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E41" t="s">
         <v>213</v>
       </c>
-      <c r="D41" t="s">
-        <v>214</v>
-      </c>
-      <c r="E41" t="s">
-        <v>215</v>
-      </c>
       <c r="F41" t="s">
         <v>43</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J41" t="s">
         <v>44</v>
@@ -3470,22 +3470,22 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C42" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D42" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E42" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F42" t="s">
         <v>91</v>
       </c>
       <c r="G42" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J42" t="s">
         <v>44</v>
@@ -3508,22 +3508,22 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C43" t="s">
+        <v>217</v>
+      </c>
+      <c r="D43" t="s">
+        <v>218</v>
+      </c>
+      <c r="E43" t="s">
         <v>219</v>
-      </c>
-      <c r="D43" t="s">
-        <v>220</v>
-      </c>
-      <c r="E43" t="s">
-        <v>221</v>
       </c>
       <c r="F43" t="s">
         <v>91</v>
       </c>
       <c r="G43" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J43" t="s">
         <v>44</v>
@@ -3546,22 +3546,22 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C44" t="s">
+        <v>221</v>
+      </c>
+      <c r="D44" t="s">
+        <v>222</v>
+      </c>
+      <c r="E44" t="s">
+        <v>222</v>
+      </c>
+      <c r="F44" t="s">
+        <v>43</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="D44" t="s">
-        <v>224</v>
-      </c>
-      <c r="E44" t="s">
-        <v>224</v>
-      </c>
-      <c r="F44" t="s">
-        <v>43</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="J44" t="s">
         <v>44</v>
@@ -3584,22 +3584,22 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C45" t="s">
+        <v>224</v>
+      </c>
+      <c r="D45" t="s">
+        <v>225</v>
+      </c>
+      <c r="E45" t="s">
         <v>226</v>
       </c>
-      <c r="D45" t="s">
+      <c r="F45" t="s">
+        <v>43</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="E45" t="s">
-        <v>228</v>
-      </c>
-      <c r="F45" t="s">
-        <v>43</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="J45" t="s">
         <v>44</v>
@@ -3622,22 +3622,22 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C46" t="s">
+        <v>228</v>
+      </c>
+      <c r="D46" t="s">
+        <v>229</v>
+      </c>
+      <c r="E46" t="s">
+        <v>229</v>
+      </c>
+      <c r="F46" t="s">
+        <v>43</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="D46" t="s">
-        <v>231</v>
-      </c>
-      <c r="E46" t="s">
-        <v>231</v>
-      </c>
-      <c r="F46" t="s">
-        <v>43</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="J46" t="s">
         <v>44</v>
@@ -3660,22 +3660,22 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C47" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D47" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E47" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F47" t="s">
         <v>91</v>
       </c>
       <c r="G47" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J47" t="s">
         <v>44</v>
@@ -3698,22 +3698,22 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C48" t="s">
+        <v>234</v>
+      </c>
+      <c r="D48" t="s">
+        <v>235</v>
+      </c>
+      <c r="E48" t="s">
+        <v>235</v>
+      </c>
+      <c r="F48" t="s">
+        <v>43</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="D48" t="s">
-        <v>237</v>
-      </c>
-      <c r="E48" t="s">
-        <v>237</v>
-      </c>
-      <c r="F48" t="s">
-        <v>43</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="J48" t="s">
         <v>44</v>
@@ -3738,22 +3738,22 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C49" t="s">
+        <v>243</v>
+      </c>
+      <c r="D49" t="s">
+        <v>244</v>
+      </c>
+      <c r="E49" t="s">
         <v>245</v>
       </c>
-      <c r="D49" t="s">
+      <c r="F49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="E49" t="s">
-        <v>247</v>
-      </c>
-      <c r="F49" t="s">
-        <v>43</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="J49" t="s">
         <v>44</v>
@@ -3776,22 +3776,22 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C50" t="s">
+        <v>247</v>
+      </c>
+      <c r="D50" t="s">
+        <v>248</v>
+      </c>
+      <c r="E50" t="s">
         <v>249</v>
       </c>
-      <c r="D50" t="s">
-        <v>250</v>
-      </c>
-      <c r="E50" t="s">
-        <v>251</v>
-      </c>
       <c r="F50" t="s">
         <v>43</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J50" t="s">
         <v>44</v>
@@ -3814,22 +3814,22 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C51" t="s">
+        <v>250</v>
+      </c>
+      <c r="D51" t="s">
+        <v>251</v>
+      </c>
+      <c r="E51" t="s">
         <v>252</v>
       </c>
-      <c r="D51" t="s">
-        <v>253</v>
-      </c>
-      <c r="E51" t="s">
-        <v>254</v>
-      </c>
       <c r="F51" t="s">
         <v>43</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J51" t="s">
         <v>44</v>
@@ -3852,22 +3852,22 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C52" t="s">
+        <v>253</v>
+      </c>
+      <c r="D52" t="s">
+        <v>254</v>
+      </c>
+      <c r="E52" t="s">
         <v>255</v>
       </c>
-      <c r="D52" t="s">
+      <c r="F52" t="s">
+        <v>43</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="E52" t="s">
-        <v>257</v>
-      </c>
-      <c r="F52" t="s">
-        <v>43</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="J52" t="s">
         <v>44</v>
@@ -3890,22 +3890,22 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C53" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D53" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E53" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F53" t="s">
         <v>43</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J53" t="s">
         <v>44</v>
@@ -3928,22 +3928,22 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C54" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D54" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E54" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F54" t="s">
         <v>43</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J54" t="s">
         <v>44</v>
@@ -3966,22 +3966,22 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D55" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E55" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F55" t="s">
         <v>43</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J55" t="s">
         <v>44</v>
@@ -4004,22 +4004,22 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C56" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D56" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E56" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F56" t="s">
         <v>43</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J56" t="s">
         <v>44</v>
@@ -4042,22 +4042,22 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C57" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D57" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E57" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F57" t="s">
         <v>43</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J57" t="s">
         <v>44</v>
@@ -4080,22 +4080,22 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C58" t="s">
+        <v>267</v>
+      </c>
+      <c r="D58" t="s">
+        <v>268</v>
+      </c>
+      <c r="E58" t="s">
         <v>269</v>
       </c>
-      <c r="D58" t="s">
-        <v>270</v>
-      </c>
-      <c r="E58" t="s">
-        <v>271</v>
-      </c>
       <c r="F58" t="s">
         <v>43</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J58" t="s">
         <v>44</v>
@@ -4119,16 +4119,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C59" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D59" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E59" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F59" t="s">
         <v>43</v>
@@ -4156,16 +4156,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C60" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D60" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E60" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F60" t="s">
         <v>43</v>
@@ -4191,16 +4191,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C61" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D61" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E61" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F61" t="s">
         <v>43</v>
@@ -4226,16 +4226,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C62" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D62" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E62" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F62" t="s">
         <v>43</v>
@@ -4261,16 +4261,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C63" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D63" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E63" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F63" t="s">
         <v>43</v>
@@ -4296,16 +4296,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C64" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D64" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E64" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F64" t="s">
         <v>43</v>
@@ -4333,16 +4333,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C65" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D65" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E65" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F65" t="s">
         <v>43</v>
@@ -4368,22 +4368,22 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C66" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D66" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E66" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F66" t="s">
         <v>43</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="J66" t="s">
         <v>44</v>
@@ -4406,22 +4406,22 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C67" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D67" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E67" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F67" t="s">
         <v>91</v>
       </c>
       <c r="G67" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J67" t="s">
         <v>44</v>
@@ -4444,22 +4444,22 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C68" t="s">
+        <v>305</v>
+      </c>
+      <c r="D68" t="s">
+        <v>306</v>
+      </c>
+      <c r="E68" t="s">
+        <v>306</v>
+      </c>
+      <c r="F68" t="s">
+        <v>43</v>
+      </c>
+      <c r="I68" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="D68" t="s">
-        <v>308</v>
-      </c>
-      <c r="E68" t="s">
-        <v>308</v>
-      </c>
-      <c r="F68" t="s">
-        <v>43</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="J68" t="s">
         <v>44</v>
@@ -4482,22 +4482,22 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C69" t="s">
+        <v>308</v>
+      </c>
+      <c r="D69" t="s">
+        <v>309</v>
+      </c>
+      <c r="E69" t="s">
+        <v>309</v>
+      </c>
+      <c r="F69" t="s">
+        <v>43</v>
+      </c>
+      <c r="I69" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="D69" t="s">
-        <v>311</v>
-      </c>
-      <c r="E69" t="s">
-        <v>311</v>
-      </c>
-      <c r="F69" t="s">
-        <v>43</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="J69" t="s">
         <v>44</v>
@@ -4520,22 +4520,22 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C70" t="s">
+        <v>311</v>
+      </c>
+      <c r="D70" t="s">
+        <v>312</v>
+      </c>
+      <c r="E70" t="s">
+        <v>312</v>
+      </c>
+      <c r="F70" t="s">
+        <v>43</v>
+      </c>
+      <c r="I70" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="D70" t="s">
-        <v>314</v>
-      </c>
-      <c r="E70" t="s">
-        <v>314</v>
-      </c>
-      <c r="F70" t="s">
-        <v>43</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="J70" t="s">
         <v>44</v>
@@ -4558,22 +4558,22 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C71" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D71" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E71" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F71" t="s">
         <v>43</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J71" t="s">
         <v>44</v>
@@ -4596,22 +4596,22 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C72" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D72" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E72" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F72" t="s">
         <v>43</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J72" t="s">
         <v>44</v>
@@ -4634,22 +4634,22 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C73" t="s">
+        <v>318</v>
+      </c>
+      <c r="D73" t="s">
+        <v>319</v>
+      </c>
+      <c r="E73" t="s">
         <v>320</v>
       </c>
-      <c r="D73" t="s">
+      <c r="F73" t="s">
+        <v>43</v>
+      </c>
+      <c r="I73" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="E73" t="s">
-        <v>322</v>
-      </c>
-      <c r="F73" t="s">
-        <v>43</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="J73" t="s">
         <v>44</v>
@@ -4672,22 +4672,22 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C74" t="s">
+        <v>322</v>
+      </c>
+      <c r="D74" t="s">
+        <v>323</v>
+      </c>
+      <c r="E74" t="s">
         <v>324</v>
       </c>
-      <c r="D74" t="s">
-        <v>325</v>
-      </c>
-      <c r="E74" t="s">
-        <v>326</v>
-      </c>
       <c r="F74" t="s">
         <v>43</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J74" t="s">
         <v>44</v>
@@ -4710,22 +4710,22 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C75" t="s">
+        <v>325</v>
+      </c>
+      <c r="D75" t="s">
+        <v>326</v>
+      </c>
+      <c r="E75" t="s">
         <v>327</v>
       </c>
-      <c r="D75" t="s">
-        <v>328</v>
-      </c>
-      <c r="E75" t="s">
-        <v>329</v>
-      </c>
       <c r="F75" t="s">
         <v>43</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J75" t="s">
         <v>44</v>
@@ -4748,22 +4748,22 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C76" t="s">
+        <v>328</v>
+      </c>
+      <c r="D76" t="s">
+        <v>329</v>
+      </c>
+      <c r="E76" t="s">
         <v>330</v>
       </c>
-      <c r="D76" t="s">
-        <v>331</v>
-      </c>
-      <c r="E76" t="s">
-        <v>332</v>
-      </c>
       <c r="F76" t="s">
         <v>43</v>
       </c>
       <c r="G76" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J76" t="s">
         <v>44</v>
@@ -4786,40 +4786,40 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C77" t="s">
+        <v>331</v>
+      </c>
+      <c r="D77" t="s">
+        <v>332</v>
+      </c>
+      <c r="E77" t="s">
         <v>333</v>
       </c>
-      <c r="D77" t="s">
+      <c r="F77" t="s">
+        <v>43</v>
+      </c>
+      <c r="I77" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E77" t="s">
-        <v>335</v>
-      </c>
-      <c r="F77" t="s">
-        <v>43</v>
-      </c>
-      <c r="I77" s="1" t="s">
+      <c r="J77" t="s">
+        <v>395</v>
+      </c>
+      <c r="K77" t="s">
         <v>336</v>
       </c>
-      <c r="J77" t="s">
-        <v>397</v>
-      </c>
-      <c r="K77" t="s">
+      <c r="M77" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="O77" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="M77" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="O77" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="P77" t="s">
         <v>36</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="T77" t="s">
         <v>38</v>
@@ -4831,7 +4831,7 @@
         <v>64</v>
       </c>
       <c r="W77" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="78" spans="1:24" ht="409.5" x14ac:dyDescent="0.35">
@@ -4839,43 +4839,43 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C78" t="s">
+        <v>341</v>
+      </c>
+      <c r="D78" t="s">
+        <v>342</v>
+      </c>
+      <c r="E78" t="s">
         <v>343</v>
       </c>
-      <c r="D78" t="s">
+      <c r="F78" t="s">
+        <v>43</v>
+      </c>
+      <c r="I78" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="E78" t="s">
-        <v>345</v>
-      </c>
-      <c r="F78" t="s">
-        <v>43</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>346</v>
-      </c>
       <c r="J78" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="K78" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="P78" t="s">
         <v>36</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="S78" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="T78" t="s">
         <v>38</v>
@@ -4887,7 +4887,7 @@
         <v>64</v>
       </c>
       <c r="W78" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="79" spans="1:24" ht="145" x14ac:dyDescent="0.35">
@@ -4895,22 +4895,22 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C79" t="s">
+        <v>352</v>
+      </c>
+      <c r="D79" t="s">
+        <v>353</v>
+      </c>
+      <c r="E79" t="s">
+        <v>353</v>
+      </c>
+      <c r="F79" t="s">
+        <v>43</v>
+      </c>
+      <c r="I79" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="D79" t="s">
-        <v>355</v>
-      </c>
-      <c r="E79" t="s">
-        <v>355</v>
-      </c>
-      <c r="F79" t="s">
-        <v>43</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="J79" t="s">
         <v>44</v>
@@ -4933,22 +4933,22 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C80" t="s">
+        <v>355</v>
+      </c>
+      <c r="D80" t="s">
+        <v>356</v>
+      </c>
+      <c r="E80" t="s">
         <v>357</v>
       </c>
-      <c r="D80" t="s">
-        <v>358</v>
-      </c>
-      <c r="E80" t="s">
-        <v>359</v>
-      </c>
       <c r="F80" t="s">
         <v>43</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J80" t="s">
         <v>44</v>
@@ -4966,7 +4966,7 @@
         <v>79</v>
       </c>
       <c r="X80" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="81" spans="1:24" ht="29" x14ac:dyDescent="0.35">
@@ -4974,22 +4974,22 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C81" t="s">
+        <v>358</v>
+      </c>
+      <c r="D81" t="s">
+        <v>359</v>
+      </c>
+      <c r="E81" t="s">
         <v>360</v>
       </c>
-      <c r="D81" t="s">
-        <v>361</v>
-      </c>
-      <c r="E81" t="s">
-        <v>362</v>
-      </c>
       <c r="F81" t="s">
         <v>43</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J81" t="s">
         <v>44</v>
@@ -5012,22 +5012,22 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C82" t="s">
+        <v>361</v>
+      </c>
+      <c r="D82" t="s">
+        <v>362</v>
+      </c>
+      <c r="E82" t="s">
         <v>363</v>
       </c>
-      <c r="D82" t="s">
-        <v>364</v>
-      </c>
-      <c r="E82" t="s">
-        <v>365</v>
-      </c>
       <c r="F82" t="s">
         <v>43</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J82" t="s">
         <v>44</v>
@@ -5048,7 +5048,7 @@
         <v>79</v>
       </c>
       <c r="X82" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.35">
@@ -5056,16 +5056,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C83" t="s">
+        <v>370</v>
+      </c>
+      <c r="D83" t="s">
+        <v>371</v>
+      </c>
+      <c r="E83" t="s">
         <v>372</v>
-      </c>
-      <c r="D83" t="s">
-        <v>373</v>
-      </c>
-      <c r="E83" t="s">
-        <v>374</v>
       </c>
       <c r="F83" t="s">
         <v>91</v>
@@ -5091,22 +5091,22 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C84" t="s">
+        <v>373</v>
+      </c>
+      <c r="D84" t="s">
+        <v>374</v>
+      </c>
+      <c r="E84" t="s">
         <v>375</v>
       </c>
-      <c r="D84" t="s">
+      <c r="F84" t="s">
+        <v>43</v>
+      </c>
+      <c r="G84" t="s">
         <v>376</v>
-      </c>
-      <c r="E84" t="s">
-        <v>377</v>
-      </c>
-      <c r="F84" t="s">
-        <v>43</v>
-      </c>
-      <c r="G84" t="s">
-        <v>378</v>
       </c>
       <c r="J84" t="s">
         <v>44</v>
@@ -5129,7 +5129,7 @@
         <v>1</v>
       </c>
       <c r="B85" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C85" t="s">
         <v>30</v>
@@ -5176,7 +5176,7 @@
         <v>2</v>
       </c>
       <c r="B86" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C86" t="s">
         <v>41</v>
@@ -5211,7 +5211,7 @@
         <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C87" t="s">
         <v>46</v>
@@ -5253,7 +5253,7 @@
         <v>55</v>
       </c>
       <c r="W87" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="88" spans="1:24" ht="29" x14ac:dyDescent="0.35">
@@ -5261,7 +5261,7 @@
         <v>4</v>
       </c>
       <c r="B88" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C88" t="s">
         <v>56</v>
@@ -5314,7 +5314,7 @@
         <v>5</v>
       </c>
       <c r="B89" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C89" t="s">
         <v>66</v>
@@ -5359,7 +5359,7 @@
         <v>55</v>
       </c>
       <c r="W89" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="90" spans="1:24" ht="130.5" x14ac:dyDescent="0.35">
@@ -5367,7 +5367,7 @@
         <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C90" t="s">
         <v>75</v>
@@ -5405,7 +5405,7 @@
         <v>7</v>
       </c>
       <c r="B91" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C91" t="s">
         <v>81</v>
@@ -5440,7 +5440,7 @@
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C92" t="s">
         <v>84</v>
@@ -5478,7 +5478,7 @@
         <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C93" t="s">
         <v>88</v>
@@ -5513,7 +5513,7 @@
         <v>10</v>
       </c>
       <c r="B94" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C94" t="s">
         <v>92</v>
@@ -5548,7 +5548,7 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C95" t="s">
         <v>95</v>
@@ -5583,7 +5583,7 @@
         <v>12</v>
       </c>
       <c r="B96" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C96" t="s">
         <v>98</v>
@@ -5636,7 +5636,7 @@
         <v>13</v>
       </c>
       <c r="B97" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C97" t="s">
         <v>108</v>
@@ -5689,7 +5689,7 @@
         <v>14</v>
       </c>
       <c r="B98" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C98" t="s">
         <v>113</v>
@@ -5727,7 +5727,7 @@
         <v>15</v>
       </c>
       <c r="B99" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C99" t="s">
         <v>116</v>
@@ -5783,7 +5783,7 @@
         <v>16</v>
       </c>
       <c r="B100" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C100" t="s">
         <v>123</v>
@@ -5839,7 +5839,7 @@
         <v>17</v>
       </c>
       <c r="B101" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C101" t="s">
         <v>127</v>
@@ -5895,7 +5895,7 @@
         <v>18</v>
       </c>
       <c r="B102" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C102" t="s">
         <v>133</v>
@@ -5951,7 +5951,7 @@
         <v>19</v>
       </c>
       <c r="B103" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C103" t="s">
         <v>136</v>
@@ -6007,7 +6007,7 @@
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C104" t="s">
         <v>147</v>
@@ -6025,28 +6025,28 @@
         <v>118</v>
       </c>
       <c r="J104" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="K104" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="K104" s="1" t="s">
+      <c r="M104" t="s">
         <v>150</v>
       </c>
-      <c r="M104" t="s">
+      <c r="O104" t="s">
         <v>151</v>
       </c>
-      <c r="O104" t="s">
+      <c r="P104" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="P104" s="1" t="s">
+      <c r="Q104" t="s">
         <v>153</v>
       </c>
-      <c r="Q104" t="s">
+      <c r="R104" t="s">
         <v>154</v>
       </c>
-      <c r="R104" t="s">
+      <c r="S104" t="s">
         <v>155</v>
-      </c>
-      <c r="S104" t="s">
-        <v>156</v>
       </c>
       <c r="T104" t="s">
         <v>38</v>
@@ -6058,7 +6058,7 @@
         <v>55</v>
       </c>
       <c r="W104" t="s">
-        <v>157</v>
+        <v>400</v>
       </c>
     </row>
     <row r="105" spans="1:23" ht="304.5" x14ac:dyDescent="0.35">
@@ -6066,16 +6066,16 @@
         <v>21</v>
       </c>
       <c r="B105" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C105" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D105" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E105" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F105" t="s">
         <v>43</v>
@@ -6084,25 +6084,25 @@
         <v>125</v>
       </c>
       <c r="J105" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="K105" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="K105" s="1" t="s">
+      <c r="M105" t="s">
         <v>150</v>
       </c>
-      <c r="M105" t="s">
+      <c r="O105" t="s">
         <v>151</v>
       </c>
-      <c r="O105" t="s">
-        <v>152</v>
-      </c>
       <c r="P105" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="Q105" t="s">
+        <v>153</v>
+      </c>
+      <c r="R105" t="s">
         <v>154</v>
-      </c>
-      <c r="R105" t="s">
-        <v>155</v>
       </c>
       <c r="T105" t="s">
         <v>38</v>
@@ -6114,7 +6114,7 @@
         <v>55</v>
       </c>
       <c r="W105" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.35">
@@ -6122,22 +6122,22 @@
         <v>22</v>
       </c>
       <c r="B106" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C106" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D106" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E106" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F106" t="s">
         <v>91</v>
       </c>
       <c r="G106" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J106" t="s">
         <v>44</v>
@@ -6160,16 +6160,16 @@
         <v>23</v>
       </c>
       <c r="B107" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C107" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D107" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E107" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F107" t="s">
         <v>33</v>
@@ -6195,22 +6195,22 @@
         <v>24</v>
       </c>
       <c r="B108" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C108" t="s">
+        <v>164</v>
+      </c>
+      <c r="D108" t="s">
+        <v>165</v>
+      </c>
+      <c r="E108" t="s">
         <v>166</v>
-      </c>
-      <c r="D108" t="s">
-        <v>167</v>
-      </c>
-      <c r="E108" t="s">
-        <v>168</v>
       </c>
       <c r="F108" t="s">
         <v>91</v>
       </c>
       <c r="G108" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J108" t="s">
         <v>44</v>
@@ -6233,22 +6233,22 @@
         <v>25</v>
       </c>
       <c r="B109" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C109" t="s">
+        <v>168</v>
+      </c>
+      <c r="D109" t="s">
+        <v>169</v>
+      </c>
+      <c r="E109" t="s">
         <v>170</v>
-      </c>
-      <c r="D109" t="s">
-        <v>171</v>
-      </c>
-      <c r="E109" t="s">
-        <v>172</v>
       </c>
       <c r="F109" t="s">
         <v>91</v>
       </c>
       <c r="G109" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J109" t="s">
         <v>44</v>
@@ -6271,22 +6271,22 @@
         <v>26</v>
       </c>
       <c r="B110" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C110" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D110" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E110" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F110" t="s">
         <v>91</v>
       </c>
       <c r="G110" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J110" t="s">
         <v>44</v>
@@ -6309,22 +6309,22 @@
         <v>27</v>
       </c>
       <c r="B111" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C111" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D111" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E111" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F111" t="s">
         <v>91</v>
       </c>
       <c r="G111" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J111" t="s">
         <v>44</v>
@@ -6347,22 +6347,22 @@
         <v>28</v>
       </c>
       <c r="B112" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C112" t="s">
+        <v>177</v>
+      </c>
+      <c r="D112" t="s">
+        <v>178</v>
+      </c>
+      <c r="E112" t="s">
+        <v>178</v>
+      </c>
+      <c r="F112" t="s">
+        <v>43</v>
+      </c>
+      <c r="I112" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="D112" t="s">
-        <v>180</v>
-      </c>
-      <c r="E112" t="s">
-        <v>180</v>
-      </c>
-      <c r="F112" t="s">
-        <v>43</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="J112" t="s">
         <v>44</v>
@@ -6385,22 +6385,22 @@
         <v>29</v>
       </c>
       <c r="B113" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C113" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D113" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E113" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F113" t="s">
         <v>91</v>
       </c>
       <c r="G113" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J113" t="s">
         <v>44</v>
@@ -6423,22 +6423,22 @@
         <v>30</v>
       </c>
       <c r="B114" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C114" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D114" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E114" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F114" t="s">
         <v>91</v>
       </c>
       <c r="G114" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J114" t="s">
         <v>44</v>
@@ -6461,22 +6461,22 @@
         <v>31</v>
       </c>
       <c r="B115" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C115" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D115" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E115" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F115" t="s">
         <v>91</v>
       </c>
       <c r="G115" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J115" t="s">
         <v>44</v>
@@ -6499,22 +6499,22 @@
         <v>32</v>
       </c>
       <c r="B116" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C116" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D116" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E116" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F116" t="s">
         <v>91</v>
       </c>
       <c r="G116" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J116" t="s">
         <v>44</v>
@@ -6537,22 +6537,22 @@
         <v>33</v>
       </c>
       <c r="B117" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C117" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D117" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E117" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F117" t="s">
         <v>91</v>
       </c>
       <c r="G117" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J117" t="s">
         <v>44</v>
@@ -6575,22 +6575,22 @@
         <v>34</v>
       </c>
       <c r="B118" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C118" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D118" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E118" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F118" t="s">
         <v>91</v>
       </c>
       <c r="G118" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J118" t="s">
         <v>44</v>
@@ -6613,22 +6613,22 @@
         <v>35</v>
       </c>
       <c r="B119" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C119" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D119" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E119" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F119" t="s">
         <v>91</v>
       </c>
       <c r="G119" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J119" t="s">
         <v>44</v>
@@ -6651,22 +6651,22 @@
         <v>36</v>
       </c>
       <c r="B120" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C120" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D120" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E120" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F120" t="s">
         <v>91</v>
       </c>
       <c r="G120" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J120" t="s">
         <v>44</v>
@@ -6689,22 +6689,22 @@
         <v>37</v>
       </c>
       <c r="B121" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C121" t="s">
+        <v>200</v>
+      </c>
+      <c r="D121" t="s">
+        <v>201</v>
+      </c>
+      <c r="E121" t="s">
         <v>202</v>
-      </c>
-      <c r="D121" t="s">
-        <v>203</v>
-      </c>
-      <c r="E121" t="s">
-        <v>204</v>
       </c>
       <c r="F121" t="s">
         <v>91</v>
       </c>
       <c r="G121" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J121" t="s">
         <v>44</v>
@@ -6727,22 +6727,22 @@
         <v>38</v>
       </c>
       <c r="B122" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C122" t="s">
+        <v>204</v>
+      </c>
+      <c r="D122" t="s">
+        <v>205</v>
+      </c>
+      <c r="E122" t="s">
         <v>206</v>
       </c>
-      <c r="D122" t="s">
+      <c r="F122" t="s">
+        <v>43</v>
+      </c>
+      <c r="I122" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="E122" t="s">
-        <v>208</v>
-      </c>
-      <c r="F122" t="s">
-        <v>43</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="J122" t="s">
         <v>44</v>
@@ -6765,22 +6765,22 @@
         <v>39</v>
       </c>
       <c r="B123" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C123" t="s">
+        <v>208</v>
+      </c>
+      <c r="D123" t="s">
+        <v>209</v>
+      </c>
+      <c r="E123" t="s">
         <v>210</v>
-      </c>
-      <c r="D123" t="s">
-        <v>211</v>
-      </c>
-      <c r="E123" t="s">
-        <v>212</v>
       </c>
       <c r="F123" t="s">
         <v>91</v>
       </c>
       <c r="G123" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J123" t="s">
         <v>44</v>
@@ -6803,22 +6803,22 @@
         <v>40</v>
       </c>
       <c r="B124" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C124" t="s">
+        <v>211</v>
+      </c>
+      <c r="D124" t="s">
+        <v>212</v>
+      </c>
+      <c r="E124" t="s">
         <v>213</v>
       </c>
-      <c r="D124" t="s">
-        <v>214</v>
-      </c>
-      <c r="E124" t="s">
-        <v>215</v>
-      </c>
       <c r="F124" t="s">
         <v>43</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J124" t="s">
         <v>44</v>
@@ -6841,22 +6841,22 @@
         <v>41</v>
       </c>
       <c r="B125" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C125" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D125" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E125" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F125" t="s">
         <v>91</v>
       </c>
       <c r="G125" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J125" t="s">
         <v>44</v>
@@ -6879,22 +6879,22 @@
         <v>42</v>
       </c>
       <c r="B126" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C126" t="s">
+        <v>217</v>
+      </c>
+      <c r="D126" t="s">
+        <v>218</v>
+      </c>
+      <c r="E126" t="s">
         <v>219</v>
-      </c>
-      <c r="D126" t="s">
-        <v>220</v>
-      </c>
-      <c r="E126" t="s">
-        <v>221</v>
       </c>
       <c r="F126" t="s">
         <v>91</v>
       </c>
       <c r="G126" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J126" t="s">
         <v>44</v>
@@ -6917,22 +6917,22 @@
         <v>43</v>
       </c>
       <c r="B127" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C127" t="s">
+        <v>221</v>
+      </c>
+      <c r="D127" t="s">
+        <v>222</v>
+      </c>
+      <c r="E127" t="s">
+        <v>222</v>
+      </c>
+      <c r="F127" t="s">
+        <v>43</v>
+      </c>
+      <c r="I127" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="D127" t="s">
-        <v>224</v>
-      </c>
-      <c r="E127" t="s">
-        <v>224</v>
-      </c>
-      <c r="F127" t="s">
-        <v>43</v>
-      </c>
-      <c r="I127" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="J127" t="s">
         <v>44</v>
@@ -6955,22 +6955,22 @@
         <v>44</v>
       </c>
       <c r="B128" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C128" t="s">
+        <v>224</v>
+      </c>
+      <c r="D128" t="s">
+        <v>225</v>
+      </c>
+      <c r="E128" t="s">
         <v>226</v>
       </c>
-      <c r="D128" t="s">
+      <c r="F128" t="s">
+        <v>43</v>
+      </c>
+      <c r="I128" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="E128" t="s">
-        <v>228</v>
-      </c>
-      <c r="F128" t="s">
-        <v>43</v>
-      </c>
-      <c r="I128" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="J128" t="s">
         <v>44</v>
@@ -6993,22 +6993,22 @@
         <v>45</v>
       </c>
       <c r="B129" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C129" t="s">
+        <v>228</v>
+      </c>
+      <c r="D129" t="s">
+        <v>229</v>
+      </c>
+      <c r="E129" t="s">
+        <v>229</v>
+      </c>
+      <c r="F129" t="s">
+        <v>43</v>
+      </c>
+      <c r="I129" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="D129" t="s">
-        <v>231</v>
-      </c>
-      <c r="E129" t="s">
-        <v>231</v>
-      </c>
-      <c r="F129" t="s">
-        <v>43</v>
-      </c>
-      <c r="I129" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="J129" t="s">
         <v>44</v>
@@ -7031,22 +7031,22 @@
         <v>46</v>
       </c>
       <c r="B130" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C130" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D130" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E130" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F130" t="s">
         <v>91</v>
       </c>
       <c r="G130" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J130" t="s">
         <v>44</v>
@@ -7069,40 +7069,40 @@
         <v>47</v>
       </c>
       <c r="B131" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C131" t="s">
+        <v>234</v>
+      </c>
+      <c r="D131" t="s">
+        <v>235</v>
+      </c>
+      <c r="E131" t="s">
+        <v>235</v>
+      </c>
+      <c r="F131" t="s">
+        <v>43</v>
+      </c>
+      <c r="I131" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D131" t="s">
+      <c r="J131" t="s">
         <v>237</v>
       </c>
-      <c r="E131" t="s">
-        <v>237</v>
-      </c>
-      <c r="F131" t="s">
-        <v>43</v>
-      </c>
-      <c r="I131" s="1" t="s">
+      <c r="K131" t="s">
         <v>238</v>
       </c>
-      <c r="J131" t="s">
+      <c r="M131" t="s">
         <v>239</v>
       </c>
-      <c r="K131" t="s">
+      <c r="O131" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="M131" t="s">
-        <v>241</v>
-      </c>
-      <c r="O131" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="P131" t="s">
         <v>36</v>
       </c>
       <c r="Q131" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="T131" t="s">
         <v>38</v>
@@ -7114,7 +7114,7 @@
         <v>64</v>
       </c>
       <c r="W131" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="132" spans="1:23" ht="29" x14ac:dyDescent="0.35">
@@ -7122,22 +7122,22 @@
         <v>48</v>
       </c>
       <c r="B132" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C132" t="s">
+        <v>243</v>
+      </c>
+      <c r="D132" t="s">
+        <v>244</v>
+      </c>
+      <c r="E132" t="s">
         <v>245</v>
       </c>
-      <c r="D132" t="s">
+      <c r="F132" t="s">
+        <v>43</v>
+      </c>
+      <c r="I132" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="E132" t="s">
-        <v>247</v>
-      </c>
-      <c r="F132" t="s">
-        <v>43</v>
-      </c>
-      <c r="I132" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="J132" t="s">
         <v>44</v>
@@ -7160,22 +7160,22 @@
         <v>49</v>
       </c>
       <c r="B133" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C133" t="s">
+        <v>247</v>
+      </c>
+      <c r="D133" t="s">
+        <v>248</v>
+      </c>
+      <c r="E133" t="s">
         <v>249</v>
       </c>
-      <c r="D133" t="s">
-        <v>250</v>
-      </c>
-      <c r="E133" t="s">
-        <v>251</v>
-      </c>
       <c r="F133" t="s">
         <v>43</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J133" t="s">
         <v>44</v>
@@ -7198,22 +7198,22 @@
         <v>50</v>
       </c>
       <c r="B134" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C134" t="s">
+        <v>250</v>
+      </c>
+      <c r="D134" t="s">
+        <v>251</v>
+      </c>
+      <c r="E134" t="s">
         <v>252</v>
       </c>
-      <c r="D134" t="s">
-        <v>253</v>
-      </c>
-      <c r="E134" t="s">
-        <v>254</v>
-      </c>
       <c r="F134" t="s">
         <v>43</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J134" t="s">
         <v>44</v>
@@ -7236,22 +7236,22 @@
         <v>51</v>
       </c>
       <c r="B135" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C135" t="s">
+        <v>253</v>
+      </c>
+      <c r="D135" t="s">
+        <v>254</v>
+      </c>
+      <c r="E135" t="s">
         <v>255</v>
       </c>
-      <c r="D135" t="s">
+      <c r="F135" t="s">
+        <v>43</v>
+      </c>
+      <c r="I135" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="E135" t="s">
-        <v>257</v>
-      </c>
-      <c r="F135" t="s">
-        <v>43</v>
-      </c>
-      <c r="I135" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="J135" t="s">
         <v>44</v>
@@ -7274,22 +7274,22 @@
         <v>52</v>
       </c>
       <c r="B136" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C136" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D136" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E136" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F136" t="s">
         <v>43</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J136" t="s">
         <v>44</v>
@@ -7312,22 +7312,22 @@
         <v>53</v>
       </c>
       <c r="B137" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C137" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D137" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E137" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F137" t="s">
         <v>43</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J137" t="s">
         <v>44</v>
@@ -7350,22 +7350,22 @@
         <v>54</v>
       </c>
       <c r="B138" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C138" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D138" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E138" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F138" t="s">
         <v>43</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J138" t="s">
         <v>44</v>
@@ -7388,22 +7388,22 @@
         <v>55</v>
       </c>
       <c r="B139" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C139" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D139" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E139" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F139" t="s">
         <v>43</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J139" t="s">
         <v>44</v>
@@ -7426,22 +7426,22 @@
         <v>56</v>
       </c>
       <c r="B140" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C140" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D140" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E140" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F140" t="s">
         <v>43</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J140" t="s">
         <v>44</v>
@@ -7464,31 +7464,31 @@
         <v>57</v>
       </c>
       <c r="B141" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C141" t="s">
+        <v>267</v>
+      </c>
+      <c r="D141" t="s">
+        <v>268</v>
+      </c>
+      <c r="E141" t="s">
         <v>269</v>
       </c>
-      <c r="D141" t="s">
+      <c r="F141" t="s">
+        <v>43</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="J141" t="s">
         <v>270</v>
       </c>
-      <c r="E141" t="s">
+      <c r="K141" t="s">
         <v>271</v>
       </c>
-      <c r="F141" t="s">
-        <v>43</v>
-      </c>
-      <c r="I141" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="J141" t="s">
+      <c r="L141" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="K141" t="s">
-        <v>273</v>
-      </c>
-      <c r="L141" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="T141" t="s">
         <v>38</v>
@@ -7508,37 +7508,37 @@
         <v>58</v>
       </c>
       <c r="B142" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C142" t="s">
+        <v>273</v>
+      </c>
+      <c r="D142" t="s">
+        <v>274</v>
+      </c>
+      <c r="E142" t="s">
+        <v>274</v>
+      </c>
+      <c r="F142" t="s">
+        <v>43</v>
+      </c>
+      <c r="J142" t="s">
         <v>275</v>
       </c>
-      <c r="D142" t="s">
+      <c r="K142" t="s">
         <v>276</v>
       </c>
-      <c r="E142" t="s">
-        <v>276</v>
-      </c>
-      <c r="F142" t="s">
-        <v>43</v>
-      </c>
-      <c r="J142" t="s">
+      <c r="M142" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="K142" t="s">
+      <c r="O142" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="M142" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="O142" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="P142" t="s">
         <v>74</v>
       </c>
       <c r="Q142" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="T142" t="s">
         <v>38</v>
@@ -7558,16 +7558,16 @@
         <v>59</v>
       </c>
       <c r="B143" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C143" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D143" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E143" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F143" t="s">
         <v>43</v>
@@ -7593,16 +7593,16 @@
         <v>60</v>
       </c>
       <c r="B144" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C144" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D144" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E144" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F144" t="s">
         <v>43</v>
@@ -7628,16 +7628,16 @@
         <v>61</v>
       </c>
       <c r="B145" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C145" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D145" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E145" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F145" t="s">
         <v>43</v>
@@ -7663,16 +7663,16 @@
         <v>62</v>
       </c>
       <c r="B146" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C146" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D146" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E146" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F146" t="s">
         <v>43</v>
@@ -7698,31 +7698,31 @@
         <v>63</v>
       </c>
       <c r="B147" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C147" t="s">
+        <v>288</v>
+      </c>
+      <c r="D147" t="s">
+        <v>289</v>
+      </c>
+      <c r="E147" t="s">
+        <v>289</v>
+      </c>
+      <c r="F147" t="s">
+        <v>43</v>
+      </c>
+      <c r="J147" t="s">
         <v>290</v>
       </c>
-      <c r="D147" t="s">
+      <c r="K147" t="s">
         <v>291</v>
       </c>
-      <c r="E147" t="s">
-        <v>291</v>
-      </c>
-      <c r="F147" t="s">
-        <v>43</v>
-      </c>
-      <c r="J147" t="s">
+      <c r="M147" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="K147" t="s">
+      <c r="O147" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="M147" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="O147" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="P147" t="s">
         <v>74</v>
@@ -7740,7 +7740,7 @@
         <v>55</v>
       </c>
       <c r="W147" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="148" spans="1:23" x14ac:dyDescent="0.35">
@@ -7748,16 +7748,16 @@
         <v>64</v>
       </c>
       <c r="B148" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C148" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D148" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E148" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F148" t="s">
         <v>43</v>
@@ -7783,31 +7783,31 @@
         <v>65</v>
       </c>
       <c r="B149" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C149" t="s">
+        <v>296</v>
+      </c>
+      <c r="D149" t="s">
+        <v>297</v>
+      </c>
+      <c r="E149" t="s">
+        <v>297</v>
+      </c>
+      <c r="F149" t="s">
+        <v>43</v>
+      </c>
+      <c r="I149" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D149" t="s">
+      <c r="J149" t="s">
         <v>299</v>
       </c>
-      <c r="E149" t="s">
-        <v>299</v>
-      </c>
-      <c r="F149" t="s">
-        <v>43</v>
-      </c>
-      <c r="I149" s="1" t="s">
+      <c r="K149" t="s">
         <v>300</v>
       </c>
-      <c r="J149" t="s">
+      <c r="L149" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="K149" t="s">
-        <v>302</v>
-      </c>
-      <c r="L149" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="T149" t="s">
         <v>38</v>
@@ -7827,22 +7827,22 @@
         <v>66</v>
       </c>
       <c r="B150" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C150" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D150" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E150" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F150" t="s">
         <v>91</v>
       </c>
       <c r="G150" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J150" t="s">
         <v>44</v>
@@ -7865,22 +7865,22 @@
         <v>67</v>
       </c>
       <c r="B151" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C151" t="s">
+        <v>305</v>
+      </c>
+      <c r="D151" t="s">
+        <v>306</v>
+      </c>
+      <c r="E151" t="s">
+        <v>306</v>
+      </c>
+      <c r="F151" t="s">
+        <v>43</v>
+      </c>
+      <c r="I151" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="D151" t="s">
-        <v>308</v>
-      </c>
-      <c r="E151" t="s">
-        <v>308</v>
-      </c>
-      <c r="F151" t="s">
-        <v>43</v>
-      </c>
-      <c r="I151" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="J151" t="s">
         <v>44</v>
@@ -7903,22 +7903,22 @@
         <v>68</v>
       </c>
       <c r="B152" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C152" t="s">
+        <v>308</v>
+      </c>
+      <c r="D152" t="s">
+        <v>309</v>
+      </c>
+      <c r="E152" t="s">
+        <v>309</v>
+      </c>
+      <c r="F152" t="s">
+        <v>43</v>
+      </c>
+      <c r="I152" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="D152" t="s">
-        <v>311</v>
-      </c>
-      <c r="E152" t="s">
-        <v>311</v>
-      </c>
-      <c r="F152" t="s">
-        <v>43</v>
-      </c>
-      <c r="I152" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="J152" t="s">
         <v>44</v>
@@ -7941,22 +7941,22 @@
         <v>69</v>
       </c>
       <c r="B153" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C153" t="s">
+        <v>311</v>
+      </c>
+      <c r="D153" t="s">
+        <v>312</v>
+      </c>
+      <c r="E153" t="s">
+        <v>312</v>
+      </c>
+      <c r="F153" t="s">
+        <v>43</v>
+      </c>
+      <c r="I153" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="D153" t="s">
-        <v>314</v>
-      </c>
-      <c r="E153" t="s">
-        <v>314</v>
-      </c>
-      <c r="F153" t="s">
-        <v>43</v>
-      </c>
-      <c r="I153" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="J153" t="s">
         <v>44</v>
@@ -7979,22 +7979,22 @@
         <v>70</v>
       </c>
       <c r="B154" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C154" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D154" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E154" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F154" t="s">
         <v>43</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J154" t="s">
         <v>44</v>
@@ -8017,22 +8017,22 @@
         <v>71</v>
       </c>
       <c r="B155" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C155" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D155" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E155" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F155" t="s">
         <v>43</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J155" t="s">
         <v>44</v>
@@ -8055,22 +8055,22 @@
         <v>72</v>
       </c>
       <c r="B156" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C156" t="s">
+        <v>318</v>
+      </c>
+      <c r="D156" t="s">
+        <v>319</v>
+      </c>
+      <c r="E156" t="s">
         <v>320</v>
       </c>
-      <c r="D156" t="s">
+      <c r="F156" t="s">
+        <v>43</v>
+      </c>
+      <c r="I156" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="E156" t="s">
-        <v>322</v>
-      </c>
-      <c r="F156" t="s">
-        <v>43</v>
-      </c>
-      <c r="I156" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="J156" t="s">
         <v>44</v>
@@ -8093,22 +8093,22 @@
         <v>73</v>
       </c>
       <c r="B157" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C157" t="s">
+        <v>322</v>
+      </c>
+      <c r="D157" t="s">
+        <v>323</v>
+      </c>
+      <c r="E157" t="s">
         <v>324</v>
       </c>
-      <c r="D157" t="s">
-        <v>325</v>
-      </c>
-      <c r="E157" t="s">
-        <v>326</v>
-      </c>
       <c r="F157" t="s">
         <v>43</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J157" t="s">
         <v>44</v>
@@ -8131,22 +8131,22 @@
         <v>74</v>
       </c>
       <c r="B158" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C158" t="s">
+        <v>325</v>
+      </c>
+      <c r="D158" t="s">
+        <v>326</v>
+      </c>
+      <c r="E158" t="s">
         <v>327</v>
       </c>
-      <c r="D158" t="s">
-        <v>328</v>
-      </c>
-      <c r="E158" t="s">
-        <v>329</v>
-      </c>
       <c r="F158" t="s">
         <v>43</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J158" t="s">
         <v>44</v>
@@ -8169,22 +8169,22 @@
         <v>75</v>
       </c>
       <c r="B159" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C159" t="s">
+        <v>328</v>
+      </c>
+      <c r="D159" t="s">
+        <v>329</v>
+      </c>
+      <c r="E159" t="s">
         <v>330</v>
       </c>
-      <c r="D159" t="s">
-        <v>331</v>
-      </c>
-      <c r="E159" t="s">
-        <v>332</v>
-      </c>
       <c r="F159" t="s">
         <v>43</v>
       </c>
       <c r="G159" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J159" t="s">
         <v>44</v>
@@ -8207,40 +8207,40 @@
         <v>76</v>
       </c>
       <c r="B160" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C160" t="s">
+        <v>331</v>
+      </c>
+      <c r="D160" t="s">
+        <v>332</v>
+      </c>
+      <c r="E160" t="s">
         <v>333</v>
       </c>
-      <c r="D160" t="s">
+      <c r="F160" t="s">
+        <v>43</v>
+      </c>
+      <c r="I160" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E160" t="s">
+      <c r="J160" t="s">
         <v>335</v>
       </c>
-      <c r="F160" t="s">
-        <v>43</v>
-      </c>
-      <c r="I160" s="1" t="s">
+      <c r="K160" t="s">
         <v>336</v>
       </c>
-      <c r="J160" t="s">
+      <c r="M160" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="K160" t="s">
+      <c r="O160" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="M160" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="O160" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="P160" t="s">
         <v>36</v>
       </c>
       <c r="Q160" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="T160" t="s">
         <v>38</v>
@@ -8252,7 +8252,7 @@
         <v>64</v>
       </c>
       <c r="W160" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="161" spans="1:23" ht="409.5" x14ac:dyDescent="0.35">
@@ -8260,43 +8260,43 @@
         <v>77</v>
       </c>
       <c r="B161" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C161" t="s">
+        <v>341</v>
+      </c>
+      <c r="D161" t="s">
+        <v>342</v>
+      </c>
+      <c r="E161" t="s">
         <v>343</v>
       </c>
-      <c r="D161" t="s">
+      <c r="F161" t="s">
+        <v>43</v>
+      </c>
+      <c r="I161" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="E161" t="s">
+      <c r="J161" t="s">
         <v>345</v>
       </c>
-      <c r="F161" t="s">
-        <v>43</v>
-      </c>
-      <c r="I161" s="1" t="s">
+      <c r="K161" t="s">
         <v>346</v>
       </c>
-      <c r="J161" t="s">
+      <c r="M161" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="K161" t="s">
+      <c r="O161" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="M161" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="O161" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="P161" t="s">
         <v>36</v>
       </c>
       <c r="Q161" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="S161" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="T161" t="s">
         <v>38</v>
@@ -8308,7 +8308,7 @@
         <v>64</v>
       </c>
       <c r="W161" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="162" spans="1:23" ht="145" x14ac:dyDescent="0.35">
@@ -8316,22 +8316,22 @@
         <v>78</v>
       </c>
       <c r="B162" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C162" t="s">
+        <v>352</v>
+      </c>
+      <c r="D162" t="s">
+        <v>353</v>
+      </c>
+      <c r="E162" t="s">
+        <v>353</v>
+      </c>
+      <c r="F162" t="s">
+        <v>43</v>
+      </c>
+      <c r="I162" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="D162" t="s">
-        <v>355</v>
-      </c>
-      <c r="E162" t="s">
-        <v>355</v>
-      </c>
-      <c r="F162" t="s">
-        <v>43</v>
-      </c>
-      <c r="I162" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="J162" t="s">
         <v>44</v>
@@ -8354,22 +8354,22 @@
         <v>79</v>
       </c>
       <c r="B163" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C163" t="s">
+        <v>355</v>
+      </c>
+      <c r="D163" t="s">
+        <v>356</v>
+      </c>
+      <c r="E163" t="s">
         <v>357</v>
       </c>
-      <c r="D163" t="s">
-        <v>358</v>
-      </c>
-      <c r="E163" t="s">
-        <v>359</v>
-      </c>
       <c r="F163" t="s">
         <v>43</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J163" t="s">
         <v>44</v>
@@ -8392,22 +8392,22 @@
         <v>80</v>
       </c>
       <c r="B164" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C164" t="s">
+        <v>358</v>
+      </c>
+      <c r="D164" t="s">
+        <v>359</v>
+      </c>
+      <c r="E164" t="s">
         <v>360</v>
       </c>
-      <c r="D164" t="s">
-        <v>361</v>
-      </c>
-      <c r="E164" t="s">
-        <v>362</v>
-      </c>
       <c r="F164" t="s">
         <v>43</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J164" t="s">
         <v>44</v>
@@ -8430,40 +8430,40 @@
         <v>81</v>
       </c>
       <c r="B165" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C165" t="s">
+        <v>361</v>
+      </c>
+      <c r="D165" t="s">
+        <v>362</v>
+      </c>
+      <c r="E165" t="s">
         <v>363</v>
       </c>
-      <c r="D165" t="s">
+      <c r="F165" t="s">
+        <v>43</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="J165" t="s">
         <v>364</v>
       </c>
-      <c r="E165" t="s">
+      <c r="K165" t="s">
         <v>365</v>
       </c>
-      <c r="F165" t="s">
-        <v>43</v>
-      </c>
-      <c r="I165" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="J165" t="s">
+      <c r="M165" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="K165" t="s">
+      <c r="O165" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="M165" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="O165" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="P165" t="s">
         <v>36</v>
       </c>
       <c r="Q165" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="T165" t="s">
         <v>38</v>
@@ -8475,7 +8475,7 @@
         <v>64</v>
       </c>
       <c r="W165" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="166" spans="1:23" x14ac:dyDescent="0.35">
@@ -8483,16 +8483,16 @@
         <v>82</v>
       </c>
       <c r="B166" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C166" t="s">
+        <v>370</v>
+      </c>
+      <c r="D166" t="s">
+        <v>371</v>
+      </c>
+      <c r="E166" t="s">
         <v>372</v>
-      </c>
-      <c r="D166" t="s">
-        <v>373</v>
-      </c>
-      <c r="E166" t="s">
-        <v>374</v>
       </c>
       <c r="F166" t="s">
         <v>91</v>
@@ -8518,22 +8518,22 @@
         <v>83</v>
       </c>
       <c r="B167" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C167" t="s">
+        <v>373</v>
+      </c>
+      <c r="D167" t="s">
+        <v>374</v>
+      </c>
+      <c r="E167" t="s">
         <v>375</v>
       </c>
-      <c r="D167" t="s">
+      <c r="F167" t="s">
+        <v>43</v>
+      </c>
+      <c r="G167" t="s">
         <v>376</v>
-      </c>
-      <c r="E167" t="s">
-        <v>377</v>
-      </c>
-      <c r="F167" t="s">
-        <v>43</v>
-      </c>
-      <c r="G167" t="s">
-        <v>378</v>
       </c>
       <c r="J167" t="s">
         <v>44</v>

--- a/longitudinal/data_processing_elements_longitudinal-AGN.xlsx
+++ b/longitudinal/data_processing_elements_longitudinal-AGN.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maelstrom\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561DC9A1-4BFC-4D6E-BBB7-B501A876E602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1FB221-7308-4059-852C-DEA377D9AC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DE4C7F53-17AD-41A0-BCA9-A2A8E85C7880}"/>
+    <workbookView xWindow="28680" yWindow="465" windowWidth="29040" windowHeight="15720" xr2:uid="{DE4C7F53-17AD-41A0-BCA9-A2A8E85C7880}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AD$167</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,8 +38,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={78E53BAC-3716-4044-9276-07E12F6961A2}</author>
+  </authors>
+  <commentList>
+    <comment ref="O96" authorId="0" shapeId="0" xr:uid="{78E53BAC-3716-4044-9276-07E12F6961A2}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Le lien de semble pas fonctionner</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="403">
   <si>
     <t>index</t>
   </si>
@@ -374,9 +395,6 @@
   </si>
   <si>
     <t>compatible</t>
-  </si>
-  <si>
-    <t>recode(1=0; 2=1; 3=NA; 4=2; 5=2; ELSE = NA)</t>
   </si>
   <si>
     <t>sdc_relationship</t>
@@ -1367,12 +1385,25 @@
   <si>
     <t>round(rowMeans(select(., waist_circumference1_4, waist_circumference2_4, waist_circumference3_4), na.rm = TRUE),2)</t>
   </si>
+  <si>
+    <t>0 = No
+1 = Yes
+. = missing</t>
+  </si>
+  <si>
+    <t>1 = No
+1 = Yes
+. = missing</t>
+  </si>
+  <si>
+    <t>recode(1=0; 2=1; 3=1; 4=2; 5=2; ELSE = NA)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1384,6 +1415,19 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1409,12 +1453,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1430,6 +1481,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="e sea" id="{FB5F550E-CB33-40FE-8F25-1C43D5D7252F}" userId="758efdb069669ba0" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1747,24 +1804,42 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="O96" dT="2025-09-23T15:29:17.39" personId="{FB5F550E-CB33-40FE-8F25-1C43D5D7252F}" id="{78E53BAC-3716-4044-9276-07E12F6961A2}">
+    <text>Le lien de semble pas fonctionner</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A617E81B-AA39-4B57-8286-9F6F09A3BC0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A617E81B-AA39-4B57-8286-9F6F09A3BC0B}">
   <dimension ref="A1:AD167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T105" sqref="T105"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="95.7265625" customWidth="1"/>
-    <col min="9" max="9" width="17.81640625" customWidth="1"/>
-    <col min="10" max="10" width="30.453125" customWidth="1"/>
-    <col min="22" max="22" width="12" customWidth="1"/>
-    <col min="23" max="23" width="26.81640625" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="30.42578125" customWidth="1"/>
+    <col min="11" max="11" width="25.85546875" customWidth="1"/>
+    <col min="13" max="13" width="30" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" customWidth="1"/>
+    <col min="17" max="17" width="22.42578125" customWidth="1"/>
+    <col min="20" max="20" width="18.7109375" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" customWidth="1"/>
+    <col min="22" max="22" width="17" customWidth="1"/>
+    <col min="23" max="23" width="26.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1801,7 +1876,7 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
@@ -1831,7 +1906,7 @@
       <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
       <c r="X1" s="2" t="s">
@@ -1856,12 +1931,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
@@ -1881,7 +1956,7 @@
       <c r="K2" t="s">
         <v>35</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="1" t="s">
         <v>35</v>
       </c>
       <c r="P2" t="s">
@@ -1899,16 +1974,16 @@
       <c r="V2" t="s">
         <v>40</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C3" t="s">
         <v>41</v>
@@ -1934,16 +2009,16 @@
       <c r="V3" t="s">
         <v>45</v>
       </c>
-      <c r="W3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="W3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C4" t="s">
         <v>46</v>
@@ -1961,12 +2036,12 @@
         <v>50</v>
       </c>
       <c r="J4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K4" t="s">
-        <v>377</v>
-      </c>
-      <c r="M4" t="s">
+        <v>376</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>53</v>
       </c>
       <c r="P4" t="s">
@@ -1984,16 +2059,16 @@
       <c r="V4" t="s">
         <v>55</v>
       </c>
-      <c r="W4" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+      <c r="W4" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C5" t="s">
         <v>56</v>
@@ -2016,7 +2091,7 @@
       <c r="K5" t="s">
         <v>60</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="1" t="s">
         <v>61</v>
       </c>
       <c r="O5" t="s">
@@ -2037,16 +2112,16 @@
       <c r="V5" t="s">
         <v>64</v>
       </c>
-      <c r="W5" t="s">
+      <c r="W5" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C6" t="s">
         <v>66</v>
@@ -2064,12 +2139,12 @@
         <v>69</v>
       </c>
       <c r="J6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K6" t="s">
-        <v>378</v>
-      </c>
-      <c r="M6" t="s">
+        <v>377</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>72</v>
       </c>
       <c r="O6" t="s">
@@ -2078,6 +2153,9 @@
       <c r="P6" t="s">
         <v>74</v>
       </c>
+      <c r="Q6" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="R6" t="s">
         <v>69</v>
       </c>
@@ -2090,16 +2168,16 @@
       <c r="V6" t="s">
         <v>55</v>
       </c>
-      <c r="W6" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="W6" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="135" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C7" t="s">
         <v>75</v>
@@ -2119,6 +2197,7 @@
       <c r="J7" t="s">
         <v>44</v>
       </c>
+      <c r="M7"/>
       <c r="T7" t="s">
         <v>79</v>
       </c>
@@ -2132,12 +2211,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C8" t="s">
         <v>81</v>
@@ -2154,6 +2233,7 @@
       <c r="J8" t="s">
         <v>44</v>
       </c>
+      <c r="M8"/>
       <c r="T8" t="s">
         <v>79</v>
       </c>
@@ -2167,12 +2247,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="87" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" ht="90" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C9" t="s">
         <v>84</v>
@@ -2192,6 +2272,7 @@
       <c r="J9" t="s">
         <v>44</v>
       </c>
+      <c r="M9"/>
       <c r="T9" t="s">
         <v>79</v>
       </c>
@@ -2205,12 +2286,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C10" t="s">
         <v>88</v>
@@ -2227,6 +2308,7 @@
       <c r="J10" t="s">
         <v>44</v>
       </c>
+      <c r="M10"/>
       <c r="T10" t="s">
         <v>79</v>
       </c>
@@ -2240,12 +2322,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C11" t="s">
         <v>92</v>
@@ -2262,6 +2344,7 @@
       <c r="J11" t="s">
         <v>44</v>
       </c>
+      <c r="M11"/>
       <c r="T11" t="s">
         <v>79</v>
       </c>
@@ -2275,12 +2358,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C12" t="s">
         <v>95</v>
@@ -2297,6 +2380,7 @@
       <c r="J12" t="s">
         <v>44</v>
       </c>
+      <c r="M12"/>
       <c r="T12" t="s">
         <v>79</v>
       </c>
@@ -2310,12 +2394,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" ht="105" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C13" t="s">
         <v>98</v>
@@ -2333,12 +2417,12 @@
         <v>101</v>
       </c>
       <c r="J13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K13" t="s">
-        <v>379</v>
-      </c>
-      <c r="M13" t="s">
+        <v>378</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O13" t="s">
@@ -2359,39 +2443,39 @@
       <c r="V13" t="s">
         <v>64</v>
       </c>
-      <c r="W13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="W13" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="105" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" t="s">
         <v>108</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>109</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="J14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K14" t="s">
-        <v>379</v>
-      </c>
-      <c r="M14" t="s">
+        <v>378</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O14" t="s">
@@ -2412,35 +2496,36 @@
       <c r="V14" t="s">
         <v>64</v>
       </c>
-      <c r="W14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+      <c r="W14" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" t="s">
         <v>113</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E15" t="s">
-        <v>114</v>
-      </c>
-      <c r="F15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="J15" t="s">
         <v>44</v>
       </c>
+      <c r="M15"/>
       <c r="T15" t="s">
         <v>79</v>
       </c>
@@ -2454,31 +2539,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" t="s">
         <v>116</v>
       </c>
-      <c r="D16" t="s">
-        <v>117</v>
-      </c>
       <c r="E16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F16" t="s">
         <v>91</v>
       </c>
       <c r="G16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J16" t="s">
         <v>44</v>
       </c>
+      <c r="M16"/>
       <c r="T16" t="s">
         <v>79</v>
       </c>
@@ -2492,34 +2578,35 @@
         <v>79</v>
       </c>
       <c r="X16" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" t="s">
         <v>123</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E17" t="s">
-        <v>124</v>
-      </c>
-      <c r="F17" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="J17" t="s">
         <v>44</v>
       </c>
+      <c r="M17"/>
       <c r="T17" t="s">
         <v>79</v>
       </c>
@@ -2533,34 +2620,35 @@
         <v>79</v>
       </c>
       <c r="X17" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" t="s">
         <v>127</v>
       </c>
-      <c r="D18" t="s">
-        <v>128</v>
-      </c>
       <c r="E18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F18" t="s">
         <v>91</v>
       </c>
       <c r="G18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J18" t="s">
         <v>44</v>
       </c>
+      <c r="M18"/>
       <c r="T18" t="s">
         <v>79</v>
       </c>
@@ -2574,34 +2662,35 @@
         <v>79</v>
       </c>
       <c r="X18" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" t="s">
         <v>133</v>
       </c>
-      <c r="D19" t="s">
-        <v>134</v>
-      </c>
       <c r="E19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F19" t="s">
         <v>43</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J19" t="s">
         <v>44</v>
       </c>
+      <c r="M19"/>
       <c r="T19" t="s">
         <v>79</v>
       </c>
@@ -2615,34 +2704,35 @@
         <v>79</v>
       </c>
       <c r="X19" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" t="s">
         <v>136</v>
       </c>
-      <c r="D20" t="s">
-        <v>137</v>
-      </c>
       <c r="E20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F20" t="s">
         <v>91</v>
       </c>
       <c r="G20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="M20"/>
       <c r="P20" s="1"/>
       <c r="T20" t="s">
         <v>79</v>
@@ -2657,35 +2747,36 @@
         <v>79</v>
       </c>
       <c r="X20" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D21" t="s">
         <v>147</v>
       </c>
-      <c r="D21" t="s">
-        <v>148</v>
-      </c>
       <c r="E21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F21" t="s">
         <v>91</v>
       </c>
       <c r="G21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K21" s="1"/>
+      <c r="M21"/>
       <c r="P21" s="1"/>
       <c r="T21" t="s">
         <v>79</v>
@@ -2700,35 +2791,36 @@
         <v>79</v>
       </c>
       <c r="X21" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C22" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" t="s">
         <v>156</v>
       </c>
-      <c r="D22" t="s">
-        <v>157</v>
-      </c>
       <c r="E22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F22" t="s">
         <v>43</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K22" s="1"/>
+      <c r="M22"/>
       <c r="P22" s="1"/>
       <c r="T22" t="s">
         <v>79</v>
@@ -2743,34 +2835,35 @@
         <v>79</v>
       </c>
       <c r="X22" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D23" t="s">
         <v>159</v>
       </c>
-      <c r="D23" t="s">
-        <v>160</v>
-      </c>
       <c r="E23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F23" t="s">
         <v>91</v>
       </c>
       <c r="G23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J23" t="s">
         <v>44</v>
       </c>
+      <c r="M23"/>
       <c r="T23" t="s">
         <v>79</v>
       </c>
@@ -2784,21 +2877,21 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C24" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" t="s">
         <v>162</v>
       </c>
-      <c r="D24" t="s">
-        <v>163</v>
-      </c>
       <c r="E24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F24" t="s">
         <v>33</v>
@@ -2806,6 +2899,7 @@
       <c r="J24" t="s">
         <v>44</v>
       </c>
+      <c r="M24"/>
       <c r="T24" t="s">
         <v>79</v>
       </c>
@@ -2819,31 +2913,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" t="s">
         <v>164</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>165</v>
-      </c>
-      <c r="E25" t="s">
-        <v>166</v>
       </c>
       <c r="F25" t="s">
         <v>91</v>
       </c>
       <c r="G25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J25" t="s">
         <v>44</v>
       </c>
+      <c r="M25"/>
       <c r="T25" t="s">
         <v>79</v>
       </c>
@@ -2857,31 +2952,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" t="s">
         <v>168</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>169</v>
-      </c>
-      <c r="E26" t="s">
-        <v>170</v>
       </c>
       <c r="F26" t="s">
         <v>91</v>
       </c>
       <c r="G26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J26" t="s">
         <v>44</v>
       </c>
+      <c r="M26"/>
       <c r="T26" t="s">
         <v>79</v>
       </c>
@@ -2895,31 +2991,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C27" t="s">
+        <v>170</v>
+      </c>
+      <c r="D27" t="s">
         <v>171</v>
       </c>
-      <c r="D27" t="s">
-        <v>172</v>
-      </c>
       <c r="E27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F27" t="s">
         <v>91</v>
       </c>
       <c r="G27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J27" t="s">
         <v>44</v>
       </c>
+      <c r="M27"/>
       <c r="T27" t="s">
         <v>79</v>
       </c>
@@ -2933,31 +3030,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C28" t="s">
+        <v>173</v>
+      </c>
+      <c r="D28" t="s">
         <v>174</v>
       </c>
-      <c r="D28" t="s">
-        <v>175</v>
-      </c>
       <c r="E28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F28" t="s">
         <v>91</v>
       </c>
       <c r="G28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J28" t="s">
         <v>44</v>
       </c>
+      <c r="M28"/>
       <c r="T28" t="s">
         <v>79</v>
       </c>
@@ -2971,31 +3069,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="58" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C29" t="s">
+        <v>176</v>
+      </c>
+      <c r="D29" t="s">
         <v>177</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
+        <v>177</v>
+      </c>
+      <c r="F29" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E29" t="s">
-        <v>178</v>
-      </c>
-      <c r="F29" t="s">
-        <v>43</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="J29" t="s">
         <v>44</v>
       </c>
+      <c r="M29"/>
       <c r="T29" t="s">
         <v>79</v>
       </c>
@@ -3009,31 +3108,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C30" t="s">
+        <v>179</v>
+      </c>
+      <c r="D30" t="s">
         <v>180</v>
       </c>
-      <c r="D30" t="s">
-        <v>181</v>
-      </c>
       <c r="E30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F30" t="s">
         <v>91</v>
       </c>
       <c r="G30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J30" t="s">
         <v>44</v>
       </c>
+      <c r="M30"/>
       <c r="T30" t="s">
         <v>79</v>
       </c>
@@ -3047,31 +3147,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C31" t="s">
+        <v>182</v>
+      </c>
+      <c r="D31" t="s">
         <v>183</v>
       </c>
-      <c r="D31" t="s">
-        <v>184</v>
-      </c>
       <c r="E31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F31" t="s">
         <v>91</v>
       </c>
       <c r="G31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J31" t="s">
         <v>44</v>
       </c>
+      <c r="M31"/>
       <c r="T31" t="s">
         <v>79</v>
       </c>
@@ -3085,31 +3186,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C32" t="s">
+        <v>185</v>
+      </c>
+      <c r="D32" t="s">
         <v>186</v>
       </c>
-      <c r="D32" t="s">
-        <v>187</v>
-      </c>
       <c r="E32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F32" t="s">
         <v>91</v>
       </c>
       <c r="G32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J32" t="s">
         <v>44</v>
       </c>
+      <c r="M32"/>
       <c r="T32" t="s">
         <v>79</v>
       </c>
@@ -3123,31 +3225,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C33" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" t="s">
         <v>189</v>
       </c>
-      <c r="D33" t="s">
-        <v>190</v>
-      </c>
       <c r="E33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F33" t="s">
         <v>91</v>
       </c>
       <c r="G33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J33" t="s">
         <v>44</v>
       </c>
+      <c r="M33"/>
       <c r="T33" t="s">
         <v>79</v>
       </c>
@@ -3161,31 +3264,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C34" t="s">
+        <v>190</v>
+      </c>
+      <c r="D34" t="s">
         <v>191</v>
       </c>
-      <c r="D34" t="s">
-        <v>192</v>
-      </c>
       <c r="E34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F34" t="s">
         <v>91</v>
       </c>
       <c r="G34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J34" t="s">
         <v>44</v>
       </c>
+      <c r="M34"/>
       <c r="T34" t="s">
         <v>79</v>
       </c>
@@ -3199,31 +3303,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C35" t="s">
+        <v>192</v>
+      </c>
+      <c r="D35" t="s">
         <v>193</v>
       </c>
-      <c r="D35" t="s">
-        <v>194</v>
-      </c>
       <c r="E35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F35" t="s">
         <v>91</v>
       </c>
       <c r="G35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J35" t="s">
         <v>44</v>
       </c>
+      <c r="M35"/>
       <c r="T35" t="s">
         <v>79</v>
       </c>
@@ -3237,31 +3342,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C36" t="s">
+        <v>194</v>
+      </c>
+      <c r="D36" t="s">
         <v>195</v>
       </c>
-      <c r="D36" t="s">
-        <v>196</v>
-      </c>
       <c r="E36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F36" t="s">
         <v>91</v>
       </c>
       <c r="G36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J36" t="s">
         <v>44</v>
       </c>
+      <c r="M36"/>
       <c r="T36" t="s">
         <v>79</v>
       </c>
@@ -3275,31 +3381,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C37" t="s">
+        <v>196</v>
+      </c>
+      <c r="D37" t="s">
         <v>197</v>
       </c>
-      <c r="D37" t="s">
-        <v>198</v>
-      </c>
       <c r="E37" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F37" t="s">
         <v>91</v>
       </c>
       <c r="G37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J37" t="s">
         <v>44</v>
       </c>
+      <c r="M37"/>
       <c r="T37" t="s">
         <v>79</v>
       </c>
@@ -3313,31 +3420,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C38" t="s">
+        <v>199</v>
+      </c>
+      <c r="D38" t="s">
         <v>200</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>201</v>
-      </c>
-      <c r="E38" t="s">
-        <v>202</v>
       </c>
       <c r="F38" t="s">
         <v>91</v>
       </c>
       <c r="G38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J38" t="s">
         <v>44</v>
       </c>
+      <c r="M38"/>
       <c r="T38" t="s">
         <v>79</v>
       </c>
@@ -3351,31 +3459,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="58" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C39" t="s">
+        <v>203</v>
+      </c>
+      <c r="D39" t="s">
         <v>204</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>205</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
+        <v>43</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F39" t="s">
-        <v>43</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="J39" t="s">
         <v>44</v>
       </c>
+      <c r="M39"/>
       <c r="T39" t="s">
         <v>79</v>
       </c>
@@ -3389,31 +3498,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C40" t="s">
+        <v>207</v>
+      </c>
+      <c r="D40" t="s">
         <v>208</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>209</v>
-      </c>
-      <c r="E40" t="s">
-        <v>210</v>
       </c>
       <c r="F40" t="s">
         <v>91</v>
       </c>
       <c r="G40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J40" t="s">
         <v>44</v>
       </c>
+      <c r="M40"/>
       <c r="T40" t="s">
         <v>79</v>
       </c>
@@ -3427,31 +3537,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="58" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C41" t="s">
+        <v>210</v>
+      </c>
+      <c r="D41" t="s">
         <v>211</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>212</v>
       </c>
-      <c r="E41" t="s">
-        <v>213</v>
-      </c>
       <c r="F41" t="s">
         <v>43</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J41" t="s">
         <v>44</v>
       </c>
+      <c r="M41"/>
       <c r="T41" t="s">
         <v>79</v>
       </c>
@@ -3465,31 +3576,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C42" t="s">
+        <v>213</v>
+      </c>
+      <c r="D42" t="s">
         <v>214</v>
       </c>
-      <c r="D42" t="s">
-        <v>215</v>
-      </c>
       <c r="E42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F42" t="s">
         <v>91</v>
       </c>
       <c r="G42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J42" t="s">
         <v>44</v>
       </c>
+      <c r="M42"/>
       <c r="T42" t="s">
         <v>79</v>
       </c>
@@ -3503,107 +3615,110 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C43" t="s">
+        <v>216</v>
+      </c>
+      <c r="D43" t="s">
         <v>217</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>218</v>
-      </c>
-      <c r="E43" t="s">
-        <v>219</v>
       </c>
       <c r="F43" t="s">
         <v>91</v>
       </c>
       <c r="G43" t="s">
+        <v>219</v>
+      </c>
+      <c r="J43" t="s">
+        <v>44</v>
+      </c>
+      <c r="M43"/>
+      <c r="T43" t="s">
+        <v>79</v>
+      </c>
+      <c r="U43" t="s">
+        <v>80</v>
+      </c>
+      <c r="V43" t="s">
+        <v>79</v>
+      </c>
+      <c r="W43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>385</v>
+      </c>
+      <c r="C44" t="s">
         <v>220</v>
       </c>
-      <c r="J43" t="s">
-        <v>44</v>
-      </c>
-      <c r="T43" t="s">
-        <v>79</v>
-      </c>
-      <c r="U43" t="s">
-        <v>80</v>
-      </c>
-      <c r="V43" t="s">
-        <v>79</v>
-      </c>
-      <c r="W43" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" ht="87" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>386</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>221</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
+        <v>221</v>
+      </c>
+      <c r="F44" t="s">
+        <v>43</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E44" t="s">
-        <v>222</v>
-      </c>
-      <c r="F44" t="s">
-        <v>43</v>
-      </c>
-      <c r="I44" s="1" t="s">
+      <c r="J44" t="s">
+        <v>44</v>
+      </c>
+      <c r="M44"/>
+      <c r="T44" t="s">
+        <v>79</v>
+      </c>
+      <c r="U44" t="s">
+        <v>80</v>
+      </c>
+      <c r="V44" t="s">
+        <v>79</v>
+      </c>
+      <c r="W44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>385</v>
+      </c>
+      <c r="C45" t="s">
         <v>223</v>
       </c>
-      <c r="J44" t="s">
-        <v>44</v>
-      </c>
-      <c r="T44" t="s">
-        <v>79</v>
-      </c>
-      <c r="U44" t="s">
-        <v>80</v>
-      </c>
-      <c r="V44" t="s">
-        <v>79</v>
-      </c>
-      <c r="W44" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" ht="58" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>386</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>224</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>225</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
+        <v>43</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F45" t="s">
-        <v>43</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="J45" t="s">
         <v>44</v>
       </c>
+      <c r="M45"/>
       <c r="T45" t="s">
         <v>79</v>
       </c>
@@ -3617,31 +3732,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C46" t="s">
+        <v>227</v>
+      </c>
+      <c r="D46" t="s">
         <v>228</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
+        <v>228</v>
+      </c>
+      <c r="F46" t="s">
+        <v>43</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E46" t="s">
-        <v>229</v>
-      </c>
-      <c r="F46" t="s">
-        <v>43</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="J46" t="s">
         <v>44</v>
       </c>
+      <c r="M46"/>
       <c r="T46" t="s">
         <v>79</v>
       </c>
@@ -3655,31 +3771,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C47" t="s">
+        <v>230</v>
+      </c>
+      <c r="D47" t="s">
         <v>231</v>
       </c>
-      <c r="D47" t="s">
-        <v>232</v>
-      </c>
       <c r="E47" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F47" t="s">
         <v>91</v>
       </c>
       <c r="G47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J47" t="s">
         <v>44</v>
       </c>
+      <c r="M47"/>
       <c r="T47" t="s">
         <v>79</v>
       </c>
@@ -3693,31 +3810,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:23" ht="90" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C48" t="s">
+        <v>233</v>
+      </c>
+      <c r="D48" t="s">
         <v>234</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
+        <v>234</v>
+      </c>
+      <c r="F48" t="s">
+        <v>43</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E48" t="s">
-        <v>235</v>
-      </c>
-      <c r="F48" t="s">
-        <v>43</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="J48" t="s">
         <v>44</v>
       </c>
+      <c r="M48"/>
       <c r="O48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="T48" t="s">
@@ -3733,31 +3851,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C49" t="s">
+        <v>242</v>
+      </c>
+      <c r="D49" t="s">
         <v>243</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>244</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="F49" t="s">
-        <v>43</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="J49" t="s">
         <v>44</v>
       </c>
+      <c r="M49"/>
       <c r="T49" t="s">
         <v>79</v>
       </c>
@@ -3771,31 +3890,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C50" t="s">
+        <v>246</v>
+      </c>
+      <c r="D50" t="s">
         <v>247</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>248</v>
       </c>
-      <c r="E50" t="s">
-        <v>249</v>
-      </c>
       <c r="F50" t="s">
         <v>43</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J50" t="s">
         <v>44</v>
       </c>
+      <c r="M50"/>
       <c r="T50" t="s">
         <v>79</v>
       </c>
@@ -3809,31 +3929,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C51" t="s">
+        <v>249</v>
+      </c>
+      <c r="D51" t="s">
         <v>250</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>251</v>
       </c>
-      <c r="E51" t="s">
-        <v>252</v>
-      </c>
       <c r="F51" t="s">
         <v>43</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J51" t="s">
         <v>44</v>
       </c>
+      <c r="M51"/>
       <c r="T51" t="s">
         <v>79</v>
       </c>
@@ -3847,31 +3968,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C52" t="s">
+        <v>252</v>
+      </c>
+      <c r="D52" t="s">
         <v>253</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>254</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
+        <v>43</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="F52" t="s">
-        <v>43</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="J52" t="s">
         <v>44</v>
       </c>
+      <c r="M52"/>
       <c r="T52" t="s">
         <v>79</v>
       </c>
@@ -3885,31 +4007,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C53" t="s">
+        <v>256</v>
+      </c>
+      <c r="D53" t="s">
         <v>257</v>
       </c>
-      <c r="D53" t="s">
-        <v>258</v>
-      </c>
       <c r="E53" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F53" t="s">
         <v>43</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J53" t="s">
         <v>44</v>
       </c>
+      <c r="M53"/>
       <c r="T53" t="s">
         <v>79</v>
       </c>
@@ -3923,31 +4046,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C54" t="s">
+        <v>258</v>
+      </c>
+      <c r="D54" t="s">
         <v>259</v>
       </c>
-      <c r="D54" t="s">
-        <v>260</v>
-      </c>
       <c r="E54" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F54" t="s">
         <v>43</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J54" t="s">
         <v>44</v>
       </c>
+      <c r="M54"/>
       <c r="T54" t="s">
         <v>79</v>
       </c>
@@ -3961,31 +4085,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C55" t="s">
+        <v>260</v>
+      </c>
+      <c r="D55" t="s">
         <v>261</v>
       </c>
-      <c r="D55" t="s">
-        <v>262</v>
-      </c>
       <c r="E55" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F55" t="s">
         <v>43</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J55" t="s">
         <v>44</v>
       </c>
+      <c r="M55"/>
       <c r="T55" t="s">
         <v>79</v>
       </c>
@@ -3999,31 +4124,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C56" t="s">
+        <v>262</v>
+      </c>
+      <c r="D56" t="s">
         <v>263</v>
       </c>
-      <c r="D56" t="s">
-        <v>264</v>
-      </c>
       <c r="E56" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F56" t="s">
         <v>43</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J56" t="s">
         <v>44</v>
       </c>
+      <c r="M56"/>
       <c r="T56" t="s">
         <v>79</v>
       </c>
@@ -4037,31 +4163,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C57" t="s">
+        <v>264</v>
+      </c>
+      <c r="D57" t="s">
         <v>265</v>
       </c>
-      <c r="D57" t="s">
-        <v>266</v>
-      </c>
       <c r="E57" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F57" t="s">
         <v>43</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J57" t="s">
         <v>44</v>
       </c>
+      <c r="M57"/>
       <c r="T57" t="s">
         <v>79</v>
       </c>
@@ -4075,32 +4202,33 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C58" t="s">
+        <v>266</v>
+      </c>
+      <c r="D58" t="s">
         <v>267</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>268</v>
       </c>
-      <c r="E58" t="s">
-        <v>269</v>
-      </c>
       <c r="F58" t="s">
         <v>43</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J58" t="s">
         <v>44</v>
       </c>
       <c r="L58" s="1"/>
+      <c r="M58"/>
       <c r="T58" t="s">
         <v>79</v>
       </c>
@@ -4114,21 +4242,21 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C59" t="s">
+        <v>272</v>
+      </c>
+      <c r="D59" t="s">
         <v>273</v>
       </c>
-      <c r="D59" t="s">
-        <v>274</v>
-      </c>
       <c r="E59" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F59" t="s">
         <v>43</v>
@@ -4136,7 +4264,6 @@
       <c r="J59" t="s">
         <v>44</v>
       </c>
-      <c r="M59" s="1"/>
       <c r="O59" s="1"/>
       <c r="T59" t="s">
         <v>79</v>
@@ -4151,21 +4278,21 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C60" t="s">
+        <v>279</v>
+      </c>
+      <c r="D60" t="s">
         <v>280</v>
       </c>
-      <c r="D60" t="s">
-        <v>281</v>
-      </c>
       <c r="E60" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F60" t="s">
         <v>43</v>
@@ -4173,6 +4300,7 @@
       <c r="J60" t="s">
         <v>44</v>
       </c>
+      <c r="M60"/>
       <c r="T60" t="s">
         <v>79</v>
       </c>
@@ -4186,21 +4314,21 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C61" t="s">
+        <v>281</v>
+      </c>
+      <c r="D61" t="s">
         <v>282</v>
       </c>
-      <c r="D61" t="s">
-        <v>283</v>
-      </c>
       <c r="E61" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F61" t="s">
         <v>43</v>
@@ -4208,6 +4336,7 @@
       <c r="J61" t="s">
         <v>44</v>
       </c>
+      <c r="M61"/>
       <c r="T61" t="s">
         <v>79</v>
       </c>
@@ -4221,21 +4350,21 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C62" t="s">
+        <v>283</v>
+      </c>
+      <c r="D62" t="s">
         <v>284</v>
       </c>
-      <c r="D62" t="s">
-        <v>285</v>
-      </c>
       <c r="E62" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F62" t="s">
         <v>43</v>
@@ -4243,6 +4372,7 @@
       <c r="J62" t="s">
         <v>44</v>
       </c>
+      <c r="M62"/>
       <c r="T62" t="s">
         <v>79</v>
       </c>
@@ -4256,21 +4386,21 @@
         <v>79</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C63" t="s">
+        <v>285</v>
+      </c>
+      <c r="D63" t="s">
         <v>286</v>
       </c>
-      <c r="D63" t="s">
-        <v>287</v>
-      </c>
       <c r="E63" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F63" t="s">
         <v>43</v>
@@ -4278,6 +4408,7 @@
       <c r="J63" t="s">
         <v>44</v>
       </c>
+      <c r="M63"/>
       <c r="T63" t="s">
         <v>79</v>
       </c>
@@ -4291,21 +4422,21 @@
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C64" t="s">
+        <v>287</v>
+      </c>
+      <c r="D64" t="s">
         <v>288</v>
       </c>
-      <c r="D64" t="s">
-        <v>289</v>
-      </c>
       <c r="E64" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F64" t="s">
         <v>43</v>
@@ -4313,7 +4444,6 @@
       <c r="J64" t="s">
         <v>44</v>
       </c>
-      <c r="M64" s="1"/>
       <c r="O64" s="1"/>
       <c r="T64" t="s">
         <v>79</v>
@@ -4328,21 +4458,21 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C65" t="s">
+        <v>293</v>
+      </c>
+      <c r="D65" t="s">
         <v>294</v>
       </c>
-      <c r="D65" t="s">
-        <v>295</v>
-      </c>
       <c r="E65" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F65" t="s">
         <v>43</v>
@@ -4350,6 +4480,7 @@
       <c r="J65" t="s">
         <v>44</v>
       </c>
+      <c r="M65"/>
       <c r="T65" t="s">
         <v>79</v>
       </c>
@@ -4363,31 +4494,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="66" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:24" ht="120" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C66" t="s">
+        <v>295</v>
+      </c>
+      <c r="D66" t="s">
         <v>296</v>
       </c>
-      <c r="D66" t="s">
-        <v>297</v>
-      </c>
       <c r="E66" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F66" t="s">
         <v>43</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J66" t="s">
         <v>44</v>
       </c>
+      <c r="M66"/>
       <c r="T66" t="s">
         <v>79</v>
       </c>
@@ -4401,31 +4533,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C67" t="s">
+        <v>301</v>
+      </c>
+      <c r="D67" t="s">
         <v>302</v>
       </c>
-      <c r="D67" t="s">
-        <v>303</v>
-      </c>
       <c r="E67" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F67" t="s">
         <v>91</v>
       </c>
       <c r="G67" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J67" t="s">
         <v>44</v>
       </c>
+      <c r="M67"/>
       <c r="T67" t="s">
         <v>79</v>
       </c>
@@ -4439,31 +4572,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C68" t="s">
+        <v>304</v>
+      </c>
+      <c r="D68" t="s">
         <v>305</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
+        <v>305</v>
+      </c>
+      <c r="F68" t="s">
+        <v>43</v>
+      </c>
+      <c r="I68" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="E68" t="s">
-        <v>306</v>
-      </c>
-      <c r="F68" t="s">
-        <v>43</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>307</v>
-      </c>
       <c r="J68" t="s">
         <v>44</v>
       </c>
+      <c r="M68"/>
       <c r="T68" t="s">
         <v>79</v>
       </c>
@@ -4477,31 +4611,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="29" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C69" t="s">
+        <v>307</v>
+      </c>
+      <c r="D69" t="s">
         <v>308</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
+        <v>308</v>
+      </c>
+      <c r="F69" t="s">
+        <v>43</v>
+      </c>
+      <c r="I69" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="E69" t="s">
-        <v>309</v>
-      </c>
-      <c r="F69" t="s">
-        <v>43</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="J69" t="s">
         <v>44</v>
       </c>
+      <c r="M69"/>
       <c r="T69" t="s">
         <v>79</v>
       </c>
@@ -4515,31 +4650,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:24" ht="87" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:24" ht="105" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C70" t="s">
+        <v>310</v>
+      </c>
+      <c r="D70" t="s">
         <v>311</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
+        <v>311</v>
+      </c>
+      <c r="F70" t="s">
+        <v>43</v>
+      </c>
+      <c r="I70" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="E70" t="s">
-        <v>312</v>
-      </c>
-      <c r="F70" t="s">
-        <v>43</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>313</v>
-      </c>
       <c r="J70" t="s">
         <v>44</v>
       </c>
+      <c r="M70"/>
       <c r="T70" t="s">
         <v>79</v>
       </c>
@@ -4553,31 +4689,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71" spans="1:24" ht="87" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:24" ht="105" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C71" t="s">
+        <v>313</v>
+      </c>
+      <c r="D71" t="s">
         <v>314</v>
       </c>
-      <c r="D71" t="s">
-        <v>315</v>
-      </c>
       <c r="E71" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F71" t="s">
         <v>43</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J71" t="s">
         <v>44</v>
       </c>
+      <c r="M71"/>
       <c r="T71" t="s">
         <v>79</v>
       </c>
@@ -4591,31 +4728,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="1:24" ht="87" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:24" ht="105" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C72" t="s">
+        <v>315</v>
+      </c>
+      <c r="D72" t="s">
         <v>316</v>
       </c>
-      <c r="D72" t="s">
-        <v>317</v>
-      </c>
       <c r="E72" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F72" t="s">
         <v>43</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J72" t="s">
         <v>44</v>
       </c>
+      <c r="M72"/>
       <c r="T72" t="s">
         <v>79</v>
       </c>
@@ -4629,31 +4767,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73" spans="1:24" ht="319" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:24" ht="330" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C73" t="s">
+        <v>317</v>
+      </c>
+      <c r="D73" t="s">
         <v>318</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>319</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
+        <v>43</v>
+      </c>
+      <c r="I73" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="F73" t="s">
-        <v>43</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="J73" t="s">
         <v>44</v>
       </c>
+      <c r="M73"/>
       <c r="T73" t="s">
         <v>79</v>
       </c>
@@ -4667,31 +4806,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74" spans="1:24" ht="87" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:24" ht="105" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C74" t="s">
+        <v>321</v>
+      </c>
+      <c r="D74" t="s">
         <v>322</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>323</v>
       </c>
-      <c r="E74" t="s">
-        <v>324</v>
-      </c>
       <c r="F74" t="s">
         <v>43</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J74" t="s">
         <v>44</v>
       </c>
+      <c r="M74"/>
       <c r="T74" t="s">
         <v>79</v>
       </c>
@@ -4705,31 +4845,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:24" ht="87" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:24" ht="105" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C75" t="s">
+        <v>324</v>
+      </c>
+      <c r="D75" t="s">
         <v>325</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>326</v>
       </c>
-      <c r="E75" t="s">
-        <v>327</v>
-      </c>
       <c r="F75" t="s">
         <v>43</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J75" t="s">
         <v>44</v>
       </c>
+      <c r="M75"/>
       <c r="T75" t="s">
         <v>79</v>
       </c>
@@ -4743,31 +4884,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C76" t="s">
+        <v>327</v>
+      </c>
+      <c r="D76" t="s">
         <v>328</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>329</v>
       </c>
-      <c r="E76" t="s">
-        <v>330</v>
-      </c>
       <c r="F76" t="s">
         <v>43</v>
       </c>
       <c r="G76" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J76" t="s">
         <v>44</v>
       </c>
+      <c r="M76"/>
       <c r="T76" t="s">
         <v>79</v>
       </c>
@@ -4781,45 +4923,45 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="1:24" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:24" ht="225" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C77" t="s">
+        <v>330</v>
+      </c>
+      <c r="D77" t="s">
         <v>331</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>332</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
+        <v>43</v>
+      </c>
+      <c r="I77" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="F77" t="s">
-        <v>43</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>334</v>
-      </c>
       <c r="J77" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K77" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P77" t="s">
         <v>36</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="T77" t="s">
         <v>38</v>
@@ -4827,55 +4969,55 @@
       <c r="U77" t="s">
         <v>39</v>
       </c>
-      <c r="V77" t="s">
+      <c r="V77" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="W77" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="78" spans="1:24" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="W77" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" ht="300" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C78" t="s">
+        <v>340</v>
+      </c>
+      <c r="D78" t="s">
         <v>341</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>342</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
+        <v>43</v>
+      </c>
+      <c r="I78" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="F78" t="s">
-        <v>43</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="J78" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K78" t="s">
+        <v>382</v>
+      </c>
+      <c r="M78" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="M78" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="O78" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P78" t="s">
         <v>36</v>
       </c>
       <c r="Q78" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="S78" t="s">
         <v>349</v>
-      </c>
-      <c r="S78" t="s">
-        <v>350</v>
       </c>
       <c r="T78" t="s">
         <v>38</v>
@@ -4886,114 +5028,117 @@
       <c r="V78" t="s">
         <v>64</v>
       </c>
-      <c r="W78" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="79" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+      <c r="W78" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" ht="180" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C79" t="s">
+        <v>351</v>
+      </c>
+      <c r="D79" t="s">
         <v>352</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
+        <v>352</v>
+      </c>
+      <c r="F79" t="s">
+        <v>43</v>
+      </c>
+      <c r="I79" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="E79" t="s">
-        <v>353</v>
-      </c>
-      <c r="F79" t="s">
-        <v>43</v>
-      </c>
-      <c r="I79" s="1" t="s">
+      <c r="J79" t="s">
+        <v>44</v>
+      </c>
+      <c r="M79"/>
+      <c r="T79" t="s">
+        <v>79</v>
+      </c>
+      <c r="U79" t="s">
+        <v>80</v>
+      </c>
+      <c r="V79" t="s">
+        <v>79</v>
+      </c>
+      <c r="W79" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>385</v>
+      </c>
+      <c r="C80" t="s">
         <v>354</v>
       </c>
-      <c r="J79" t="s">
-        <v>44</v>
-      </c>
-      <c r="T79" t="s">
-        <v>79</v>
-      </c>
-      <c r="U79" t="s">
-        <v>80</v>
-      </c>
-      <c r="V79" t="s">
-        <v>79</v>
-      </c>
-      <c r="W79" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="80" spans="1:24" ht="29" x14ac:dyDescent="0.35">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80" t="s">
-        <v>386</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>355</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>356</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
+        <v>43</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="J80" t="s">
+        <v>44</v>
+      </c>
+      <c r="M80"/>
+      <c r="T80" t="s">
+        <v>79</v>
+      </c>
+      <c r="U80" t="s">
+        <v>80</v>
+      </c>
+      <c r="V80" t="s">
+        <v>79</v>
+      </c>
+      <c r="W80" t="s">
+        <v>79</v>
+      </c>
+      <c r="X80" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>385</v>
+      </c>
+      <c r="C81" t="s">
         <v>357</v>
       </c>
-      <c r="F80" t="s">
-        <v>43</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="J80" t="s">
-        <v>44</v>
-      </c>
-      <c r="T80" t="s">
-        <v>79</v>
-      </c>
-      <c r="U80" t="s">
-        <v>80</v>
-      </c>
-      <c r="V80" t="s">
-        <v>79</v>
-      </c>
-      <c r="W80" t="s">
-        <v>79</v>
-      </c>
-      <c r="X80" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="81" spans="1:24" ht="29" x14ac:dyDescent="0.35">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81" t="s">
-        <v>386</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>358</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>359</v>
       </c>
-      <c r="E81" t="s">
-        <v>360</v>
-      </c>
       <c r="F81" t="s">
         <v>43</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J81" t="s">
         <v>44</v>
       </c>
+      <c r="M81"/>
       <c r="T81" t="s">
         <v>79</v>
       </c>
@@ -5007,32 +5152,31 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:24" ht="29" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C82" t="s">
+        <v>360</v>
+      </c>
+      <c r="D82" t="s">
         <v>361</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>362</v>
       </c>
-      <c r="E82" t="s">
-        <v>363</v>
-      </c>
       <c r="F82" t="s">
         <v>43</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J82" t="s">
         <v>44</v>
       </c>
-      <c r="M82" s="1"/>
       <c r="O82" s="1"/>
       <c r="Q82" s="1"/>
       <c r="T82" t="s">
@@ -5048,24 +5192,24 @@
         <v>79</v>
       </c>
       <c r="X82" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.35">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C83" t="s">
+        <v>369</v>
+      </c>
+      <c r="D83" t="s">
         <v>370</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>371</v>
-      </c>
-      <c r="E83" t="s">
-        <v>372</v>
       </c>
       <c r="F83" t="s">
         <v>91</v>
@@ -5073,6 +5217,7 @@
       <c r="J83" t="s">
         <v>44</v>
       </c>
+      <c r="M83"/>
       <c r="T83" t="s">
         <v>79</v>
       </c>
@@ -5086,31 +5231,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C84" t="s">
+        <v>372</v>
+      </c>
+      <c r="D84" t="s">
         <v>373</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>374</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
+        <v>43</v>
+      </c>
+      <c r="G84" t="s">
         <v>375</v>
       </c>
-      <c r="F84" t="s">
-        <v>43</v>
-      </c>
-      <c r="G84" t="s">
-        <v>376</v>
-      </c>
       <c r="J84" t="s">
         <v>44</v>
       </c>
+      <c r="M84"/>
       <c r="T84" t="s">
         <v>79</v>
       </c>
@@ -5124,12 +5270,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1</v>
       </c>
       <c r="B85" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C85" t="s">
         <v>30</v>
@@ -5149,7 +5295,7 @@
       <c r="K85" t="s">
         <v>35</v>
       </c>
-      <c r="M85" t="s">
+      <c r="M85" s="1" t="s">
         <v>35</v>
       </c>
       <c r="P85" t="s">
@@ -5167,16 +5313,16 @@
       <c r="V85" t="s">
         <v>40</v>
       </c>
-      <c r="W85" t="s">
+      <c r="W85" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2</v>
       </c>
       <c r="B86" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C86" t="s">
         <v>41</v>
@@ -5202,16 +5348,16 @@
       <c r="V86" t="s">
         <v>45</v>
       </c>
-      <c r="W86">
+      <c r="W86" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C87" t="s">
         <v>46</v>
@@ -5234,7 +5380,7 @@
       <c r="K87" t="s">
         <v>52</v>
       </c>
-      <c r="M87" t="s">
+      <c r="M87" s="1" t="s">
         <v>53</v>
       </c>
       <c r="P87" t="s">
@@ -5252,16 +5398,16 @@
       <c r="V87" t="s">
         <v>55</v>
       </c>
-      <c r="W87" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="88" spans="1:24" ht="29" x14ac:dyDescent="0.35">
+      <c r="W87" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>4</v>
       </c>
       <c r="B88" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C88" t="s">
         <v>56</v>
@@ -5284,7 +5430,7 @@
       <c r="K88" t="s">
         <v>60</v>
       </c>
-      <c r="M88" t="s">
+      <c r="M88" s="1" t="s">
         <v>61</v>
       </c>
       <c r="O88" t="s">
@@ -5305,16 +5451,16 @@
       <c r="V88" t="s">
         <v>64</v>
       </c>
-      <c r="W88" t="s">
+      <c r="W88" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>5</v>
       </c>
       <c r="B89" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C89" t="s">
         <v>66</v>
@@ -5337,7 +5483,7 @@
       <c r="K89" t="s">
         <v>71</v>
       </c>
-      <c r="M89" t="s">
+      <c r="M89" s="1" t="s">
         <v>72</v>
       </c>
       <c r="O89" t="s">
@@ -5346,6 +5492,9 @@
       <c r="P89" t="s">
         <v>74</v>
       </c>
+      <c r="Q89" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="R89" t="s">
         <v>69</v>
       </c>
@@ -5358,16 +5507,16 @@
       <c r="V89" t="s">
         <v>55</v>
       </c>
-      <c r="W89" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="90" spans="1:24" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="W89" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" ht="135" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C90" t="s">
         <v>75</v>
@@ -5387,6 +5536,7 @@
       <c r="J90" t="s">
         <v>44</v>
       </c>
+      <c r="M90"/>
       <c r="T90" t="s">
         <v>79</v>
       </c>
@@ -5400,12 +5550,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>7</v>
       </c>
       <c r="B91" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C91" t="s">
         <v>81</v>
@@ -5422,6 +5572,7 @@
       <c r="J91" t="s">
         <v>44</v>
       </c>
+      <c r="M91"/>
       <c r="T91" t="s">
         <v>79</v>
       </c>
@@ -5435,12 +5586,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="87" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:24" ht="90" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C92" t="s">
         <v>84</v>
@@ -5460,6 +5611,7 @@
       <c r="J92" t="s">
         <v>44</v>
       </c>
+      <c r="M92"/>
       <c r="T92" t="s">
         <v>79</v>
       </c>
@@ -5473,12 +5625,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C93" t="s">
         <v>88</v>
@@ -5495,6 +5647,7 @@
       <c r="J93" t="s">
         <v>44</v>
       </c>
+      <c r="M93"/>
       <c r="T93" t="s">
         <v>79</v>
       </c>
@@ -5508,12 +5661,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>10</v>
       </c>
       <c r="B94" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C94" t="s">
         <v>92</v>
@@ -5530,6 +5683,7 @@
       <c r="J94" t="s">
         <v>44</v>
       </c>
+      <c r="M94"/>
       <c r="T94" t="s">
         <v>79</v>
       </c>
@@ -5543,12 +5697,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C95" t="s">
         <v>95</v>
@@ -5565,6 +5719,7 @@
       <c r="J95" t="s">
         <v>44</v>
       </c>
+      <c r="M95"/>
       <c r="T95" t="s">
         <v>79</v>
       </c>
@@ -5578,12 +5733,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="96" spans="1:24" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:24" ht="105" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>12</v>
       </c>
       <c r="B96" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C96" t="s">
         <v>98</v>
@@ -5606,7 +5761,7 @@
       <c r="K96" t="s">
         <v>103</v>
       </c>
-      <c r="M96" t="s">
+      <c r="M96" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O96" t="s">
@@ -5627,31 +5782,31 @@
       <c r="V96" t="s">
         <v>64</v>
       </c>
-      <c r="W96" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="97" spans="1:23" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="W96" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" ht="105" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>13</v>
       </c>
       <c r="B97" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C97" t="s">
+        <v>107</v>
+      </c>
+      <c r="D97" t="s">
         <v>108</v>
       </c>
-      <c r="D97" t="s">
+      <c r="E97" t="s">
         <v>109</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
+        <v>43</v>
+      </c>
+      <c r="I97" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="F97" t="s">
-        <v>43</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="J97" t="s">
         <v>102</v>
@@ -5659,7 +5814,7 @@
       <c r="K97" t="s">
         <v>103</v>
       </c>
-      <c r="M97" t="s">
+      <c r="M97" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O97" t="s">
@@ -5680,35 +5835,36 @@
       <c r="V97" t="s">
         <v>64</v>
       </c>
-      <c r="W97" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="98" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+      <c r="W97" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>14</v>
       </c>
       <c r="B98" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C98" t="s">
+        <v>112</v>
+      </c>
+      <c r="D98" t="s">
         <v>113</v>
       </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
+        <v>113</v>
+      </c>
+      <c r="F98" t="s">
+        <v>43</v>
+      </c>
+      <c r="I98" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E98" t="s">
-        <v>114</v>
-      </c>
-      <c r="F98" t="s">
-        <v>43</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="J98" t="s">
         <v>44</v>
       </c>
+      <c r="M98"/>
       <c r="T98" t="s">
         <v>79</v>
       </c>
@@ -5722,36 +5878,36 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:23" ht="165" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>15</v>
       </c>
       <c r="B99" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C99" t="s">
+        <v>115</v>
+      </c>
+      <c r="D99" t="s">
         <v>116</v>
       </c>
-      <c r="D99" t="s">
-        <v>117</v>
-      </c>
       <c r="E99" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F99" t="s">
         <v>91</v>
       </c>
       <c r="G99" t="s">
+        <v>117</v>
+      </c>
+      <c r="J99" t="s">
         <v>118</v>
       </c>
-      <c r="J99" t="s">
+      <c r="K99" t="s">
         <v>119</v>
       </c>
-      <c r="K99" t="s">
+      <c r="M99" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="M99" t="s">
-        <v>121</v>
       </c>
       <c r="O99" t="s">
         <v>73</v>
@@ -5763,7 +5919,7 @@
         <v>54</v>
       </c>
       <c r="R99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T99" t="s">
         <v>38</v>
@@ -5772,42 +5928,42 @@
         <v>39</v>
       </c>
       <c r="V99" t="s">
-        <v>122</v>
-      </c>
-      <c r="W99" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="100" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+      <c r="W99" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" ht="165" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>16</v>
       </c>
       <c r="B100" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C100" t="s">
+        <v>122</v>
+      </c>
+      <c r="D100" t="s">
         <v>123</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
+        <v>123</v>
+      </c>
+      <c r="F100" t="s">
+        <v>43</v>
+      </c>
+      <c r="I100" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E100" t="s">
-        <v>124</v>
-      </c>
-      <c r="F100" t="s">
-        <v>43</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="J100" t="s">
+        <v>118</v>
+      </c>
+      <c r="K100" t="s">
         <v>119</v>
       </c>
-      <c r="K100" t="s">
+      <c r="M100" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="M100" t="s">
-        <v>121</v>
       </c>
       <c r="O100" t="s">
         <v>73</v>
@@ -5819,7 +5975,7 @@
         <v>54</v>
       </c>
       <c r="R100" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T100" t="s">
         <v>38</v>
@@ -5827,43 +5983,43 @@
       <c r="U100" t="s">
         <v>106</v>
       </c>
-      <c r="V100" t="s">
+      <c r="V100" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="W100" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="W100" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" ht="90" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>17</v>
       </c>
       <c r="B101" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C101" t="s">
+        <v>126</v>
+      </c>
+      <c r="D101" t="s">
         <v>127</v>
       </c>
-      <c r="D101" t="s">
-        <v>128</v>
-      </c>
       <c r="E101" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F101" t="s">
         <v>91</v>
       </c>
       <c r="G101" t="s">
+        <v>128</v>
+      </c>
+      <c r="J101" t="s">
         <v>129</v>
       </c>
-      <c r="J101" t="s">
+      <c r="K101" t="s">
         <v>130</v>
       </c>
-      <c r="K101" t="s">
+      <c r="M101" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="M101" t="s">
-        <v>132</v>
       </c>
       <c r="O101" t="s">
         <v>73</v>
@@ -5875,7 +6031,7 @@
         <v>54</v>
       </c>
       <c r="R101" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T101" t="s">
         <v>38</v>
@@ -5884,42 +6040,42 @@
         <v>39</v>
       </c>
       <c r="V101" t="s">
-        <v>122</v>
-      </c>
-      <c r="W101" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="102" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+      <c r="W101" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" ht="90" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>18</v>
       </c>
       <c r="B102" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C102" t="s">
+        <v>132</v>
+      </c>
+      <c r="D102" t="s">
         <v>133</v>
       </c>
-      <c r="D102" t="s">
-        <v>134</v>
-      </c>
       <c r="E102" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F102" t="s">
         <v>43</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J102" t="s">
+        <v>129</v>
+      </c>
+      <c r="K102" t="s">
         <v>130</v>
       </c>
-      <c r="K102" t="s">
+      <c r="M102" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="M102" t="s">
-        <v>132</v>
       </c>
       <c r="O102" t="s">
         <v>73</v>
@@ -5931,7 +6087,7 @@
         <v>54</v>
       </c>
       <c r="R102" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T102" t="s">
         <v>38</v>
@@ -5942,52 +6098,52 @@
       <c r="V102" t="s">
         <v>55</v>
       </c>
-      <c r="W102" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="103" spans="1:23" ht="58" x14ac:dyDescent="0.35">
+      <c r="W102" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" ht="255" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>19</v>
       </c>
       <c r="B103" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C103" t="s">
+        <v>135</v>
+      </c>
+      <c r="D103" t="s">
         <v>136</v>
       </c>
-      <c r="D103" t="s">
-        <v>137</v>
-      </c>
       <c r="E103" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F103" t="s">
         <v>91</v>
       </c>
       <c r="G103" t="s">
+        <v>137</v>
+      </c>
+      <c r="J103" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="J103" s="1" t="s">
+      <c r="K103" t="s">
         <v>139</v>
       </c>
-      <c r="K103" t="s">
+      <c r="M103" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="M103" t="s">
+      <c r="O103" t="s">
         <v>141</v>
       </c>
-      <c r="O103" t="s">
+      <c r="P103" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="P103" s="1" t="s">
+      <c r="Q103" t="s">
         <v>143</v>
       </c>
-      <c r="Q103" t="s">
+      <c r="R103" t="s">
         <v>144</v>
-      </c>
-      <c r="R103" t="s">
-        <v>145</v>
       </c>
       <c r="T103" t="s">
         <v>38</v>
@@ -5998,55 +6154,55 @@
       <c r="V103" t="s">
         <v>55</v>
       </c>
-      <c r="W103" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="104" spans="1:23" ht="304.5" x14ac:dyDescent="0.35">
+      <c r="W103" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C104" t="s">
+        <v>146</v>
+      </c>
+      <c r="D104" t="s">
         <v>147</v>
       </c>
-      <c r="D104" t="s">
-        <v>148</v>
-      </c>
       <c r="E104" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F104" t="s">
         <v>91</v>
       </c>
       <c r="G104" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K104" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M104" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="M104" t="s">
+      <c r="O104" t="s">
         <v>150</v>
       </c>
-      <c r="O104" t="s">
+      <c r="P104" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="P104" s="1" t="s">
+      <c r="Q104" t="s">
         <v>152</v>
       </c>
-      <c r="Q104" t="s">
+      <c r="R104" t="s">
         <v>153</v>
       </c>
-      <c r="R104" t="s">
+      <c r="S104" t="s">
         <v>154</v>
-      </c>
-      <c r="S104" t="s">
-        <v>155</v>
       </c>
       <c r="T104" t="s">
         <v>38</v>
@@ -6057,52 +6213,52 @@
       <c r="V104" t="s">
         <v>55</v>
       </c>
-      <c r="W104" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="105" spans="1:23" ht="304.5" x14ac:dyDescent="0.35">
+      <c r="W104" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>21</v>
       </c>
       <c r="B105" t="s">
+        <v>396</v>
+      </c>
+      <c r="C105" t="s">
+        <v>155</v>
+      </c>
+      <c r="D105" t="s">
+        <v>156</v>
+      </c>
+      <c r="E105" t="s">
+        <v>156</v>
+      </c>
+      <c r="F105" t="s">
+        <v>43</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J105" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C105" t="s">
-        <v>156</v>
-      </c>
-      <c r="D105" t="s">
+      <c r="K105" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="O105" t="s">
+        <v>150</v>
+      </c>
+      <c r="P105" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E105" t="s">
-        <v>157</v>
-      </c>
-      <c r="F105" t="s">
-        <v>43</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="K105" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="M105" t="s">
-        <v>150</v>
-      </c>
-      <c r="O105" t="s">
-        <v>151</v>
-      </c>
-      <c r="P105" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="Q105" t="s">
+        <v>152</v>
+      </c>
+      <c r="R105" t="s">
         <v>153</v>
-      </c>
-      <c r="R105" t="s">
-        <v>154</v>
       </c>
       <c r="T105" t="s">
         <v>38</v>
@@ -6113,35 +6269,36 @@
       <c r="V105" t="s">
         <v>55</v>
       </c>
-      <c r="W105" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="W105" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>22</v>
       </c>
       <c r="B106" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C106" t="s">
+        <v>158</v>
+      </c>
+      <c r="D106" t="s">
         <v>159</v>
       </c>
-      <c r="D106" t="s">
-        <v>160</v>
-      </c>
       <c r="E106" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F106" t="s">
         <v>91</v>
       </c>
       <c r="G106" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J106" t="s">
         <v>44</v>
       </c>
+      <c r="M106"/>
       <c r="T106" t="s">
         <v>79</v>
       </c>
@@ -6155,21 +6312,21 @@
         <v>79</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>23</v>
       </c>
       <c r="B107" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C107" t="s">
+        <v>161</v>
+      </c>
+      <c r="D107" t="s">
         <v>162</v>
       </c>
-      <c r="D107" t="s">
-        <v>163</v>
-      </c>
       <c r="E107" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F107" t="s">
         <v>33</v>
@@ -6177,6 +6334,7 @@
       <c r="J107" t="s">
         <v>44</v>
       </c>
+      <c r="M107"/>
       <c r="T107" t="s">
         <v>79</v>
       </c>
@@ -6190,31 +6348,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>24</v>
       </c>
       <c r="B108" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C108" t="s">
+        <v>163</v>
+      </c>
+      <c r="D108" t="s">
         <v>164</v>
       </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
         <v>165</v>
-      </c>
-      <c r="E108" t="s">
-        <v>166</v>
       </c>
       <c r="F108" t="s">
         <v>91</v>
       </c>
       <c r="G108" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J108" t="s">
         <v>44</v>
       </c>
+      <c r="M108"/>
       <c r="T108" t="s">
         <v>79</v>
       </c>
@@ -6228,31 +6387,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>25</v>
       </c>
       <c r="B109" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C109" t="s">
+        <v>167</v>
+      </c>
+      <c r="D109" t="s">
         <v>168</v>
       </c>
-      <c r="D109" t="s">
+      <c r="E109" t="s">
         <v>169</v>
-      </c>
-      <c r="E109" t="s">
-        <v>170</v>
       </c>
       <c r="F109" t="s">
         <v>91</v>
       </c>
       <c r="G109" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J109" t="s">
         <v>44</v>
       </c>
+      <c r="M109"/>
       <c r="T109" t="s">
         <v>79</v>
       </c>
@@ -6266,31 +6426,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>26</v>
       </c>
       <c r="B110" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C110" t="s">
+        <v>170</v>
+      </c>
+      <c r="D110" t="s">
         <v>171</v>
       </c>
-      <c r="D110" t="s">
-        <v>172</v>
-      </c>
       <c r="E110" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F110" t="s">
         <v>91</v>
       </c>
       <c r="G110" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J110" t="s">
         <v>44</v>
       </c>
+      <c r="M110"/>
       <c r="T110" t="s">
         <v>79</v>
       </c>
@@ -6304,31 +6465,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>27</v>
       </c>
       <c r="B111" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C111" t="s">
+        <v>173</v>
+      </c>
+      <c r="D111" t="s">
         <v>174</v>
       </c>
-      <c r="D111" t="s">
-        <v>175</v>
-      </c>
       <c r="E111" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F111" t="s">
         <v>91</v>
       </c>
       <c r="G111" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J111" t="s">
         <v>44</v>
       </c>
+      <c r="M111"/>
       <c r="T111" t="s">
         <v>79</v>
       </c>
@@ -6342,31 +6504,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="112" spans="1:23" ht="58" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>28</v>
       </c>
       <c r="B112" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C112" t="s">
+        <v>176</v>
+      </c>
+      <c r="D112" t="s">
         <v>177</v>
       </c>
-      <c r="D112" t="s">
+      <c r="E112" t="s">
+        <v>177</v>
+      </c>
+      <c r="F112" t="s">
+        <v>43</v>
+      </c>
+      <c r="I112" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E112" t="s">
-        <v>178</v>
-      </c>
-      <c r="F112" t="s">
-        <v>43</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="J112" t="s">
         <v>44</v>
       </c>
+      <c r="M112"/>
       <c r="T112" t="s">
         <v>79</v>
       </c>
@@ -6380,31 +6543,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>29</v>
       </c>
       <c r="B113" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C113" t="s">
+        <v>179</v>
+      </c>
+      <c r="D113" t="s">
         <v>180</v>
       </c>
-      <c r="D113" t="s">
-        <v>181</v>
-      </c>
       <c r="E113" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F113" t="s">
         <v>91</v>
       </c>
       <c r="G113" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J113" t="s">
         <v>44</v>
       </c>
+      <c r="M113"/>
       <c r="T113" t="s">
         <v>79</v>
       </c>
@@ -6418,31 +6582,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>30</v>
       </c>
       <c r="B114" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C114" t="s">
+        <v>182</v>
+      </c>
+      <c r="D114" t="s">
         <v>183</v>
       </c>
-      <c r="D114" t="s">
-        <v>184</v>
-      </c>
       <c r="E114" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F114" t="s">
         <v>91</v>
       </c>
       <c r="G114" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J114" t="s">
         <v>44</v>
       </c>
+      <c r="M114"/>
       <c r="T114" t="s">
         <v>79</v>
       </c>
@@ -6456,31 +6621,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>31</v>
       </c>
       <c r="B115" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C115" t="s">
+        <v>185</v>
+      </c>
+      <c r="D115" t="s">
         <v>186</v>
       </c>
-      <c r="D115" t="s">
-        <v>187</v>
-      </c>
       <c r="E115" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F115" t="s">
         <v>91</v>
       </c>
       <c r="G115" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J115" t="s">
         <v>44</v>
       </c>
+      <c r="M115"/>
       <c r="T115" t="s">
         <v>79</v>
       </c>
@@ -6494,31 +6660,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>32</v>
       </c>
       <c r="B116" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C116" t="s">
+        <v>188</v>
+      </c>
+      <c r="D116" t="s">
         <v>189</v>
       </c>
-      <c r="D116" t="s">
-        <v>190</v>
-      </c>
       <c r="E116" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F116" t="s">
         <v>91</v>
       </c>
       <c r="G116" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J116" t="s">
         <v>44</v>
       </c>
+      <c r="M116"/>
       <c r="T116" t="s">
         <v>79</v>
       </c>
@@ -6532,31 +6699,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>33</v>
       </c>
       <c r="B117" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C117" t="s">
+        <v>190</v>
+      </c>
+      <c r="D117" t="s">
         <v>191</v>
       </c>
-      <c r="D117" t="s">
-        <v>192</v>
-      </c>
       <c r="E117" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F117" t="s">
         <v>91</v>
       </c>
       <c r="G117" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J117" t="s">
         <v>44</v>
       </c>
+      <c r="M117"/>
       <c r="T117" t="s">
         <v>79</v>
       </c>
@@ -6570,31 +6738,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>34</v>
       </c>
       <c r="B118" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C118" t="s">
+        <v>192</v>
+      </c>
+      <c r="D118" t="s">
         <v>193</v>
       </c>
-      <c r="D118" t="s">
-        <v>194</v>
-      </c>
       <c r="E118" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F118" t="s">
         <v>91</v>
       </c>
       <c r="G118" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J118" t="s">
         <v>44</v>
       </c>
+      <c r="M118"/>
       <c r="T118" t="s">
         <v>79</v>
       </c>
@@ -6608,31 +6777,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>35</v>
       </c>
       <c r="B119" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C119" t="s">
+        <v>194</v>
+      </c>
+      <c r="D119" t="s">
         <v>195</v>
       </c>
-      <c r="D119" t="s">
-        <v>196</v>
-      </c>
       <c r="E119" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F119" t="s">
         <v>91</v>
       </c>
       <c r="G119" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J119" t="s">
         <v>44</v>
       </c>
+      <c r="M119"/>
       <c r="T119" t="s">
         <v>79</v>
       </c>
@@ -6646,31 +6816,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>36</v>
       </c>
       <c r="B120" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C120" t="s">
+        <v>196</v>
+      </c>
+      <c r="D120" t="s">
         <v>197</v>
       </c>
-      <c r="D120" t="s">
-        <v>198</v>
-      </c>
       <c r="E120" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F120" t="s">
         <v>91</v>
       </c>
       <c r="G120" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J120" t="s">
         <v>44</v>
       </c>
+      <c r="M120"/>
       <c r="T120" t="s">
         <v>79</v>
       </c>
@@ -6684,31 +6855,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>37</v>
       </c>
       <c r="B121" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C121" t="s">
+        <v>199</v>
+      </c>
+      <c r="D121" t="s">
         <v>200</v>
       </c>
-      <c r="D121" t="s">
+      <c r="E121" t="s">
         <v>201</v>
-      </c>
-      <c r="E121" t="s">
-        <v>202</v>
       </c>
       <c r="F121" t="s">
         <v>91</v>
       </c>
       <c r="G121" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J121" t="s">
         <v>44</v>
       </c>
+      <c r="M121"/>
       <c r="T121" t="s">
         <v>79</v>
       </c>
@@ -6722,31 +6894,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="122" spans="1:23" ht="58" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>38</v>
       </c>
       <c r="B122" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C122" t="s">
+        <v>203</v>
+      </c>
+      <c r="D122" t="s">
         <v>204</v>
       </c>
-      <c r="D122" t="s">
+      <c r="E122" t="s">
         <v>205</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
+        <v>43</v>
+      </c>
+      <c r="I122" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F122" t="s">
-        <v>43</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="J122" t="s">
         <v>44</v>
       </c>
+      <c r="M122"/>
       <c r="T122" t="s">
         <v>79</v>
       </c>
@@ -6760,31 +6933,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>39</v>
       </c>
       <c r="B123" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C123" t="s">
+        <v>207</v>
+      </c>
+      <c r="D123" t="s">
         <v>208</v>
       </c>
-      <c r="D123" t="s">
+      <c r="E123" t="s">
         <v>209</v>
-      </c>
-      <c r="E123" t="s">
-        <v>210</v>
       </c>
       <c r="F123" t="s">
         <v>91</v>
       </c>
       <c r="G123" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J123" t="s">
         <v>44</v>
       </c>
+      <c r="M123"/>
       <c r="T123" t="s">
         <v>79</v>
       </c>
@@ -6798,31 +6972,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="124" spans="1:23" ht="58" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>40</v>
       </c>
       <c r="B124" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C124" t="s">
+        <v>210</v>
+      </c>
+      <c r="D124" t="s">
         <v>211</v>
       </c>
-      <c r="D124" t="s">
+      <c r="E124" t="s">
         <v>212</v>
       </c>
-      <c r="E124" t="s">
-        <v>213</v>
-      </c>
       <c r="F124" t="s">
         <v>43</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J124" t="s">
         <v>44</v>
       </c>
+      <c r="M124"/>
       <c r="T124" t="s">
         <v>79</v>
       </c>
@@ -6836,31 +7011,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>41</v>
       </c>
       <c r="B125" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C125" t="s">
+        <v>213</v>
+      </c>
+      <c r="D125" t="s">
         <v>214</v>
       </c>
-      <c r="D125" t="s">
-        <v>215</v>
-      </c>
       <c r="E125" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F125" t="s">
         <v>91</v>
       </c>
       <c r="G125" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J125" t="s">
         <v>44</v>
       </c>
+      <c r="M125"/>
       <c r="T125" t="s">
         <v>79</v>
       </c>
@@ -6874,107 +7050,110 @@
         <v>79</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>42</v>
       </c>
       <c r="B126" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C126" t="s">
+        <v>216</v>
+      </c>
+      <c r="D126" t="s">
         <v>217</v>
       </c>
-      <c r="D126" t="s">
+      <c r="E126" t="s">
         <v>218</v>
-      </c>
-      <c r="E126" t="s">
-        <v>219</v>
       </c>
       <c r="F126" t="s">
         <v>91</v>
       </c>
       <c r="G126" t="s">
+        <v>219</v>
+      </c>
+      <c r="J126" t="s">
+        <v>44</v>
+      </c>
+      <c r="M126"/>
+      <c r="T126" t="s">
+        <v>79</v>
+      </c>
+      <c r="U126" t="s">
+        <v>80</v>
+      </c>
+      <c r="V126" t="s">
+        <v>79</v>
+      </c>
+      <c r="W126" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>43</v>
+      </c>
+      <c r="B127" t="s">
+        <v>396</v>
+      </c>
+      <c r="C127" t="s">
         <v>220</v>
       </c>
-      <c r="J126" t="s">
-        <v>44</v>
-      </c>
-      <c r="T126" t="s">
-        <v>79</v>
-      </c>
-      <c r="U126" t="s">
-        <v>80</v>
-      </c>
-      <c r="V126" t="s">
-        <v>79</v>
-      </c>
-      <c r="W126" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="127" spans="1:23" ht="87" x14ac:dyDescent="0.35">
-      <c r="A127">
-        <v>43</v>
-      </c>
-      <c r="B127" t="s">
-        <v>397</v>
-      </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
         <v>221</v>
       </c>
-      <c r="D127" t="s">
+      <c r="E127" t="s">
+        <v>221</v>
+      </c>
+      <c r="F127" t="s">
+        <v>43</v>
+      </c>
+      <c r="I127" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E127" t="s">
-        <v>222</v>
-      </c>
-      <c r="F127" t="s">
-        <v>43</v>
-      </c>
-      <c r="I127" s="1" t="s">
+      <c r="J127" t="s">
+        <v>44</v>
+      </c>
+      <c r="M127"/>
+      <c r="T127" t="s">
+        <v>79</v>
+      </c>
+      <c r="U127" t="s">
+        <v>80</v>
+      </c>
+      <c r="V127" t="s">
+        <v>79</v>
+      </c>
+      <c r="W127" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>44</v>
+      </c>
+      <c r="B128" t="s">
+        <v>396</v>
+      </c>
+      <c r="C128" t="s">
         <v>223</v>
       </c>
-      <c r="J127" t="s">
-        <v>44</v>
-      </c>
-      <c r="T127" t="s">
-        <v>79</v>
-      </c>
-      <c r="U127" t="s">
-        <v>80</v>
-      </c>
-      <c r="V127" t="s">
-        <v>79</v>
-      </c>
-      <c r="W127" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="128" spans="1:23" ht="58" x14ac:dyDescent="0.35">
-      <c r="A128">
-        <v>44</v>
-      </c>
-      <c r="B128" t="s">
-        <v>397</v>
-      </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>224</v>
       </c>
-      <c r="D128" t="s">
+      <c r="E128" t="s">
         <v>225</v>
       </c>
-      <c r="E128" t="s">
+      <c r="F128" t="s">
+        <v>43</v>
+      </c>
+      <c r="I128" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F128" t="s">
-        <v>43</v>
-      </c>
-      <c r="I128" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="J128" t="s">
         <v>44</v>
       </c>
+      <c r="M128"/>
       <c r="T128" t="s">
         <v>79</v>
       </c>
@@ -6988,31 +7167,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="129" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>45</v>
       </c>
       <c r="B129" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C129" t="s">
+        <v>227</v>
+      </c>
+      <c r="D129" t="s">
         <v>228</v>
       </c>
-      <c r="D129" t="s">
+      <c r="E129" t="s">
+        <v>228</v>
+      </c>
+      <c r="F129" t="s">
+        <v>43</v>
+      </c>
+      <c r="I129" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E129" t="s">
-        <v>229</v>
-      </c>
-      <c r="F129" t="s">
-        <v>43</v>
-      </c>
-      <c r="I129" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="J129" t="s">
         <v>44</v>
       </c>
+      <c r="M129"/>
       <c r="T129" t="s">
         <v>79</v>
       </c>
@@ -7026,31 +7206,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>46</v>
       </c>
       <c r="B130" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C130" t="s">
+        <v>230</v>
+      </c>
+      <c r="D130" t="s">
         <v>231</v>
       </c>
-      <c r="D130" t="s">
-        <v>232</v>
-      </c>
       <c r="E130" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F130" t="s">
         <v>91</v>
       </c>
       <c r="G130" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J130" t="s">
         <v>44</v>
       </c>
+      <c r="M130"/>
       <c r="T130" t="s">
         <v>79</v>
       </c>
@@ -7064,45 +7245,45 @@
         <v>79</v>
       </c>
     </row>
-    <row r="131" spans="1:23" ht="333.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:23" ht="345" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>47</v>
       </c>
       <c r="B131" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C131" t="s">
+        <v>233</v>
+      </c>
+      <c r="D131" t="s">
         <v>234</v>
       </c>
-      <c r="D131" t="s">
+      <c r="E131" t="s">
+        <v>234</v>
+      </c>
+      <c r="F131" t="s">
+        <v>43</v>
+      </c>
+      <c r="I131" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E131" t="s">
-        <v>235</v>
-      </c>
-      <c r="F131" t="s">
-        <v>43</v>
-      </c>
-      <c r="I131" s="1" t="s">
+      <c r="J131" t="s">
         <v>236</v>
       </c>
-      <c r="J131" t="s">
+      <c r="K131" t="s">
         <v>237</v>
       </c>
-      <c r="K131" t="s">
+      <c r="M131" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="M131" t="s">
+      <c r="O131" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="O131" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="P131" t="s">
         <v>36</v>
       </c>
       <c r="Q131" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="T131" t="s">
         <v>38</v>
@@ -7113,35 +7294,36 @@
       <c r="V131" t="s">
         <v>64</v>
       </c>
-      <c r="W131" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="132" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+      <c r="W131" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>48</v>
       </c>
       <c r="B132" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C132" t="s">
+        <v>242</v>
+      </c>
+      <c r="D132" t="s">
         <v>243</v>
       </c>
-      <c r="D132" t="s">
+      <c r="E132" t="s">
         <v>244</v>
       </c>
-      <c r="E132" t="s">
+      <c r="F132" t="s">
+        <v>43</v>
+      </c>
+      <c r="I132" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="F132" t="s">
-        <v>43</v>
-      </c>
-      <c r="I132" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="J132" t="s">
         <v>44</v>
       </c>
+      <c r="M132"/>
       <c r="T132" t="s">
         <v>79</v>
       </c>
@@ -7155,31 +7337,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="133" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>49</v>
       </c>
       <c r="B133" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C133" t="s">
+        <v>246</v>
+      </c>
+      <c r="D133" t="s">
         <v>247</v>
       </c>
-      <c r="D133" t="s">
+      <c r="E133" t="s">
         <v>248</v>
       </c>
-      <c r="E133" t="s">
-        <v>249</v>
-      </c>
       <c r="F133" t="s">
         <v>43</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J133" t="s">
         <v>44</v>
       </c>
+      <c r="M133"/>
       <c r="T133" t="s">
         <v>79</v>
       </c>
@@ -7193,31 +7376,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="134" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>50</v>
       </c>
       <c r="B134" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C134" t="s">
+        <v>249</v>
+      </c>
+      <c r="D134" t="s">
         <v>250</v>
       </c>
-      <c r="D134" t="s">
+      <c r="E134" t="s">
         <v>251</v>
       </c>
-      <c r="E134" t="s">
-        <v>252</v>
-      </c>
       <c r="F134" t="s">
         <v>43</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J134" t="s">
         <v>44</v>
       </c>
+      <c r="M134"/>
       <c r="T134" t="s">
         <v>79</v>
       </c>
@@ -7231,31 +7415,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="135" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>51</v>
       </c>
       <c r="B135" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C135" t="s">
+        <v>252</v>
+      </c>
+      <c r="D135" t="s">
         <v>253</v>
       </c>
-      <c r="D135" t="s">
+      <c r="E135" t="s">
         <v>254</v>
       </c>
-      <c r="E135" t="s">
+      <c r="F135" t="s">
+        <v>43</v>
+      </c>
+      <c r="I135" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="F135" t="s">
-        <v>43</v>
-      </c>
-      <c r="I135" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="J135" t="s">
         <v>44</v>
       </c>
+      <c r="M135"/>
       <c r="T135" t="s">
         <v>79</v>
       </c>
@@ -7269,31 +7454,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="136" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>52</v>
       </c>
       <c r="B136" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C136" t="s">
+        <v>256</v>
+      </c>
+      <c r="D136" t="s">
         <v>257</v>
       </c>
-      <c r="D136" t="s">
-        <v>258</v>
-      </c>
       <c r="E136" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F136" t="s">
         <v>43</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J136" t="s">
         <v>44</v>
       </c>
+      <c r="M136"/>
       <c r="T136" t="s">
         <v>79</v>
       </c>
@@ -7307,31 +7493,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="137" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>53</v>
       </c>
       <c r="B137" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C137" t="s">
+        <v>258</v>
+      </c>
+      <c r="D137" t="s">
         <v>259</v>
       </c>
-      <c r="D137" t="s">
-        <v>260</v>
-      </c>
       <c r="E137" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F137" t="s">
         <v>43</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J137" t="s">
         <v>44</v>
       </c>
+      <c r="M137"/>
       <c r="T137" t="s">
         <v>79</v>
       </c>
@@ -7345,31 +7532,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="138" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>54</v>
       </c>
       <c r="B138" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C138" t="s">
+        <v>260</v>
+      </c>
+      <c r="D138" t="s">
         <v>261</v>
       </c>
-      <c r="D138" t="s">
-        <v>262</v>
-      </c>
       <c r="E138" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F138" t="s">
         <v>43</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J138" t="s">
         <v>44</v>
       </c>
+      <c r="M138"/>
       <c r="T138" t="s">
         <v>79</v>
       </c>
@@ -7383,31 +7571,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="139" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>55</v>
       </c>
       <c r="B139" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C139" t="s">
+        <v>262</v>
+      </c>
+      <c r="D139" t="s">
         <v>263</v>
       </c>
-      <c r="D139" t="s">
-        <v>264</v>
-      </c>
       <c r="E139" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F139" t="s">
         <v>43</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J139" t="s">
         <v>44</v>
       </c>
+      <c r="M139"/>
       <c r="T139" t="s">
         <v>79</v>
       </c>
@@ -7421,31 +7610,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="140" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>56</v>
       </c>
       <c r="B140" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C140" t="s">
+        <v>264</v>
+      </c>
+      <c r="D140" t="s">
         <v>265</v>
       </c>
-      <c r="D140" t="s">
-        <v>266</v>
-      </c>
       <c r="E140" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F140" t="s">
         <v>43</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J140" t="s">
         <v>44</v>
       </c>
+      <c r="M140"/>
       <c r="T140" t="s">
         <v>79</v>
       </c>
@@ -7459,36 +7649,39 @@
         <v>79</v>
       </c>
     </row>
-    <row r="141" spans="1:23" ht="377" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>57</v>
       </c>
       <c r="B141" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C141" t="s">
+        <v>266</v>
+      </c>
+      <c r="D141" t="s">
         <v>267</v>
       </c>
-      <c r="D141" t="s">
+      <c r="E141" t="s">
         <v>268</v>
       </c>
-      <c r="E141" t="s">
+      <c r="F141" t="s">
+        <v>43</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="J141" t="s">
         <v>269</v>
       </c>
-      <c r="F141" t="s">
-        <v>43</v>
-      </c>
-      <c r="I141" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="J141" t="s">
+      <c r="K141" t="s">
         <v>270</v>
       </c>
-      <c r="K141" t="s">
+      <c r="L141" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="L141" s="1" t="s">
-        <v>272</v>
+      <c r="Q141" s="3" t="s">
+        <v>400</v>
       </c>
       <c r="T141" t="s">
         <v>38</v>
@@ -7497,48 +7690,48 @@
         <v>39</v>
       </c>
       <c r="V141" t="s">
-        <v>122</v>
-      </c>
-      <c r="W141" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="142" spans="1:23" ht="409.5" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+      <c r="W141" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>58</v>
       </c>
       <c r="B142" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C142" t="s">
+        <v>272</v>
+      </c>
+      <c r="D142" t="s">
         <v>273</v>
       </c>
-      <c r="D142" t="s">
+      <c r="E142" t="s">
+        <v>273</v>
+      </c>
+      <c r="F142" t="s">
+        <v>43</v>
+      </c>
+      <c r="J142" t="s">
         <v>274</v>
       </c>
-      <c r="E142" t="s">
-        <v>274</v>
-      </c>
-      <c r="F142" t="s">
-        <v>43</v>
-      </c>
-      <c r="J142" t="s">
+      <c r="K142" t="s">
         <v>275</v>
       </c>
-      <c r="K142" t="s">
+      <c r="M142" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="M142" s="1" t="s">
+      <c r="O142" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="O142" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="P142" t="s">
         <v>74</v>
       </c>
       <c r="Q142" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T142" t="s">
         <v>38</v>
@@ -7547,27 +7740,27 @@
         <v>39</v>
       </c>
       <c r="V142" t="s">
-        <v>122</v>
-      </c>
-      <c r="W142" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+      <c r="W142" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>59</v>
       </c>
       <c r="B143" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C143" t="s">
+        <v>279</v>
+      </c>
+      <c r="D143" t="s">
         <v>280</v>
       </c>
-      <c r="D143" t="s">
-        <v>281</v>
-      </c>
       <c r="E143" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F143" t="s">
         <v>43</v>
@@ -7575,6 +7768,7 @@
       <c r="J143" t="s">
         <v>44</v>
       </c>
+      <c r="M143"/>
       <c r="T143" t="s">
         <v>79</v>
       </c>
@@ -7588,21 +7782,21 @@
         <v>79</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>60</v>
       </c>
       <c r="B144" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C144" t="s">
+        <v>281</v>
+      </c>
+      <c r="D144" t="s">
         <v>282</v>
       </c>
-      <c r="D144" t="s">
-        <v>283</v>
-      </c>
       <c r="E144" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F144" t="s">
         <v>43</v>
@@ -7610,6 +7804,7 @@
       <c r="J144" t="s">
         <v>44</v>
       </c>
+      <c r="M144"/>
       <c r="T144" t="s">
         <v>79</v>
       </c>
@@ -7623,21 +7818,21 @@
         <v>79</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>61</v>
       </c>
       <c r="B145" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C145" t="s">
+        <v>283</v>
+      </c>
+      <c r="D145" t="s">
         <v>284</v>
       </c>
-      <c r="D145" t="s">
-        <v>285</v>
-      </c>
       <c r="E145" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F145" t="s">
         <v>43</v>
@@ -7645,6 +7840,7 @@
       <c r="J145" t="s">
         <v>44</v>
       </c>
+      <c r="M145"/>
       <c r="T145" t="s">
         <v>79</v>
       </c>
@@ -7658,21 +7854,21 @@
         <v>79</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>62</v>
       </c>
       <c r="B146" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C146" t="s">
+        <v>285</v>
+      </c>
+      <c r="D146" t="s">
         <v>286</v>
       </c>
-      <c r="D146" t="s">
-        <v>287</v>
-      </c>
       <c r="E146" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F146" t="s">
         <v>43</v>
@@ -7680,6 +7876,7 @@
       <c r="J146" t="s">
         <v>44</v>
       </c>
+      <c r="M146"/>
       <c r="T146" t="s">
         <v>79</v>
       </c>
@@ -7693,36 +7890,36 @@
         <v>79</v>
       </c>
     </row>
-    <row r="147" spans="1:23" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>63</v>
       </c>
       <c r="B147" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C147" t="s">
+        <v>287</v>
+      </c>
+      <c r="D147" t="s">
         <v>288</v>
       </c>
-      <c r="D147" t="s">
+      <c r="E147" t="s">
+        <v>288</v>
+      </c>
+      <c r="F147" t="s">
+        <v>43</v>
+      </c>
+      <c r="J147" t="s">
         <v>289</v>
       </c>
-      <c r="E147" t="s">
-        <v>289</v>
-      </c>
-      <c r="F147" t="s">
-        <v>43</v>
-      </c>
-      <c r="J147" t="s">
+      <c r="K147" t="s">
         <v>290</v>
       </c>
-      <c r="K147" t="s">
+      <c r="M147" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="M147" s="1" t="s">
+      <c r="O147" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="O147" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="P147" t="s">
         <v>74</v>
@@ -7739,25 +7936,25 @@
       <c r="V147" t="s">
         <v>55</v>
       </c>
-      <c r="W147" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="W147" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>64</v>
       </c>
       <c r="B148" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C148" t="s">
+        <v>293</v>
+      </c>
+      <c r="D148" t="s">
         <v>294</v>
       </c>
-      <c r="D148" t="s">
-        <v>295</v>
-      </c>
       <c r="E148" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F148" t="s">
         <v>43</v>
@@ -7765,6 +7962,7 @@
       <c r="J148" t="s">
         <v>44</v>
       </c>
+      <c r="M148"/>
       <c r="T148" t="s">
         <v>79</v>
       </c>
@@ -7778,36 +7976,39 @@
         <v>79</v>
       </c>
     </row>
-    <row r="149" spans="1:23" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>65</v>
       </c>
       <c r="B149" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C149" t="s">
+        <v>295</v>
+      </c>
+      <c r="D149" t="s">
         <v>296</v>
       </c>
-      <c r="D149" t="s">
+      <c r="E149" t="s">
+        <v>296</v>
+      </c>
+      <c r="F149" t="s">
+        <v>43</v>
+      </c>
+      <c r="I149" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E149" t="s">
-        <v>297</v>
-      </c>
-      <c r="F149" t="s">
-        <v>43</v>
-      </c>
-      <c r="I149" s="1" t="s">
+      <c r="J149" t="s">
         <v>298</v>
       </c>
-      <c r="J149" t="s">
+      <c r="K149" t="s">
         <v>299</v>
       </c>
-      <c r="K149" t="s">
+      <c r="L149" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="L149" s="1" t="s">
-        <v>301</v>
+      <c r="Q149" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="T149" t="s">
         <v>38</v>
@@ -7816,37 +8017,38 @@
         <v>39</v>
       </c>
       <c r="V149" t="s">
-        <v>122</v>
-      </c>
-      <c r="W149" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+      <c r="W149" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>66</v>
       </c>
       <c r="B150" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C150" t="s">
+        <v>301</v>
+      </c>
+      <c r="D150" t="s">
         <v>302</v>
       </c>
-      <c r="D150" t="s">
-        <v>303</v>
-      </c>
       <c r="E150" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F150" t="s">
         <v>91</v>
       </c>
       <c r="G150" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J150" t="s">
         <v>44</v>
       </c>
+      <c r="M150"/>
       <c r="T150" t="s">
         <v>79</v>
       </c>
@@ -7860,31 +8062,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="151" spans="1:23" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:23" ht="150" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>67</v>
       </c>
       <c r="B151" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C151" t="s">
+        <v>304</v>
+      </c>
+      <c r="D151" t="s">
         <v>305</v>
       </c>
-      <c r="D151" t="s">
+      <c r="E151" t="s">
+        <v>305</v>
+      </c>
+      <c r="F151" t="s">
+        <v>43</v>
+      </c>
+      <c r="I151" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="E151" t="s">
-        <v>306</v>
-      </c>
-      <c r="F151" t="s">
-        <v>43</v>
-      </c>
-      <c r="I151" s="1" t="s">
-        <v>307</v>
-      </c>
       <c r="J151" t="s">
         <v>44</v>
       </c>
+      <c r="M151"/>
       <c r="T151" t="s">
         <v>79</v>
       </c>
@@ -7898,31 +8101,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="152" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>68</v>
       </c>
       <c r="B152" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C152" t="s">
+        <v>307</v>
+      </c>
+      <c r="D152" t="s">
         <v>308</v>
       </c>
-      <c r="D152" t="s">
+      <c r="E152" t="s">
+        <v>308</v>
+      </c>
+      <c r="F152" t="s">
+        <v>43</v>
+      </c>
+      <c r="I152" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="E152" t="s">
-        <v>309</v>
-      </c>
-      <c r="F152" t="s">
-        <v>43</v>
-      </c>
-      <c r="I152" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="J152" t="s">
         <v>44</v>
       </c>
+      <c r="M152"/>
       <c r="T152" t="s">
         <v>79</v>
       </c>
@@ -7936,31 +8140,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="153" spans="1:23" ht="87" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:23" ht="105" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>69</v>
       </c>
       <c r="B153" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C153" t="s">
+        <v>310</v>
+      </c>
+      <c r="D153" t="s">
         <v>311</v>
       </c>
-      <c r="D153" t="s">
+      <c r="E153" t="s">
+        <v>311</v>
+      </c>
+      <c r="F153" t="s">
+        <v>43</v>
+      </c>
+      <c r="I153" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="E153" t="s">
-        <v>312</v>
-      </c>
-      <c r="F153" t="s">
-        <v>43</v>
-      </c>
-      <c r="I153" s="1" t="s">
-        <v>313</v>
-      </c>
       <c r="J153" t="s">
         <v>44</v>
       </c>
+      <c r="M153"/>
       <c r="T153" t="s">
         <v>79</v>
       </c>
@@ -7974,31 +8179,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="154" spans="1:23" ht="87" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:23" ht="105" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>70</v>
       </c>
       <c r="B154" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C154" t="s">
+        <v>313</v>
+      </c>
+      <c r="D154" t="s">
         <v>314</v>
       </c>
-      <c r="D154" t="s">
-        <v>315</v>
-      </c>
       <c r="E154" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F154" t="s">
         <v>43</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J154" t="s">
         <v>44</v>
       </c>
+      <c r="M154"/>
       <c r="T154" t="s">
         <v>79</v>
       </c>
@@ -8012,31 +8218,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="155" spans="1:23" ht="87" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:23" ht="105" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>71</v>
       </c>
       <c r="B155" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C155" t="s">
+        <v>315</v>
+      </c>
+      <c r="D155" t="s">
         <v>316</v>
       </c>
-      <c r="D155" t="s">
-        <v>317</v>
-      </c>
       <c r="E155" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F155" t="s">
         <v>43</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J155" t="s">
         <v>44</v>
       </c>
+      <c r="M155"/>
       <c r="T155" t="s">
         <v>79</v>
       </c>
@@ -8050,31 +8257,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="156" spans="1:23" ht="319" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:23" ht="330" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>72</v>
       </c>
       <c r="B156" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C156" t="s">
+        <v>317</v>
+      </c>
+      <c r="D156" t="s">
         <v>318</v>
       </c>
-      <c r="D156" t="s">
+      <c r="E156" t="s">
         <v>319</v>
       </c>
-      <c r="E156" t="s">
+      <c r="F156" t="s">
+        <v>43</v>
+      </c>
+      <c r="I156" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="F156" t="s">
-        <v>43</v>
-      </c>
-      <c r="I156" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="J156" t="s">
         <v>44</v>
       </c>
+      <c r="M156"/>
       <c r="T156" t="s">
         <v>79</v>
       </c>
@@ -8088,31 +8296,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="157" spans="1:23" ht="87" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:23" ht="105" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>73</v>
       </c>
       <c r="B157" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C157" t="s">
+        <v>321</v>
+      </c>
+      <c r="D157" t="s">
         <v>322</v>
       </c>
-      <c r="D157" t="s">
+      <c r="E157" t="s">
         <v>323</v>
       </c>
-      <c r="E157" t="s">
-        <v>324</v>
-      </c>
       <c r="F157" t="s">
         <v>43</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J157" t="s">
         <v>44</v>
       </c>
+      <c r="M157"/>
       <c r="T157" t="s">
         <v>79</v>
       </c>
@@ -8126,31 +8335,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="158" spans="1:23" ht="87" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:23" ht="105" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>74</v>
       </c>
       <c r="B158" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C158" t="s">
+        <v>324</v>
+      </c>
+      <c r="D158" t="s">
         <v>325</v>
       </c>
-      <c r="D158" t="s">
+      <c r="E158" t="s">
         <v>326</v>
       </c>
-      <c r="E158" t="s">
-        <v>327</v>
-      </c>
       <c r="F158" t="s">
         <v>43</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J158" t="s">
         <v>44</v>
       </c>
+      <c r="M158"/>
       <c r="T158" t="s">
         <v>79</v>
       </c>
@@ -8164,31 +8374,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>75</v>
       </c>
       <c r="B159" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C159" t="s">
+        <v>327</v>
+      </c>
+      <c r="D159" t="s">
         <v>328</v>
       </c>
-      <c r="D159" t="s">
+      <c r="E159" t="s">
         <v>329</v>
       </c>
-      <c r="E159" t="s">
-        <v>330</v>
-      </c>
       <c r="F159" t="s">
         <v>43</v>
       </c>
       <c r="G159" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J159" t="s">
         <v>44</v>
       </c>
+      <c r="M159"/>
       <c r="T159" t="s">
         <v>79</v>
       </c>
@@ -8202,45 +8413,45 @@
         <v>79</v>
       </c>
     </row>
-    <row r="160" spans="1:23" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:23" ht="210" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>76</v>
       </c>
       <c r="B160" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C160" t="s">
+        <v>330</v>
+      </c>
+      <c r="D160" t="s">
         <v>331</v>
       </c>
-      <c r="D160" t="s">
+      <c r="E160" t="s">
         <v>332</v>
       </c>
-      <c r="E160" t="s">
+      <c r="F160" t="s">
+        <v>43</v>
+      </c>
+      <c r="I160" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="F160" t="s">
-        <v>43</v>
-      </c>
-      <c r="I160" s="1" t="s">
+      <c r="J160" t="s">
         <v>334</v>
       </c>
-      <c r="J160" t="s">
+      <c r="K160" t="s">
         <v>335</v>
       </c>
-      <c r="K160" t="s">
+      <c r="M160" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="M160" s="1" t="s">
+      <c r="O160" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="O160" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="P160" t="s">
         <v>36</v>
       </c>
       <c r="Q160" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="T160" t="s">
         <v>38</v>
@@ -8248,55 +8459,58 @@
       <c r="U160" t="s">
         <v>39</v>
       </c>
-      <c r="V160" t="s">
+      <c r="V160" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="W160" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="161" spans="1:23" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="W160" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="161" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>77</v>
       </c>
       <c r="B161" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C161" t="s">
+        <v>340</v>
+      </c>
+      <c r="D161" t="s">
         <v>341</v>
       </c>
-      <c r="D161" t="s">
+      <c r="E161" t="s">
         <v>342</v>
       </c>
-      <c r="E161" t="s">
+      <c r="F161" t="s">
+        <v>43</v>
+      </c>
+      <c r="I161" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="F161" t="s">
-        <v>43</v>
-      </c>
-      <c r="I161" s="1" t="s">
+      <c r="J161" t="s">
         <v>344</v>
       </c>
-      <c r="J161" t="s">
+      <c r="K161" t="s">
         <v>345</v>
       </c>
-      <c r="K161" t="s">
+      <c r="L161" s="1" t="s">
         <v>346</v>
       </c>
       <c r="M161" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="O161" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="O161" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="P161" t="s">
         <v>36</v>
       </c>
       <c r="Q161" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="S161" t="s">
         <v>349</v>
-      </c>
-      <c r="S161" t="s">
-        <v>350</v>
       </c>
       <c r="T161" t="s">
         <v>38</v>
@@ -8307,111 +8521,114 @@
       <c r="V161" t="s">
         <v>64</v>
       </c>
-      <c r="W161" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="162" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+      <c r="W161" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="162" spans="1:23" ht="180" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>78</v>
       </c>
       <c r="B162" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C162" t="s">
+        <v>351</v>
+      </c>
+      <c r="D162" t="s">
         <v>352</v>
       </c>
-      <c r="D162" t="s">
+      <c r="E162" t="s">
+        <v>352</v>
+      </c>
+      <c r="F162" t="s">
+        <v>43</v>
+      </c>
+      <c r="I162" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="E162" t="s">
-        <v>353</v>
-      </c>
-      <c r="F162" t="s">
-        <v>43</v>
-      </c>
-      <c r="I162" s="1" t="s">
+      <c r="J162" t="s">
+        <v>44</v>
+      </c>
+      <c r="M162"/>
+      <c r="T162" t="s">
+        <v>79</v>
+      </c>
+      <c r="U162" t="s">
+        <v>80</v>
+      </c>
+      <c r="V162" t="s">
+        <v>79</v>
+      </c>
+      <c r="W162" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="163" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>79</v>
+      </c>
+      <c r="B163" t="s">
+        <v>396</v>
+      </c>
+      <c r="C163" t="s">
         <v>354</v>
       </c>
-      <c r="J162" t="s">
-        <v>44</v>
-      </c>
-      <c r="T162" t="s">
-        <v>79</v>
-      </c>
-      <c r="U162" t="s">
-        <v>80</v>
-      </c>
-      <c r="V162" t="s">
-        <v>79</v>
-      </c>
-      <c r="W162" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="163" spans="1:23" ht="29" x14ac:dyDescent="0.35">
-      <c r="A163">
-        <v>79</v>
-      </c>
-      <c r="B163" t="s">
-        <v>397</v>
-      </c>
-      <c r="C163" t="s">
+      <c r="D163" t="s">
         <v>355</v>
       </c>
-      <c r="D163" t="s">
+      <c r="E163" t="s">
         <v>356</v>
       </c>
-      <c r="E163" t="s">
+      <c r="F163" t="s">
+        <v>43</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="J163" t="s">
+        <v>44</v>
+      </c>
+      <c r="M163"/>
+      <c r="T163" t="s">
+        <v>79</v>
+      </c>
+      <c r="U163" t="s">
+        <v>80</v>
+      </c>
+      <c r="V163" t="s">
+        <v>79</v>
+      </c>
+      <c r="W163" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="164" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>80</v>
+      </c>
+      <c r="B164" t="s">
+        <v>396</v>
+      </c>
+      <c r="C164" t="s">
         <v>357</v>
       </c>
-      <c r="F163" t="s">
-        <v>43</v>
-      </c>
-      <c r="I163" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="J163" t="s">
-        <v>44</v>
-      </c>
-      <c r="T163" t="s">
-        <v>79</v>
-      </c>
-      <c r="U163" t="s">
-        <v>80</v>
-      </c>
-      <c r="V163" t="s">
-        <v>79</v>
-      </c>
-      <c r="W163" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="164" spans="1:23" ht="29" x14ac:dyDescent="0.35">
-      <c r="A164">
-        <v>80</v>
-      </c>
-      <c r="B164" t="s">
-        <v>397</v>
-      </c>
-      <c r="C164" t="s">
+      <c r="D164" t="s">
         <v>358</v>
       </c>
-      <c r="D164" t="s">
+      <c r="E164" t="s">
         <v>359</v>
       </c>
-      <c r="E164" t="s">
-        <v>360</v>
-      </c>
       <c r="F164" t="s">
         <v>43</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J164" t="s">
         <v>44</v>
       </c>
+      <c r="M164"/>
       <c r="T164" t="s">
         <v>79</v>
       </c>
@@ -8425,45 +8642,45 @@
         <v>79</v>
       </c>
     </row>
-    <row r="165" spans="1:23" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>81</v>
       </c>
       <c r="B165" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C165" t="s">
+        <v>360</v>
+      </c>
+      <c r="D165" t="s">
         <v>361</v>
       </c>
-      <c r="D165" t="s">
+      <c r="E165" t="s">
         <v>362</v>
       </c>
-      <c r="E165" t="s">
+      <c r="F165" t="s">
+        <v>43</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="J165" t="s">
         <v>363</v>
       </c>
-      <c r="F165" t="s">
-        <v>43</v>
-      </c>
-      <c r="I165" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="J165" t="s">
+      <c r="K165" t="s">
         <v>364</v>
       </c>
-      <c r="K165" t="s">
+      <c r="M165" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="M165" s="1" t="s">
+      <c r="O165" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="O165" s="1" t="s">
-        <v>367</v>
       </c>
       <c r="P165" t="s">
         <v>36</v>
       </c>
       <c r="Q165" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="T165" t="s">
         <v>38</v>
@@ -8474,25 +8691,25 @@
       <c r="V165" t="s">
         <v>64</v>
       </c>
-      <c r="W165" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="W165" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>82</v>
       </c>
       <c r="B166" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C166" t="s">
+        <v>369</v>
+      </c>
+      <c r="D166" t="s">
         <v>370</v>
       </c>
-      <c r="D166" t="s">
+      <c r="E166" t="s">
         <v>371</v>
-      </c>
-      <c r="E166" t="s">
-        <v>372</v>
       </c>
       <c r="F166" t="s">
         <v>91</v>
@@ -8500,6 +8717,7 @@
       <c r="J166" t="s">
         <v>44</v>
       </c>
+      <c r="M166"/>
       <c r="T166" t="s">
         <v>79</v>
       </c>
@@ -8513,31 +8731,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>83</v>
       </c>
       <c r="B167" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C167" t="s">
+        <v>372</v>
+      </c>
+      <c r="D167" t="s">
         <v>373</v>
       </c>
-      <c r="D167" t="s">
+      <c r="E167" t="s">
         <v>374</v>
       </c>
-      <c r="E167" t="s">
+      <c r="F167" t="s">
+        <v>43</v>
+      </c>
+      <c r="G167" t="s">
         <v>375</v>
       </c>
-      <c r="F167" t="s">
-        <v>43</v>
-      </c>
-      <c r="G167" t="s">
-        <v>376</v>
-      </c>
       <c r="J167" t="s">
         <v>44</v>
       </c>
+      <c r="M167"/>
       <c r="T167" t="s">
         <v>79</v>
       </c>
@@ -8552,6 +8771,9 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AD167" xr:uid="{A617E81B-AA39-4B57-8286-9F6F09A3BC0B}"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/longitudinal/data_processing_elements_longitudinal-AGN.xlsx
+++ b/longitudinal/data_processing_elements_longitudinal-AGN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1FB221-7308-4059-852C-DEA377D9AC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAA8AA2-BDC4-44F2-991C-152F4655CBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="465" windowWidth="29040" windowHeight="15720" xr2:uid="{DE4C7F53-17AD-41A0-BCA9-A2A8E85C7880}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DE4C7F53-17AD-41A0-BCA9-A2A8E85C7880}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1453,7 +1453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1465,7 +1465,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1816,8 +1815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A617E81B-AA39-4B57-8286-9F6F09A3BC0B}">
   <dimension ref="A1:AD167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+    <sheetView tabSelected="1" topLeftCell="J79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W82" sqref="W82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2010,7 +2009,7 @@
         <v>45</v>
       </c>
       <c r="W3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="75" x14ac:dyDescent="0.25">
@@ -4969,7 +4968,7 @@
       <c r="U77" t="s">
         <v>39</v>
       </c>
-      <c r="V77" s="5" t="s">
+      <c r="V77" t="s">
         <v>64</v>
       </c>
       <c r="W77" s="1" t="s">
@@ -5349,7 +5348,7 @@
         <v>45</v>
       </c>
       <c r="W86" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:24" ht="75" x14ac:dyDescent="0.25">
@@ -5983,7 +5982,7 @@
       <c r="U100" t="s">
         <v>106</v>
       </c>
-      <c r="V100" s="5" t="s">
+      <c r="V100" t="s">
         <v>55</v>
       </c>
       <c r="W100" s="1" t="s">
@@ -8459,7 +8458,7 @@
       <c r="U160" t="s">
         <v>39</v>
       </c>
-      <c r="V160" s="5" t="s">
+      <c r="V160" t="s">
         <v>64</v>
       </c>
       <c r="W160" s="1" t="s">

--- a/longitudinal/data_processing_elements_longitudinal-AGN.xlsx
+++ b/longitudinal/data_processing_elements_longitudinal-AGN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAA8AA2-BDC4-44F2-991C-152F4655CBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5EA6F0-9295-4DD0-AACE-8400AAB5998A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DE4C7F53-17AD-41A0-BCA9-A2A8E85C7880}"/>
   </bookViews>
@@ -1396,7 +1396,7 @@
 . = missing</t>
   </si>
   <si>
-    <t>recode(1=0; 2=1; 3=1; 4=2; 5=2; ELSE = NA)</t>
+    <t>recode(1=0; 2=1; 3=NA; 4=2; 5=2; ELSE = NA)</t>
   </si>
 </sst>
 </file>
@@ -1815,8 +1815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A617E81B-AA39-4B57-8286-9F6F09A3BC0B}">
   <dimension ref="A1:AD167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W82" sqref="W82"/>
+    <sheetView tabSelected="1" topLeftCell="L90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y92" sqref="Y92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
